--- a/BackTest/2020-01-16 BackTest SNT.xlsx
+++ b/BackTest/2020-01-16 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>11.04</v>
       </c>
       <c r="C2" t="n">
-        <v>10.93</v>
+        <v>11.04</v>
       </c>
       <c r="D2" t="n">
         <v>11.04</v>
       </c>
       <c r="E2" t="n">
-        <v>10.93</v>
+        <v>11.04</v>
       </c>
       <c r="F2" t="n">
-        <v>14047.5952</v>
+        <v>24429.9997</v>
       </c>
       <c r="G2" t="n">
-        <v>10.98049999999998</v>
+        <v>10.97933333333332</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.06</v>
+        <v>11.04</v>
       </c>
       <c r="C3" t="n">
-        <v>11.06</v>
+        <v>10.93</v>
       </c>
       <c r="D3" t="n">
-        <v>11.06</v>
+        <v>11.04</v>
       </c>
       <c r="E3" t="n">
-        <v>11.06</v>
+        <v>10.93</v>
       </c>
       <c r="F3" t="n">
-        <v>199133.2067</v>
+        <v>14047.5952</v>
       </c>
       <c r="G3" t="n">
-        <v>10.98433333333332</v>
+        <v>10.98049999999998</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.94</v>
+        <v>11.06</v>
       </c>
       <c r="C4" t="n">
-        <v>10.94</v>
+        <v>11.06</v>
       </c>
       <c r="D4" t="n">
-        <v>10.94</v>
+        <v>11.06</v>
       </c>
       <c r="E4" t="n">
-        <v>10.94</v>
+        <v>11.06</v>
       </c>
       <c r="F4" t="n">
-        <v>13562.7354</v>
+        <v>199133.2067</v>
       </c>
       <c r="G4" t="n">
-        <v>10.98616666666665</v>
+        <v>10.98433333333332</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10.95</v>
+        <v>10.94</v>
       </c>
       <c r="C5" t="n">
-        <v>10.95</v>
+        <v>10.94</v>
       </c>
       <c r="D5" t="n">
-        <v>10.95</v>
+        <v>10.94</v>
       </c>
       <c r="E5" t="n">
-        <v>10.95</v>
+        <v>10.94</v>
       </c>
       <c r="F5" t="n">
-        <v>23852.3355</v>
+        <v>13562.7354</v>
       </c>
       <c r="G5" t="n">
-        <v>10.98649999999998</v>
+        <v>10.98616666666665</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.06</v>
+        <v>10.95</v>
       </c>
       <c r="C6" t="n">
-        <v>11.06</v>
+        <v>10.95</v>
       </c>
       <c r="D6" t="n">
-        <v>11.06</v>
+        <v>10.95</v>
       </c>
       <c r="E6" t="n">
-        <v>11.06</v>
+        <v>10.95</v>
       </c>
       <c r="F6" t="n">
-        <v>7509.363</v>
+        <v>23852.3355</v>
       </c>
       <c r="G6" t="n">
-        <v>10.98866666666665</v>
+        <v>10.98649999999998</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.07</v>
+        <v>11.06</v>
       </c>
       <c r="C7" t="n">
-        <v>11.14</v>
+        <v>11.06</v>
       </c>
       <c r="D7" t="n">
-        <v>11.14</v>
+        <v>11.06</v>
       </c>
       <c r="E7" t="n">
-        <v>11.07</v>
+        <v>11.06</v>
       </c>
       <c r="F7" t="n">
-        <v>99662.7899</v>
+        <v>7509.363</v>
       </c>
       <c r="G7" t="n">
-        <v>10.99216666666665</v>
+        <v>10.98866666666665</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="C8" t="n">
         <v>11.14</v>
       </c>
-      <c r="C8" t="n">
-        <v>11.3</v>
-      </c>
       <c r="D8" t="n">
-        <v>11.3</v>
+        <v>11.14</v>
       </c>
       <c r="E8" t="n">
-        <v>11.14</v>
+        <v>11.07</v>
       </c>
       <c r="F8" t="n">
-        <v>27918.5208</v>
+        <v>99662.7899</v>
       </c>
       <c r="G8" t="n">
-        <v>10.99799999999998</v>
+        <v>10.99216666666665</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.33</v>
+        <v>11.14</v>
       </c>
       <c r="C9" t="n">
-        <v>11.33</v>
+        <v>11.3</v>
       </c>
       <c r="D9" t="n">
-        <v>11.33</v>
+        <v>11.3</v>
       </c>
       <c r="E9" t="n">
-        <v>11.33</v>
+        <v>11.14</v>
       </c>
       <c r="F9" t="n">
-        <v>10338.0621</v>
+        <v>27918.5208</v>
       </c>
       <c r="G9" t="n">
-        <v>11.00399999999998</v>
+        <v>10.99799999999998</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.34</v>
+        <v>11.33</v>
       </c>
       <c r="C10" t="n">
-        <v>11.38</v>
+        <v>11.33</v>
       </c>
       <c r="D10" t="n">
-        <v>11.38</v>
+        <v>11.33</v>
       </c>
       <c r="E10" t="n">
-        <v>11.34</v>
+        <v>11.33</v>
       </c>
       <c r="F10" t="n">
-        <v>5716</v>
+        <v>10338.0621</v>
       </c>
       <c r="G10" t="n">
-        <v>11.01083333333332</v>
+        <v>11.00399999999998</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="C11" t="n">
         <v>11.38</v>
       </c>
-      <c r="C11" t="n">
-        <v>11.34</v>
-      </c>
       <c r="D11" t="n">
-        <v>11.4</v>
+        <v>11.38</v>
       </c>
       <c r="E11" t="n">
         <v>11.34</v>
       </c>
       <c r="F11" t="n">
-        <v>30961.7997</v>
+        <v>5716</v>
       </c>
       <c r="G11" t="n">
-        <v>11.01699999999998</v>
+        <v>11.01083333333332</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="D12" t="n">
         <v>11.4</v>
       </c>
-      <c r="C12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>11.5</v>
-      </c>
       <c r="E12" t="n">
-        <v>11.4</v>
+        <v>11.34</v>
       </c>
       <c r="F12" t="n">
-        <v>339014.831172242</v>
+        <v>30961.7997</v>
       </c>
       <c r="G12" t="n">
-        <v>11.02583333333332</v>
+        <v>11.01699999999998</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -818,28 +818,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.42</v>
+        <v>11.4</v>
       </c>
       <c r="C13" t="n">
-        <v>11.41</v>
+        <v>11.5</v>
       </c>
       <c r="D13" t="n">
-        <v>11.42</v>
+        <v>11.5</v>
       </c>
       <c r="E13" t="n">
-        <v>11.41</v>
+        <v>11.4</v>
       </c>
       <c r="F13" t="n">
-        <v>18704.5757</v>
+        <v>339014.831172242</v>
       </c>
       <c r="G13" t="n">
-        <v>11.03266666666665</v>
+        <v>11.02583333333332</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.5</v>
+        <v>11.42</v>
       </c>
       <c r="C14" t="n">
-        <v>11.5</v>
+        <v>11.41</v>
       </c>
       <c r="D14" t="n">
-        <v>11.5</v>
+        <v>11.42</v>
       </c>
       <c r="E14" t="n">
-        <v>11.5</v>
+        <v>11.41</v>
       </c>
       <c r="F14" t="n">
-        <v>50000</v>
+        <v>18704.5757</v>
       </c>
       <c r="G14" t="n">
-        <v>11.04099999999998</v>
+        <v>11.03266666666665</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,28 +888,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.42</v>
+        <v>11.5</v>
       </c>
       <c r="C15" t="n">
-        <v>11.22</v>
+        <v>11.5</v>
       </c>
       <c r="D15" t="n">
-        <v>11.42</v>
+        <v>11.5</v>
       </c>
       <c r="E15" t="n">
-        <v>11.22</v>
+        <v>11.5</v>
       </c>
       <c r="F15" t="n">
-        <v>322132.5665</v>
+        <v>50000</v>
       </c>
       <c r="G15" t="n">
-        <v>11.04466666666665</v>
+        <v>11.04099999999998</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -923,28 +923,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11.4</v>
+        <v>11.42</v>
       </c>
       <c r="C16" t="n">
-        <v>11.4</v>
+        <v>11.22</v>
       </c>
       <c r="D16" t="n">
-        <v>11.4</v>
+        <v>11.42</v>
       </c>
       <c r="E16" t="n">
-        <v>11.4</v>
+        <v>11.22</v>
       </c>
       <c r="F16" t="n">
-        <v>1260.426</v>
+        <v>322132.5665</v>
       </c>
       <c r="G16" t="n">
-        <v>11.05133333333331</v>
+        <v>11.04466666666665</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.46</v>
+        <v>11.4</v>
       </c>
       <c r="C17" t="n">
-        <v>11.46</v>
+        <v>11.4</v>
       </c>
       <c r="D17" t="n">
-        <v>11.46</v>
+        <v>11.4</v>
       </c>
       <c r="E17" t="n">
-        <v>11.46</v>
+        <v>11.4</v>
       </c>
       <c r="F17" t="n">
-        <v>50</v>
+        <v>1260.426</v>
       </c>
       <c r="G17" t="n">
-        <v>11.05899999999998</v>
+        <v>11.05133333333331</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>11.46</v>
       </c>
       <c r="C18" t="n">
-        <v>11.49</v>
+        <v>11.46</v>
       </c>
       <c r="D18" t="n">
-        <v>11.49</v>
+        <v>11.46</v>
       </c>
       <c r="E18" t="n">
-        <v>11.45</v>
+        <v>11.46</v>
       </c>
       <c r="F18" t="n">
-        <v>94202</v>
+        <v>50</v>
       </c>
       <c r="G18" t="n">
-        <v>11.06866666666665</v>
+        <v>11.05899999999998</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11.4</v>
+        <v>11.46</v>
       </c>
       <c r="C19" t="n">
-        <v>11.4</v>
+        <v>11.49</v>
       </c>
       <c r="D19" t="n">
-        <v>11.4</v>
+        <v>11.49</v>
       </c>
       <c r="E19" t="n">
-        <v>11.4</v>
+        <v>11.45</v>
       </c>
       <c r="F19" t="n">
-        <v>5604.3394</v>
+        <v>94202</v>
       </c>
       <c r="G19" t="n">
-        <v>11.07633333333331</v>
+        <v>11.06866666666665</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.48</v>
+        <v>11.4</v>
       </c>
       <c r="C20" t="n">
-        <v>11.48</v>
+        <v>11.4</v>
       </c>
       <c r="D20" t="n">
-        <v>11.48</v>
+        <v>11.4</v>
       </c>
       <c r="E20" t="n">
-        <v>11.48</v>
+        <v>11.4</v>
       </c>
       <c r="F20" t="n">
-        <v>60</v>
+        <v>5604.3394</v>
       </c>
       <c r="G20" t="n">
-        <v>11.08599999999998</v>
+        <v>11.07633333333331</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11.49</v>
+        <v>11.48</v>
       </c>
       <c r="C21" t="n">
-        <v>11.49</v>
+        <v>11.48</v>
       </c>
       <c r="D21" t="n">
-        <v>11.49</v>
+        <v>11.48</v>
       </c>
       <c r="E21" t="n">
-        <v>11.49</v>
+        <v>11.48</v>
       </c>
       <c r="F21" t="n">
-        <v>198204.9999</v>
+        <v>60</v>
       </c>
       <c r="G21" t="n">
-        <v>11.09599999999998</v>
+        <v>11.08599999999998</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>11.49</v>
       </c>
       <c r="F22" t="n">
-        <v>4558.2843</v>
+        <v>198204.9999</v>
       </c>
       <c r="G22" t="n">
-        <v>11.10616666666665</v>
+        <v>11.09599999999998</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11.5</v>
+        <v>11.49</v>
       </c>
       <c r="C23" t="n">
-        <v>11.5</v>
+        <v>11.49</v>
       </c>
       <c r="D23" t="n">
-        <v>11.5</v>
+        <v>11.49</v>
       </c>
       <c r="E23" t="n">
-        <v>11.5</v>
+        <v>11.49</v>
       </c>
       <c r="F23" t="n">
-        <v>510.6468</v>
+        <v>4558.2843</v>
       </c>
       <c r="G23" t="n">
-        <v>11.11649999999998</v>
+        <v>11.10616666666665</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.52</v>
+        <v>11.5</v>
       </c>
       <c r="C24" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="D24" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="E24" t="n">
-        <v>11.52</v>
+        <v>11.5</v>
       </c>
       <c r="F24" t="n">
-        <v>107366.7438</v>
+        <v>510.6468</v>
       </c>
       <c r="G24" t="n">
-        <v>11.12849999999998</v>
+        <v>11.11649999999998</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="C25" t="n">
         <v>11.6</v>
       </c>
-      <c r="C25" t="n">
-        <v>11.62</v>
-      </c>
       <c r="D25" t="n">
-        <v>11.62</v>
+        <v>11.6</v>
       </c>
       <c r="E25" t="n">
-        <v>11.6</v>
+        <v>11.52</v>
       </c>
       <c r="F25" t="n">
-        <v>21322.9766</v>
+        <v>107366.7438</v>
       </c>
       <c r="G25" t="n">
-        <v>11.13899999999998</v>
+        <v>11.12849999999998</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.49</v>
+        <v>11.6</v>
       </c>
       <c r="C26" t="n">
-        <v>11.4</v>
+        <v>11.62</v>
       </c>
       <c r="D26" t="n">
-        <v>11.49</v>
+        <v>11.62</v>
       </c>
       <c r="E26" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="F26" t="n">
-        <v>27039.2534</v>
+        <v>21322.9766</v>
       </c>
       <c r="G26" t="n">
-        <v>11.14583333333332</v>
+        <v>11.13899999999998</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.3</v>
+        <v>11.49</v>
       </c>
       <c r="C27" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="D27" t="n">
-        <v>11.3</v>
+        <v>11.49</v>
       </c>
       <c r="E27" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="F27" t="n">
-        <v>1668</v>
+        <v>27039.2534</v>
       </c>
       <c r="G27" t="n">
-        <v>11.15099999999998</v>
+        <v>11.14583333333332</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>11.3</v>
       </c>
       <c r="F28" t="n">
-        <v>1938</v>
+        <v>1668</v>
       </c>
       <c r="G28" t="n">
-        <v>11.15733333333332</v>
+        <v>11.15099999999998</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.13</v>
+        <v>11.3</v>
       </c>
       <c r="C29" t="n">
-        <v>11.13</v>
+        <v>11.3</v>
       </c>
       <c r="D29" t="n">
-        <v>11.13</v>
+        <v>11.3</v>
       </c>
       <c r="E29" t="n">
-        <v>11.13</v>
+        <v>11.3</v>
       </c>
       <c r="F29" t="n">
-        <v>14515.4839</v>
+        <v>1938</v>
       </c>
       <c r="G29" t="n">
-        <v>11.15933333333331</v>
+        <v>11.15733333333332</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.03</v>
+        <v>11.13</v>
       </c>
       <c r="C30" t="n">
         <v>11.13</v>
@@ -1422,13 +1422,13 @@
         <v>11.13</v>
       </c>
       <c r="E30" t="n">
-        <v>11.03</v>
+        <v>11.13</v>
       </c>
       <c r="F30" t="n">
-        <v>52480.8813</v>
+        <v>14515.4839</v>
       </c>
       <c r="G30" t="n">
-        <v>11.16149999999998</v>
+        <v>11.15933333333331</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11.13</v>
+        <v>11.03</v>
       </c>
       <c r="C31" t="n">
         <v>11.13</v>
@@ -1457,13 +1457,13 @@
         <v>11.13</v>
       </c>
       <c r="E31" t="n">
-        <v>11.13</v>
+        <v>11.03</v>
       </c>
       <c r="F31" t="n">
-        <v>30485.786</v>
+        <v>52480.8813</v>
       </c>
       <c r="G31" t="n">
-        <v>11.16349999999998</v>
+        <v>11.16149999999998</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.25</v>
+        <v>11.13</v>
       </c>
       <c r="C32" t="n">
-        <v>11.1</v>
+        <v>11.13</v>
       </c>
       <c r="D32" t="n">
-        <v>11.25</v>
+        <v>11.13</v>
       </c>
       <c r="E32" t="n">
-        <v>11.1</v>
+        <v>11.13</v>
       </c>
       <c r="F32" t="n">
-        <v>12363.0212</v>
+        <v>30485.786</v>
       </c>
       <c r="G32" t="n">
-        <v>11.16483333333332</v>
+        <v>11.16349999999998</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.2</v>
+        <v>11.25</v>
       </c>
       <c r="C33" t="n">
         <v>11.1</v>
       </c>
       <c r="D33" t="n">
-        <v>11.3</v>
+        <v>11.25</v>
       </c>
       <c r="E33" t="n">
         <v>11.1</v>
       </c>
       <c r="F33" t="n">
-        <v>43442.0765</v>
+        <v>12363.0212</v>
       </c>
       <c r="G33" t="n">
-        <v>11.16633333333332</v>
+        <v>11.16483333333332</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.15</v>
+        <v>11.2</v>
       </c>
       <c r="C34" t="n">
-        <v>11.14</v>
+        <v>11.1</v>
       </c>
       <c r="D34" t="n">
-        <v>11.15</v>
+        <v>11.3</v>
       </c>
       <c r="E34" t="n">
-        <v>11.14</v>
+        <v>11.1</v>
       </c>
       <c r="F34" t="n">
-        <v>17135.1428</v>
+        <v>43442.0765</v>
       </c>
       <c r="G34" t="n">
-        <v>11.16766666666665</v>
+        <v>11.16633333333332</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11.32</v>
+        <v>11.15</v>
       </c>
       <c r="C35" t="n">
-        <v>11.35</v>
+        <v>11.14</v>
       </c>
       <c r="D35" t="n">
-        <v>11.35</v>
+        <v>11.15</v>
       </c>
       <c r="E35" t="n">
-        <v>11.32</v>
+        <v>11.14</v>
       </c>
       <c r="F35" t="n">
-        <v>263827.9862</v>
+        <v>17135.1428</v>
       </c>
       <c r="G35" t="n">
-        <v>11.17249999999999</v>
+        <v>11.16766666666665</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11.22</v>
+        <v>11.32</v>
       </c>
       <c r="C36" t="n">
-        <v>11.22</v>
+        <v>11.35</v>
       </c>
       <c r="D36" t="n">
-        <v>11.22</v>
+        <v>11.35</v>
       </c>
       <c r="E36" t="n">
-        <v>11.22</v>
+        <v>11.32</v>
       </c>
       <c r="F36" t="n">
-        <v>100000</v>
+        <v>263827.9862</v>
       </c>
       <c r="G36" t="n">
-        <v>11.17499999999998</v>
+        <v>11.17249999999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.37</v>
+        <v>11.22</v>
       </c>
       <c r="C37" t="n">
-        <v>11.3</v>
+        <v>11.22</v>
       </c>
       <c r="D37" t="n">
-        <v>11.37</v>
+        <v>11.22</v>
       </c>
       <c r="E37" t="n">
-        <v>11.3</v>
+        <v>11.22</v>
       </c>
       <c r="F37" t="n">
-        <v>13592.9298</v>
+        <v>100000</v>
       </c>
       <c r="G37" t="n">
-        <v>11.17883333333332</v>
+        <v>11.17499999999998</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.3</v>
+        <v>11.37</v>
       </c>
       <c r="C38" t="n">
         <v>11.3</v>
       </c>
       <c r="D38" t="n">
-        <v>11.3</v>
+        <v>11.37</v>
       </c>
       <c r="E38" t="n">
         <v>11.3</v>
       </c>
       <c r="F38" t="n">
-        <v>31372.705</v>
+        <v>13592.9298</v>
       </c>
       <c r="G38" t="n">
-        <v>11.18266666666665</v>
+        <v>11.17883333333332</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="C39" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="D39" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="E39" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="F39" t="n">
-        <v>18066.0141</v>
+        <v>31372.705</v>
       </c>
       <c r="G39" t="n">
-        <v>11.18816666666665</v>
+        <v>11.18266666666665</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>11.4</v>
       </c>
       <c r="F40" t="n">
-        <v>40721.9477</v>
+        <v>18066.0141</v>
       </c>
       <c r="G40" t="n">
-        <v>11.19449999999998</v>
+        <v>11.18816666666665</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>11.4</v>
       </c>
       <c r="C41" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="D41" t="n">
-        <v>11.41</v>
+        <v>11.4</v>
       </c>
       <c r="E41" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="F41" t="n">
-        <v>32349.4465</v>
+        <v>40721.9477</v>
       </c>
       <c r="G41" t="n">
-        <v>11.19916666666665</v>
+        <v>11.19449999999998</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.31</v>
+        <v>11.4</v>
       </c>
       <c r="C42" t="n">
-        <v>11.31</v>
+        <v>11.3</v>
       </c>
       <c r="D42" t="n">
-        <v>11.31</v>
+        <v>11.41</v>
       </c>
       <c r="E42" t="n">
-        <v>11.31</v>
+        <v>11.3</v>
       </c>
       <c r="F42" t="n">
-        <v>18120.0576</v>
+        <v>32349.4465</v>
       </c>
       <c r="G42" t="n">
-        <v>11.20316666666664</v>
+        <v>11.19916666666665</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>11.31</v>
       </c>
       <c r="F43" t="n">
-        <v>701.551</v>
+        <v>18120.0576</v>
       </c>
       <c r="G43" t="n">
-        <v>11.20783333333331</v>
+        <v>11.20316666666664</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,19 +1915,23 @@
         <v>11.31</v>
       </c>
       <c r="F44" t="n">
-        <v>3185.0166</v>
+        <v>701.551</v>
       </c>
       <c r="G44" t="n">
-        <v>11.21266666666664</v>
+        <v>11.20783333333331</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="K44" t="n">
+        <v>11.31</v>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
@@ -1938,32 +1942,40 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.49</v>
+        <v>11.31</v>
       </c>
       <c r="C45" t="n">
-        <v>11.49</v>
+        <v>11.31</v>
       </c>
       <c r="D45" t="n">
-        <v>11.49</v>
+        <v>11.31</v>
       </c>
       <c r="E45" t="n">
-        <v>11.49</v>
+        <v>11.31</v>
       </c>
       <c r="F45" t="n">
-        <v>25782.9393</v>
+        <v>3185.0166</v>
       </c>
       <c r="G45" t="n">
-        <v>11.22066666666664</v>
+        <v>11.21266666666664</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="K45" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1976,29 +1988,37 @@
         <v>11.49</v>
       </c>
       <c r="C46" t="n">
-        <v>11.33</v>
+        <v>11.49</v>
       </c>
       <c r="D46" t="n">
         <v>11.49</v>
       </c>
       <c r="E46" t="n">
-        <v>11.33</v>
+        <v>11.49</v>
       </c>
       <c r="F46" t="n">
-        <v>12226.1517</v>
+        <v>25782.9393</v>
       </c>
       <c r="G46" t="n">
-        <v>11.22599999999998</v>
+        <v>11.22066666666664</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="K46" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,22 +2028,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.33</v>
+        <v>11.49</v>
       </c>
       <c r="C47" t="n">
         <v>11.33</v>
       </c>
       <c r="D47" t="n">
-        <v>11.33</v>
+        <v>11.49</v>
       </c>
       <c r="E47" t="n">
         <v>11.33</v>
       </c>
       <c r="F47" t="n">
-        <v>258174.3471</v>
+        <v>12226.1517</v>
       </c>
       <c r="G47" t="n">
-        <v>11.23149999999998</v>
+        <v>11.22599999999998</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2063,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11.49</v>
+        <v>11.33</v>
       </c>
       <c r="C48" t="n">
-        <v>11.49</v>
+        <v>11.33</v>
       </c>
       <c r="D48" t="n">
-        <v>11.49</v>
+        <v>11.33</v>
       </c>
       <c r="E48" t="n">
-        <v>11.49</v>
+        <v>11.33</v>
       </c>
       <c r="F48" t="n">
-        <v>5714.1387</v>
+        <v>258174.3471</v>
       </c>
       <c r="G48" t="n">
-        <v>11.23966666666665</v>
+        <v>11.23149999999998</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2110,10 @@
         <v>11.49</v>
       </c>
       <c r="F49" t="n">
-        <v>2221.0617</v>
+        <v>5714.1387</v>
       </c>
       <c r="G49" t="n">
-        <v>11.24783333333331</v>
+        <v>11.23966666666665</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2145,10 @@
         <v>11.49</v>
       </c>
       <c r="F50" t="n">
-        <v>7067.6876</v>
+        <v>2221.0617</v>
       </c>
       <c r="G50" t="n">
-        <v>11.25716666666665</v>
+        <v>11.24783333333331</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2168,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>11.45</v>
+        <v>11.49</v>
       </c>
       <c r="C51" t="n">
-        <v>11.44</v>
+        <v>11.49</v>
       </c>
       <c r="D51" t="n">
-        <v>11.45</v>
+        <v>11.49</v>
       </c>
       <c r="E51" t="n">
-        <v>11.44</v>
+        <v>11.49</v>
       </c>
       <c r="F51" t="n">
-        <v>10000</v>
+        <v>7067.6876</v>
       </c>
       <c r="G51" t="n">
-        <v>11.26616666666665</v>
+        <v>11.25716666666665</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2203,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.49</v>
+        <v>11.45</v>
       </c>
       <c r="C52" t="n">
-        <v>11.54</v>
+        <v>11.44</v>
       </c>
       <c r="D52" t="n">
-        <v>11.54</v>
+        <v>11.45</v>
       </c>
       <c r="E52" t="n">
-        <v>11.49</v>
+        <v>11.44</v>
       </c>
       <c r="F52" t="n">
-        <v>6717.1952</v>
+        <v>10000</v>
       </c>
       <c r="G52" t="n">
-        <v>11.27683333333331</v>
+        <v>11.26616666666665</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2238,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.59</v>
+        <v>11.49</v>
       </c>
       <c r="C53" t="n">
-        <v>11.59</v>
+        <v>11.54</v>
       </c>
       <c r="D53" t="n">
-        <v>11.59</v>
+        <v>11.54</v>
       </c>
       <c r="E53" t="n">
-        <v>11.59</v>
+        <v>11.49</v>
       </c>
       <c r="F53" t="n">
-        <v>17655.5255</v>
+        <v>6717.1952</v>
       </c>
       <c r="G53" t="n">
-        <v>11.28833333333332</v>
+        <v>11.27683333333331</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,7 +2273,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.55</v>
+        <v>11.59</v>
       </c>
       <c r="C54" t="n">
         <v>11.59</v>
@@ -2262,13 +2282,13 @@
         <v>11.59</v>
       </c>
       <c r="E54" t="n">
-        <v>11.55</v>
+        <v>11.59</v>
       </c>
       <c r="F54" t="n">
-        <v>104835.3387</v>
+        <v>17655.5255</v>
       </c>
       <c r="G54" t="n">
-        <v>11.29983333333332</v>
+        <v>11.28833333333332</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2308,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C55" t="n">
         <v>11.59</v>
       </c>
-      <c r="C55" t="n">
-        <v>11.62</v>
-      </c>
       <c r="D55" t="n">
-        <v>11.62</v>
+        <v>11.59</v>
       </c>
       <c r="E55" t="n">
-        <v>11.59</v>
+        <v>11.55</v>
       </c>
       <c r="F55" t="n">
-        <v>29400</v>
+        <v>104835.3387</v>
       </c>
       <c r="G55" t="n">
-        <v>11.31133333333332</v>
+        <v>11.29983333333332</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2343,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.54</v>
+        <v>11.59</v>
       </c>
       <c r="C56" t="n">
-        <v>11.42</v>
+        <v>11.62</v>
       </c>
       <c r="D56" t="n">
-        <v>11.54</v>
+        <v>11.62</v>
       </c>
       <c r="E56" t="n">
-        <v>11.42</v>
+        <v>11.59</v>
       </c>
       <c r="F56" t="n">
-        <v>111972.3703</v>
+        <v>29400</v>
       </c>
       <c r="G56" t="n">
-        <v>11.31716666666665</v>
+        <v>11.31133333333332</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2378,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.62</v>
+        <v>11.54</v>
       </c>
       <c r="C57" t="n">
-        <v>11.63</v>
+        <v>11.42</v>
       </c>
       <c r="D57" t="n">
-        <v>11.63</v>
+        <v>11.54</v>
       </c>
       <c r="E57" t="n">
-        <v>11.62</v>
+        <v>11.42</v>
       </c>
       <c r="F57" t="n">
-        <v>127033.7312</v>
+        <v>111972.3703</v>
       </c>
       <c r="G57" t="n">
-        <v>11.32683333333332</v>
+        <v>11.31716666666665</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,19 +2416,19 @@
         <v>11.62</v>
       </c>
       <c r="C58" t="n">
-        <v>11.62</v>
+        <v>11.63</v>
       </c>
       <c r="D58" t="n">
-        <v>11.68</v>
+        <v>11.63</v>
       </c>
       <c r="E58" t="n">
         <v>11.62</v>
       </c>
       <c r="F58" t="n">
-        <v>113279.0939</v>
+        <v>127033.7312</v>
       </c>
       <c r="G58" t="n">
-        <v>11.33583333333332</v>
+        <v>11.32683333333332</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2448,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="C59" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="D59" t="n">
         <v>11.68</v>
-      </c>
-      <c r="C59" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D59" t="n">
-        <v>11.7</v>
       </c>
       <c r="E59" t="n">
         <v>11.62</v>
       </c>
       <c r="F59" t="n">
-        <v>8405.1513</v>
+        <v>113279.0939</v>
       </c>
       <c r="G59" t="n">
-        <v>11.34616666666665</v>
+        <v>11.33583333333332</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,28 +2483,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="C60" t="n">
         <v>11.7</v>
       </c>
-      <c r="C60" t="n">
-        <v>11.71</v>
-      </c>
       <c r="D60" t="n">
-        <v>11.71</v>
+        <v>11.7</v>
       </c>
       <c r="E60" t="n">
-        <v>11.7</v>
+        <v>11.62</v>
       </c>
       <c r="F60" t="n">
-        <v>190</v>
+        <v>8405.1513</v>
       </c>
       <c r="G60" t="n">
-        <v>11.35733333333332</v>
+        <v>11.34616666666665</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2498,22 +2518,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="C61" t="n">
-        <v>11.62</v>
+        <v>11.71</v>
       </c>
       <c r="D61" t="n">
-        <v>11.66</v>
+        <v>11.71</v>
       </c>
       <c r="E61" t="n">
-        <v>11.62</v>
+        <v>11.7</v>
       </c>
       <c r="F61" t="n">
-        <v>151035.6059</v>
+        <v>190</v>
       </c>
       <c r="G61" t="n">
-        <v>11.36699999999998</v>
+        <v>11.35733333333332</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,28 +2553,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.51</v>
+        <v>11.66</v>
       </c>
       <c r="C62" t="n">
-        <v>11.51</v>
+        <v>11.62</v>
       </c>
       <c r="D62" t="n">
-        <v>11.51</v>
+        <v>11.66</v>
       </c>
       <c r="E62" t="n">
-        <v>11.51</v>
+        <v>11.62</v>
       </c>
       <c r="F62" t="n">
-        <v>2656.266</v>
+        <v>151035.6059</v>
       </c>
       <c r="G62" t="n">
-        <v>11.37666666666665</v>
+        <v>11.36699999999998</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2580,10 +2600,10 @@
         <v>11.51</v>
       </c>
       <c r="F63" t="n">
-        <v>43440.486</v>
+        <v>2656.266</v>
       </c>
       <c r="G63" t="n">
-        <v>11.38416666666665</v>
+        <v>11.37666666666665</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2623,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.69</v>
+        <v>11.51</v>
       </c>
       <c r="C64" t="n">
-        <v>11.69</v>
+        <v>11.51</v>
       </c>
       <c r="D64" t="n">
-        <v>11.69</v>
+        <v>11.51</v>
       </c>
       <c r="E64" t="n">
-        <v>11.69</v>
+        <v>11.51</v>
       </c>
       <c r="F64" t="n">
-        <v>17108.63986313088</v>
+        <v>43440.486</v>
       </c>
       <c r="G64" t="n">
-        <v>11.39666666666665</v>
+        <v>11.38416666666665</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2658,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.5</v>
+        <v>11.69</v>
       </c>
       <c r="C65" t="n">
-        <v>11.5</v>
+        <v>11.69</v>
       </c>
       <c r="D65" t="n">
-        <v>11.5</v>
+        <v>11.69</v>
       </c>
       <c r="E65" t="n">
-        <v>11.5</v>
+        <v>11.69</v>
       </c>
       <c r="F65" t="n">
-        <v>2500</v>
+        <v>17108.63986313088</v>
       </c>
       <c r="G65" t="n">
-        <v>11.40583333333332</v>
+        <v>11.39666666666665</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2693,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.58</v>
+        <v>11.5</v>
       </c>
       <c r="C66" t="n">
         <v>11.5</v>
       </c>
       <c r="D66" t="n">
-        <v>11.58</v>
+        <v>11.5</v>
       </c>
       <c r="E66" t="n">
         <v>11.5</v>
       </c>
       <c r="F66" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="G66" t="n">
-        <v>11.41316666666665</v>
+        <v>11.40583333333332</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2728,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.52</v>
+        <v>11.58</v>
       </c>
       <c r="C67" t="n">
-        <v>11.52</v>
+        <v>11.5</v>
       </c>
       <c r="D67" t="n">
-        <v>11.52</v>
+        <v>11.58</v>
       </c>
       <c r="E67" t="n">
-        <v>11.52</v>
+        <v>11.5</v>
       </c>
       <c r="F67" t="n">
-        <v>30190.3071</v>
+        <v>200</v>
       </c>
       <c r="G67" t="n">
-        <v>11.41949999999999</v>
+        <v>11.41316666666665</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2746,19 +2766,19 @@
         <v>11.52</v>
       </c>
       <c r="C68" t="n">
-        <v>11.5</v>
+        <v>11.52</v>
       </c>
       <c r="D68" t="n">
         <v>11.52</v>
       </c>
       <c r="E68" t="n">
-        <v>11.5</v>
+        <v>11.52</v>
       </c>
       <c r="F68" t="n">
-        <v>41340.7388</v>
+        <v>30190.3071</v>
       </c>
       <c r="G68" t="n">
-        <v>11.42283333333332</v>
+        <v>11.41949999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2798,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.42</v>
+        <v>11.52</v>
       </c>
       <c r="C69" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="D69" t="n">
-        <v>11.42</v>
+        <v>11.52</v>
       </c>
       <c r="E69" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="F69" t="n">
-        <v>7071.1874</v>
+        <v>41340.7388</v>
       </c>
       <c r="G69" t="n">
-        <v>11.42399999999999</v>
+        <v>11.42283333333332</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2833,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.48</v>
+        <v>11.42</v>
       </c>
       <c r="C70" t="n">
-        <v>11.48</v>
+        <v>11.4</v>
       </c>
       <c r="D70" t="n">
-        <v>11.48</v>
+        <v>11.42</v>
       </c>
       <c r="E70" t="n">
-        <v>11.48</v>
+        <v>11.4</v>
       </c>
       <c r="F70" t="n">
-        <v>8710.801393728223</v>
+        <v>7071.1874</v>
       </c>
       <c r="G70" t="n">
-        <v>11.42566666666665</v>
+        <v>11.42399999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2868,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.41</v>
+        <v>11.48</v>
       </c>
       <c r="C71" t="n">
-        <v>11.38</v>
+        <v>11.48</v>
       </c>
       <c r="D71" t="n">
-        <v>11.41</v>
+        <v>11.48</v>
       </c>
       <c r="E71" t="n">
-        <v>11.38</v>
+        <v>11.48</v>
       </c>
       <c r="F71" t="n">
-        <v>14895.0895</v>
+        <v>8710.801393728223</v>
       </c>
       <c r="G71" t="n">
-        <v>11.42633333333332</v>
+        <v>11.42566666666665</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2903,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.48</v>
+        <v>11.41</v>
       </c>
       <c r="C72" t="n">
-        <v>11.35</v>
+        <v>11.38</v>
       </c>
       <c r="D72" t="n">
-        <v>11.48</v>
+        <v>11.41</v>
       </c>
       <c r="E72" t="n">
-        <v>11.35</v>
+        <v>11.38</v>
       </c>
       <c r="F72" t="n">
-        <v>18699.3805</v>
+        <v>14895.0895</v>
       </c>
       <c r="G72" t="n">
-        <v>11.42383333333332</v>
+        <v>11.42633333333332</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2938,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="C73" t="n">
         <v>11.35</v>
       </c>
-      <c r="C73" t="n">
-        <v>11.31</v>
-      </c>
       <c r="D73" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="E73" t="n">
         <v>11.35</v>
       </c>
-      <c r="E73" t="n">
-        <v>11.31</v>
-      </c>
       <c r="F73" t="n">
-        <v>147833.7312</v>
+        <v>18699.3805</v>
       </c>
       <c r="G73" t="n">
-        <v>11.42216666666665</v>
+        <v>11.42383333333332</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2973,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11.31</v>
+        <v>11.35</v>
       </c>
       <c r="C74" t="n">
         <v>11.31</v>
       </c>
       <c r="D74" t="n">
-        <v>11.31</v>
+        <v>11.35</v>
       </c>
       <c r="E74" t="n">
         <v>11.31</v>
       </c>
       <c r="F74" t="n">
-        <v>34157.0499</v>
+        <v>147833.7312</v>
       </c>
       <c r="G74" t="n">
-        <v>11.41899999999998</v>
+        <v>11.42216666666665</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +3008,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>11.36</v>
+        <v>11.31</v>
       </c>
       <c r="C75" t="n">
-        <v>11.36</v>
+        <v>11.31</v>
       </c>
       <c r="D75" t="n">
-        <v>11.36</v>
+        <v>11.31</v>
       </c>
       <c r="E75" t="n">
-        <v>11.36</v>
+        <v>11.31</v>
       </c>
       <c r="F75" t="n">
-        <v>157.5</v>
+        <v>34157.0499</v>
       </c>
       <c r="G75" t="n">
-        <v>11.42133333333332</v>
+        <v>11.41899999999998</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3055,10 @@
         <v>11.36</v>
       </c>
       <c r="F76" t="n">
-        <v>3092.5</v>
+        <v>157.5</v>
       </c>
       <c r="G76" t="n">
-        <v>11.42066666666665</v>
+        <v>11.42133333333332</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3078,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11.31</v>
+        <v>11.36</v>
       </c>
       <c r="C77" t="n">
-        <v>11.3</v>
+        <v>11.36</v>
       </c>
       <c r="D77" t="n">
-        <v>11.31</v>
+        <v>11.36</v>
       </c>
       <c r="E77" t="n">
-        <v>11.3</v>
+        <v>11.36</v>
       </c>
       <c r="F77" t="n">
-        <v>5704.152</v>
+        <v>3092.5</v>
       </c>
       <c r="G77" t="n">
-        <v>11.41799999999998</v>
+        <v>11.42066666666665</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3113,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.3</v>
+        <v>11.31</v>
       </c>
       <c r="C78" t="n">
         <v>11.3</v>
       </c>
       <c r="D78" t="n">
-        <v>11.3</v>
+        <v>11.31</v>
       </c>
       <c r="E78" t="n">
         <v>11.3</v>
       </c>
       <c r="F78" t="n">
-        <v>10074.5883</v>
+        <v>5704.152</v>
       </c>
       <c r="G78" t="n">
-        <v>11.41483333333332</v>
+        <v>11.41799999999998</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3148,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.29</v>
+        <v>11.3</v>
       </c>
       <c r="C79" t="n">
-        <v>11.24</v>
+        <v>11.3</v>
       </c>
       <c r="D79" t="n">
-        <v>11.29</v>
+        <v>11.3</v>
       </c>
       <c r="E79" t="n">
-        <v>11.24</v>
+        <v>11.3</v>
       </c>
       <c r="F79" t="n">
-        <v>1762.8096</v>
+        <v>10074.5883</v>
       </c>
       <c r="G79" t="n">
-        <v>11.41216666666665</v>
+        <v>11.41483333333332</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3183,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.24</v>
+        <v>11.29</v>
       </c>
       <c r="C80" t="n">
         <v>11.24</v>
       </c>
       <c r="D80" t="n">
-        <v>11.24</v>
+        <v>11.29</v>
       </c>
       <c r="E80" t="n">
         <v>11.24</v>
       </c>
       <c r="F80" t="n">
-        <v>5632.0934</v>
+        <v>1762.8096</v>
       </c>
       <c r="G80" t="n">
-        <v>11.40816666666665</v>
+        <v>11.41216666666665</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3201,19 +3221,19 @@
         <v>11.24</v>
       </c>
       <c r="C81" t="n">
-        <v>11.22</v>
+        <v>11.24</v>
       </c>
       <c r="D81" t="n">
         <v>11.24</v>
       </c>
       <c r="E81" t="n">
-        <v>11.22</v>
+        <v>11.24</v>
       </c>
       <c r="F81" t="n">
-        <v>15034.9081</v>
+        <v>5632.0934</v>
       </c>
       <c r="G81" t="n">
-        <v>11.40366666666665</v>
+        <v>11.40816666666665</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3253,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.23</v>
+        <v>11.24</v>
       </c>
       <c r="C82" t="n">
-        <v>11.23</v>
+        <v>11.22</v>
       </c>
       <c r="D82" t="n">
-        <v>11.23</v>
+        <v>11.24</v>
       </c>
       <c r="E82" t="n">
-        <v>11.23</v>
+        <v>11.22</v>
       </c>
       <c r="F82" t="n">
-        <v>3956.7766</v>
+        <v>15034.9081</v>
       </c>
       <c r="G82" t="n">
-        <v>11.39933333333332</v>
+        <v>11.40366666666665</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3280,10 +3300,10 @@
         <v>11.23</v>
       </c>
       <c r="F83" t="n">
-        <v>33.9734</v>
+        <v>3956.7766</v>
       </c>
       <c r="G83" t="n">
-        <v>11.39483333333332</v>
+        <v>11.39933333333332</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3306,19 +3326,19 @@
         <v>11.23</v>
       </c>
       <c r="C84" t="n">
-        <v>11.22</v>
+        <v>11.23</v>
       </c>
       <c r="D84" t="n">
         <v>11.23</v>
       </c>
       <c r="E84" t="n">
-        <v>11.22</v>
+        <v>11.23</v>
       </c>
       <c r="F84" t="n">
-        <v>9515.562</v>
+        <v>33.9734</v>
       </c>
       <c r="G84" t="n">
-        <v>11.38849999999998</v>
+        <v>11.39483333333332</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3341,19 +3361,19 @@
         <v>11.23</v>
       </c>
       <c r="C85" t="n">
-        <v>11.26</v>
+        <v>11.22</v>
       </c>
       <c r="D85" t="n">
-        <v>11.26</v>
+        <v>11.23</v>
       </c>
       <c r="E85" t="n">
-        <v>11.16</v>
+        <v>11.22</v>
       </c>
       <c r="F85" t="n">
-        <v>130773</v>
+        <v>9515.562</v>
       </c>
       <c r="G85" t="n">
-        <v>11.38249999999998</v>
+        <v>11.38849999999998</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,7 +3393,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>11.26</v>
+        <v>11.23</v>
       </c>
       <c r="C86" t="n">
         <v>11.26</v>
@@ -3382,13 +3402,13 @@
         <v>11.26</v>
       </c>
       <c r="E86" t="n">
-        <v>11.26</v>
+        <v>11.16</v>
       </c>
       <c r="F86" t="n">
-        <v>4518</v>
+        <v>130773</v>
       </c>
       <c r="G86" t="n">
-        <v>11.38016666666665</v>
+        <v>11.38249999999998</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,31 +3428,35 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11.16</v>
+        <v>11.26</v>
       </c>
       <c r="C87" t="n">
-        <v>11.16</v>
+        <v>11.26</v>
       </c>
       <c r="D87" t="n">
-        <v>11.16</v>
+        <v>11.26</v>
       </c>
       <c r="E87" t="n">
-        <v>11.16</v>
+        <v>11.26</v>
       </c>
       <c r="F87" t="n">
-        <v>4409.4533</v>
+        <v>4518</v>
       </c>
       <c r="G87" t="n">
-        <v>11.37783333333332</v>
+        <v>11.38016666666665</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K87" t="n">
+        <v>11.26</v>
+      </c>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
@@ -3443,22 +3467,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>11.2</v>
+        <v>11.16</v>
       </c>
       <c r="C88" t="n">
-        <v>11.18</v>
+        <v>11.16</v>
       </c>
       <c r="D88" t="n">
-        <v>11.2</v>
+        <v>11.16</v>
       </c>
       <c r="E88" t="n">
-        <v>11.18</v>
+        <v>11.16</v>
       </c>
       <c r="F88" t="n">
-        <v>3000</v>
+        <v>4409.4533</v>
       </c>
       <c r="G88" t="n">
-        <v>11.37583333333332</v>
+        <v>11.37783333333332</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3467,8 +3491,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3481,19 +3511,19 @@
         <v>11.2</v>
       </c>
       <c r="C89" t="n">
-        <v>11.2</v>
+        <v>11.18</v>
       </c>
       <c r="D89" t="n">
         <v>11.2</v>
       </c>
       <c r="E89" t="n">
-        <v>11.2</v>
+        <v>11.18</v>
       </c>
       <c r="F89" t="n">
-        <v>55570.9105</v>
+        <v>3000</v>
       </c>
       <c r="G89" t="n">
-        <v>11.37699999999998</v>
+        <v>11.37583333333332</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3502,8 +3532,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3513,32 +3549,40 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>11.17</v>
+        <v>11.2</v>
       </c>
       <c r="C90" t="n">
-        <v>11.17</v>
+        <v>11.2</v>
       </c>
       <c r="D90" t="n">
-        <v>11.17</v>
+        <v>11.2</v>
       </c>
       <c r="E90" t="n">
-        <v>11.17</v>
+        <v>11.2</v>
       </c>
       <c r="F90" t="n">
-        <v>4117.318</v>
+        <v>55570.9105</v>
       </c>
       <c r="G90" t="n">
-        <v>11.37766666666665</v>
+        <v>11.37699999999998</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="K90" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3560,20 +3604,28 @@
         <v>11.17</v>
       </c>
       <c r="F91" t="n">
-        <v>3039</v>
+        <v>4117.318</v>
       </c>
       <c r="G91" t="n">
-        <v>11.37833333333332</v>
+        <v>11.37766666666665</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K91" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3583,32 +3635,40 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>11.32</v>
+        <v>11.17</v>
       </c>
       <c r="C92" t="n">
-        <v>11.32</v>
+        <v>11.17</v>
       </c>
       <c r="D92" t="n">
-        <v>11.32</v>
+        <v>11.17</v>
       </c>
       <c r="E92" t="n">
-        <v>11.32</v>
+        <v>11.17</v>
       </c>
       <c r="F92" t="n">
-        <v>8860.8943</v>
+        <v>3039</v>
       </c>
       <c r="G92" t="n">
-        <v>11.38199999999998</v>
+        <v>11.37833333333332</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="K92" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3618,22 +3678,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>11.22</v>
+        <v>11.32</v>
       </c>
       <c r="C93" t="n">
-        <v>11.22</v>
+        <v>11.32</v>
       </c>
       <c r="D93" t="n">
-        <v>11.22</v>
+        <v>11.32</v>
       </c>
       <c r="E93" t="n">
-        <v>11.22</v>
+        <v>11.32</v>
       </c>
       <c r="F93" t="n">
-        <v>37225.7561</v>
+        <v>8860.8943</v>
       </c>
       <c r="G93" t="n">
-        <v>11.38399999999998</v>
+        <v>11.38199999999998</v>
       </c>
       <c r="H93" t="n">
         <v>1</v>
@@ -3642,12 +3702,16 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>11.32</v>
+        <v>11.17</v>
       </c>
       <c r="K93" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="L93" t="inlineStr"/>
+        <v>11.26</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3657,22 +3721,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>11.3</v>
+        <v>11.22</v>
       </c>
       <c r="C94" t="n">
-        <v>11.3</v>
+        <v>11.22</v>
       </c>
       <c r="D94" t="n">
-        <v>11.3</v>
+        <v>11.22</v>
       </c>
       <c r="E94" t="n">
-        <v>11.3</v>
+        <v>11.22</v>
       </c>
       <c r="F94" t="n">
-        <v>10000</v>
+        <v>37225.7561</v>
       </c>
       <c r="G94" t="n">
-        <v>11.38666666666665</v>
+        <v>11.38399999999998</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,11 +3746,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>11.32</v>
+        <v>11.26</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M94" t="n">
@@ -3710,26 +3774,24 @@
         <v>11.3</v>
       </c>
       <c r="F95" t="n">
-        <v>24659.7303</v>
+        <v>10000</v>
       </c>
       <c r="G95" t="n">
-        <v>11.38583333333332</v>
+        <v>11.38666666666665</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>11.3</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>11.32</v>
+        <v>11.26</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M95" t="n">
@@ -3741,22 +3803,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.38</v>
+        <v>11.3</v>
       </c>
       <c r="C96" t="n">
-        <v>11.38</v>
+        <v>11.3</v>
       </c>
       <c r="D96" t="n">
-        <v>11.38</v>
+        <v>11.3</v>
       </c>
       <c r="E96" t="n">
-        <v>11.38</v>
+        <v>11.3</v>
       </c>
       <c r="F96" t="n">
-        <v>1500</v>
+        <v>24659.7303</v>
       </c>
       <c r="G96" t="n">
-        <v>11.38849999999998</v>
+        <v>11.38583333333332</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3765,8 +3827,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3788,10 +3856,10 @@
         <v>11.38</v>
       </c>
       <c r="F97" t="n">
-        <v>21226.6916</v>
+        <v>1500</v>
       </c>
       <c r="G97" t="n">
-        <v>11.38983333333332</v>
+        <v>11.38849999999998</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3800,8 +3868,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3811,22 +3885,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>11.33</v>
+        <v>11.38</v>
       </c>
       <c r="C98" t="n">
-        <v>11.33</v>
+        <v>11.38</v>
       </c>
       <c r="D98" t="n">
-        <v>11.33</v>
+        <v>11.38</v>
       </c>
       <c r="E98" t="n">
-        <v>11.33</v>
+        <v>11.38</v>
       </c>
       <c r="F98" t="n">
-        <v>3763.0658</v>
+        <v>21226.6916</v>
       </c>
       <c r="G98" t="n">
-        <v>11.39033333333332</v>
+        <v>11.38983333333332</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3835,8 +3909,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3858,10 +3938,10 @@
         <v>11.33</v>
       </c>
       <c r="F99" t="n">
-        <v>17444.799</v>
+        <v>3763.0658</v>
       </c>
       <c r="G99" t="n">
-        <v>11.38916666666665</v>
+        <v>11.39033333333332</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3870,8 +3950,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3881,22 +3967,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>11.26</v>
+        <v>11.33</v>
       </c>
       <c r="C100" t="n">
-        <v>11.26</v>
+        <v>11.33</v>
       </c>
       <c r="D100" t="n">
-        <v>11.26</v>
+        <v>11.33</v>
       </c>
       <c r="E100" t="n">
-        <v>11.26</v>
+        <v>11.33</v>
       </c>
       <c r="F100" t="n">
-        <v>73.71420000000001</v>
+        <v>17444.799</v>
       </c>
       <c r="G100" t="n">
-        <v>11.38683333333332</v>
+        <v>11.38916666666665</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3905,8 +3991,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3928,10 +4020,10 @@
         <v>11.26</v>
       </c>
       <c r="F101" t="n">
-        <v>25646</v>
+        <v>73.71420000000001</v>
       </c>
       <c r="G101" t="n">
-        <v>11.38616666666665</v>
+        <v>11.38683333333332</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3940,8 +4032,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3951,22 +4049,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>11.27</v>
+        <v>11.26</v>
       </c>
       <c r="C102" t="n">
         <v>11.26</v>
       </c>
       <c r="D102" t="n">
-        <v>11.27</v>
+        <v>11.26</v>
       </c>
       <c r="E102" t="n">
         <v>11.26</v>
       </c>
       <c r="F102" t="n">
-        <v>12891.3788</v>
+        <v>25646</v>
       </c>
       <c r="G102" t="n">
-        <v>11.38533333333332</v>
+        <v>11.38616666666665</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3975,8 +4073,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3989,19 +4093,19 @@
         <v>11.27</v>
       </c>
       <c r="C103" t="n">
-        <v>11.27</v>
+        <v>11.26</v>
       </c>
       <c r="D103" t="n">
         <v>11.27</v>
       </c>
       <c r="E103" t="n">
-        <v>11.27</v>
+        <v>11.26</v>
       </c>
       <c r="F103" t="n">
-        <v>9442.650900000001</v>
+        <v>12891.3788</v>
       </c>
       <c r="G103" t="n">
-        <v>11.38466666666665</v>
+        <v>11.38533333333332</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4010,8 +4114,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4021,22 +4131,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>11.38</v>
+        <v>11.27</v>
       </c>
       <c r="C104" t="n">
-        <v>11.4</v>
+        <v>11.27</v>
       </c>
       <c r="D104" t="n">
-        <v>11.4</v>
+        <v>11.27</v>
       </c>
       <c r="E104" t="n">
-        <v>11.38</v>
+        <v>11.27</v>
       </c>
       <c r="F104" t="n">
-        <v>24211.2828</v>
+        <v>9442.650900000001</v>
       </c>
       <c r="G104" t="n">
-        <v>11.38616666666666</v>
+        <v>11.38466666666665</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4045,8 +4155,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4059,19 +4175,19 @@
         <v>11.38</v>
       </c>
       <c r="C105" t="n">
-        <v>11.38</v>
+        <v>11.4</v>
       </c>
       <c r="D105" t="n">
-        <v>11.38</v>
+        <v>11.4</v>
       </c>
       <c r="E105" t="n">
         <v>11.38</v>
       </c>
       <c r="F105" t="n">
-        <v>25485.35</v>
+        <v>24211.2828</v>
       </c>
       <c r="G105" t="n">
-        <v>11.38433333333332</v>
+        <v>11.38616666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4080,8 +4196,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4091,22 +4213,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>11.42</v>
+        <v>11.38</v>
       </c>
       <c r="C106" t="n">
-        <v>11.42</v>
+        <v>11.38</v>
       </c>
       <c r="D106" t="n">
-        <v>11.42</v>
+        <v>11.38</v>
       </c>
       <c r="E106" t="n">
-        <v>11.42</v>
+        <v>11.38</v>
       </c>
       <c r="F106" t="n">
-        <v>8373.938399999999</v>
+        <v>25485.35</v>
       </c>
       <c r="G106" t="n">
-        <v>11.38583333333332</v>
+        <v>11.38433333333332</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4115,8 +4237,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4129,19 +4257,19 @@
         <v>11.42</v>
       </c>
       <c r="C107" t="n">
-        <v>11.47</v>
+        <v>11.42</v>
       </c>
       <c r="D107" t="n">
-        <v>11.47</v>
+        <v>11.42</v>
       </c>
       <c r="E107" t="n">
         <v>11.42</v>
       </c>
       <c r="F107" t="n">
-        <v>178421.7664</v>
+        <v>8373.938399999999</v>
       </c>
       <c r="G107" t="n">
-        <v>11.38816666666665</v>
+        <v>11.38583333333332</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4150,8 +4278,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4161,19 +4295,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>11.48</v>
+        <v>11.42</v>
       </c>
       <c r="C108" t="n">
-        <v>11.49</v>
+        <v>11.47</v>
       </c>
       <c r="D108" t="n">
-        <v>11.49</v>
+        <v>11.47</v>
       </c>
       <c r="E108" t="n">
-        <v>11.48</v>
+        <v>11.42</v>
       </c>
       <c r="F108" t="n">
-        <v>134910.3993</v>
+        <v>178421.7664</v>
       </c>
       <c r="G108" t="n">
         <v>11.38816666666665</v>
@@ -4185,8 +4319,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4196,7 +4336,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>11.49</v>
+        <v>11.48</v>
       </c>
       <c r="C109" t="n">
         <v>11.49</v>
@@ -4205,10 +4345,10 @@
         <v>11.49</v>
       </c>
       <c r="E109" t="n">
-        <v>11.49</v>
+        <v>11.48</v>
       </c>
       <c r="F109" t="n">
-        <v>24211.2828</v>
+        <v>134910.3993</v>
       </c>
       <c r="G109" t="n">
         <v>11.38816666666665</v>
@@ -4220,8 +4360,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4231,22 +4377,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>11.5</v>
+        <v>11.49</v>
       </c>
       <c r="C110" t="n">
-        <v>11.5</v>
+        <v>11.49</v>
       </c>
       <c r="D110" t="n">
-        <v>11.5</v>
+        <v>11.49</v>
       </c>
       <c r="E110" t="n">
-        <v>11.5</v>
+        <v>11.49</v>
       </c>
       <c r="F110" t="n">
-        <v>2000</v>
+        <v>24211.2828</v>
       </c>
       <c r="G110" t="n">
-        <v>11.38833333333332</v>
+        <v>11.38816666666665</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4255,8 +4401,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4278,10 +4430,10 @@
         <v>11.5</v>
       </c>
       <c r="F111" t="n">
-        <v>7932.5618</v>
+        <v>2000</v>
       </c>
       <c r="G111" t="n">
-        <v>11.38933333333332</v>
+        <v>11.38833333333332</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4290,8 +4442,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4301,22 +4459,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>11.54</v>
+        <v>11.5</v>
       </c>
       <c r="C112" t="n">
-        <v>11.49</v>
+        <v>11.5</v>
       </c>
       <c r="D112" t="n">
-        <v>11.54</v>
+        <v>11.5</v>
       </c>
       <c r="E112" t="n">
-        <v>11.49</v>
+        <v>11.5</v>
       </c>
       <c r="F112" t="n">
-        <v>35821.452</v>
+        <v>7932.5618</v>
       </c>
       <c r="G112" t="n">
-        <v>11.38849999999999</v>
+        <v>11.38933333333332</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4325,8 +4483,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4336,22 +4500,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>11.5</v>
+        <v>11.54</v>
       </c>
       <c r="C113" t="n">
-        <v>11.5</v>
+        <v>11.49</v>
       </c>
       <c r="D113" t="n">
-        <v>11.5</v>
+        <v>11.54</v>
       </c>
       <c r="E113" t="n">
-        <v>11.5</v>
+        <v>11.49</v>
       </c>
       <c r="F113" t="n">
-        <v>54800</v>
+        <v>35821.452</v>
       </c>
       <c r="G113" t="n">
-        <v>11.38699999999998</v>
+        <v>11.38849999999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4360,8 +4524,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4383,10 +4553,10 @@
         <v>11.5</v>
       </c>
       <c r="F114" t="n">
-        <v>55831.1318</v>
+        <v>54800</v>
       </c>
       <c r="G114" t="n">
-        <v>11.38549999999998</v>
+        <v>11.38699999999998</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4395,8 +4565,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4418,10 +4594,10 @@
         <v>11.5</v>
       </c>
       <c r="F115" t="n">
-        <v>314050.1168</v>
+        <v>55831.1318</v>
       </c>
       <c r="G115" t="n">
-        <v>11.38349999999999</v>
+        <v>11.38549999999998</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4430,8 +4606,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4441,22 +4623,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>11.49</v>
+        <v>11.5</v>
       </c>
       <c r="C116" t="n">
-        <v>11.49</v>
+        <v>11.5</v>
       </c>
       <c r="D116" t="n">
-        <v>11.49</v>
+        <v>11.5</v>
       </c>
       <c r="E116" t="n">
-        <v>11.49</v>
+        <v>11.5</v>
       </c>
       <c r="F116" t="n">
-        <v>2300</v>
+        <v>314050.1168</v>
       </c>
       <c r="G116" t="n">
-        <v>11.38466666666665</v>
+        <v>11.38349999999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4465,8 +4647,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4476,22 +4664,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>11.66</v>
+        <v>11.49</v>
       </c>
       <c r="C117" t="n">
-        <v>11.69</v>
+        <v>11.49</v>
       </c>
       <c r="D117" t="n">
-        <v>11.69</v>
+        <v>11.49</v>
       </c>
       <c r="E117" t="n">
-        <v>11.66</v>
+        <v>11.49</v>
       </c>
       <c r="F117" t="n">
-        <v>104159.3663</v>
+        <v>2300</v>
       </c>
       <c r="G117" t="n">
-        <v>11.38566666666665</v>
+        <v>11.38466666666665</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4500,8 +4688,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4511,7 +4705,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>11.69</v>
+        <v>11.66</v>
       </c>
       <c r="C118" t="n">
         <v>11.69</v>
@@ -4520,13 +4714,13 @@
         <v>11.69</v>
       </c>
       <c r="E118" t="n">
-        <v>11.69</v>
+        <v>11.66</v>
       </c>
       <c r="F118" t="n">
-        <v>42771</v>
+        <v>104159.3663</v>
       </c>
       <c r="G118" t="n">
-        <v>11.38683333333332</v>
+        <v>11.38566666666665</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4535,8 +4729,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4546,19 +4746,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="C119" t="n">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="D119" t="n">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="E119" t="n">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="F119" t="n">
-        <v>56780.7692</v>
+        <v>42771</v>
       </c>
       <c r="G119" t="n">
         <v>11.38683333333332</v>
@@ -4570,8 +4770,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4581,22 +4787,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>11.71</v>
+        <v>11.7</v>
       </c>
       <c r="C120" t="n">
-        <v>11.79</v>
+        <v>11.7</v>
       </c>
       <c r="D120" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E120" t="n">
-        <v>11.57</v>
+        <v>11.7</v>
       </c>
       <c r="F120" t="n">
-        <v>246874.8274</v>
+        <v>56780.7692</v>
       </c>
       <c r="G120" t="n">
-        <v>11.38816666666665</v>
+        <v>11.38683333333332</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4605,8 +4811,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4616,22 +4828,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>11.7</v>
+        <v>11.71</v>
       </c>
       <c r="C121" t="n">
-        <v>11.7</v>
+        <v>11.79</v>
       </c>
       <c r="D121" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E121" t="n">
-        <v>11.7</v>
+        <v>11.57</v>
       </c>
       <c r="F121" t="n">
-        <v>80937.6574</v>
+        <v>246874.8274</v>
       </c>
       <c r="G121" t="n">
-        <v>11.38949999999999</v>
+        <v>11.38816666666665</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4640,8 +4852,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4651,22 +4869,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C122" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D122" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E122" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F122" t="n">
-        <v>106303.9457</v>
+        <v>80937.6574</v>
       </c>
       <c r="G122" t="n">
-        <v>11.39433333333332</v>
+        <v>11.38949999999999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4675,8 +4893,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4692,16 +4916,16 @@
         <v>11.8</v>
       </c>
       <c r="D123" t="n">
-        <v>11.83</v>
+        <v>11.8</v>
       </c>
       <c r="E123" t="n">
         <v>11.8</v>
       </c>
       <c r="F123" t="n">
-        <v>90992.232</v>
+        <v>106303.9457</v>
       </c>
       <c r="G123" t="n">
-        <v>11.39916666666665</v>
+        <v>11.39433333333332</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4710,8 +4934,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4727,16 +4957,16 @@
         <v>11.8</v>
       </c>
       <c r="D124" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="E124" t="n">
         <v>11.8</v>
       </c>
-      <c r="E124" t="n">
-        <v>11.7</v>
-      </c>
       <c r="F124" t="n">
-        <v>78164.6269</v>
+        <v>90992.232</v>
       </c>
       <c r="G124" t="n">
-        <v>11.40099999999998</v>
+        <v>11.39916666666665</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4745,8 +4975,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4768,10 +5004,10 @@
         <v>11.7</v>
       </c>
       <c r="F125" t="n">
-        <v>127737.6338</v>
+        <v>78164.6269</v>
       </c>
       <c r="G125" t="n">
-        <v>11.40599999999998</v>
+        <v>11.40099999999998</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4780,8 +5016,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4800,13 +5042,13 @@
         <v>11.8</v>
       </c>
       <c r="E126" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F126" t="n">
-        <v>34264.635</v>
+        <v>127737.6338</v>
       </c>
       <c r="G126" t="n">
-        <v>11.41099999999998</v>
+        <v>11.40599999999998</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4815,8 +5057,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4826,22 +5074,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>11.62</v>
+        <v>11.8</v>
       </c>
       <c r="C127" t="n">
-        <v>11.62</v>
+        <v>11.8</v>
       </c>
       <c r="D127" t="n">
-        <v>11.62</v>
+        <v>11.8</v>
       </c>
       <c r="E127" t="n">
-        <v>11.62</v>
+        <v>11.8</v>
       </c>
       <c r="F127" t="n">
-        <v>1494.5756</v>
+        <v>34264.635</v>
       </c>
       <c r="G127" t="n">
-        <v>11.41266666666665</v>
+        <v>11.41099999999998</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4850,8 +5098,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4861,22 +5115,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>11.63</v>
+        <v>11.62</v>
       </c>
       <c r="C128" t="n">
-        <v>11.55</v>
+        <v>11.62</v>
       </c>
       <c r="D128" t="n">
-        <v>11.63</v>
+        <v>11.62</v>
       </c>
       <c r="E128" t="n">
-        <v>11.55</v>
+        <v>11.62</v>
       </c>
       <c r="F128" t="n">
-        <v>54563.2194</v>
+        <v>1494.5756</v>
       </c>
       <c r="G128" t="n">
-        <v>11.41349999999998</v>
+        <v>11.41266666666665</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4885,8 +5139,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4896,22 +5156,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>11.58</v>
+        <v>11.63</v>
       </c>
       <c r="C129" t="n">
-        <v>11.58</v>
+        <v>11.55</v>
       </c>
       <c r="D129" t="n">
-        <v>11.58</v>
+        <v>11.63</v>
       </c>
       <c r="E129" t="n">
-        <v>11.58</v>
+        <v>11.55</v>
       </c>
       <c r="F129" t="n">
-        <v>49737</v>
+        <v>54563.2194</v>
       </c>
       <c r="G129" t="n">
-        <v>11.41649999999998</v>
+        <v>11.41349999999998</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4920,8 +5180,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4931,22 +5197,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>11.69</v>
+        <v>11.58</v>
       </c>
       <c r="C130" t="n">
-        <v>11.69</v>
+        <v>11.58</v>
       </c>
       <c r="D130" t="n">
-        <v>11.69</v>
+        <v>11.58</v>
       </c>
       <c r="E130" t="n">
-        <v>11.69</v>
+        <v>11.58</v>
       </c>
       <c r="F130" t="n">
-        <v>15000</v>
+        <v>49737</v>
       </c>
       <c r="G130" t="n">
-        <v>11.41999999999998</v>
+        <v>11.41649999999998</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4955,8 +5221,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4966,22 +5238,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>11.58</v>
+        <v>11.69</v>
       </c>
       <c r="C131" t="n">
-        <v>11.58</v>
+        <v>11.69</v>
       </c>
       <c r="D131" t="n">
-        <v>11.58</v>
+        <v>11.69</v>
       </c>
       <c r="E131" t="n">
-        <v>11.58</v>
+        <v>11.69</v>
       </c>
       <c r="F131" t="n">
-        <v>61200</v>
+        <v>15000</v>
       </c>
       <c r="G131" t="n">
-        <v>11.42333333333332</v>
+        <v>11.41999999999998</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4990,8 +5262,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5001,22 +5279,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>11.74</v>
+        <v>11.58</v>
       </c>
       <c r="C132" t="n">
-        <v>11.68</v>
+        <v>11.58</v>
       </c>
       <c r="D132" t="n">
-        <v>11.74</v>
+        <v>11.58</v>
       </c>
       <c r="E132" t="n">
-        <v>11.68</v>
+        <v>11.58</v>
       </c>
       <c r="F132" t="n">
-        <v>88</v>
+        <v>61200</v>
       </c>
       <c r="G132" t="n">
-        <v>11.42883333333332</v>
+        <v>11.42333333333332</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5025,8 +5303,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5036,22 +5320,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>11.67</v>
+        <v>11.74</v>
       </c>
       <c r="C133" t="n">
-        <v>11.67</v>
+        <v>11.68</v>
       </c>
       <c r="D133" t="n">
-        <v>11.67</v>
+        <v>11.74</v>
       </c>
       <c r="E133" t="n">
-        <v>11.67</v>
+        <v>11.68</v>
       </c>
       <c r="F133" t="n">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="G133" t="n">
-        <v>11.43483333333332</v>
+        <v>11.42883333333332</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5060,8 +5344,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5071,22 +5361,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>11.66</v>
+        <v>11.67</v>
       </c>
       <c r="C134" t="n">
-        <v>11.59</v>
+        <v>11.67</v>
       </c>
       <c r="D134" t="n">
-        <v>11.66</v>
+        <v>11.67</v>
       </c>
       <c r="E134" t="n">
-        <v>11.59</v>
+        <v>11.67</v>
       </c>
       <c r="F134" t="n">
-        <v>7155.8609</v>
+        <v>44</v>
       </c>
       <c r="G134" t="n">
-        <v>11.43949999999998</v>
+        <v>11.43483333333332</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5095,8 +5385,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5109,19 +5405,19 @@
         <v>11.66</v>
       </c>
       <c r="C135" t="n">
-        <v>11.66</v>
+        <v>11.59</v>
       </c>
       <c r="D135" t="n">
         <v>11.66</v>
       </c>
       <c r="E135" t="n">
-        <v>11.66</v>
+        <v>11.59</v>
       </c>
       <c r="F135" t="n">
-        <v>44</v>
+        <v>7155.8609</v>
       </c>
       <c r="G135" t="n">
-        <v>11.44449999999998</v>
+        <v>11.43949999999998</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5130,8 +5426,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5141,22 +5443,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>11.69</v>
+        <v>11.66</v>
       </c>
       <c r="C136" t="n">
-        <v>11.69</v>
+        <v>11.66</v>
       </c>
       <c r="D136" t="n">
-        <v>11.69</v>
+        <v>11.66</v>
       </c>
       <c r="E136" t="n">
-        <v>11.69</v>
+        <v>11.66</v>
       </c>
       <c r="F136" t="n">
-        <v>27371.658</v>
+        <v>44</v>
       </c>
       <c r="G136" t="n">
-        <v>11.44999999999999</v>
+        <v>11.44449999999998</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5165,8 +5467,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5176,22 +5484,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>11.78</v>
+        <v>11.69</v>
       </c>
       <c r="C137" t="n">
-        <v>11.78</v>
+        <v>11.69</v>
       </c>
       <c r="D137" t="n">
-        <v>11.78</v>
+        <v>11.69</v>
       </c>
       <c r="E137" t="n">
-        <v>11.78</v>
+        <v>11.69</v>
       </c>
       <c r="F137" t="n">
-        <v>44</v>
+        <v>27371.658</v>
       </c>
       <c r="G137" t="n">
-        <v>11.45799999999999</v>
+        <v>11.44999999999999</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5200,8 +5508,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5211,22 +5525,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>11.61</v>
+        <v>11.78</v>
       </c>
       <c r="C138" t="n">
-        <v>11.61</v>
+        <v>11.78</v>
       </c>
       <c r="D138" t="n">
-        <v>11.62</v>
+        <v>11.78</v>
       </c>
       <c r="E138" t="n">
-        <v>11.61</v>
+        <v>11.78</v>
       </c>
       <c r="F138" t="n">
-        <v>140000</v>
+        <v>44</v>
       </c>
       <c r="G138" t="n">
-        <v>11.46316666666665</v>
+        <v>11.45799999999999</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5235,8 +5549,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5246,22 +5566,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>11.62</v>
+        <v>11.61</v>
       </c>
       <c r="C139" t="n">
-        <v>11.62</v>
+        <v>11.61</v>
       </c>
       <c r="D139" t="n">
         <v>11.62</v>
       </c>
       <c r="E139" t="n">
-        <v>11.62</v>
+        <v>11.61</v>
       </c>
       <c r="F139" t="n">
-        <v>86.0586</v>
+        <v>140000</v>
       </c>
       <c r="G139" t="n">
-        <v>11.46949999999999</v>
+        <v>11.46316666666665</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5270,8 +5590,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5293,10 +5619,10 @@
         <v>11.62</v>
       </c>
       <c r="F140" t="n">
-        <v>88132.62149999999</v>
+        <v>86.0586</v>
       </c>
       <c r="G140" t="n">
-        <v>11.47583333333332</v>
+        <v>11.46949999999999</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5305,8 +5631,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5319,19 +5651,19 @@
         <v>11.62</v>
       </c>
       <c r="C141" t="n">
-        <v>11.61</v>
+        <v>11.62</v>
       </c>
       <c r="D141" t="n">
         <v>11.62</v>
       </c>
       <c r="E141" t="n">
-        <v>11.61</v>
+        <v>11.62</v>
       </c>
       <c r="F141" t="n">
-        <v>59887.5125</v>
+        <v>88132.62149999999</v>
       </c>
       <c r="G141" t="n">
-        <v>11.48233333333332</v>
+        <v>11.47583333333332</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5340,8 +5672,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5351,22 +5689,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>11.76</v>
+        <v>11.62</v>
       </c>
       <c r="C142" t="n">
-        <v>11.76</v>
+        <v>11.61</v>
       </c>
       <c r="D142" t="n">
-        <v>11.76</v>
+        <v>11.62</v>
       </c>
       <c r="E142" t="n">
-        <v>11.76</v>
+        <v>11.61</v>
       </c>
       <c r="F142" t="n">
-        <v>500</v>
+        <v>59887.5125</v>
       </c>
       <c r="G142" t="n">
-        <v>11.49116666666665</v>
+        <v>11.48233333333332</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5375,8 +5713,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5386,22 +5730,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>11.64</v>
+        <v>11.76</v>
       </c>
       <c r="C143" t="n">
-        <v>11.6</v>
+        <v>11.76</v>
       </c>
       <c r="D143" t="n">
-        <v>11.64</v>
+        <v>11.76</v>
       </c>
       <c r="E143" t="n">
-        <v>11.6</v>
+        <v>11.76</v>
       </c>
       <c r="F143" t="n">
-        <v>188121.1343</v>
+        <v>500</v>
       </c>
       <c r="G143" t="n">
-        <v>11.49733333333332</v>
+        <v>11.49116666666665</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5410,8 +5754,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5421,22 +5771,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>11.6</v>
+        <v>11.64</v>
       </c>
       <c r="C144" t="n">
         <v>11.6</v>
       </c>
       <c r="D144" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="E144" t="n">
         <v>11.6</v>
       </c>
-      <c r="E144" t="n">
-        <v>11.59</v>
-      </c>
       <c r="F144" t="n">
-        <v>19921.2938</v>
+        <v>188121.1343</v>
       </c>
       <c r="G144" t="n">
-        <v>11.50366666666665</v>
+        <v>11.49733333333332</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5445,8 +5795,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5465,13 +5821,13 @@
         <v>11.6</v>
       </c>
       <c r="E145" t="n">
-        <v>11.6</v>
+        <v>11.59</v>
       </c>
       <c r="F145" t="n">
-        <v>34700.9274</v>
+        <v>19921.2938</v>
       </c>
       <c r="G145" t="n">
-        <v>11.50933333333332</v>
+        <v>11.50366666666665</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5480,8 +5836,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5503,10 +5865,10 @@
         <v>11.6</v>
       </c>
       <c r="F146" t="n">
-        <v>30428.8233</v>
+        <v>34700.9274</v>
       </c>
       <c r="G146" t="n">
-        <v>11.51499999999999</v>
+        <v>11.50933333333332</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5515,8 +5877,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5538,10 +5906,10 @@
         <v>11.6</v>
       </c>
       <c r="F147" t="n">
-        <v>86576.933</v>
+        <v>30428.8233</v>
       </c>
       <c r="G147" t="n">
-        <v>11.52233333333332</v>
+        <v>11.51499999999999</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5550,8 +5918,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5573,10 +5947,10 @@
         <v>11.6</v>
       </c>
       <c r="F148" t="n">
-        <v>31551.9702</v>
+        <v>86576.933</v>
       </c>
       <c r="G148" t="n">
-        <v>11.52933333333332</v>
+        <v>11.52233333333332</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5585,8 +5959,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5596,33 +5976,80 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C149" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D149" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E149" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F149" t="n">
+        <v>31551.9702</v>
+      </c>
+      <c r="G149" t="n">
+        <v>11.52933333333332</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
         <v>11.59</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C150" t="n">
         <v>11.55</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D150" t="n">
         <v>11.59</v>
       </c>
-      <c r="E149" t="n">
+      <c r="E150" t="n">
         <v>11.55</v>
       </c>
-      <c r="F149" t="n">
+      <c r="F150" t="n">
         <v>523627.0548</v>
       </c>
-      <c r="G149" t="n">
+      <c r="G150" t="n">
         <v>11.53516666666665</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest SNT.xlsx
+++ b/BackTest/2020-01-16 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M150"/>
+  <dimension ref="A1:N160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>24429.9997</v>
       </c>
       <c r="G2" t="n">
+        <v>10.988</v>
+      </c>
+      <c r="H2" t="n">
         <v>10.97933333333332</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,27 @@
         <v>14047.5952</v>
       </c>
       <c r="G3" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>10.98049999999998</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>11.04</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +535,27 @@
         <v>199133.2067</v>
       </c>
       <c r="G4" t="n">
+        <v>10.98733333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>10.98433333333332</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10.93</v>
+      </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,27 @@
         <v>13562.7354</v>
       </c>
       <c r="G5" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>10.98616666666665</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11.06</v>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +623,27 @@
         <v>23852.3355</v>
       </c>
       <c r="G6" t="n">
+        <v>10.98466666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>10.98649999999998</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10.94</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,27 @@
         <v>7509.363</v>
       </c>
       <c r="G7" t="n">
+        <v>10.99533333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>10.98866666666665</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>10.95</v>
+      </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +711,27 @@
         <v>99662.7899</v>
       </c>
       <c r="G8" t="n">
+        <v>11.01133333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>10.99216666666665</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11.06</v>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +755,27 @@
         <v>27918.5208</v>
       </c>
       <c r="G9" t="n">
+        <v>11.038</v>
+      </c>
+      <c r="H9" t="n">
         <v>10.99799999999998</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11.14</v>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +799,25 @@
         <v>10338.0621</v>
       </c>
       <c r="G10" t="n">
+        <v>11.06666666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>11.00399999999998</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +841,25 @@
         <v>5716</v>
       </c>
       <c r="G11" t="n">
+        <v>11.09666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>11.01083333333332</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +883,25 @@
         <v>30961.7997</v>
       </c>
       <c r="G12" t="n">
+        <v>11.11466666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>11.01699999999998</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +925,25 @@
         <v>339014.831172242</v>
       </c>
       <c r="G13" t="n">
+        <v>11.14466666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>11.02583333333332</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +967,25 @@
         <v>18704.5757</v>
       </c>
       <c r="G14" t="n">
+        <v>11.16666666666666</v>
+      </c>
+      <c r="H14" t="n">
         <v>11.03266666666665</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1009,25 @@
         <v>50000</v>
       </c>
       <c r="G15" t="n">
+        <v>11.19466666666666</v>
+      </c>
+      <c r="H15" t="n">
         <v>11.04099999999998</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1051,25 @@
         <v>322132.5665</v>
       </c>
       <c r="G16" t="n">
+        <v>11.20666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>11.04466666666665</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1093,25 @@
         <v>1260.426</v>
       </c>
       <c r="G17" t="n">
+        <v>11.23066666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>11.05133333333331</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1135,25 @@
         <v>50</v>
       </c>
       <c r="G18" t="n">
+        <v>11.266</v>
+      </c>
+      <c r="H18" t="n">
         <v>11.05899999999998</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1177,25 @@
         <v>94202</v>
       </c>
       <c r="G19" t="n">
+        <v>11.29466666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>11.06866666666665</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1219,25 @@
         <v>5604.3394</v>
       </c>
       <c r="G20" t="n">
+        <v>11.32533333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>11.07633333333331</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1261,25 @@
         <v>60</v>
       </c>
       <c r="G21" t="n">
+        <v>11.36066666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>11.08599999999998</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1303,25 @@
         <v>198204.9999</v>
       </c>
       <c r="G22" t="n">
+        <v>11.38933333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>11.09599999999998</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1345,25 @@
         <v>4558.2843</v>
       </c>
       <c r="G23" t="n">
+        <v>11.41266666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>11.10616666666665</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1387,25 @@
         <v>510.6468</v>
       </c>
       <c r="G24" t="n">
+        <v>11.426</v>
+      </c>
+      <c r="H24" t="n">
         <v>11.11649999999998</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1429,25 @@
         <v>107366.7438</v>
       </c>
       <c r="G25" t="n">
+        <v>11.444</v>
+      </c>
+      <c r="H25" t="n">
         <v>11.12849999999998</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1471,25 @@
         <v>21322.9766</v>
       </c>
       <c r="G26" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="H26" t="n">
         <v>11.13899999999998</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1513,25 @@
         <v>27039.2534</v>
       </c>
       <c r="G27" t="n">
+        <v>11.464</v>
+      </c>
+      <c r="H27" t="n">
         <v>11.14583333333332</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1555,25 @@
         <v>1668</v>
       </c>
       <c r="G28" t="n">
+        <v>11.45066666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>11.15099999999998</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1597,25 @@
         <v>1938</v>
       </c>
       <c r="G29" t="n">
+        <v>11.44333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>11.15733333333332</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1639,25 @@
         <v>14515.4839</v>
       </c>
       <c r="G30" t="n">
+        <v>11.41866666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>11.15933333333331</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1681,25 @@
         <v>52480.8813</v>
       </c>
       <c r="G31" t="n">
+        <v>11.41266666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>11.16149999999998</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1723,25 @@
         <v>30485.786</v>
       </c>
       <c r="G32" t="n">
+        <v>11.39466666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>11.16349999999998</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1765,25 @@
         <v>12363.0212</v>
       </c>
       <c r="G33" t="n">
+        <v>11.37066666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>11.16483333333332</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1807,25 @@
         <v>43442.0765</v>
       </c>
       <c r="G34" t="n">
+        <v>11.34466666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>11.16633333333332</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1849,25 @@
         <v>17135.1428</v>
       </c>
       <c r="G35" t="n">
+        <v>11.32733333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>11.16766666666665</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1891,25 @@
         <v>263827.9862</v>
       </c>
       <c r="G36" t="n">
+        <v>11.31866666666666</v>
+      </c>
+      <c r="H36" t="n">
         <v>11.17249999999999</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1933,25 @@
         <v>100000</v>
       </c>
       <c r="G37" t="n">
+        <v>11.30066666666666</v>
+      </c>
+      <c r="H37" t="n">
         <v>11.17499999999998</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1975,25 @@
         <v>13592.9298</v>
       </c>
       <c r="G38" t="n">
+        <v>11.28799999999999</v>
+      </c>
+      <c r="H38" t="n">
         <v>11.17883333333332</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2017,25 @@
         <v>31372.705</v>
       </c>
       <c r="G39" t="n">
+        <v>11.27466666666666</v>
+      </c>
+      <c r="H39" t="n">
         <v>11.18266666666665</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2059,25 @@
         <v>18066.0141</v>
       </c>
       <c r="G40" t="n">
+        <v>11.26133333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>11.18816666666665</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2101,25 @@
         <v>40721.9477</v>
       </c>
       <c r="G41" t="n">
+        <v>11.24666666666666</v>
+      </c>
+      <c r="H41" t="n">
         <v>11.19449999999998</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2143,25 @@
         <v>32349.4465</v>
       </c>
       <c r="G42" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="H42" t="n">
         <v>11.19916666666665</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2185,25 @@
         <v>18120.0576</v>
       </c>
       <c r="G43" t="n">
+        <v>11.24066666666666</v>
+      </c>
+      <c r="H43" t="n">
         <v>11.20316666666664</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,22 +2227,25 @@
         <v>701.551</v>
       </c>
       <c r="G44" t="n">
+        <v>11.24133333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>11.20783333333331</v>
       </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="K44" t="n">
-        <v>11.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1957,26 +2269,25 @@
         <v>3185.0166</v>
       </c>
       <c r="G45" t="n">
+        <v>11.25333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>11.21266666666664</v>
       </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="K45" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2000,26 +2311,25 @@
         <v>25782.9393</v>
       </c>
       <c r="G46" t="n">
+        <v>11.27733333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>11.22066666666664</v>
       </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="K46" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2043,18 +2353,25 @@
         <v>12226.1517</v>
       </c>
       <c r="G47" t="n">
+        <v>11.29066666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>11.22599999999998</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2078,18 +2395,25 @@
         <v>258174.3471</v>
       </c>
       <c r="G48" t="n">
+        <v>11.306</v>
+      </c>
+      <c r="H48" t="n">
         <v>11.23149999999998</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2113,18 +2437,25 @@
         <v>5714.1387</v>
       </c>
       <c r="G49" t="n">
+        <v>11.332</v>
+      </c>
+      <c r="H49" t="n">
         <v>11.23966666666665</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,18 +2479,25 @@
         <v>2221.0617</v>
       </c>
       <c r="G50" t="n">
+        <v>11.35533333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>11.24783333333331</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2183,18 +2521,25 @@
         <v>7067.6876</v>
       </c>
       <c r="G51" t="n">
+        <v>11.36466666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>11.25716666666665</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2218,18 +2563,25 @@
         <v>10000</v>
       </c>
       <c r="G52" t="n">
+        <v>11.37933333333334</v>
+      </c>
+      <c r="H52" t="n">
         <v>11.26616666666665</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2253,18 +2605,25 @@
         <v>6717.1952</v>
       </c>
       <c r="G53" t="n">
+        <v>11.39533333333334</v>
+      </c>
+      <c r="H53" t="n">
         <v>11.27683333333331</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2288,18 +2647,25 @@
         <v>17655.5255</v>
       </c>
       <c r="G54" t="n">
+        <v>11.41466666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>11.28833333333332</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2323,18 +2689,25 @@
         <v>104835.3387</v>
       </c>
       <c r="G55" t="n">
+        <v>11.42733333333334</v>
+      </c>
+      <c r="H55" t="n">
         <v>11.29983333333332</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2358,18 +2731,25 @@
         <v>29400</v>
       </c>
       <c r="G56" t="n">
+        <v>11.442</v>
+      </c>
+      <c r="H56" t="n">
         <v>11.31133333333332</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2393,18 +2773,25 @@
         <v>111972.3703</v>
       </c>
       <c r="G57" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="H57" t="n">
         <v>11.31716666666665</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2428,18 +2815,25 @@
         <v>127033.7312</v>
       </c>
       <c r="G58" t="n">
+        <v>11.47133333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>11.32683333333332</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2463,18 +2857,25 @@
         <v>113279.0939</v>
       </c>
       <c r="G59" t="n">
+        <v>11.492</v>
+      </c>
+      <c r="H59" t="n">
         <v>11.33583333333332</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2498,18 +2899,25 @@
         <v>8405.1513</v>
       </c>
       <c r="G60" t="n">
+        <v>11.518</v>
+      </c>
+      <c r="H60" t="n">
         <v>11.34616666666665</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2533,18 +2941,25 @@
         <v>190</v>
       </c>
       <c r="G61" t="n">
+        <v>11.53266666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>11.35733333333332</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2568,18 +2983,25 @@
         <v>151035.6059</v>
       </c>
       <c r="G62" t="n">
+        <v>11.552</v>
+      </c>
+      <c r="H62" t="n">
         <v>11.36699999999998</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2603,18 +3025,25 @@
         <v>2656.266</v>
       </c>
       <c r="G63" t="n">
+        <v>11.564</v>
+      </c>
+      <c r="H63" t="n">
         <v>11.37666666666665</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2638,18 +3067,25 @@
         <v>43440.486</v>
       </c>
       <c r="G64" t="n">
+        <v>11.56533333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>11.38416666666665</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2673,18 +3109,25 @@
         <v>17108.63986313088</v>
       </c>
       <c r="G65" t="n">
+        <v>11.57866666666666</v>
+      </c>
+      <c r="H65" t="n">
         <v>11.39666666666665</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2708,18 +3151,25 @@
         <v>2500</v>
       </c>
       <c r="G66" t="n">
+        <v>11.57933333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>11.40583333333332</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,18 +3193,25 @@
         <v>200</v>
       </c>
       <c r="G67" t="n">
+        <v>11.58333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>11.41316666666665</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2778,18 +3235,25 @@
         <v>30190.3071</v>
       </c>
       <c r="G68" t="n">
+        <v>11.582</v>
+      </c>
+      <c r="H68" t="n">
         <v>11.41949999999999</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2813,18 +3277,25 @@
         <v>41340.7388</v>
       </c>
       <c r="G69" t="n">
+        <v>11.576</v>
+      </c>
+      <c r="H69" t="n">
         <v>11.42283333333332</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2848,18 +3319,25 @@
         <v>7071.1874</v>
       </c>
       <c r="G70" t="n">
+        <v>11.56333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>11.42399999999999</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2883,18 +3361,25 @@
         <v>8710.801393728223</v>
       </c>
       <c r="G71" t="n">
+        <v>11.55399999999999</v>
+      </c>
+      <c r="H71" t="n">
         <v>11.42566666666665</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2918,18 +3403,25 @@
         <v>14895.0895</v>
       </c>
       <c r="G72" t="n">
+        <v>11.55133333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>11.42633333333332</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2953,18 +3445,25 @@
         <v>18699.3805</v>
       </c>
       <c r="G73" t="n">
+        <v>11.53266666666666</v>
+      </c>
+      <c r="H73" t="n">
         <v>11.42383333333332</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2988,18 +3487,25 @@
         <v>147833.7312</v>
       </c>
       <c r="G74" t="n">
+        <v>11.512</v>
+      </c>
+      <c r="H74" t="n">
         <v>11.42216666666665</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3023,18 +3529,25 @@
         <v>34157.0499</v>
       </c>
       <c r="G75" t="n">
+        <v>11.486</v>
+      </c>
+      <c r="H75" t="n">
         <v>11.41899999999998</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3058,18 +3571,25 @@
         <v>157.5</v>
       </c>
       <c r="G76" t="n">
+        <v>11.46266666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>11.42133333333332</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3093,18 +3613,25 @@
         <v>3092.5</v>
       </c>
       <c r="G77" t="n">
+        <v>11.44533333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>11.42066666666665</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3128,18 +3655,25 @@
         <v>5704.152</v>
       </c>
       <c r="G78" t="n">
+        <v>11.43133333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>11.41799999999998</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3163,18 +3697,25 @@
         <v>10074.5883</v>
       </c>
       <c r="G79" t="n">
+        <v>11.41733333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>11.41483333333332</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3198,18 +3739,25 @@
         <v>1762.8096</v>
       </c>
       <c r="G80" t="n">
+        <v>11.38733333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>11.41216666666665</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3233,18 +3781,25 @@
         <v>5632.0934</v>
       </c>
       <c r="G81" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="H81" t="n">
         <v>11.40816666666665</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3268,18 +3823,25 @@
         <v>15034.9081</v>
       </c>
       <c r="G82" t="n">
+        <v>11.35133333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>11.40366666666665</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3303,18 +3865,25 @@
         <v>3956.7766</v>
       </c>
       <c r="G83" t="n">
+        <v>11.332</v>
+      </c>
+      <c r="H83" t="n">
         <v>11.39933333333332</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3338,18 +3907,25 @@
         <v>33.9734</v>
       </c>
       <c r="G84" t="n">
+        <v>11.31399999999999</v>
+      </c>
+      <c r="H84" t="n">
         <v>11.39483333333332</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3373,18 +3949,25 @@
         <v>9515.562</v>
       </c>
       <c r="G85" t="n">
+        <v>11.30199999999999</v>
+      </c>
+      <c r="H85" t="n">
         <v>11.38849999999998</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3408,18 +3991,25 @@
         <v>130773</v>
       </c>
       <c r="G86" t="n">
+        <v>11.28733333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>11.38249999999998</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3443,22 +4033,25 @@
         <v>4518</v>
       </c>
       <c r="G87" t="n">
+        <v>11.27933333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>11.38016666666665</v>
       </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="K87" t="n">
-        <v>11.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3482,24 +4075,25 @@
         <v>4409.4533</v>
       </c>
       <c r="G88" t="n">
+        <v>11.26666666666666</v>
+      </c>
+      <c r="H88" t="n">
         <v>11.37783333333332</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3523,24 +4117,25 @@
         <v>3000</v>
       </c>
       <c r="G89" t="n">
+        <v>11.25799999999999</v>
+      </c>
+      <c r="H89" t="n">
         <v>11.37583333333332</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3564,26 +4159,25 @@
         <v>55570.9105</v>
       </c>
       <c r="G90" t="n">
+        <v>11.25066666666666</v>
+      </c>
+      <c r="H90" t="n">
         <v>11.37699999999998</v>
       </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="K90" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3607,26 +4201,25 @@
         <v>4117.318</v>
       </c>
       <c r="G91" t="n">
+        <v>11.23799999999999</v>
+      </c>
+      <c r="H91" t="n">
         <v>11.37766666666665</v>
       </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K91" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3650,26 +4243,25 @@
         <v>3039</v>
       </c>
       <c r="G92" t="n">
+        <v>11.22533333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>11.37833333333332</v>
       </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>11.17</v>
-      </c>
-      <c r="K92" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3693,26 +4285,25 @@
         <v>8860.8943</v>
       </c>
       <c r="G93" t="n">
+        <v>11.22666666666666</v>
+      </c>
+      <c r="H93" t="n">
         <v>11.38199999999998</v>
       </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>11.17</v>
-      </c>
-      <c r="K93" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3736,24 +4327,25 @@
         <v>37225.7561</v>
       </c>
       <c r="G94" t="n">
+        <v>11.22133333333332</v>
+      </c>
+      <c r="H94" t="n">
         <v>11.38399999999998</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3777,24 +4369,25 @@
         <v>10000</v>
       </c>
       <c r="G95" t="n">
+        <v>11.22533333333332</v>
+      </c>
+      <c r="H95" t="n">
         <v>11.38666666666665</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3818,24 +4411,25 @@
         <v>24659.7303</v>
       </c>
       <c r="G96" t="n">
+        <v>11.22933333333332</v>
+      </c>
+      <c r="H96" t="n">
         <v>11.38583333333332</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3859,24 +4453,25 @@
         <v>1500</v>
       </c>
       <c r="G97" t="n">
+        <v>11.23999999999999</v>
+      </c>
+      <c r="H97" t="n">
         <v>11.38849999999998</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3900,24 +4495,25 @@
         <v>21226.6916</v>
       </c>
       <c r="G98" t="n">
+        <v>11.24999999999999</v>
+      </c>
+      <c r="H98" t="n">
         <v>11.38983333333332</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3941,24 +4537,25 @@
         <v>3763.0658</v>
       </c>
       <c r="G99" t="n">
+        <v>11.25666666666666</v>
+      </c>
+      <c r="H99" t="n">
         <v>11.39033333333332</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3982,24 +4579,25 @@
         <v>17444.799</v>
       </c>
       <c r="G100" t="n">
+        <v>11.26399999999999</v>
+      </c>
+      <c r="H100" t="n">
         <v>11.38916666666665</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4023,24 +4621,25 @@
         <v>73.71420000000001</v>
       </c>
       <c r="G101" t="n">
+        <v>11.26399999999999</v>
+      </c>
+      <c r="H101" t="n">
         <v>11.38683333333332</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4064,24 +4663,25 @@
         <v>25646</v>
       </c>
       <c r="G102" t="n">
+        <v>11.26399999999999</v>
+      </c>
+      <c r="H102" t="n">
         <v>11.38616666666665</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4105,24 +4705,25 @@
         <v>12891.3788</v>
       </c>
       <c r="G103" t="n">
+        <v>11.27066666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>11.38533333333332</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4146,24 +4747,25 @@
         <v>9442.650900000001</v>
       </c>
       <c r="G104" t="n">
+        <v>11.27666666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>11.38466666666665</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4187,24 +4789,25 @@
         <v>24211.2828</v>
       </c>
       <c r="G105" t="n">
+        <v>11.28999999999999</v>
+      </c>
+      <c r="H105" t="n">
         <v>11.38616666666666</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,24 +4831,25 @@
         <v>25485.35</v>
       </c>
       <c r="G106" t="n">
+        <v>11.30399999999999</v>
+      </c>
+      <c r="H106" t="n">
         <v>11.38433333333332</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4269,24 +4873,25 @@
         <v>8373.938399999999</v>
       </c>
       <c r="G107" t="n">
+        <v>11.32066666666666</v>
+      </c>
+      <c r="H107" t="n">
         <v>11.38583333333332</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4310,24 +4915,25 @@
         <v>178421.7664</v>
       </c>
       <c r="G108" t="n">
+        <v>11.33066666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>11.38816666666665</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4351,24 +4957,25 @@
         <v>134910.3993</v>
       </c>
       <c r="G109" t="n">
+        <v>11.34866666666666</v>
+      </c>
+      <c r="H109" t="n">
         <v>11.38816666666665</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4392,24 +4999,25 @@
         <v>24211.2828</v>
       </c>
       <c r="G110" t="n">
+        <v>11.36133333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>11.38816666666665</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4433,24 +5041,25 @@
         <v>2000</v>
       </c>
       <c r="G111" t="n">
+        <v>11.37466666666666</v>
+      </c>
+      <c r="H111" t="n">
         <v>11.38833333333332</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,24 +5083,25 @@
         <v>7932.5618</v>
       </c>
       <c r="G112" t="n">
+        <v>11.38266666666666</v>
+      </c>
+      <c r="H112" t="n">
         <v>11.38933333333332</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4515,24 +5125,25 @@
         <v>35821.452</v>
       </c>
       <c r="G113" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="H113" t="n">
         <v>11.38849999999999</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4556,24 +5167,25 @@
         <v>54800</v>
       </c>
       <c r="G114" t="n">
+        <v>11.40133333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>11.38699999999998</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4597,24 +5209,25 @@
         <v>55831.1318</v>
       </c>
       <c r="G115" t="n">
+        <v>11.41266666666666</v>
+      </c>
+      <c r="H115" t="n">
         <v>11.38549999999998</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4638,24 +5251,25 @@
         <v>314050.1168</v>
       </c>
       <c r="G116" t="n">
+        <v>11.42866666666666</v>
+      </c>
+      <c r="H116" t="n">
         <v>11.38349999999999</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4679,24 +5293,25 @@
         <v>2300</v>
       </c>
       <c r="G117" t="n">
+        <v>11.444</v>
+      </c>
+      <c r="H117" t="n">
         <v>11.38466666666665</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4720,24 +5335,25 @@
         <v>104159.3663</v>
       </c>
       <c r="G118" t="n">
+        <v>11.47266666666666</v>
+      </c>
+      <c r="H118" t="n">
         <v>11.38566666666665</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4761,24 +5377,25 @@
         <v>42771</v>
       </c>
       <c r="G119" t="n">
+        <v>11.50066666666666</v>
+      </c>
+      <c r="H119" t="n">
         <v>11.38683333333332</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4802,24 +5419,25 @@
         <v>56780.7692</v>
       </c>
       <c r="G120" t="n">
+        <v>11.52066666666666</v>
+      </c>
+      <c r="H120" t="n">
         <v>11.38683333333332</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4843,24 +5461,25 @@
         <v>246874.8274</v>
       </c>
       <c r="G121" t="n">
+        <v>11.54799999999999</v>
+      </c>
+      <c r="H121" t="n">
         <v>11.38816666666665</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4884,24 +5503,25 @@
         <v>80937.6574</v>
       </c>
       <c r="G122" t="n">
+        <v>11.56666666666666</v>
+      </c>
+      <c r="H122" t="n">
         <v>11.38949999999999</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4925,24 +5545,25 @@
         <v>106303.9457</v>
       </c>
       <c r="G123" t="n">
+        <v>11.58866666666666</v>
+      </c>
+      <c r="H123" t="n">
         <v>11.39433333333332</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4966,24 +5587,25 @@
         <v>90992.232</v>
       </c>
       <c r="G124" t="n">
+        <v>11.60933333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>11.39916666666665</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5007,26 +5629,25 @@
         <v>78164.6269</v>
       </c>
       <c r="G125" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="H125" t="n">
         <v>11.40099999999998</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5048,24 +5669,21 @@
         <v>127737.6338</v>
       </c>
       <c r="G126" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="H126" t="n">
         <v>11.40599999999998</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,24 +5707,21 @@
         <v>34264.635</v>
       </c>
       <c r="G127" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="H127" t="n">
         <v>11.41099999999998</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5130,24 +5745,21 @@
         <v>1494.5756</v>
       </c>
       <c r="G128" t="n">
+        <v>11.67866666666666</v>
+      </c>
+      <c r="H128" t="n">
         <v>11.41266666666665</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5171,24 +5783,21 @@
         <v>54563.2194</v>
       </c>
       <c r="G129" t="n">
+        <v>11.682</v>
+      </c>
+      <c r="H129" t="n">
         <v>11.41349999999998</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5212,24 +5821,21 @@
         <v>49737</v>
       </c>
       <c r="G130" t="n">
+        <v>11.68733333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>11.41649999999998</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5253,24 +5859,21 @@
         <v>15000</v>
       </c>
       <c r="G131" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="H131" t="n">
         <v>11.41999999999998</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5294,24 +5897,21 @@
         <v>61200</v>
       </c>
       <c r="G132" t="n">
+        <v>11.706</v>
+      </c>
+      <c r="H132" t="n">
         <v>11.42333333333332</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5335,24 +5935,21 @@
         <v>88</v>
       </c>
       <c r="G133" t="n">
+        <v>11.70533333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>11.42883333333332</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5376,24 +5973,21 @@
         <v>44</v>
       </c>
       <c r="G134" t="n">
+        <v>11.704</v>
+      </c>
+      <c r="H134" t="n">
         <v>11.43483333333332</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5417,24 +6011,21 @@
         <v>7155.8609</v>
       </c>
       <c r="G135" t="n">
+        <v>11.69666666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>11.43949999999998</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5458,24 +6049,21 @@
         <v>44</v>
       </c>
       <c r="G136" t="n">
+        <v>11.688</v>
+      </c>
+      <c r="H136" t="n">
         <v>11.44449999999998</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5499,24 +6087,21 @@
         <v>27371.658</v>
       </c>
       <c r="G137" t="n">
+        <v>11.68733333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>11.44999999999999</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5540,24 +6125,21 @@
         <v>44</v>
       </c>
       <c r="G138" t="n">
+        <v>11.686</v>
+      </c>
+      <c r="H138" t="n">
         <v>11.45799999999999</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5581,24 +6163,21 @@
         <v>140000</v>
       </c>
       <c r="G139" t="n">
+        <v>11.67333333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>11.46316666666665</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5622,24 +6201,21 @@
         <v>86.0586</v>
       </c>
       <c r="G140" t="n">
+        <v>11.66133333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>11.46949999999999</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,24 +6239,21 @@
         <v>88132.62149999999</v>
       </c>
       <c r="G141" t="n">
+        <v>11.64933333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>11.47583333333332</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5704,24 +6277,21 @@
         <v>59887.5125</v>
       </c>
       <c r="G142" t="n">
+        <v>11.63666666666666</v>
+      </c>
+      <c r="H142" t="n">
         <v>11.48233333333332</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5745,24 +6315,21 @@
         <v>500</v>
       </c>
       <c r="G143" t="n">
+        <v>11.646</v>
+      </c>
+      <c r="H143" t="n">
         <v>11.49116666666665</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5786,24 +6353,21 @@
         <v>188121.1343</v>
       </c>
       <c r="G144" t="n">
+        <v>11.64933333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>11.49733333333332</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5827,24 +6391,21 @@
         <v>19921.2938</v>
       </c>
       <c r="G145" t="n">
+        <v>11.65066666666666</v>
+      </c>
+      <c r="H145" t="n">
         <v>11.50366666666665</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5868,24 +6429,21 @@
         <v>34700.9274</v>
       </c>
       <c r="G146" t="n">
+        <v>11.64466666666666</v>
+      </c>
+      <c r="H146" t="n">
         <v>11.50933333333332</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5909,24 +6467,21 @@
         <v>30428.8233</v>
       </c>
       <c r="G147" t="n">
+        <v>11.64599999999999</v>
+      </c>
+      <c r="H147" t="n">
         <v>11.51499999999999</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5950,24 +6505,21 @@
         <v>86576.933</v>
       </c>
       <c r="G148" t="n">
+        <v>11.64066666666666</v>
+      </c>
+      <c r="H148" t="n">
         <v>11.52233333333332</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5991,24 +6543,21 @@
         <v>31551.9702</v>
       </c>
       <c r="G149" t="n">
+        <v>11.63599999999999</v>
+      </c>
+      <c r="H149" t="n">
         <v>11.52933333333332</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6032,24 +6581,401 @@
         <v>523627.0548</v>
       </c>
       <c r="G150" t="n">
+        <v>11.63333333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>11.53516666666665</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C151" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D151" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E151" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F151" t="n">
+        <v>25909.2562</v>
+      </c>
+      <c r="G151" t="n">
+        <v>11.62599999999999</v>
+      </c>
+      <c r="H151" t="n">
+        <v>11.54149999999999</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="C152" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="D152" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="E152" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="F152" t="n">
+        <v>86741.0401</v>
+      </c>
+      <c r="G152" t="n">
+        <v>11.61599999999999</v>
+      </c>
+      <c r="H152" t="n">
+        <v>11.54766666666665</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C153" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D153" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E153" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F153" t="n">
+        <v>51184.638</v>
+      </c>
+      <c r="G153" t="n">
+        <v>11.60066666666666</v>
+      </c>
+      <c r="H153" t="n">
+        <v>11.55149999999998</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="C154" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="D154" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="E154" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="F154" t="n">
+        <v>88470.9047</v>
+      </c>
+      <c r="G154" t="n">
+        <v>11.59599999999999</v>
+      </c>
+      <c r="H154" t="n">
+        <v>11.55683333333332</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="C155" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="D155" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="E155" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="F155" t="n">
+        <v>21529.0953</v>
+      </c>
+      <c r="G155" t="n">
+        <v>11.59066666666666</v>
+      </c>
+      <c r="H155" t="n">
+        <v>11.56083333333332</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C156" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D156" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E156" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G156" t="n">
+        <v>11.59533333333332</v>
+      </c>
+      <c r="H156" t="n">
+        <v>11.56733333333332</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C157" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D157" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E157" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2087.0825</v>
+      </c>
+      <c r="G157" t="n">
+        <v>11.60066666666666</v>
+      </c>
+      <c r="H157" t="n">
+        <v>11.57249999999999</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C158" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D158" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E158" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F158" t="n">
+        <v>299699.0614</v>
+      </c>
+      <c r="G158" t="n">
+        <v>11.59599999999999</v>
+      </c>
+      <c r="H158" t="n">
+        <v>11.57766666666666</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C159" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D159" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E159" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F159" t="n">
+        <v>18458</v>
+      </c>
+      <c r="G159" t="n">
+        <v>11.60266666666666</v>
+      </c>
+      <c r="H159" t="n">
+        <v>11.58383333333332</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C160" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D160" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E160" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G160" t="n">
+        <v>11.60933333333332</v>
+      </c>
+      <c r="H160" t="n">
+        <v>11.58999999999999</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest SNT.xlsx
+++ b/BackTest/2020-01-16 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N160"/>
+  <dimension ref="A1:M189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.04</v>
+        <v>11.05</v>
       </c>
       <c r="C2" t="n">
-        <v>11.04</v>
+        <v>11.02</v>
       </c>
       <c r="D2" t="n">
-        <v>11.04</v>
+        <v>11.05</v>
       </c>
       <c r="E2" t="n">
-        <v>11.04</v>
+        <v>11.02</v>
       </c>
       <c r="F2" t="n">
-        <v>24429.9997</v>
+        <v>13729.7895</v>
       </c>
       <c r="G2" t="n">
-        <v>10.988</v>
+        <v>-166914.1262000003</v>
       </c>
       <c r="H2" t="n">
-        <v>10.97933333333332</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,42 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.04</v>
+        <v>11.01</v>
       </c>
       <c r="C3" t="n">
-        <v>10.93</v>
+        <v>11.01</v>
       </c>
       <c r="D3" t="n">
-        <v>11.04</v>
+        <v>11.01</v>
       </c>
       <c r="E3" t="n">
-        <v>10.93</v>
+        <v>11.01</v>
       </c>
       <c r="F3" t="n">
-        <v>14047.5952</v>
+        <v>7785.8838</v>
       </c>
       <c r="G3" t="n">
-        <v>10.98333333333333</v>
+        <v>-174700.0100000004</v>
       </c>
       <c r="H3" t="n">
-        <v>10.98049999999998</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>11.02</v>
       </c>
       <c r="K3" t="n">
-        <v>11.04</v>
+        <v>11.02</v>
       </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -532,30 +519,27 @@
         <v>11.06</v>
       </c>
       <c r="F4" t="n">
-        <v>199133.2067</v>
+        <v>8398.9717</v>
       </c>
       <c r="G4" t="n">
-        <v>10.98733333333333</v>
+        <v>-166301.0383000004</v>
       </c>
       <c r="H4" t="n">
-        <v>10.98433333333332</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
+        <v>11.02</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,42 +548,41 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10.94</v>
+        <v>11.06</v>
       </c>
       <c r="C5" t="n">
-        <v>10.94</v>
+        <v>11.06</v>
       </c>
       <c r="D5" t="n">
-        <v>10.94</v>
+        <v>11.06</v>
       </c>
       <c r="E5" t="n">
-        <v>10.94</v>
+        <v>11.06</v>
       </c>
       <c r="F5" t="n">
-        <v>13562.7354</v>
+        <v>16191.5872</v>
       </c>
       <c r="G5" t="n">
-        <v>10.98333333333333</v>
+        <v>-166301.0383000004</v>
       </c>
       <c r="H5" t="n">
-        <v>10.98616666666665</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.06</v>
       </c>
       <c r="K5" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
+        <v>11.02</v>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -608,42 +591,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.95</v>
+        <v>11.07</v>
       </c>
       <c r="C6" t="n">
-        <v>10.95</v>
+        <v>11.07</v>
       </c>
       <c r="D6" t="n">
-        <v>10.95</v>
+        <v>11.07</v>
       </c>
       <c r="E6" t="n">
-        <v>10.95</v>
+        <v>11.07</v>
       </c>
       <c r="F6" t="n">
-        <v>23852.3355</v>
+        <v>12340.4467</v>
       </c>
       <c r="G6" t="n">
-        <v>10.98466666666667</v>
+        <v>-153960.5916000004</v>
       </c>
       <c r="H6" t="n">
-        <v>10.98649999999998</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>10.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,42 +626,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.06</v>
+        <v>11.07</v>
       </c>
       <c r="C7" t="n">
-        <v>11.06</v>
+        <v>11.07</v>
       </c>
       <c r="D7" t="n">
-        <v>11.06</v>
+        <v>11.07</v>
       </c>
       <c r="E7" t="n">
-        <v>11.06</v>
+        <v>11.07</v>
       </c>
       <c r="F7" t="n">
-        <v>7509.363</v>
+        <v>18110.6587</v>
       </c>
       <c r="G7" t="n">
-        <v>10.99533333333333</v>
+        <v>-153960.5916000004</v>
       </c>
       <c r="H7" t="n">
-        <v>10.98866666666665</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>10.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -699,39 +664,30 @@
         <v>11.07</v>
       </c>
       <c r="C8" t="n">
-        <v>11.14</v>
+        <v>11.07</v>
       </c>
       <c r="D8" t="n">
-        <v>11.14</v>
+        <v>11.07</v>
       </c>
       <c r="E8" t="n">
         <v>11.07</v>
       </c>
       <c r="F8" t="n">
-        <v>99662.7899</v>
+        <v>49597.4344</v>
       </c>
       <c r="G8" t="n">
-        <v>11.01133333333333</v>
+        <v>-153960.5916000004</v>
       </c>
       <c r="H8" t="n">
-        <v>10.99216666666665</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>11.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -740,42 +696,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.14</v>
+        <v>11.07</v>
       </c>
       <c r="C9" t="n">
-        <v>11.3</v>
+        <v>11.07</v>
       </c>
       <c r="D9" t="n">
-        <v>11.3</v>
+        <v>11.07</v>
       </c>
       <c r="E9" t="n">
-        <v>11.14</v>
+        <v>11.07</v>
       </c>
       <c r="F9" t="n">
-        <v>27918.5208</v>
+        <v>6795.4368</v>
       </c>
       <c r="G9" t="n">
-        <v>11.038</v>
+        <v>-153960.5916000004</v>
       </c>
       <c r="H9" t="n">
-        <v>10.99799999999998</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>11.07</v>
       </c>
       <c r="K9" t="n">
-        <v>11.14</v>
+        <v>11.07</v>
       </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -784,40 +735,41 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.33</v>
+        <v>11.02</v>
       </c>
       <c r="C10" t="n">
-        <v>11.33</v>
+        <v>11.02</v>
       </c>
       <c r="D10" t="n">
-        <v>11.33</v>
+        <v>11.02</v>
       </c>
       <c r="E10" t="n">
-        <v>11.33</v>
+        <v>11.02</v>
       </c>
       <c r="F10" t="n">
-        <v>10338.0621</v>
+        <v>7177.2206</v>
       </c>
       <c r="G10" t="n">
-        <v>11.06666666666667</v>
+        <v>-161137.8122000004</v>
       </c>
       <c r="H10" t="n">
-        <v>11.00399999999998</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
+        <v>11.07</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -826,40 +778,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.34</v>
+        <v>11.02</v>
       </c>
       <c r="C11" t="n">
-        <v>11.38</v>
+        <v>11.02</v>
       </c>
       <c r="D11" t="n">
-        <v>11.38</v>
+        <v>11.02</v>
       </c>
       <c r="E11" t="n">
-        <v>11.34</v>
+        <v>11.02</v>
       </c>
       <c r="F11" t="n">
-        <v>5716</v>
+        <v>5123.5193</v>
       </c>
       <c r="G11" t="n">
-        <v>11.09666666666667</v>
+        <v>-161137.8122000004</v>
       </c>
       <c r="H11" t="n">
-        <v>11.01083333333332</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,40 +819,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.38</v>
+        <v>11.07</v>
       </c>
       <c r="C12" t="n">
-        <v>11.34</v>
+        <v>11.07</v>
       </c>
       <c r="D12" t="n">
-        <v>11.4</v>
+        <v>11.07</v>
       </c>
       <c r="E12" t="n">
-        <v>11.34</v>
+        <v>11.07</v>
       </c>
       <c r="F12" t="n">
-        <v>30961.7997</v>
+        <v>500</v>
       </c>
       <c r="G12" t="n">
-        <v>11.11466666666667</v>
+        <v>-160637.8122000004</v>
       </c>
       <c r="H12" t="n">
-        <v>11.01699999999998</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -910,40 +854,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.4</v>
+        <v>11.03</v>
       </c>
       <c r="C13" t="n">
-        <v>11.5</v>
+        <v>11.03</v>
       </c>
       <c r="D13" t="n">
-        <v>11.5</v>
+        <v>11.03</v>
       </c>
       <c r="E13" t="n">
-        <v>11.4</v>
+        <v>11.03</v>
       </c>
       <c r="F13" t="n">
-        <v>339014.831172242</v>
+        <v>4692.0514</v>
       </c>
       <c r="G13" t="n">
-        <v>11.14466666666667</v>
+        <v>-165329.8636000004</v>
       </c>
       <c r="H13" t="n">
-        <v>11.02583333333332</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -952,40 +889,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.42</v>
+        <v>11.03</v>
       </c>
       <c r="C14" t="n">
-        <v>11.41</v>
+        <v>11.02</v>
       </c>
       <c r="D14" t="n">
-        <v>11.42</v>
+        <v>11.03</v>
       </c>
       <c r="E14" t="n">
-        <v>11.41</v>
+        <v>11.02</v>
       </c>
       <c r="F14" t="n">
-        <v>18704.5757</v>
+        <v>11649.0993</v>
       </c>
       <c r="G14" t="n">
-        <v>11.16666666666666</v>
+        <v>-176978.9629000004</v>
       </c>
       <c r="H14" t="n">
-        <v>11.03266666666665</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -994,40 +924,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.5</v>
+        <v>11.02</v>
       </c>
       <c r="C15" t="n">
-        <v>11.5</v>
+        <v>11.01</v>
       </c>
       <c r="D15" t="n">
-        <v>11.5</v>
+        <v>11.02</v>
       </c>
       <c r="E15" t="n">
-        <v>11.5</v>
+        <v>11.01</v>
       </c>
       <c r="F15" t="n">
-        <v>50000</v>
+        <v>42578.9788</v>
       </c>
       <c r="G15" t="n">
-        <v>11.19466666666666</v>
+        <v>-219557.9417000004</v>
       </c>
       <c r="H15" t="n">
-        <v>11.04099999999998</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1036,40 +959,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11.42</v>
+        <v>11.02</v>
       </c>
       <c r="C16" t="n">
-        <v>11.22</v>
+        <v>11.01</v>
       </c>
       <c r="D16" t="n">
-        <v>11.42</v>
+        <v>11.02</v>
       </c>
       <c r="E16" t="n">
-        <v>11.22</v>
+        <v>11.01</v>
       </c>
       <c r="F16" t="n">
-        <v>322132.5665</v>
+        <v>9858.685799999999</v>
       </c>
       <c r="G16" t="n">
-        <v>11.20666666666667</v>
+        <v>-219557.9417000004</v>
       </c>
       <c r="H16" t="n">
-        <v>11.04466666666665</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,40 +994,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="C17" t="n">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="E17" t="n">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="F17" t="n">
-        <v>1260.426</v>
+        <v>7789.434</v>
       </c>
       <c r="G17" t="n">
-        <v>11.23066666666667</v>
+        <v>-227347.3757000004</v>
       </c>
       <c r="H17" t="n">
-        <v>11.05133333333331</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1120,40 +1029,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11.46</v>
+        <v>11</v>
       </c>
       <c r="C18" t="n">
-        <v>11.46</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>11.46</v>
+        <v>11</v>
       </c>
       <c r="E18" t="n">
-        <v>11.46</v>
+        <v>11</v>
       </c>
       <c r="F18" t="n">
-        <v>50</v>
+        <v>16273.9999</v>
       </c>
       <c r="G18" t="n">
-        <v>11.266</v>
+        <v>-227347.3757000004</v>
       </c>
       <c r="H18" t="n">
-        <v>11.05899999999998</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1162,40 +1064,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11.46</v>
+        <v>11</v>
       </c>
       <c r="C19" t="n">
-        <v>11.49</v>
+        <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>11.49</v>
+        <v>11</v>
       </c>
       <c r="E19" t="n">
-        <v>11.45</v>
+        <v>11</v>
       </c>
       <c r="F19" t="n">
-        <v>94202</v>
+        <v>2024.6887</v>
       </c>
       <c r="G19" t="n">
-        <v>11.29466666666667</v>
+        <v>-227347.3757000004</v>
       </c>
       <c r="H19" t="n">
-        <v>11.06866666666665</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1204,40 +1099,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.4</v>
+        <v>10.93</v>
       </c>
       <c r="C20" t="n">
-        <v>11.4</v>
+        <v>10.93</v>
       </c>
       <c r="D20" t="n">
-        <v>11.4</v>
+        <v>10.93</v>
       </c>
       <c r="E20" t="n">
-        <v>11.4</v>
+        <v>10.93</v>
       </c>
       <c r="F20" t="n">
-        <v>5604.3394</v>
+        <v>141.3142</v>
       </c>
       <c r="G20" t="n">
-        <v>11.32533333333333</v>
+        <v>-227488.6899000004</v>
       </c>
       <c r="H20" t="n">
-        <v>11.07633333333331</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1246,40 +1134,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11.48</v>
+        <v>10.93</v>
       </c>
       <c r="C21" t="n">
-        <v>11.48</v>
+        <v>10.9</v>
       </c>
       <c r="D21" t="n">
-        <v>11.48</v>
+        <v>10.93</v>
       </c>
       <c r="E21" t="n">
-        <v>11.48</v>
+        <v>10.9</v>
       </c>
       <c r="F21" t="n">
-        <v>60</v>
+        <v>227182.3107</v>
       </c>
       <c r="G21" t="n">
-        <v>11.36066666666667</v>
+        <v>-454671.0006000004</v>
       </c>
       <c r="H21" t="n">
-        <v>11.08599999999998</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,40 +1169,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.49</v>
+        <v>10.9</v>
       </c>
       <c r="C22" t="n">
-        <v>11.49</v>
+        <v>10.9</v>
       </c>
       <c r="D22" t="n">
-        <v>11.49</v>
+        <v>10.9</v>
       </c>
       <c r="E22" t="n">
-        <v>11.49</v>
+        <v>10.9</v>
       </c>
       <c r="F22" t="n">
-        <v>198204.9999</v>
+        <v>102782.534</v>
       </c>
       <c r="G22" t="n">
-        <v>11.38933333333333</v>
+        <v>-454671.0006000004</v>
       </c>
       <c r="H22" t="n">
-        <v>11.09599999999998</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1330,40 +1204,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11.49</v>
+        <v>10.9</v>
       </c>
       <c r="C23" t="n">
-        <v>11.49</v>
+        <v>10.9</v>
       </c>
       <c r="D23" t="n">
-        <v>11.49</v>
+        <v>10.9</v>
       </c>
       <c r="E23" t="n">
-        <v>11.49</v>
+        <v>10.9</v>
       </c>
       <c r="F23" t="n">
-        <v>4558.2843</v>
+        <v>5087.3364</v>
       </c>
       <c r="G23" t="n">
-        <v>11.41266666666667</v>
+        <v>-454671.0006000004</v>
       </c>
       <c r="H23" t="n">
-        <v>11.10616666666665</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1372,40 +1239,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.5</v>
+        <v>10.9</v>
       </c>
       <c r="C24" t="n">
-        <v>11.5</v>
+        <v>10.9</v>
       </c>
       <c r="D24" t="n">
-        <v>11.5</v>
+        <v>10.9</v>
       </c>
       <c r="E24" t="n">
-        <v>11.5</v>
+        <v>10.9</v>
       </c>
       <c r="F24" t="n">
-        <v>510.6468</v>
+        <v>101016.9517</v>
       </c>
       <c r="G24" t="n">
-        <v>11.426</v>
+        <v>-454671.0006000004</v>
       </c>
       <c r="H24" t="n">
-        <v>11.11649999999998</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1414,40 +1274,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.52</v>
+        <v>10.93</v>
       </c>
       <c r="C25" t="n">
-        <v>11.6</v>
+        <v>10.93</v>
       </c>
       <c r="D25" t="n">
-        <v>11.6</v>
+        <v>10.93</v>
       </c>
       <c r="E25" t="n">
-        <v>11.52</v>
+        <v>10.93</v>
       </c>
       <c r="F25" t="n">
-        <v>107366.7438</v>
+        <v>46907.5479</v>
       </c>
       <c r="G25" t="n">
-        <v>11.444</v>
+        <v>-407763.4527000004</v>
       </c>
       <c r="H25" t="n">
-        <v>11.12849999999998</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1456,40 +1309,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.6</v>
+        <v>11.07</v>
       </c>
       <c r="C26" t="n">
-        <v>11.62</v>
+        <v>11.07</v>
       </c>
       <c r="D26" t="n">
-        <v>11.62</v>
+        <v>11.07</v>
       </c>
       <c r="E26" t="n">
-        <v>11.6</v>
+        <v>11.07</v>
       </c>
       <c r="F26" t="n">
-        <v>21322.9766</v>
+        <v>76384.90919999999</v>
       </c>
       <c r="G26" t="n">
-        <v>11.46</v>
+        <v>-331378.5435000004</v>
       </c>
       <c r="H26" t="n">
-        <v>11.13899999999998</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
+        <v>10.93</v>
+      </c>
+      <c r="K26" t="n">
+        <v>10.93</v>
+      </c>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,40 +1348,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.49</v>
+        <v>11.05</v>
       </c>
       <c r="C27" t="n">
-        <v>11.4</v>
+        <v>11.05</v>
       </c>
       <c r="D27" t="n">
-        <v>11.49</v>
+        <v>11.05</v>
       </c>
       <c r="E27" t="n">
-        <v>11.4</v>
+        <v>11.05</v>
       </c>
       <c r="F27" t="n">
-        <v>27039.2534</v>
+        <v>3000</v>
       </c>
       <c r="G27" t="n">
-        <v>11.464</v>
+        <v>-334378.5435000004</v>
       </c>
       <c r="H27" t="n">
-        <v>11.14583333333332</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,40 +1389,41 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.3</v>
+        <v>11.04</v>
       </c>
       <c r="C28" t="n">
-        <v>11.3</v>
+        <v>11.08</v>
       </c>
       <c r="D28" t="n">
-        <v>11.3</v>
+        <v>11.08</v>
       </c>
       <c r="E28" t="n">
-        <v>11.3</v>
+        <v>11.04</v>
       </c>
       <c r="F28" t="n">
-        <v>1668</v>
+        <v>14932.6987</v>
       </c>
       <c r="G28" t="n">
-        <v>11.45066666666667</v>
+        <v>-319445.8448000004</v>
       </c>
       <c r="H28" t="n">
-        <v>11.15099999999998</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
+        <v>11.05</v>
+      </c>
+      <c r="K28" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1582,40 +1432,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.3</v>
+        <v>11.04</v>
       </c>
       <c r="C29" t="n">
-        <v>11.3</v>
+        <v>11.08</v>
       </c>
       <c r="D29" t="n">
-        <v>11.3</v>
+        <v>11.08</v>
       </c>
       <c r="E29" t="n">
-        <v>11.3</v>
+        <v>11.04</v>
       </c>
       <c r="F29" t="n">
-        <v>1938</v>
+        <v>6646.375475812274</v>
       </c>
       <c r="G29" t="n">
-        <v>11.44333333333333</v>
+        <v>-319445.8448000004</v>
       </c>
       <c r="H29" t="n">
-        <v>11.15733333333332</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1624,40 +1467,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.13</v>
+        <v>11.04</v>
       </c>
       <c r="C30" t="n">
-        <v>11.13</v>
+        <v>11.04</v>
       </c>
       <c r="D30" t="n">
-        <v>11.13</v>
+        <v>11.04</v>
       </c>
       <c r="E30" t="n">
-        <v>11.13</v>
+        <v>11.04</v>
       </c>
       <c r="F30" t="n">
-        <v>14515.4839</v>
+        <v>4993.7578</v>
       </c>
       <c r="G30" t="n">
-        <v>11.41866666666667</v>
+        <v>-324439.6026000004</v>
       </c>
       <c r="H30" t="n">
-        <v>11.15933333333331</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1666,40 +1502,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11.03</v>
+        <v>11.04</v>
       </c>
       <c r="C31" t="n">
-        <v>11.13</v>
+        <v>11.04</v>
       </c>
       <c r="D31" t="n">
-        <v>11.13</v>
+        <v>11.04</v>
       </c>
       <c r="E31" t="n">
-        <v>11.03</v>
+        <v>11.04</v>
       </c>
       <c r="F31" t="n">
-        <v>52480.8813</v>
+        <v>24429.9997</v>
       </c>
       <c r="G31" t="n">
-        <v>11.41266666666667</v>
+        <v>-324439.6026000004</v>
       </c>
       <c r="H31" t="n">
-        <v>11.16149999999998</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,40 +1537,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.13</v>
+        <v>11.04</v>
       </c>
       <c r="C32" t="n">
-        <v>11.13</v>
+        <v>10.93</v>
       </c>
       <c r="D32" t="n">
-        <v>11.13</v>
+        <v>11.04</v>
       </c>
       <c r="E32" t="n">
-        <v>11.13</v>
+        <v>10.93</v>
       </c>
       <c r="F32" t="n">
-        <v>30485.786</v>
+        <v>14047.5952</v>
       </c>
       <c r="G32" t="n">
-        <v>11.39466666666667</v>
+        <v>-338487.1978000004</v>
       </c>
       <c r="H32" t="n">
-        <v>11.16349999999998</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1750,40 +1572,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.25</v>
+        <v>11.06</v>
       </c>
       <c r="C33" t="n">
-        <v>11.1</v>
+        <v>11.06</v>
       </c>
       <c r="D33" t="n">
-        <v>11.25</v>
+        <v>11.06</v>
       </c>
       <c r="E33" t="n">
-        <v>11.1</v>
+        <v>11.06</v>
       </c>
       <c r="F33" t="n">
-        <v>12363.0212</v>
+        <v>199133.2067</v>
       </c>
       <c r="G33" t="n">
-        <v>11.37066666666666</v>
+        <v>-139353.9911000004</v>
       </c>
       <c r="H33" t="n">
-        <v>11.16483333333332</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1792,40 +1607,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.2</v>
+        <v>10.94</v>
       </c>
       <c r="C34" t="n">
-        <v>11.1</v>
+        <v>10.94</v>
       </c>
       <c r="D34" t="n">
-        <v>11.3</v>
+        <v>10.94</v>
       </c>
       <c r="E34" t="n">
-        <v>11.1</v>
+        <v>10.94</v>
       </c>
       <c r="F34" t="n">
-        <v>43442.0765</v>
+        <v>13562.7354</v>
       </c>
       <c r="G34" t="n">
-        <v>11.34466666666666</v>
+        <v>-152916.7265000004</v>
       </c>
       <c r="H34" t="n">
-        <v>11.16633333333332</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1834,40 +1642,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11.15</v>
+        <v>10.95</v>
       </c>
       <c r="C35" t="n">
-        <v>11.14</v>
+        <v>10.95</v>
       </c>
       <c r="D35" t="n">
-        <v>11.15</v>
+        <v>10.95</v>
       </c>
       <c r="E35" t="n">
-        <v>11.14</v>
+        <v>10.95</v>
       </c>
       <c r="F35" t="n">
-        <v>17135.1428</v>
+        <v>23852.3355</v>
       </c>
       <c r="G35" t="n">
-        <v>11.32733333333333</v>
+        <v>-129064.3910000004</v>
       </c>
       <c r="H35" t="n">
-        <v>11.16766666666665</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,40 +1677,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11.32</v>
+        <v>11.06</v>
       </c>
       <c r="C36" t="n">
-        <v>11.35</v>
+        <v>11.06</v>
       </c>
       <c r="D36" t="n">
-        <v>11.35</v>
+        <v>11.06</v>
       </c>
       <c r="E36" t="n">
-        <v>11.32</v>
+        <v>11.06</v>
       </c>
       <c r="F36" t="n">
-        <v>263827.9862</v>
+        <v>7509.363</v>
       </c>
       <c r="G36" t="n">
-        <v>11.31866666666666</v>
+        <v>-121555.0280000004</v>
       </c>
       <c r="H36" t="n">
-        <v>11.17249999999999</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
+        <v>10.95</v>
+      </c>
+      <c r="K36" t="n">
+        <v>10.95</v>
+      </c>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,40 +1716,41 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.22</v>
+        <v>11.07</v>
       </c>
       <c r="C37" t="n">
-        <v>11.22</v>
+        <v>11.14</v>
       </c>
       <c r="D37" t="n">
-        <v>11.22</v>
+        <v>11.14</v>
       </c>
       <c r="E37" t="n">
-        <v>11.22</v>
+        <v>11.07</v>
       </c>
       <c r="F37" t="n">
-        <v>100000</v>
+        <v>99662.7899</v>
       </c>
       <c r="G37" t="n">
-        <v>11.30066666666666</v>
+        <v>-21892.23810000037</v>
       </c>
       <c r="H37" t="n">
-        <v>11.17499999999998</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
+        <v>11.06</v>
+      </c>
+      <c r="K37" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="L37" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1960,40 +1759,41 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.37</v>
+        <v>11.14</v>
       </c>
       <c r="C38" t="n">
         <v>11.3</v>
       </c>
       <c r="D38" t="n">
-        <v>11.37</v>
+        <v>11.3</v>
       </c>
       <c r="E38" t="n">
-        <v>11.3</v>
+        <v>11.14</v>
       </c>
       <c r="F38" t="n">
-        <v>13592.9298</v>
+        <v>27918.5208</v>
       </c>
       <c r="G38" t="n">
-        <v>11.28799999999999</v>
+        <v>6026.282699999632</v>
       </c>
       <c r="H38" t="n">
-        <v>11.17883333333332</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
+        <v>11.14</v>
+      </c>
+      <c r="K38" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2002,40 +1802,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="C39" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="D39" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="E39" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="F39" t="n">
+        <v>10338.0621</v>
+      </c>
+      <c r="G39" t="n">
+        <v>16364.34479999963</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
         <v>11.3</v>
       </c>
-      <c r="C39" t="n">
+      <c r="K39" t="n">
         <v>11.3</v>
       </c>
-      <c r="D39" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E39" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F39" t="n">
-        <v>31372.705</v>
-      </c>
-      <c r="G39" t="n">
-        <v>11.27466666666666</v>
-      </c>
-      <c r="H39" t="n">
-        <v>11.18266666666665</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2044,40 +1841,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11.4</v>
+        <v>11.34</v>
       </c>
       <c r="C40" t="n">
-        <v>11.4</v>
+        <v>11.38</v>
       </c>
       <c r="D40" t="n">
-        <v>11.4</v>
+        <v>11.38</v>
       </c>
       <c r="E40" t="n">
-        <v>11.4</v>
+        <v>11.34</v>
       </c>
       <c r="F40" t="n">
-        <v>18066.0141</v>
+        <v>5716</v>
       </c>
       <c r="G40" t="n">
-        <v>11.26133333333333</v>
+        <v>22080.34479999963</v>
       </c>
       <c r="H40" t="n">
-        <v>11.18816666666665</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2086,40 +1882,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11.4</v>
+        <v>11.38</v>
       </c>
       <c r="C41" t="n">
-        <v>11.4</v>
+        <v>11.34</v>
       </c>
       <c r="D41" t="n">
         <v>11.4</v>
       </c>
       <c r="E41" t="n">
-        <v>11.4</v>
+        <v>11.34</v>
       </c>
       <c r="F41" t="n">
-        <v>40721.9477</v>
+        <v>30961.7997</v>
       </c>
       <c r="G41" t="n">
-        <v>11.24666666666666</v>
+        <v>-8881.454900000368</v>
       </c>
       <c r="H41" t="n">
-        <v>11.19449999999998</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,37 +1926,30 @@
         <v>11.4</v>
       </c>
       <c r="C42" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="D42" t="n">
-        <v>11.41</v>
+        <v>11.5</v>
       </c>
       <c r="E42" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="F42" t="n">
-        <v>32349.4465</v>
+        <v>339014.831172242</v>
       </c>
       <c r="G42" t="n">
-        <v>11.24</v>
+        <v>330133.3762722416</v>
       </c>
       <c r="H42" t="n">
-        <v>11.19916666666665</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2170,40 +1958,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11.31</v>
+        <v>11.42</v>
       </c>
       <c r="C43" t="n">
-        <v>11.31</v>
+        <v>11.41</v>
       </c>
       <c r="D43" t="n">
-        <v>11.31</v>
+        <v>11.42</v>
       </c>
       <c r="E43" t="n">
-        <v>11.31</v>
+        <v>11.41</v>
       </c>
       <c r="F43" t="n">
-        <v>18120.0576</v>
+        <v>18704.5757</v>
       </c>
       <c r="G43" t="n">
-        <v>11.24066666666666</v>
+        <v>311428.8005722417</v>
       </c>
       <c r="H43" t="n">
-        <v>11.20316666666664</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2212,40 +1993,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.31</v>
+        <v>11.5</v>
       </c>
       <c r="C44" t="n">
-        <v>11.31</v>
+        <v>11.5</v>
       </c>
       <c r="D44" t="n">
-        <v>11.31</v>
+        <v>11.5</v>
       </c>
       <c r="E44" t="n">
-        <v>11.31</v>
+        <v>11.5</v>
       </c>
       <c r="F44" t="n">
-        <v>701.551</v>
+        <v>50000</v>
       </c>
       <c r="G44" t="n">
-        <v>11.24133333333333</v>
+        <v>361428.8005722417</v>
       </c>
       <c r="H44" t="n">
-        <v>11.20783333333331</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2254,40 +2028,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.31</v>
+        <v>11.42</v>
       </c>
       <c r="C45" t="n">
-        <v>11.31</v>
+        <v>11.22</v>
       </c>
       <c r="D45" t="n">
-        <v>11.31</v>
+        <v>11.42</v>
       </c>
       <c r="E45" t="n">
-        <v>11.31</v>
+        <v>11.22</v>
       </c>
       <c r="F45" t="n">
-        <v>3185.0166</v>
+        <v>322132.5665</v>
       </c>
       <c r="G45" t="n">
-        <v>11.25333333333333</v>
+        <v>39296.23407224164</v>
       </c>
       <c r="H45" t="n">
-        <v>11.21266666666664</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2296,40 +2063,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.49</v>
+        <v>11.4</v>
       </c>
       <c r="C46" t="n">
-        <v>11.49</v>
+        <v>11.4</v>
       </c>
       <c r="D46" t="n">
-        <v>11.49</v>
+        <v>11.4</v>
       </c>
       <c r="E46" t="n">
-        <v>11.49</v>
+        <v>11.4</v>
       </c>
       <c r="F46" t="n">
-        <v>25782.9393</v>
+        <v>1260.426</v>
       </c>
       <c r="G46" t="n">
-        <v>11.27733333333333</v>
+        <v>40556.66007224164</v>
       </c>
       <c r="H46" t="n">
-        <v>11.22066666666664</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,40 +2098,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.49</v>
+        <v>11.46</v>
       </c>
       <c r="C47" t="n">
-        <v>11.33</v>
+        <v>11.46</v>
       </c>
       <c r="D47" t="n">
-        <v>11.49</v>
+        <v>11.46</v>
       </c>
       <c r="E47" t="n">
-        <v>11.33</v>
+        <v>11.46</v>
       </c>
       <c r="F47" t="n">
-        <v>12226.1517</v>
+        <v>50</v>
       </c>
       <c r="G47" t="n">
-        <v>11.29066666666666</v>
+        <v>40606.66007224164</v>
       </c>
       <c r="H47" t="n">
-        <v>11.22599999999998</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2380,40 +2133,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11.33</v>
+        <v>11.46</v>
       </c>
       <c r="C48" t="n">
-        <v>11.33</v>
+        <v>11.49</v>
       </c>
       <c r="D48" t="n">
-        <v>11.33</v>
+        <v>11.49</v>
       </c>
       <c r="E48" t="n">
-        <v>11.33</v>
+        <v>11.45</v>
       </c>
       <c r="F48" t="n">
-        <v>258174.3471</v>
+        <v>94202</v>
       </c>
       <c r="G48" t="n">
-        <v>11.306</v>
+        <v>134808.6600722416</v>
       </c>
       <c r="H48" t="n">
-        <v>11.23149999999998</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2422,40 +2168,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11.49</v>
+        <v>11.4</v>
       </c>
       <c r="C49" t="n">
-        <v>11.49</v>
+        <v>11.4</v>
       </c>
       <c r="D49" t="n">
-        <v>11.49</v>
+        <v>11.4</v>
       </c>
       <c r="E49" t="n">
-        <v>11.49</v>
+        <v>11.4</v>
       </c>
       <c r="F49" t="n">
-        <v>5714.1387</v>
+        <v>5604.3394</v>
       </c>
       <c r="G49" t="n">
-        <v>11.332</v>
+        <v>129204.3206722417</v>
       </c>
       <c r="H49" t="n">
-        <v>11.23966666666665</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2464,40 +2203,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>11.49</v>
+        <v>11.48</v>
       </c>
       <c r="C50" t="n">
-        <v>11.49</v>
+        <v>11.48</v>
       </c>
       <c r="D50" t="n">
-        <v>11.49</v>
+        <v>11.48</v>
       </c>
       <c r="E50" t="n">
-        <v>11.49</v>
+        <v>11.48</v>
       </c>
       <c r="F50" t="n">
-        <v>2221.0617</v>
+        <v>60</v>
       </c>
       <c r="G50" t="n">
-        <v>11.35533333333334</v>
+        <v>129264.3206722417</v>
       </c>
       <c r="H50" t="n">
-        <v>11.24783333333331</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2518,28 +2250,21 @@
         <v>11.49</v>
       </c>
       <c r="F51" t="n">
-        <v>7067.6876</v>
+        <v>198204.9999</v>
       </c>
       <c r="G51" t="n">
-        <v>11.36466666666667</v>
+        <v>327469.3205722417</v>
       </c>
       <c r="H51" t="n">
-        <v>11.25716666666665</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,40 +2273,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.45</v>
+        <v>11.49</v>
       </c>
       <c r="C52" t="n">
-        <v>11.44</v>
+        <v>11.49</v>
       </c>
       <c r="D52" t="n">
-        <v>11.45</v>
+        <v>11.49</v>
       </c>
       <c r="E52" t="n">
-        <v>11.44</v>
+        <v>11.49</v>
       </c>
       <c r="F52" t="n">
-        <v>10000</v>
+        <v>4558.2843</v>
       </c>
       <c r="G52" t="n">
-        <v>11.37933333333334</v>
+        <v>327469.3205722417</v>
       </c>
       <c r="H52" t="n">
-        <v>11.26616666666665</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,40 +2308,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.49</v>
+        <v>11.5</v>
       </c>
       <c r="C53" t="n">
-        <v>11.54</v>
+        <v>11.5</v>
       </c>
       <c r="D53" t="n">
-        <v>11.54</v>
+        <v>11.5</v>
       </c>
       <c r="E53" t="n">
-        <v>11.49</v>
+        <v>11.5</v>
       </c>
       <c r="F53" t="n">
-        <v>6717.1952</v>
+        <v>510.6468</v>
       </c>
       <c r="G53" t="n">
-        <v>11.39533333333334</v>
+        <v>327979.9673722417</v>
       </c>
       <c r="H53" t="n">
-        <v>11.27683333333331</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2632,40 +2343,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.59</v>
+        <v>11.52</v>
       </c>
       <c r="C54" t="n">
-        <v>11.59</v>
+        <v>11.6</v>
       </c>
       <c r="D54" t="n">
-        <v>11.59</v>
+        <v>11.6</v>
       </c>
       <c r="E54" t="n">
-        <v>11.59</v>
+        <v>11.52</v>
       </c>
       <c r="F54" t="n">
-        <v>17655.5255</v>
+        <v>107366.7438</v>
       </c>
       <c r="G54" t="n">
-        <v>11.41466666666667</v>
+        <v>435346.7111722417</v>
       </c>
       <c r="H54" t="n">
-        <v>11.28833333333332</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2674,40 +2378,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.55</v>
+        <v>11.6</v>
       </c>
       <c r="C55" t="n">
-        <v>11.59</v>
+        <v>11.62</v>
       </c>
       <c r="D55" t="n">
-        <v>11.59</v>
+        <v>11.62</v>
       </c>
       <c r="E55" t="n">
-        <v>11.55</v>
+        <v>11.6</v>
       </c>
       <c r="F55" t="n">
-        <v>104835.3387</v>
+        <v>21322.9766</v>
       </c>
       <c r="G55" t="n">
-        <v>11.42733333333334</v>
+        <v>456669.6877722417</v>
       </c>
       <c r="H55" t="n">
-        <v>11.29983333333332</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2716,40 +2413,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.59</v>
+        <v>11.49</v>
       </c>
       <c r="C56" t="n">
-        <v>11.62</v>
+        <v>11.4</v>
       </c>
       <c r="D56" t="n">
-        <v>11.62</v>
+        <v>11.49</v>
       </c>
       <c r="E56" t="n">
-        <v>11.59</v>
+        <v>11.4</v>
       </c>
       <c r="F56" t="n">
-        <v>29400</v>
+        <v>27039.2534</v>
       </c>
       <c r="G56" t="n">
-        <v>11.442</v>
+        <v>429630.4343722417</v>
       </c>
       <c r="H56" t="n">
-        <v>11.31133333333332</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,40 +2448,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.54</v>
+        <v>11.3</v>
       </c>
       <c r="C57" t="n">
-        <v>11.42</v>
+        <v>11.3</v>
       </c>
       <c r="D57" t="n">
-        <v>11.54</v>
+        <v>11.3</v>
       </c>
       <c r="E57" t="n">
-        <v>11.42</v>
+        <v>11.3</v>
       </c>
       <c r="F57" t="n">
-        <v>111972.3703</v>
+        <v>1668</v>
       </c>
       <c r="G57" t="n">
-        <v>11.45</v>
+        <v>427962.4343722417</v>
       </c>
       <c r="H57" t="n">
-        <v>11.31716666666665</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2800,40 +2483,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.62</v>
+        <v>11.3</v>
       </c>
       <c r="C58" t="n">
-        <v>11.63</v>
+        <v>11.3</v>
       </c>
       <c r="D58" t="n">
-        <v>11.63</v>
+        <v>11.3</v>
       </c>
       <c r="E58" t="n">
-        <v>11.62</v>
+        <v>11.3</v>
       </c>
       <c r="F58" t="n">
-        <v>127033.7312</v>
+        <v>1938</v>
       </c>
       <c r="G58" t="n">
-        <v>11.47133333333333</v>
+        <v>427962.4343722417</v>
       </c>
       <c r="H58" t="n">
-        <v>11.32683333333332</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2842,40 +2518,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.62</v>
+        <v>11.13</v>
       </c>
       <c r="C59" t="n">
-        <v>11.62</v>
+        <v>11.13</v>
       </c>
       <c r="D59" t="n">
-        <v>11.68</v>
+        <v>11.13</v>
       </c>
       <c r="E59" t="n">
-        <v>11.62</v>
+        <v>11.13</v>
       </c>
       <c r="F59" t="n">
-        <v>113279.0939</v>
+        <v>14515.4839</v>
       </c>
       <c r="G59" t="n">
-        <v>11.492</v>
+        <v>413446.9504722417</v>
       </c>
       <c r="H59" t="n">
-        <v>11.33583333333332</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2884,40 +2553,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.68</v>
+        <v>11.03</v>
       </c>
       <c r="C60" t="n">
-        <v>11.7</v>
+        <v>11.13</v>
       </c>
       <c r="D60" t="n">
-        <v>11.7</v>
+        <v>11.13</v>
       </c>
       <c r="E60" t="n">
-        <v>11.62</v>
+        <v>11.03</v>
       </c>
       <c r="F60" t="n">
-        <v>8405.1513</v>
+        <v>52480.8813</v>
       </c>
       <c r="G60" t="n">
-        <v>11.518</v>
+        <v>413446.9504722417</v>
       </c>
       <c r="H60" t="n">
-        <v>11.34616666666665</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2926,40 +2588,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.7</v>
+        <v>11.13</v>
       </c>
       <c r="C61" t="n">
-        <v>11.71</v>
+        <v>11.13</v>
       </c>
       <c r="D61" t="n">
-        <v>11.71</v>
+        <v>11.13</v>
       </c>
       <c r="E61" t="n">
-        <v>11.7</v>
+        <v>11.13</v>
       </c>
       <c r="F61" t="n">
-        <v>190</v>
+        <v>30485.786</v>
       </c>
       <c r="G61" t="n">
-        <v>11.53266666666667</v>
+        <v>413446.9504722417</v>
       </c>
       <c r="H61" t="n">
-        <v>11.35733333333332</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,40 +2623,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.66</v>
+        <v>11.25</v>
       </c>
       <c r="C62" t="n">
-        <v>11.62</v>
+        <v>11.1</v>
       </c>
       <c r="D62" t="n">
-        <v>11.66</v>
+        <v>11.25</v>
       </c>
       <c r="E62" t="n">
-        <v>11.62</v>
+        <v>11.1</v>
       </c>
       <c r="F62" t="n">
-        <v>151035.6059</v>
+        <v>12363.0212</v>
       </c>
       <c r="G62" t="n">
-        <v>11.552</v>
+        <v>401083.9292722417</v>
       </c>
       <c r="H62" t="n">
-        <v>11.36699999999998</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3010,40 +2658,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.51</v>
+        <v>11.2</v>
       </c>
       <c r="C63" t="n">
-        <v>11.51</v>
+        <v>11.1</v>
       </c>
       <c r="D63" t="n">
-        <v>11.51</v>
+        <v>11.3</v>
       </c>
       <c r="E63" t="n">
-        <v>11.51</v>
+        <v>11.1</v>
       </c>
       <c r="F63" t="n">
-        <v>2656.266</v>
+        <v>43442.0765</v>
       </c>
       <c r="G63" t="n">
-        <v>11.564</v>
+        <v>401083.9292722417</v>
       </c>
       <c r="H63" t="n">
-        <v>11.37666666666665</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3052,40 +2693,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.51</v>
+        <v>11.15</v>
       </c>
       <c r="C64" t="n">
-        <v>11.51</v>
+        <v>11.14</v>
       </c>
       <c r="D64" t="n">
-        <v>11.51</v>
+        <v>11.15</v>
       </c>
       <c r="E64" t="n">
-        <v>11.51</v>
+        <v>11.14</v>
       </c>
       <c r="F64" t="n">
-        <v>43440.486</v>
+        <v>17135.1428</v>
       </c>
       <c r="G64" t="n">
-        <v>11.56533333333333</v>
+        <v>418219.0720722417</v>
       </c>
       <c r="H64" t="n">
-        <v>11.38416666666665</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3094,40 +2728,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.69</v>
+        <v>11.32</v>
       </c>
       <c r="C65" t="n">
-        <v>11.69</v>
+        <v>11.35</v>
       </c>
       <c r="D65" t="n">
-        <v>11.69</v>
+        <v>11.35</v>
       </c>
       <c r="E65" t="n">
-        <v>11.69</v>
+        <v>11.32</v>
       </c>
       <c r="F65" t="n">
-        <v>17108.63986313088</v>
+        <v>263827.9862</v>
       </c>
       <c r="G65" t="n">
-        <v>11.57866666666666</v>
+        <v>682047.0582722416</v>
       </c>
       <c r="H65" t="n">
-        <v>11.39666666666665</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,40 +2763,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.5</v>
+        <v>11.22</v>
       </c>
       <c r="C66" t="n">
-        <v>11.5</v>
+        <v>11.22</v>
       </c>
       <c r="D66" t="n">
-        <v>11.5</v>
+        <v>11.22</v>
       </c>
       <c r="E66" t="n">
-        <v>11.5</v>
+        <v>11.22</v>
       </c>
       <c r="F66" t="n">
-        <v>2500</v>
+        <v>100000</v>
       </c>
       <c r="G66" t="n">
-        <v>11.57933333333333</v>
+        <v>582047.0582722416</v>
       </c>
       <c r="H66" t="n">
-        <v>11.40583333333332</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,40 +2798,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.58</v>
+        <v>11.37</v>
       </c>
       <c r="C67" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="D67" t="n">
-        <v>11.58</v>
+        <v>11.37</v>
       </c>
       <c r="E67" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="F67" t="n">
-        <v>200</v>
+        <v>13592.9298</v>
       </c>
       <c r="G67" t="n">
-        <v>11.58333333333333</v>
+        <v>595639.9880722417</v>
       </c>
       <c r="H67" t="n">
-        <v>11.41316666666665</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3220,40 +2833,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.52</v>
+        <v>11.3</v>
       </c>
       <c r="C68" t="n">
-        <v>11.52</v>
+        <v>11.3</v>
       </c>
       <c r="D68" t="n">
-        <v>11.52</v>
+        <v>11.3</v>
       </c>
       <c r="E68" t="n">
-        <v>11.52</v>
+        <v>11.3</v>
       </c>
       <c r="F68" t="n">
-        <v>30190.3071</v>
+        <v>31372.705</v>
       </c>
       <c r="G68" t="n">
-        <v>11.582</v>
+        <v>595639.9880722417</v>
       </c>
       <c r="H68" t="n">
-        <v>11.41949999999999</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3262,40 +2868,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.52</v>
+        <v>11.4</v>
       </c>
       <c r="C69" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="D69" t="n">
-        <v>11.52</v>
+        <v>11.4</v>
       </c>
       <c r="E69" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="F69" t="n">
-        <v>41340.7388</v>
+        <v>18066.0141</v>
       </c>
       <c r="G69" t="n">
-        <v>11.576</v>
+        <v>613706.0021722417</v>
       </c>
       <c r="H69" t="n">
-        <v>11.42283333333332</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,40 +2903,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.42</v>
+        <v>11.4</v>
       </c>
       <c r="C70" t="n">
         <v>11.4</v>
       </c>
       <c r="D70" t="n">
-        <v>11.42</v>
+        <v>11.4</v>
       </c>
       <c r="E70" t="n">
         <v>11.4</v>
       </c>
       <c r="F70" t="n">
-        <v>7071.1874</v>
+        <v>40721.9477</v>
       </c>
       <c r="G70" t="n">
-        <v>11.56333333333333</v>
+        <v>613706.0021722417</v>
       </c>
       <c r="H70" t="n">
-        <v>11.42399999999999</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3346,40 +2938,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.48</v>
+        <v>11.4</v>
       </c>
       <c r="C71" t="n">
-        <v>11.48</v>
+        <v>11.3</v>
       </c>
       <c r="D71" t="n">
-        <v>11.48</v>
+        <v>11.41</v>
       </c>
       <c r="E71" t="n">
-        <v>11.48</v>
+        <v>11.3</v>
       </c>
       <c r="F71" t="n">
-        <v>8710.801393728223</v>
+        <v>32349.4465</v>
       </c>
       <c r="G71" t="n">
-        <v>11.55399999999999</v>
+        <v>581356.5556722417</v>
       </c>
       <c r="H71" t="n">
-        <v>11.42566666666665</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,40 +2973,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.41</v>
+        <v>11.31</v>
       </c>
       <c r="C72" t="n">
-        <v>11.38</v>
+        <v>11.31</v>
       </c>
       <c r="D72" t="n">
-        <v>11.41</v>
+        <v>11.31</v>
       </c>
       <c r="E72" t="n">
-        <v>11.38</v>
+        <v>11.31</v>
       </c>
       <c r="F72" t="n">
-        <v>14895.0895</v>
+        <v>18120.0576</v>
       </c>
       <c r="G72" t="n">
-        <v>11.55133333333333</v>
+        <v>599476.6132722418</v>
       </c>
       <c r="H72" t="n">
-        <v>11.42633333333332</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3430,40 +3008,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.48</v>
+        <v>11.31</v>
       </c>
       <c r="C73" t="n">
-        <v>11.35</v>
+        <v>11.31</v>
       </c>
       <c r="D73" t="n">
-        <v>11.48</v>
+        <v>11.31</v>
       </c>
       <c r="E73" t="n">
-        <v>11.35</v>
+        <v>11.31</v>
       </c>
       <c r="F73" t="n">
-        <v>18699.3805</v>
+        <v>701.551</v>
       </c>
       <c r="G73" t="n">
-        <v>11.53266666666666</v>
+        <v>599476.6132722418</v>
       </c>
       <c r="H73" t="n">
-        <v>11.42383333333332</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3472,40 +3043,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11.35</v>
+        <v>11.31</v>
       </c>
       <c r="C74" t="n">
         <v>11.31</v>
       </c>
       <c r="D74" t="n">
-        <v>11.35</v>
+        <v>11.31</v>
       </c>
       <c r="E74" t="n">
         <v>11.31</v>
       </c>
       <c r="F74" t="n">
-        <v>147833.7312</v>
+        <v>3185.0166</v>
       </c>
       <c r="G74" t="n">
-        <v>11.512</v>
+        <v>599476.6132722418</v>
       </c>
       <c r="H74" t="n">
-        <v>11.42216666666665</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3514,40 +3078,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>11.31</v>
+        <v>11.49</v>
       </c>
       <c r="C75" t="n">
-        <v>11.31</v>
+        <v>11.49</v>
       </c>
       <c r="D75" t="n">
-        <v>11.31</v>
+        <v>11.49</v>
       </c>
       <c r="E75" t="n">
-        <v>11.31</v>
+        <v>11.49</v>
       </c>
       <c r="F75" t="n">
-        <v>34157.0499</v>
+        <v>25782.9393</v>
       </c>
       <c r="G75" t="n">
-        <v>11.486</v>
+        <v>625259.5525722418</v>
       </c>
       <c r="H75" t="n">
-        <v>11.41899999999998</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3556,40 +3113,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11.36</v>
+        <v>11.49</v>
       </c>
       <c r="C76" t="n">
-        <v>11.36</v>
+        <v>11.33</v>
       </c>
       <c r="D76" t="n">
-        <v>11.36</v>
+        <v>11.49</v>
       </c>
       <c r="E76" t="n">
-        <v>11.36</v>
+        <v>11.33</v>
       </c>
       <c r="F76" t="n">
-        <v>157.5</v>
+        <v>12226.1517</v>
       </c>
       <c r="G76" t="n">
-        <v>11.46266666666666</v>
+        <v>613033.4008722417</v>
       </c>
       <c r="H76" t="n">
-        <v>11.42133333333332</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,40 +3148,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11.36</v>
+        <v>11.33</v>
       </c>
       <c r="C77" t="n">
-        <v>11.36</v>
+        <v>11.33</v>
       </c>
       <c r="D77" t="n">
-        <v>11.36</v>
+        <v>11.33</v>
       </c>
       <c r="E77" t="n">
-        <v>11.36</v>
+        <v>11.33</v>
       </c>
       <c r="F77" t="n">
-        <v>3092.5</v>
+        <v>258174.3471</v>
       </c>
       <c r="G77" t="n">
-        <v>11.44533333333333</v>
+        <v>613033.4008722417</v>
       </c>
       <c r="H77" t="n">
-        <v>11.42066666666665</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3640,40 +3183,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.31</v>
+        <v>11.49</v>
       </c>
       <c r="C78" t="n">
-        <v>11.3</v>
+        <v>11.49</v>
       </c>
       <c r="D78" t="n">
-        <v>11.31</v>
+        <v>11.49</v>
       </c>
       <c r="E78" t="n">
-        <v>11.3</v>
+        <v>11.49</v>
       </c>
       <c r="F78" t="n">
-        <v>5704.152</v>
+        <v>5714.1387</v>
       </c>
       <c r="G78" t="n">
-        <v>11.43133333333333</v>
+        <v>618747.5395722417</v>
       </c>
       <c r="H78" t="n">
-        <v>11.41799999999998</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3682,40 +3218,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.3</v>
+        <v>11.49</v>
       </c>
       <c r="C79" t="n">
-        <v>11.3</v>
+        <v>11.49</v>
       </c>
       <c r="D79" t="n">
-        <v>11.3</v>
+        <v>11.49</v>
       </c>
       <c r="E79" t="n">
-        <v>11.3</v>
+        <v>11.49</v>
       </c>
       <c r="F79" t="n">
-        <v>10074.5883</v>
+        <v>2221.0617</v>
       </c>
       <c r="G79" t="n">
-        <v>11.41733333333333</v>
+        <v>618747.5395722417</v>
       </c>
       <c r="H79" t="n">
-        <v>11.41483333333332</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3724,40 +3253,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.29</v>
+        <v>11.49</v>
       </c>
       <c r="C80" t="n">
-        <v>11.24</v>
+        <v>11.49</v>
       </c>
       <c r="D80" t="n">
-        <v>11.29</v>
+        <v>11.49</v>
       </c>
       <c r="E80" t="n">
-        <v>11.24</v>
+        <v>11.49</v>
       </c>
       <c r="F80" t="n">
-        <v>1762.8096</v>
+        <v>7067.6876</v>
       </c>
       <c r="G80" t="n">
-        <v>11.38733333333333</v>
+        <v>618747.5395722417</v>
       </c>
       <c r="H80" t="n">
-        <v>11.41216666666665</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3766,40 +3288,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.24</v>
+        <v>11.45</v>
       </c>
       <c r="C81" t="n">
-        <v>11.24</v>
+        <v>11.44</v>
       </c>
       <c r="D81" t="n">
-        <v>11.24</v>
+        <v>11.45</v>
       </c>
       <c r="E81" t="n">
-        <v>11.24</v>
+        <v>11.44</v>
       </c>
       <c r="F81" t="n">
-        <v>5632.0934</v>
+        <v>10000</v>
       </c>
       <c r="G81" t="n">
-        <v>11.37</v>
+        <v>608747.5395722417</v>
       </c>
       <c r="H81" t="n">
-        <v>11.40816666666665</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,40 +3323,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.24</v>
+        <v>11.49</v>
       </c>
       <c r="C82" t="n">
-        <v>11.22</v>
+        <v>11.54</v>
       </c>
       <c r="D82" t="n">
-        <v>11.24</v>
+        <v>11.54</v>
       </c>
       <c r="E82" t="n">
-        <v>11.22</v>
+        <v>11.49</v>
       </c>
       <c r="F82" t="n">
-        <v>15034.9081</v>
+        <v>6717.1952</v>
       </c>
       <c r="G82" t="n">
-        <v>11.35133333333333</v>
+        <v>615464.7347722417</v>
       </c>
       <c r="H82" t="n">
-        <v>11.40366666666665</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3850,40 +3358,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.23</v>
+        <v>11.59</v>
       </c>
       <c r="C83" t="n">
-        <v>11.23</v>
+        <v>11.59</v>
       </c>
       <c r="D83" t="n">
-        <v>11.23</v>
+        <v>11.59</v>
       </c>
       <c r="E83" t="n">
-        <v>11.23</v>
+        <v>11.59</v>
       </c>
       <c r="F83" t="n">
-        <v>3956.7766</v>
+        <v>17655.5255</v>
       </c>
       <c r="G83" t="n">
-        <v>11.332</v>
+        <v>633120.2602722417</v>
       </c>
       <c r="H83" t="n">
-        <v>11.39933333333332</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3892,40 +3393,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.23</v>
+        <v>11.55</v>
       </c>
       <c r="C84" t="n">
-        <v>11.23</v>
+        <v>11.59</v>
       </c>
       <c r="D84" t="n">
-        <v>11.23</v>
+        <v>11.59</v>
       </c>
       <c r="E84" t="n">
-        <v>11.23</v>
+        <v>11.55</v>
       </c>
       <c r="F84" t="n">
-        <v>33.9734</v>
+        <v>104835.3387</v>
       </c>
       <c r="G84" t="n">
-        <v>11.31399999999999</v>
+        <v>633120.2602722417</v>
       </c>
       <c r="H84" t="n">
-        <v>11.39483333333332</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,40 +3428,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.23</v>
+        <v>11.59</v>
       </c>
       <c r="C85" t="n">
-        <v>11.22</v>
+        <v>11.62</v>
       </c>
       <c r="D85" t="n">
-        <v>11.23</v>
+        <v>11.62</v>
       </c>
       <c r="E85" t="n">
-        <v>11.22</v>
+        <v>11.59</v>
       </c>
       <c r="F85" t="n">
-        <v>9515.562</v>
+        <v>29400</v>
       </c>
       <c r="G85" t="n">
-        <v>11.30199999999999</v>
+        <v>662520.2602722417</v>
       </c>
       <c r="H85" t="n">
-        <v>11.38849999999998</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3976,40 +3463,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>11.23</v>
+        <v>11.54</v>
       </c>
       <c r="C86" t="n">
-        <v>11.26</v>
+        <v>11.42</v>
       </c>
       <c r="D86" t="n">
-        <v>11.26</v>
+        <v>11.54</v>
       </c>
       <c r="E86" t="n">
-        <v>11.16</v>
+        <v>11.42</v>
       </c>
       <c r="F86" t="n">
-        <v>130773</v>
+        <v>111972.3703</v>
       </c>
       <c r="G86" t="n">
-        <v>11.28733333333333</v>
+        <v>550547.8899722417</v>
       </c>
       <c r="H86" t="n">
-        <v>11.38249999999998</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,40 +3498,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11.26</v>
+        <v>11.62</v>
       </c>
       <c r="C87" t="n">
-        <v>11.26</v>
+        <v>11.63</v>
       </c>
       <c r="D87" t="n">
-        <v>11.26</v>
+        <v>11.63</v>
       </c>
       <c r="E87" t="n">
-        <v>11.26</v>
+        <v>11.62</v>
       </c>
       <c r="F87" t="n">
-        <v>4518</v>
+        <v>127033.7312</v>
       </c>
       <c r="G87" t="n">
-        <v>11.27933333333333</v>
+        <v>677581.6211722418</v>
       </c>
       <c r="H87" t="n">
-        <v>11.38016666666665</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4060,40 +3533,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>11.16</v>
+        <v>11.62</v>
       </c>
       <c r="C88" t="n">
-        <v>11.16</v>
+        <v>11.62</v>
       </c>
       <c r="D88" t="n">
-        <v>11.16</v>
+        <v>11.68</v>
       </c>
       <c r="E88" t="n">
-        <v>11.16</v>
+        <v>11.62</v>
       </c>
       <c r="F88" t="n">
-        <v>4409.4533</v>
+        <v>113279.0939</v>
       </c>
       <c r="G88" t="n">
-        <v>11.26666666666666</v>
+        <v>564302.5272722418</v>
       </c>
       <c r="H88" t="n">
-        <v>11.37783333333332</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4102,40 +3568,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>11.2</v>
+        <v>11.68</v>
       </c>
       <c r="C89" t="n">
-        <v>11.18</v>
+        <v>11.7</v>
       </c>
       <c r="D89" t="n">
-        <v>11.2</v>
+        <v>11.7</v>
       </c>
       <c r="E89" t="n">
-        <v>11.18</v>
+        <v>11.62</v>
       </c>
       <c r="F89" t="n">
-        <v>3000</v>
+        <v>8405.1513</v>
       </c>
       <c r="G89" t="n">
-        <v>11.25799999999999</v>
+        <v>572707.6785722418</v>
       </c>
       <c r="H89" t="n">
-        <v>11.37583333333332</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4144,40 +3603,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>11.2</v>
+        <v>11.7</v>
       </c>
       <c r="C90" t="n">
-        <v>11.2</v>
+        <v>11.71</v>
       </c>
       <c r="D90" t="n">
-        <v>11.2</v>
+        <v>11.71</v>
       </c>
       <c r="E90" t="n">
-        <v>11.2</v>
+        <v>11.7</v>
       </c>
       <c r="F90" t="n">
-        <v>55570.9105</v>
+        <v>190</v>
       </c>
       <c r="G90" t="n">
-        <v>11.25066666666666</v>
+        <v>572897.6785722418</v>
       </c>
       <c r="H90" t="n">
-        <v>11.37699999999998</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4186,40 +3638,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>11.17</v>
+        <v>11.66</v>
       </c>
       <c r="C91" t="n">
-        <v>11.17</v>
+        <v>11.62</v>
       </c>
       <c r="D91" t="n">
-        <v>11.17</v>
+        <v>11.66</v>
       </c>
       <c r="E91" t="n">
-        <v>11.17</v>
+        <v>11.62</v>
       </c>
       <c r="F91" t="n">
-        <v>4117.318</v>
+        <v>151035.6059</v>
       </c>
       <c r="G91" t="n">
-        <v>11.23799999999999</v>
+        <v>421862.0726722418</v>
       </c>
       <c r="H91" t="n">
-        <v>11.37766666666665</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,40 +3673,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>11.17</v>
+        <v>11.51</v>
       </c>
       <c r="C92" t="n">
-        <v>11.17</v>
+        <v>11.51</v>
       </c>
       <c r="D92" t="n">
-        <v>11.17</v>
+        <v>11.51</v>
       </c>
       <c r="E92" t="n">
-        <v>11.17</v>
+        <v>11.51</v>
       </c>
       <c r="F92" t="n">
-        <v>3039</v>
+        <v>2656.266</v>
       </c>
       <c r="G92" t="n">
-        <v>11.22533333333333</v>
+        <v>419205.8066722418</v>
       </c>
       <c r="H92" t="n">
-        <v>11.37833333333332</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4270,40 +3708,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>11.32</v>
+        <v>11.51</v>
       </c>
       <c r="C93" t="n">
-        <v>11.32</v>
+        <v>11.51</v>
       </c>
       <c r="D93" t="n">
-        <v>11.32</v>
+        <v>11.51</v>
       </c>
       <c r="E93" t="n">
-        <v>11.32</v>
+        <v>11.51</v>
       </c>
       <c r="F93" t="n">
-        <v>8860.8943</v>
+        <v>43440.486</v>
       </c>
       <c r="G93" t="n">
-        <v>11.22666666666666</v>
+        <v>419205.8066722418</v>
       </c>
       <c r="H93" t="n">
-        <v>11.38199999999998</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4312,40 +3743,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>11.22</v>
+        <v>11.69</v>
       </c>
       <c r="C94" t="n">
-        <v>11.22</v>
+        <v>11.69</v>
       </c>
       <c r="D94" t="n">
-        <v>11.22</v>
+        <v>11.69</v>
       </c>
       <c r="E94" t="n">
-        <v>11.22</v>
+        <v>11.69</v>
       </c>
       <c r="F94" t="n">
-        <v>37225.7561</v>
+        <v>17108.63986313088</v>
       </c>
       <c r="G94" t="n">
-        <v>11.22133333333332</v>
+        <v>436314.4465353727</v>
       </c>
       <c r="H94" t="n">
-        <v>11.38399999999998</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4354,40 +3778,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="C95" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="D95" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="E95" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="F95" t="n">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="G95" t="n">
-        <v>11.22533333333332</v>
+        <v>433814.4465353727</v>
       </c>
       <c r="H95" t="n">
-        <v>11.38666666666665</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4396,40 +3813,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.3</v>
+        <v>11.58</v>
       </c>
       <c r="C96" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="D96" t="n">
-        <v>11.3</v>
+        <v>11.58</v>
       </c>
       <c r="E96" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="F96" t="n">
-        <v>24659.7303</v>
+        <v>200</v>
       </c>
       <c r="G96" t="n">
-        <v>11.22933333333332</v>
+        <v>433814.4465353727</v>
       </c>
       <c r="H96" t="n">
-        <v>11.38583333333332</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,40 +3848,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11.38</v>
+        <v>11.52</v>
       </c>
       <c r="C97" t="n">
-        <v>11.38</v>
+        <v>11.52</v>
       </c>
       <c r="D97" t="n">
-        <v>11.38</v>
+        <v>11.52</v>
       </c>
       <c r="E97" t="n">
-        <v>11.38</v>
+        <v>11.52</v>
       </c>
       <c r="F97" t="n">
-        <v>1500</v>
+        <v>30190.3071</v>
       </c>
       <c r="G97" t="n">
-        <v>11.23999999999999</v>
+        <v>464004.7536353727</v>
       </c>
       <c r="H97" t="n">
-        <v>11.38849999999998</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4480,40 +3883,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>11.38</v>
+        <v>11.52</v>
       </c>
       <c r="C98" t="n">
-        <v>11.38</v>
+        <v>11.5</v>
       </c>
       <c r="D98" t="n">
-        <v>11.38</v>
+        <v>11.52</v>
       </c>
       <c r="E98" t="n">
-        <v>11.38</v>
+        <v>11.5</v>
       </c>
       <c r="F98" t="n">
-        <v>21226.6916</v>
+        <v>41340.7388</v>
       </c>
       <c r="G98" t="n">
-        <v>11.24999999999999</v>
+        <v>422664.0148353727</v>
       </c>
       <c r="H98" t="n">
-        <v>11.38983333333332</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4522,40 +3918,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>11.33</v>
+        <v>11.42</v>
       </c>
       <c r="C99" t="n">
-        <v>11.33</v>
+        <v>11.4</v>
       </c>
       <c r="D99" t="n">
-        <v>11.33</v>
+        <v>11.42</v>
       </c>
       <c r="E99" t="n">
-        <v>11.33</v>
+        <v>11.4</v>
       </c>
       <c r="F99" t="n">
-        <v>3763.0658</v>
+        <v>7071.1874</v>
       </c>
       <c r="G99" t="n">
-        <v>11.25666666666666</v>
+        <v>415592.8274353727</v>
       </c>
       <c r="H99" t="n">
-        <v>11.39033333333332</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4564,40 +3953,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>11.33</v>
+        <v>11.48</v>
       </c>
       <c r="C100" t="n">
-        <v>11.33</v>
+        <v>11.48</v>
       </c>
       <c r="D100" t="n">
-        <v>11.33</v>
+        <v>11.48</v>
       </c>
       <c r="E100" t="n">
-        <v>11.33</v>
+        <v>11.48</v>
       </c>
       <c r="F100" t="n">
-        <v>17444.799</v>
+        <v>8710.801393728223</v>
       </c>
       <c r="G100" t="n">
-        <v>11.26399999999999</v>
+        <v>424303.6288291009</v>
       </c>
       <c r="H100" t="n">
-        <v>11.38916666666665</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4606,40 +3988,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>11.26</v>
+        <v>11.41</v>
       </c>
       <c r="C101" t="n">
-        <v>11.26</v>
+        <v>11.38</v>
       </c>
       <c r="D101" t="n">
-        <v>11.26</v>
+        <v>11.41</v>
       </c>
       <c r="E101" t="n">
-        <v>11.26</v>
+        <v>11.38</v>
       </c>
       <c r="F101" t="n">
-        <v>73.71420000000001</v>
+        <v>14895.0895</v>
       </c>
       <c r="G101" t="n">
-        <v>11.26399999999999</v>
+        <v>409408.5393291009</v>
       </c>
       <c r="H101" t="n">
-        <v>11.38683333333332</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,40 +4023,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>11.26</v>
+        <v>11.48</v>
       </c>
       <c r="C102" t="n">
-        <v>11.26</v>
+        <v>11.35</v>
       </c>
       <c r="D102" t="n">
-        <v>11.26</v>
+        <v>11.48</v>
       </c>
       <c r="E102" t="n">
-        <v>11.26</v>
+        <v>11.35</v>
       </c>
       <c r="F102" t="n">
-        <v>25646</v>
+        <v>18699.3805</v>
       </c>
       <c r="G102" t="n">
-        <v>11.26399999999999</v>
+        <v>390709.1588291009</v>
       </c>
       <c r="H102" t="n">
-        <v>11.38616666666665</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4690,40 +4058,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>11.27</v>
+        <v>11.35</v>
       </c>
       <c r="C103" t="n">
-        <v>11.26</v>
+        <v>11.31</v>
       </c>
       <c r="D103" t="n">
-        <v>11.27</v>
+        <v>11.35</v>
       </c>
       <c r="E103" t="n">
-        <v>11.26</v>
+        <v>11.31</v>
       </c>
       <c r="F103" t="n">
-        <v>12891.3788</v>
+        <v>147833.7312</v>
       </c>
       <c r="G103" t="n">
-        <v>11.27066666666666</v>
+        <v>242875.4276291009</v>
       </c>
       <c r="H103" t="n">
-        <v>11.38533333333332</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,40 +4093,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>11.27</v>
+        <v>11.31</v>
       </c>
       <c r="C104" t="n">
-        <v>11.27</v>
+        <v>11.31</v>
       </c>
       <c r="D104" t="n">
-        <v>11.27</v>
+        <v>11.31</v>
       </c>
       <c r="E104" t="n">
-        <v>11.27</v>
+        <v>11.31</v>
       </c>
       <c r="F104" t="n">
-        <v>9442.650900000001</v>
+        <v>34157.0499</v>
       </c>
       <c r="G104" t="n">
-        <v>11.27666666666666</v>
+        <v>242875.4276291009</v>
       </c>
       <c r="H104" t="n">
-        <v>11.38466666666665</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4774,40 +4128,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>11.38</v>
+        <v>11.36</v>
       </c>
       <c r="C105" t="n">
-        <v>11.4</v>
+        <v>11.36</v>
       </c>
       <c r="D105" t="n">
-        <v>11.4</v>
+        <v>11.36</v>
       </c>
       <c r="E105" t="n">
-        <v>11.38</v>
+        <v>11.36</v>
       </c>
       <c r="F105" t="n">
-        <v>24211.2828</v>
+        <v>157.5</v>
       </c>
       <c r="G105" t="n">
-        <v>11.28999999999999</v>
+        <v>243032.9276291009</v>
       </c>
       <c r="H105" t="n">
-        <v>11.38616666666666</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4816,40 +4163,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>11.38</v>
+        <v>11.36</v>
       </c>
       <c r="C106" t="n">
-        <v>11.38</v>
+        <v>11.36</v>
       </c>
       <c r="D106" t="n">
-        <v>11.38</v>
+        <v>11.36</v>
       </c>
       <c r="E106" t="n">
-        <v>11.38</v>
+        <v>11.36</v>
       </c>
       <c r="F106" t="n">
-        <v>25485.35</v>
+        <v>3092.5</v>
       </c>
       <c r="G106" t="n">
-        <v>11.30399999999999</v>
+        <v>243032.9276291009</v>
       </c>
       <c r="H106" t="n">
-        <v>11.38433333333332</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,40 +4198,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>11.42</v>
+        <v>11.31</v>
       </c>
       <c r="C107" t="n">
-        <v>11.42</v>
+        <v>11.3</v>
       </c>
       <c r="D107" t="n">
-        <v>11.42</v>
+        <v>11.31</v>
       </c>
       <c r="E107" t="n">
-        <v>11.42</v>
+        <v>11.3</v>
       </c>
       <c r="F107" t="n">
-        <v>8373.938399999999</v>
+        <v>5704.152</v>
       </c>
       <c r="G107" t="n">
-        <v>11.32066666666666</v>
+        <v>237328.7756291009</v>
       </c>
       <c r="H107" t="n">
-        <v>11.38583333333332</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4900,40 +4233,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>11.42</v>
+        <v>11.3</v>
       </c>
       <c r="C108" t="n">
-        <v>11.47</v>
+        <v>11.3</v>
       </c>
       <c r="D108" t="n">
-        <v>11.47</v>
+        <v>11.3</v>
       </c>
       <c r="E108" t="n">
-        <v>11.42</v>
+        <v>11.3</v>
       </c>
       <c r="F108" t="n">
-        <v>178421.7664</v>
+        <v>10074.5883</v>
       </c>
       <c r="G108" t="n">
-        <v>11.33066666666666</v>
+        <v>237328.7756291009</v>
       </c>
       <c r="H108" t="n">
-        <v>11.38816666666665</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4942,40 +4268,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>11.48</v>
+        <v>11.29</v>
       </c>
       <c r="C109" t="n">
-        <v>11.49</v>
+        <v>11.24</v>
       </c>
       <c r="D109" t="n">
-        <v>11.49</v>
+        <v>11.29</v>
       </c>
       <c r="E109" t="n">
-        <v>11.48</v>
+        <v>11.24</v>
       </c>
       <c r="F109" t="n">
-        <v>134910.3993</v>
+        <v>1762.8096</v>
       </c>
       <c r="G109" t="n">
-        <v>11.34866666666666</v>
+        <v>235565.9660291009</v>
       </c>
       <c r="H109" t="n">
-        <v>11.38816666666665</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4984,40 +4303,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>11.49</v>
+        <v>11.24</v>
       </c>
       <c r="C110" t="n">
-        <v>11.49</v>
+        <v>11.24</v>
       </c>
       <c r="D110" t="n">
-        <v>11.49</v>
+        <v>11.24</v>
       </c>
       <c r="E110" t="n">
-        <v>11.49</v>
+        <v>11.24</v>
       </c>
       <c r="F110" t="n">
-        <v>24211.2828</v>
+        <v>5632.0934</v>
       </c>
       <c r="G110" t="n">
-        <v>11.36133333333333</v>
+        <v>235565.9660291009</v>
       </c>
       <c r="H110" t="n">
-        <v>11.38816666666665</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5026,40 +4338,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>11.5</v>
+        <v>11.24</v>
       </c>
       <c r="C111" t="n">
-        <v>11.5</v>
+        <v>11.22</v>
       </c>
       <c r="D111" t="n">
-        <v>11.5</v>
+        <v>11.24</v>
       </c>
       <c r="E111" t="n">
-        <v>11.5</v>
+        <v>11.22</v>
       </c>
       <c r="F111" t="n">
-        <v>2000</v>
+        <v>15034.9081</v>
       </c>
       <c r="G111" t="n">
-        <v>11.37466666666666</v>
+        <v>220531.0579291009</v>
       </c>
       <c r="H111" t="n">
-        <v>11.38833333333332</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,40 +4373,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>11.5</v>
+        <v>11.23</v>
       </c>
       <c r="C112" t="n">
-        <v>11.5</v>
+        <v>11.23</v>
       </c>
       <c r="D112" t="n">
-        <v>11.5</v>
+        <v>11.23</v>
       </c>
       <c r="E112" t="n">
-        <v>11.5</v>
+        <v>11.23</v>
       </c>
       <c r="F112" t="n">
-        <v>7932.5618</v>
+        <v>3956.7766</v>
       </c>
       <c r="G112" t="n">
-        <v>11.38266666666666</v>
+        <v>224487.8345291009</v>
       </c>
       <c r="H112" t="n">
-        <v>11.38933333333332</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5110,40 +4408,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>11.54</v>
+        <v>11.23</v>
       </c>
       <c r="C113" t="n">
-        <v>11.49</v>
+        <v>11.23</v>
       </c>
       <c r="D113" t="n">
-        <v>11.54</v>
+        <v>11.23</v>
       </c>
       <c r="E113" t="n">
-        <v>11.49</v>
+        <v>11.23</v>
       </c>
       <c r="F113" t="n">
-        <v>35821.452</v>
+        <v>33.9734</v>
       </c>
       <c r="G113" t="n">
-        <v>11.39</v>
+        <v>224487.8345291009</v>
       </c>
       <c r="H113" t="n">
-        <v>11.38849999999999</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5152,40 +4443,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>11.5</v>
+        <v>11.23</v>
       </c>
       <c r="C114" t="n">
-        <v>11.5</v>
+        <v>11.22</v>
       </c>
       <c r="D114" t="n">
-        <v>11.5</v>
+        <v>11.23</v>
       </c>
       <c r="E114" t="n">
-        <v>11.5</v>
+        <v>11.22</v>
       </c>
       <c r="F114" t="n">
-        <v>54800</v>
+        <v>9515.562</v>
       </c>
       <c r="G114" t="n">
-        <v>11.40133333333333</v>
+        <v>214972.2725291009</v>
       </c>
       <c r="H114" t="n">
-        <v>11.38699999999998</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5194,40 +4478,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>11.5</v>
+        <v>11.23</v>
       </c>
       <c r="C115" t="n">
-        <v>11.5</v>
+        <v>11.26</v>
       </c>
       <c r="D115" t="n">
-        <v>11.5</v>
+        <v>11.26</v>
       </c>
       <c r="E115" t="n">
-        <v>11.5</v>
+        <v>11.16</v>
       </c>
       <c r="F115" t="n">
-        <v>55831.1318</v>
+        <v>130773</v>
       </c>
       <c r="G115" t="n">
-        <v>11.41266666666666</v>
+        <v>345745.2725291009</v>
       </c>
       <c r="H115" t="n">
-        <v>11.38549999999998</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5236,40 +4513,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>11.5</v>
+        <v>11.26</v>
       </c>
       <c r="C116" t="n">
-        <v>11.5</v>
+        <v>11.26</v>
       </c>
       <c r="D116" t="n">
-        <v>11.5</v>
+        <v>11.26</v>
       </c>
       <c r="E116" t="n">
-        <v>11.5</v>
+        <v>11.26</v>
       </c>
       <c r="F116" t="n">
-        <v>314050.1168</v>
+        <v>4518</v>
       </c>
       <c r="G116" t="n">
-        <v>11.42866666666666</v>
+        <v>345745.2725291009</v>
       </c>
       <c r="H116" t="n">
-        <v>11.38349999999999</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,40 +4548,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>11.49</v>
+        <v>11.16</v>
       </c>
       <c r="C117" t="n">
-        <v>11.49</v>
+        <v>11.16</v>
       </c>
       <c r="D117" t="n">
-        <v>11.49</v>
+        <v>11.16</v>
       </c>
       <c r="E117" t="n">
-        <v>11.49</v>
+        <v>11.16</v>
       </c>
       <c r="F117" t="n">
-        <v>2300</v>
+        <v>4409.4533</v>
       </c>
       <c r="G117" t="n">
-        <v>11.444</v>
+        <v>341335.8192291009</v>
       </c>
       <c r="H117" t="n">
-        <v>11.38466666666665</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5320,40 +4583,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>11.66</v>
+        <v>11.2</v>
       </c>
       <c r="C118" t="n">
-        <v>11.69</v>
+        <v>11.18</v>
       </c>
       <c r="D118" t="n">
-        <v>11.69</v>
+        <v>11.2</v>
       </c>
       <c r="E118" t="n">
-        <v>11.66</v>
+        <v>11.18</v>
       </c>
       <c r="F118" t="n">
-        <v>104159.3663</v>
+        <v>3000</v>
       </c>
       <c r="G118" t="n">
-        <v>11.47266666666666</v>
+        <v>344335.8192291009</v>
       </c>
       <c r="H118" t="n">
-        <v>11.38566666666665</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5362,40 +4618,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>11.69</v>
+        <v>11.2</v>
       </c>
       <c r="C119" t="n">
-        <v>11.69</v>
+        <v>11.2</v>
       </c>
       <c r="D119" t="n">
-        <v>11.69</v>
+        <v>11.2</v>
       </c>
       <c r="E119" t="n">
-        <v>11.69</v>
+        <v>11.2</v>
       </c>
       <c r="F119" t="n">
-        <v>42771</v>
+        <v>55570.9105</v>
       </c>
       <c r="G119" t="n">
-        <v>11.50066666666666</v>
+        <v>399906.7297291009</v>
       </c>
       <c r="H119" t="n">
-        <v>11.38683333333332</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5404,40 +4653,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>11.7</v>
+        <v>11.17</v>
       </c>
       <c r="C120" t="n">
-        <v>11.7</v>
+        <v>11.17</v>
       </c>
       <c r="D120" t="n">
-        <v>11.7</v>
+        <v>11.17</v>
       </c>
       <c r="E120" t="n">
-        <v>11.7</v>
+        <v>11.17</v>
       </c>
       <c r="F120" t="n">
-        <v>56780.7692</v>
+        <v>4117.318</v>
       </c>
       <c r="G120" t="n">
-        <v>11.52066666666666</v>
+        <v>395789.4117291009</v>
       </c>
       <c r="H120" t="n">
-        <v>11.38683333333332</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,40 +4688,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>11.71</v>
+        <v>11.17</v>
       </c>
       <c r="C121" t="n">
-        <v>11.79</v>
+        <v>11.17</v>
       </c>
       <c r="D121" t="n">
-        <v>11.8</v>
+        <v>11.17</v>
       </c>
       <c r="E121" t="n">
-        <v>11.57</v>
+        <v>11.17</v>
       </c>
       <c r="F121" t="n">
-        <v>246874.8274</v>
+        <v>3039</v>
       </c>
       <c r="G121" t="n">
-        <v>11.54799999999999</v>
+        <v>395789.4117291009</v>
       </c>
       <c r="H121" t="n">
-        <v>11.38816666666665</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,40 +4723,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>11.7</v>
+        <v>11.32</v>
       </c>
       <c r="C122" t="n">
-        <v>11.7</v>
+        <v>11.32</v>
       </c>
       <c r="D122" t="n">
-        <v>11.7</v>
+        <v>11.32</v>
       </c>
       <c r="E122" t="n">
-        <v>11.7</v>
+        <v>11.32</v>
       </c>
       <c r="F122" t="n">
-        <v>80937.6574</v>
+        <v>8860.8943</v>
       </c>
       <c r="G122" t="n">
-        <v>11.56666666666666</v>
+        <v>404650.3060291008</v>
       </c>
       <c r="H122" t="n">
-        <v>11.38949999999999</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5530,40 +4758,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>11.8</v>
+        <v>11.22</v>
       </c>
       <c r="C123" t="n">
-        <v>11.8</v>
+        <v>11.22</v>
       </c>
       <c r="D123" t="n">
-        <v>11.8</v>
+        <v>11.22</v>
       </c>
       <c r="E123" t="n">
-        <v>11.8</v>
+        <v>11.22</v>
       </c>
       <c r="F123" t="n">
-        <v>106303.9457</v>
+        <v>37225.7561</v>
       </c>
       <c r="G123" t="n">
-        <v>11.58866666666666</v>
+        <v>367424.5499291008</v>
       </c>
       <c r="H123" t="n">
-        <v>11.39433333333332</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5572,40 +4793,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="C124" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="D124" t="n">
-        <v>11.83</v>
+        <v>11.3</v>
       </c>
       <c r="E124" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="F124" t="n">
-        <v>90992.232</v>
+        <v>10000</v>
       </c>
       <c r="G124" t="n">
-        <v>11.60933333333333</v>
+        <v>377424.5499291008</v>
       </c>
       <c r="H124" t="n">
-        <v>11.39916666666665</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5614,76 +4828,68 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="C125" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="D125" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="E125" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="F125" t="n">
-        <v>78164.6269</v>
+        <v>24659.7303</v>
       </c>
       <c r="G125" t="n">
-        <v>11.63</v>
+        <v>377424.5499291008</v>
       </c>
       <c r="H125" t="n">
-        <v>11.40099999999998</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>1</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>11.8</v>
+        <v>11.38</v>
       </c>
       <c r="C126" t="n">
-        <v>11.8</v>
+        <v>11.38</v>
       </c>
       <c r="D126" t="n">
-        <v>11.8</v>
+        <v>11.38</v>
       </c>
       <c r="E126" t="n">
-        <v>11.7</v>
+        <v>11.38</v>
       </c>
       <c r="F126" t="n">
-        <v>127737.6338</v>
+        <v>1500</v>
       </c>
       <c r="G126" t="n">
-        <v>11.65</v>
+        <v>378924.5499291008</v>
       </c>
       <c r="H126" t="n">
-        <v>11.40599999999998</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>1</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5692,36 +4898,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>11.8</v>
+        <v>11.38</v>
       </c>
       <c r="C127" t="n">
-        <v>11.8</v>
+        <v>11.38</v>
       </c>
       <c r="D127" t="n">
-        <v>11.8</v>
+        <v>11.38</v>
       </c>
       <c r="E127" t="n">
-        <v>11.8</v>
+        <v>11.38</v>
       </c>
       <c r="F127" t="n">
-        <v>34264.635</v>
+        <v>21226.6916</v>
       </c>
       <c r="G127" t="n">
-        <v>11.67</v>
+        <v>378924.5499291008</v>
       </c>
       <c r="H127" t="n">
-        <v>11.41099999999998</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>1</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5730,36 +4933,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>11.62</v>
+        <v>11.33</v>
       </c>
       <c r="C128" t="n">
-        <v>11.62</v>
+        <v>11.33</v>
       </c>
       <c r="D128" t="n">
-        <v>11.62</v>
+        <v>11.33</v>
       </c>
       <c r="E128" t="n">
-        <v>11.62</v>
+        <v>11.33</v>
       </c>
       <c r="F128" t="n">
-        <v>1494.5756</v>
+        <v>3763.0658</v>
       </c>
       <c r="G128" t="n">
-        <v>11.67866666666666</v>
+        <v>375161.4841291009</v>
       </c>
       <c r="H128" t="n">
-        <v>11.41266666666665</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>1</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,36 +4968,33 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>11.63</v>
+        <v>11.33</v>
       </c>
       <c r="C129" t="n">
-        <v>11.55</v>
+        <v>11.33</v>
       </c>
       <c r="D129" t="n">
-        <v>11.63</v>
+        <v>11.33</v>
       </c>
       <c r="E129" t="n">
-        <v>11.55</v>
+        <v>11.33</v>
       </c>
       <c r="F129" t="n">
-        <v>54563.2194</v>
+        <v>17444.799</v>
       </c>
       <c r="G129" t="n">
-        <v>11.682</v>
+        <v>375161.4841291009</v>
       </c>
       <c r="H129" t="n">
-        <v>11.41349999999998</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>1</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5806,36 +5003,33 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>11.58</v>
+        <v>11.26</v>
       </c>
       <c r="C130" t="n">
-        <v>11.58</v>
+        <v>11.26</v>
       </c>
       <c r="D130" t="n">
-        <v>11.58</v>
+        <v>11.26</v>
       </c>
       <c r="E130" t="n">
-        <v>11.58</v>
+        <v>11.26</v>
       </c>
       <c r="F130" t="n">
-        <v>49737</v>
+        <v>73.71420000000001</v>
       </c>
       <c r="G130" t="n">
-        <v>11.68733333333333</v>
+        <v>375087.7699291009</v>
       </c>
       <c r="H130" t="n">
-        <v>11.41649999999998</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>1</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5844,36 +5038,33 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>11.69</v>
+        <v>11.26</v>
       </c>
       <c r="C131" t="n">
-        <v>11.69</v>
+        <v>11.26</v>
       </c>
       <c r="D131" t="n">
-        <v>11.69</v>
+        <v>11.26</v>
       </c>
       <c r="E131" t="n">
-        <v>11.69</v>
+        <v>11.26</v>
       </c>
       <c r="F131" t="n">
-        <v>15000</v>
+        <v>25646</v>
       </c>
       <c r="G131" t="n">
-        <v>11.7</v>
+        <v>375087.7699291009</v>
       </c>
       <c r="H131" t="n">
-        <v>11.41999999999998</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>1</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5882,36 +5073,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>11.58</v>
+        <v>11.27</v>
       </c>
       <c r="C132" t="n">
-        <v>11.58</v>
+        <v>11.26</v>
       </c>
       <c r="D132" t="n">
-        <v>11.58</v>
+        <v>11.27</v>
       </c>
       <c r="E132" t="n">
-        <v>11.58</v>
+        <v>11.26</v>
       </c>
       <c r="F132" t="n">
-        <v>61200</v>
+        <v>12891.3788</v>
       </c>
       <c r="G132" t="n">
-        <v>11.706</v>
+        <v>375087.7699291009</v>
       </c>
       <c r="H132" t="n">
-        <v>11.42333333333332</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>1</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5920,36 +5108,33 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>11.74</v>
+        <v>11.27</v>
       </c>
       <c r="C133" t="n">
-        <v>11.68</v>
+        <v>11.27</v>
       </c>
       <c r="D133" t="n">
-        <v>11.74</v>
+        <v>11.27</v>
       </c>
       <c r="E133" t="n">
-        <v>11.68</v>
+        <v>11.27</v>
       </c>
       <c r="F133" t="n">
-        <v>88</v>
+        <v>9442.650900000001</v>
       </c>
       <c r="G133" t="n">
-        <v>11.70533333333333</v>
+        <v>384530.4208291009</v>
       </c>
       <c r="H133" t="n">
-        <v>11.42883333333332</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>1</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5958,36 +5143,33 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>11.67</v>
+        <v>11.38</v>
       </c>
       <c r="C134" t="n">
-        <v>11.67</v>
+        <v>11.4</v>
       </c>
       <c r="D134" t="n">
-        <v>11.67</v>
+        <v>11.4</v>
       </c>
       <c r="E134" t="n">
-        <v>11.67</v>
+        <v>11.38</v>
       </c>
       <c r="F134" t="n">
-        <v>44</v>
+        <v>24211.2828</v>
       </c>
       <c r="G134" t="n">
-        <v>11.704</v>
+        <v>408741.7036291009</v>
       </c>
       <c r="H134" t="n">
-        <v>11.43483333333332</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>1</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5996,36 +5178,33 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>11.66</v>
+        <v>11.38</v>
       </c>
       <c r="C135" t="n">
-        <v>11.59</v>
+        <v>11.38</v>
       </c>
       <c r="D135" t="n">
-        <v>11.66</v>
+        <v>11.38</v>
       </c>
       <c r="E135" t="n">
-        <v>11.59</v>
+        <v>11.38</v>
       </c>
       <c r="F135" t="n">
-        <v>7155.8609</v>
+        <v>25485.35</v>
       </c>
       <c r="G135" t="n">
-        <v>11.69666666666667</v>
+        <v>383256.3536291009</v>
       </c>
       <c r="H135" t="n">
-        <v>11.43949999999998</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>1</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6034,36 +5213,33 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>11.66</v>
+        <v>11.42</v>
       </c>
       <c r="C136" t="n">
-        <v>11.66</v>
+        <v>11.42</v>
       </c>
       <c r="D136" t="n">
-        <v>11.66</v>
+        <v>11.42</v>
       </c>
       <c r="E136" t="n">
-        <v>11.66</v>
+        <v>11.42</v>
       </c>
       <c r="F136" t="n">
-        <v>44</v>
+        <v>8373.938399999999</v>
       </c>
       <c r="G136" t="n">
-        <v>11.688</v>
+        <v>391630.2920291009</v>
       </c>
       <c r="H136" t="n">
-        <v>11.44449999999998</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>1</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6072,36 +5248,33 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>11.69</v>
+        <v>11.42</v>
       </c>
       <c r="C137" t="n">
-        <v>11.69</v>
+        <v>11.47</v>
       </c>
       <c r="D137" t="n">
-        <v>11.69</v>
+        <v>11.47</v>
       </c>
       <c r="E137" t="n">
-        <v>11.69</v>
+        <v>11.42</v>
       </c>
       <c r="F137" t="n">
-        <v>27371.658</v>
+        <v>178421.7664</v>
       </c>
       <c r="G137" t="n">
-        <v>11.68733333333333</v>
+        <v>570052.0584291009</v>
       </c>
       <c r="H137" t="n">
-        <v>11.44999999999999</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>1</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6110,36 +5283,33 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>11.78</v>
+        <v>11.48</v>
       </c>
       <c r="C138" t="n">
-        <v>11.78</v>
+        <v>11.49</v>
       </c>
       <c r="D138" t="n">
-        <v>11.78</v>
+        <v>11.49</v>
       </c>
       <c r="E138" t="n">
-        <v>11.78</v>
+        <v>11.48</v>
       </c>
       <c r="F138" t="n">
-        <v>44</v>
+        <v>134910.3993</v>
       </c>
       <c r="G138" t="n">
-        <v>11.686</v>
+        <v>704962.4577291009</v>
       </c>
       <c r="H138" t="n">
-        <v>11.45799999999999</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>1</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6148,36 +5318,33 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>11.61</v>
+        <v>11.49</v>
       </c>
       <c r="C139" t="n">
-        <v>11.61</v>
+        <v>11.49</v>
       </c>
       <c r="D139" t="n">
-        <v>11.62</v>
+        <v>11.49</v>
       </c>
       <c r="E139" t="n">
-        <v>11.61</v>
+        <v>11.49</v>
       </c>
       <c r="F139" t="n">
-        <v>140000</v>
+        <v>24211.2828</v>
       </c>
       <c r="G139" t="n">
-        <v>11.67333333333333</v>
+        <v>704962.4577291009</v>
       </c>
       <c r="H139" t="n">
-        <v>11.46316666666665</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>1</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6186,36 +5353,33 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>11.62</v>
+        <v>11.5</v>
       </c>
       <c r="C140" t="n">
-        <v>11.62</v>
+        <v>11.5</v>
       </c>
       <c r="D140" t="n">
-        <v>11.62</v>
+        <v>11.5</v>
       </c>
       <c r="E140" t="n">
-        <v>11.62</v>
+        <v>11.5</v>
       </c>
       <c r="F140" t="n">
-        <v>86.0586</v>
+        <v>2000</v>
       </c>
       <c r="G140" t="n">
-        <v>11.66133333333333</v>
+        <v>706962.4577291009</v>
       </c>
       <c r="H140" t="n">
-        <v>11.46949999999999</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>1</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6224,36 +5388,33 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>11.62</v>
+        <v>11.5</v>
       </c>
       <c r="C141" t="n">
-        <v>11.62</v>
+        <v>11.5</v>
       </c>
       <c r="D141" t="n">
-        <v>11.62</v>
+        <v>11.5</v>
       </c>
       <c r="E141" t="n">
-        <v>11.62</v>
+        <v>11.5</v>
       </c>
       <c r="F141" t="n">
-        <v>88132.62149999999</v>
+        <v>7932.5618</v>
       </c>
       <c r="G141" t="n">
-        <v>11.64933333333333</v>
+        <v>706962.4577291009</v>
       </c>
       <c r="H141" t="n">
-        <v>11.47583333333332</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>1</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="n">
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,36 +5423,33 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>11.62</v>
+        <v>11.54</v>
       </c>
       <c r="C142" t="n">
-        <v>11.61</v>
+        <v>11.49</v>
       </c>
       <c r="D142" t="n">
-        <v>11.62</v>
+        <v>11.54</v>
       </c>
       <c r="E142" t="n">
-        <v>11.61</v>
+        <v>11.49</v>
       </c>
       <c r="F142" t="n">
-        <v>59887.5125</v>
+        <v>35821.452</v>
       </c>
       <c r="G142" t="n">
-        <v>11.63666666666666</v>
+        <v>671141.0057291009</v>
       </c>
       <c r="H142" t="n">
-        <v>11.48233333333332</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>1</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="n">
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6300,36 +5458,33 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>11.76</v>
+        <v>11.5</v>
       </c>
       <c r="C143" t="n">
-        <v>11.76</v>
+        <v>11.5</v>
       </c>
       <c r="D143" t="n">
-        <v>11.76</v>
+        <v>11.5</v>
       </c>
       <c r="E143" t="n">
-        <v>11.76</v>
+        <v>11.5</v>
       </c>
       <c r="F143" t="n">
-        <v>500</v>
+        <v>54800</v>
       </c>
       <c r="G143" t="n">
-        <v>11.646</v>
+        <v>725941.0057291009</v>
       </c>
       <c r="H143" t="n">
-        <v>11.49116666666665</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>1</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="n">
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6338,36 +5493,33 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>11.64</v>
+        <v>11.5</v>
       </c>
       <c r="C144" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="D144" t="n">
-        <v>11.64</v>
+        <v>11.5</v>
       </c>
       <c r="E144" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="F144" t="n">
-        <v>188121.1343</v>
+        <v>55831.1318</v>
       </c>
       <c r="G144" t="n">
-        <v>11.64933333333333</v>
+        <v>725941.0057291009</v>
       </c>
       <c r="H144" t="n">
-        <v>11.49733333333332</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>1</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="n">
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6376,36 +5528,33 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="C145" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="D145" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="E145" t="n">
-        <v>11.59</v>
+        <v>11.5</v>
       </c>
       <c r="F145" t="n">
-        <v>19921.2938</v>
+        <v>314050.1168</v>
       </c>
       <c r="G145" t="n">
-        <v>11.65066666666666</v>
+        <v>725941.0057291009</v>
       </c>
       <c r="H145" t="n">
-        <v>11.50366666666665</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>1</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="n">
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6414,36 +5563,33 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>11.6</v>
+        <v>11.49</v>
       </c>
       <c r="C146" t="n">
-        <v>11.6</v>
+        <v>11.49</v>
       </c>
       <c r="D146" t="n">
-        <v>11.6</v>
+        <v>11.49</v>
       </c>
       <c r="E146" t="n">
-        <v>11.6</v>
+        <v>11.49</v>
       </c>
       <c r="F146" t="n">
-        <v>34700.9274</v>
+        <v>2300</v>
       </c>
       <c r="G146" t="n">
-        <v>11.64466666666666</v>
+        <v>723641.0057291009</v>
       </c>
       <c r="H146" t="n">
-        <v>11.50933333333332</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>1</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="n">
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6452,36 +5598,33 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>11.6</v>
+        <v>11.66</v>
       </c>
       <c r="C147" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="D147" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="E147" t="n">
-        <v>11.6</v>
+        <v>11.66</v>
       </c>
       <c r="F147" t="n">
-        <v>30428.8233</v>
+        <v>104159.3663</v>
       </c>
       <c r="G147" t="n">
-        <v>11.64599999999999</v>
+        <v>827800.3720291009</v>
       </c>
       <c r="H147" t="n">
-        <v>11.51499999999999</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>1</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="n">
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6490,36 +5633,33 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="C148" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="D148" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="E148" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="F148" t="n">
-        <v>86576.933</v>
+        <v>42771</v>
       </c>
       <c r="G148" t="n">
-        <v>11.64066666666666</v>
+        <v>827800.3720291009</v>
       </c>
       <c r="H148" t="n">
-        <v>11.52233333333332</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>1</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="n">
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6528,36 +5668,33 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="C149" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="D149" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="E149" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="F149" t="n">
-        <v>31551.9702</v>
+        <v>56780.7692</v>
       </c>
       <c r="G149" t="n">
-        <v>11.63599999999999</v>
+        <v>884581.1412291009</v>
       </c>
       <c r="H149" t="n">
-        <v>11.52933333333332</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>1</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="n">
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6566,36 +5703,33 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>11.59</v>
+        <v>11.71</v>
       </c>
       <c r="C150" t="n">
-        <v>11.55</v>
+        <v>11.79</v>
       </c>
       <c r="D150" t="n">
-        <v>11.59</v>
+        <v>11.8</v>
       </c>
       <c r="E150" t="n">
-        <v>11.55</v>
+        <v>11.57</v>
       </c>
       <c r="F150" t="n">
-        <v>523627.0548</v>
+        <v>246874.8274</v>
       </c>
       <c r="G150" t="n">
-        <v>11.63333333333333</v>
+        <v>1131455.968629101</v>
       </c>
       <c r="H150" t="n">
-        <v>11.53516666666665</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>1</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="n">
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6604,36 +5738,33 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>11.55</v>
+        <v>11.7</v>
       </c>
       <c r="C151" t="n">
-        <v>11.55</v>
+        <v>11.7</v>
       </c>
       <c r="D151" t="n">
-        <v>11.55</v>
+        <v>11.7</v>
       </c>
       <c r="E151" t="n">
-        <v>11.55</v>
+        <v>11.7</v>
       </c>
       <c r="F151" t="n">
-        <v>25909.2562</v>
+        <v>80937.6574</v>
       </c>
       <c r="G151" t="n">
-        <v>11.62599999999999</v>
+        <v>1050518.311229101</v>
       </c>
       <c r="H151" t="n">
-        <v>11.54149999999999</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="n">
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6642,36 +5773,33 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>11.54</v>
+        <v>11.8</v>
       </c>
       <c r="C152" t="n">
-        <v>11.54</v>
+        <v>11.8</v>
       </c>
       <c r="D152" t="n">
-        <v>11.54</v>
+        <v>11.8</v>
       </c>
       <c r="E152" t="n">
-        <v>11.54</v>
+        <v>11.8</v>
       </c>
       <c r="F152" t="n">
-        <v>86741.0401</v>
+        <v>106303.9457</v>
       </c>
       <c r="G152" t="n">
-        <v>11.61599999999999</v>
+        <v>1156822.256929101</v>
       </c>
       <c r="H152" t="n">
-        <v>11.54766666666665</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="n">
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6680,36 +5808,33 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>11.55</v>
+        <v>11.8</v>
       </c>
       <c r="C153" t="n">
-        <v>11.55</v>
+        <v>11.8</v>
       </c>
       <c r="D153" t="n">
-        <v>11.55</v>
+        <v>11.83</v>
       </c>
       <c r="E153" t="n">
-        <v>11.55</v>
+        <v>11.8</v>
       </c>
       <c r="F153" t="n">
-        <v>51184.638</v>
+        <v>90992.232</v>
       </c>
       <c r="G153" t="n">
-        <v>11.60066666666666</v>
+        <v>1156822.256929101</v>
       </c>
       <c r="H153" t="n">
-        <v>11.55149999999998</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>1</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="n">
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6718,36 +5843,33 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>11.54</v>
+        <v>11.8</v>
       </c>
       <c r="C154" t="n">
-        <v>11.54</v>
+        <v>11.8</v>
       </c>
       <c r="D154" t="n">
-        <v>11.54</v>
+        <v>11.8</v>
       </c>
       <c r="E154" t="n">
-        <v>11.54</v>
+        <v>11.7</v>
       </c>
       <c r="F154" t="n">
-        <v>88470.9047</v>
+        <v>78164.6269</v>
       </c>
       <c r="G154" t="n">
-        <v>11.59599999999999</v>
+        <v>1156822.256929101</v>
       </c>
       <c r="H154" t="n">
-        <v>11.55683333333332</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="n">
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6756,36 +5878,33 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>11.54</v>
+        <v>11.8</v>
       </c>
       <c r="C155" t="n">
-        <v>11.54</v>
+        <v>11.8</v>
       </c>
       <c r="D155" t="n">
-        <v>11.54</v>
+        <v>11.8</v>
       </c>
       <c r="E155" t="n">
-        <v>11.54</v>
+        <v>11.7</v>
       </c>
       <c r="F155" t="n">
-        <v>21529.0953</v>
+        <v>127737.6338</v>
       </c>
       <c r="G155" t="n">
-        <v>11.59066666666666</v>
+        <v>1156822.256929101</v>
       </c>
       <c r="H155" t="n">
-        <v>11.56083333333332</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
-      <c r="N155" t="n">
+      <c r="M155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6794,36 +5913,33 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>11.69</v>
+        <v>11.8</v>
       </c>
       <c r="C156" t="n">
-        <v>11.69</v>
+        <v>11.8</v>
       </c>
       <c r="D156" t="n">
-        <v>11.69</v>
+        <v>11.8</v>
       </c>
       <c r="E156" t="n">
-        <v>11.69</v>
+        <v>11.8</v>
       </c>
       <c r="F156" t="n">
-        <v>1000</v>
+        <v>34264.635</v>
       </c>
       <c r="G156" t="n">
-        <v>11.59533333333332</v>
+        <v>1156822.256929101</v>
       </c>
       <c r="H156" t="n">
-        <v>11.56733333333332</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="n">
+      <c r="M156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6832,36 +5948,33 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>11.69</v>
+        <v>11.62</v>
       </c>
       <c r="C157" t="n">
-        <v>11.69</v>
+        <v>11.62</v>
       </c>
       <c r="D157" t="n">
-        <v>11.69</v>
+        <v>11.62</v>
       </c>
       <c r="E157" t="n">
-        <v>11.69</v>
+        <v>11.62</v>
       </c>
       <c r="F157" t="n">
-        <v>2087.0825</v>
+        <v>1494.5756</v>
       </c>
       <c r="G157" t="n">
-        <v>11.60066666666666</v>
+        <v>1155327.681329101</v>
       </c>
       <c r="H157" t="n">
-        <v>11.57249999999999</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
-      <c r="N157" t="n">
+      <c r="M157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6870,36 +5983,33 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>11.69</v>
+        <v>11.63</v>
       </c>
       <c r="C158" t="n">
-        <v>11.69</v>
+        <v>11.55</v>
       </c>
       <c r="D158" t="n">
-        <v>11.69</v>
+        <v>11.63</v>
       </c>
       <c r="E158" t="n">
-        <v>11.69</v>
+        <v>11.55</v>
       </c>
       <c r="F158" t="n">
-        <v>299699.0614</v>
+        <v>54563.2194</v>
       </c>
       <c r="G158" t="n">
-        <v>11.59599999999999</v>
+        <v>1100764.461929101</v>
       </c>
       <c r="H158" t="n">
-        <v>11.57766666666666</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
-      <c r="N158" t="n">
+      <c r="M158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6908,36 +6018,33 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>11.69</v>
+        <v>11.58</v>
       </c>
       <c r="C159" t="n">
-        <v>11.7</v>
+        <v>11.58</v>
       </c>
       <c r="D159" t="n">
-        <v>11.7</v>
+        <v>11.58</v>
       </c>
       <c r="E159" t="n">
-        <v>11.69</v>
+        <v>11.58</v>
       </c>
       <c r="F159" t="n">
-        <v>18458</v>
+        <v>49737</v>
       </c>
       <c r="G159" t="n">
-        <v>11.60266666666666</v>
+        <v>1150501.461929101</v>
       </c>
       <c r="H159" t="n">
-        <v>11.58383333333332</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>0</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
-      <c r="N159" t="n">
+      <c r="M159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6946,36 +6053,1048 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="C160" t="n">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="D160" t="n">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="E160" t="n">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="F160" t="n">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="G160" t="n">
-        <v>11.60933333333332</v>
+        <v>1165501.461929101</v>
       </c>
       <c r="H160" t="n">
-        <v>11.58999999999999</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>0</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
-      <c r="N160" t="n">
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="C161" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="D161" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="E161" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="F161" t="n">
+        <v>61200</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1104301.461929101</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="C162" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="D162" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="E162" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F162" t="n">
+        <v>88</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1104389.461929101</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C163" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D163" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E163" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F163" t="n">
+        <v>44</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1104345.461929101</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="C164" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="D164" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="E164" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="F164" t="n">
+        <v>7155.8609</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1097189.601029101</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="C165" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="D165" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="E165" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="F165" t="n">
+        <v>44</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1097233.601029101</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C166" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D166" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E166" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F166" t="n">
+        <v>27371.658</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1124605.259029101</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="C167" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="D167" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="E167" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="F167" t="n">
+        <v>44</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1124649.259029101</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="C168" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="D168" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="E168" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="F168" t="n">
+        <v>140000</v>
+      </c>
+      <c r="G168" t="n">
+        <v>984649.2590291009</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="C169" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="D169" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="E169" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="F169" t="n">
+        <v>86.0586</v>
+      </c>
+      <c r="G169" t="n">
+        <v>984735.3176291009</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="C170" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="D170" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="E170" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="F170" t="n">
+        <v>88132.62149999999</v>
+      </c>
+      <c r="G170" t="n">
+        <v>984735.3176291009</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="C171" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="D171" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="E171" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="F171" t="n">
+        <v>59887.5125</v>
+      </c>
+      <c r="G171" t="n">
+        <v>924847.8051291009</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="C172" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="D172" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="E172" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="F172" t="n">
+        <v>500</v>
+      </c>
+      <c r="G172" t="n">
+        <v>925347.8051291009</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="C173" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D173" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="E173" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F173" t="n">
+        <v>188121.1343</v>
+      </c>
+      <c r="G173" t="n">
+        <v>737226.6708291009</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C174" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D174" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E174" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="F174" t="n">
+        <v>19921.2938</v>
+      </c>
+      <c r="G174" t="n">
+        <v>737226.6708291009</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C175" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D175" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E175" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F175" t="n">
+        <v>34700.9274</v>
+      </c>
+      <c r="G175" t="n">
+        <v>737226.6708291009</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C176" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D176" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E176" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F176" t="n">
+        <v>30428.8233</v>
+      </c>
+      <c r="G176" t="n">
+        <v>737226.6708291009</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C177" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D177" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E177" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F177" t="n">
+        <v>86576.933</v>
+      </c>
+      <c r="G177" t="n">
+        <v>737226.6708291009</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C178" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D178" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E178" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F178" t="n">
+        <v>31551.9702</v>
+      </c>
+      <c r="G178" t="n">
+        <v>737226.6708291009</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="C179" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D179" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="E179" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F179" t="n">
+        <v>523627.0548</v>
+      </c>
+      <c r="G179" t="n">
+        <v>213599.6160291009</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C180" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D180" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E180" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F180" t="n">
+        <v>25909.2562</v>
+      </c>
+      <c r="G180" t="n">
+        <v>213599.6160291009</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="C181" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="D181" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="E181" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="F181" t="n">
+        <v>86741.0401</v>
+      </c>
+      <c r="G181" t="n">
+        <v>126858.5759291009</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C182" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D182" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E182" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F182" t="n">
+        <v>51184.638</v>
+      </c>
+      <c r="G182" t="n">
+        <v>178043.2139291009</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="C183" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="D183" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="E183" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="F183" t="n">
+        <v>88470.9047</v>
+      </c>
+      <c r="G183" t="n">
+        <v>89572.30922910089</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="C184" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="D184" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="E184" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="F184" t="n">
+        <v>21529.0953</v>
+      </c>
+      <c r="G184" t="n">
+        <v>89572.30922910089</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C185" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D185" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E185" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G185" t="n">
+        <v>90572.30922910089</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C186" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D186" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E186" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2087.0825</v>
+      </c>
+      <c r="G186" t="n">
+        <v>90572.30922910089</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C187" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D187" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E187" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F187" t="n">
+        <v>299699.0614</v>
+      </c>
+      <c r="G187" t="n">
+        <v>90572.30922910089</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C188" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D188" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E188" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F188" t="n">
+        <v>18458</v>
+      </c>
+      <c r="G188" t="n">
+        <v>109030.3092291009</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C189" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D189" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E189" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G189" t="n">
+        <v>109030.3092291009</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest SNT.xlsx
+++ b/BackTest/2020-01-16 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M189"/>
+  <dimension ref="A1:N147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.05</v>
+        <v>11.5</v>
       </c>
       <c r="C2" t="n">
-        <v>11.02</v>
+        <v>11.5</v>
       </c>
       <c r="D2" t="n">
-        <v>11.05</v>
+        <v>11.5</v>
       </c>
       <c r="E2" t="n">
-        <v>11.02</v>
+        <v>11.5</v>
       </c>
       <c r="F2" t="n">
-        <v>13729.7895</v>
+        <v>50000</v>
       </c>
       <c r="G2" t="n">
-        <v>-166914.1262000003</v>
+        <v>361428.8005722417</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.01</v>
+        <v>11.42</v>
       </c>
       <c r="C3" t="n">
-        <v>11.01</v>
+        <v>11.22</v>
       </c>
       <c r="D3" t="n">
-        <v>11.01</v>
+        <v>11.42</v>
       </c>
       <c r="E3" t="n">
-        <v>11.01</v>
+        <v>11.22</v>
       </c>
       <c r="F3" t="n">
-        <v>7785.8838</v>
+        <v>322132.5665</v>
       </c>
       <c r="G3" t="n">
-        <v>-174700.0100000004</v>
+        <v>39296.23407224164</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -492,78 +498,82 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="K3" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
+        <v>11.5</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.06</v>
+        <v>11.4</v>
       </c>
       <c r="C4" t="n">
-        <v>11.06</v>
+        <v>11.4</v>
       </c>
       <c r="D4" t="n">
-        <v>11.06</v>
+        <v>11.4</v>
       </c>
       <c r="E4" t="n">
-        <v>11.06</v>
+        <v>11.4</v>
       </c>
       <c r="F4" t="n">
-        <v>8398.9717</v>
+        <v>1260.426</v>
       </c>
       <c r="G4" t="n">
-        <v>-166301.0383000004</v>
+        <v>40556.66007224164</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>11.02</v>
-      </c>
+      <c r="J4" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.06</v>
+        <v>11.46</v>
       </c>
       <c r="C5" t="n">
-        <v>11.06</v>
+        <v>11.46</v>
       </c>
       <c r="D5" t="n">
-        <v>11.06</v>
+        <v>11.46</v>
       </c>
       <c r="E5" t="n">
-        <v>11.06</v>
+        <v>11.46</v>
       </c>
       <c r="F5" t="n">
-        <v>16191.5872</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
-        <v>-166301.0383000004</v>
+        <v>40606.66007224164</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -572,41 +582,40 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="K5" t="n">
-        <v>11.02</v>
-      </c>
+        <v>11.4</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.07</v>
+        <v>11.46</v>
       </c>
       <c r="C6" t="n">
-        <v>11.07</v>
+        <v>11.49</v>
       </c>
       <c r="D6" t="n">
-        <v>11.07</v>
+        <v>11.49</v>
       </c>
       <c r="E6" t="n">
-        <v>11.07</v>
+        <v>11.45</v>
       </c>
       <c r="F6" t="n">
-        <v>12340.4467</v>
+        <v>94202</v>
       </c>
       <c r="G6" t="n">
-        <v>-153960.5916000004</v>
+        <v>134808.6600722416</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -616,32 +625,37 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.07</v>
+        <v>11.4</v>
       </c>
       <c r="C7" t="n">
-        <v>11.07</v>
+        <v>11.4</v>
       </c>
       <c r="D7" t="n">
-        <v>11.07</v>
+        <v>11.4</v>
       </c>
       <c r="E7" t="n">
-        <v>11.07</v>
+        <v>11.4</v>
       </c>
       <c r="F7" t="n">
-        <v>18110.6587</v>
+        <v>5604.3394</v>
       </c>
       <c r="G7" t="n">
-        <v>-153960.5916000004</v>
+        <v>129204.3206722417</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -651,32 +665,37 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.07</v>
+        <v>11.48</v>
       </c>
       <c r="C8" t="n">
-        <v>11.07</v>
+        <v>11.48</v>
       </c>
       <c r="D8" t="n">
-        <v>11.07</v>
+        <v>11.48</v>
       </c>
       <c r="E8" t="n">
-        <v>11.07</v>
+        <v>11.48</v>
       </c>
       <c r="F8" t="n">
-        <v>49597.4344</v>
+        <v>60</v>
       </c>
       <c r="G8" t="n">
-        <v>-153960.5916000004</v>
+        <v>129264.3206722417</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -686,114 +705,117 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.07</v>
+        <v>11.49</v>
       </c>
       <c r="C9" t="n">
-        <v>11.07</v>
+        <v>11.49</v>
       </c>
       <c r="D9" t="n">
-        <v>11.07</v>
+        <v>11.49</v>
       </c>
       <c r="E9" t="n">
-        <v>11.07</v>
+        <v>11.49</v>
       </c>
       <c r="F9" t="n">
-        <v>6795.4368</v>
+        <v>198204.9999</v>
       </c>
       <c r="G9" t="n">
-        <v>-153960.5916000004</v>
+        <v>327469.3205722417</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="K9" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.02</v>
+        <v>11.49</v>
       </c>
       <c r="C10" t="n">
-        <v>11.02</v>
+        <v>11.49</v>
       </c>
       <c r="D10" t="n">
-        <v>11.02</v>
+        <v>11.49</v>
       </c>
       <c r="E10" t="n">
-        <v>11.02</v>
+        <v>11.49</v>
       </c>
       <c r="F10" t="n">
-        <v>7177.2206</v>
+        <v>4558.2843</v>
       </c>
       <c r="G10" t="n">
-        <v>-161137.8122000004</v>
+        <v>327469.3205722417</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="K10" t="n">
-        <v>11.07</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.02</v>
+        <v>11.5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.02</v>
+        <v>11.5</v>
       </c>
       <c r="D11" t="n">
-        <v>11.02</v>
+        <v>11.5</v>
       </c>
       <c r="E11" t="n">
-        <v>11.02</v>
+        <v>11.5</v>
       </c>
       <c r="F11" t="n">
-        <v>5123.5193</v>
+        <v>510.6468</v>
       </c>
       <c r="G11" t="n">
-        <v>-161137.8122000004</v>
+        <v>327979.9673722417</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -802,39 +824,38 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>11.07</v>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.07</v>
+        <v>11.52</v>
       </c>
       <c r="C12" t="n">
-        <v>11.07</v>
+        <v>11.6</v>
       </c>
       <c r="D12" t="n">
-        <v>11.07</v>
+        <v>11.6</v>
       </c>
       <c r="E12" t="n">
-        <v>11.07</v>
+        <v>11.52</v>
       </c>
       <c r="F12" t="n">
-        <v>500</v>
+        <v>107366.7438</v>
       </c>
       <c r="G12" t="n">
-        <v>-160637.8122000004</v>
+        <v>435346.7111722417</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -844,32 +865,37 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.03</v>
+        <v>11.6</v>
       </c>
       <c r="C13" t="n">
-        <v>11.03</v>
+        <v>11.62</v>
       </c>
       <c r="D13" t="n">
-        <v>11.03</v>
+        <v>11.62</v>
       </c>
       <c r="E13" t="n">
-        <v>11.03</v>
+        <v>11.6</v>
       </c>
       <c r="F13" t="n">
-        <v>4692.0514</v>
+        <v>21322.9766</v>
       </c>
       <c r="G13" t="n">
-        <v>-165329.8636000004</v>
+        <v>456669.6877722417</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -879,32 +905,37 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.03</v>
+        <v>11.49</v>
       </c>
       <c r="C14" t="n">
-        <v>11.02</v>
+        <v>11.4</v>
       </c>
       <c r="D14" t="n">
-        <v>11.03</v>
+        <v>11.49</v>
       </c>
       <c r="E14" t="n">
-        <v>11.02</v>
+        <v>11.4</v>
       </c>
       <c r="F14" t="n">
-        <v>11649.0993</v>
+        <v>27039.2534</v>
       </c>
       <c r="G14" t="n">
-        <v>-176978.9629000004</v>
+        <v>429630.4343722417</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -914,32 +945,37 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.02</v>
+        <v>11.3</v>
       </c>
       <c r="C15" t="n">
-        <v>11.01</v>
+        <v>11.3</v>
       </c>
       <c r="D15" t="n">
-        <v>11.02</v>
+        <v>11.3</v>
       </c>
       <c r="E15" t="n">
-        <v>11.01</v>
+        <v>11.3</v>
       </c>
       <c r="F15" t="n">
-        <v>42578.9788</v>
+        <v>1668</v>
       </c>
       <c r="G15" t="n">
-        <v>-219557.9417000004</v>
+        <v>427962.4343722417</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -949,32 +985,37 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11.02</v>
+        <v>11.3</v>
       </c>
       <c r="C16" t="n">
-        <v>11.01</v>
+        <v>11.3</v>
       </c>
       <c r="D16" t="n">
-        <v>11.02</v>
+        <v>11.3</v>
       </c>
       <c r="E16" t="n">
-        <v>11.01</v>
+        <v>11.3</v>
       </c>
       <c r="F16" t="n">
-        <v>9858.685799999999</v>
+        <v>1938</v>
       </c>
       <c r="G16" t="n">
-        <v>-219557.9417000004</v>
+        <v>427962.4343722417</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -984,32 +1025,37 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11</v>
+        <v>11.13</v>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>11.13</v>
       </c>
       <c r="D17" t="n">
-        <v>11</v>
+        <v>11.13</v>
       </c>
       <c r="E17" t="n">
-        <v>11</v>
+        <v>11.13</v>
       </c>
       <c r="F17" t="n">
-        <v>7789.434</v>
+        <v>14515.4839</v>
       </c>
       <c r="G17" t="n">
-        <v>-227347.3757000004</v>
+        <v>413446.9504722417</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1019,32 +1065,37 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11</v>
+        <v>11.03</v>
       </c>
       <c r="C18" t="n">
-        <v>11</v>
+        <v>11.13</v>
       </c>
       <c r="D18" t="n">
-        <v>11</v>
+        <v>11.13</v>
       </c>
       <c r="E18" t="n">
-        <v>11</v>
+        <v>11.03</v>
       </c>
       <c r="F18" t="n">
-        <v>16273.9999</v>
+        <v>52480.8813</v>
       </c>
       <c r="G18" t="n">
-        <v>-227347.3757000004</v>
+        <v>413446.9504722417</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1054,32 +1105,37 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11</v>
+        <v>11.13</v>
       </c>
       <c r="C19" t="n">
-        <v>11</v>
+        <v>11.13</v>
       </c>
       <c r="D19" t="n">
-        <v>11</v>
+        <v>11.13</v>
       </c>
       <c r="E19" t="n">
-        <v>11</v>
+        <v>11.13</v>
       </c>
       <c r="F19" t="n">
-        <v>2024.6887</v>
+        <v>30485.786</v>
       </c>
       <c r="G19" t="n">
-        <v>-227347.3757000004</v>
+        <v>413446.9504722417</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1089,242 +1145,289 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>10.93</v>
+        <v>11.25</v>
       </c>
       <c r="C20" t="n">
-        <v>10.93</v>
+        <v>11.1</v>
       </c>
       <c r="D20" t="n">
-        <v>10.93</v>
+        <v>11.25</v>
       </c>
       <c r="E20" t="n">
-        <v>10.93</v>
+        <v>11.1</v>
       </c>
       <c r="F20" t="n">
-        <v>141.3142</v>
+        <v>12363.0212</v>
       </c>
       <c r="G20" t="n">
-        <v>-227488.6899000004</v>
+        <v>401083.9292722417</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>11.13</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>10.93</v>
+        <v>11.2</v>
       </c>
       <c r="C21" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="D21" t="n">
-        <v>10.93</v>
+        <v>11.3</v>
       </c>
       <c r="E21" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="F21" t="n">
-        <v>227182.3107</v>
+        <v>43442.0765</v>
       </c>
       <c r="G21" t="n">
-        <v>-454671.0006000004</v>
+        <v>401083.9292722417</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>11.1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>10.9</v>
+        <v>11.15</v>
       </c>
       <c r="C22" t="n">
-        <v>10.9</v>
+        <v>11.14</v>
       </c>
       <c r="D22" t="n">
-        <v>10.9</v>
+        <v>11.15</v>
       </c>
       <c r="E22" t="n">
-        <v>10.9</v>
+        <v>11.14</v>
       </c>
       <c r="F22" t="n">
-        <v>102782.534</v>
+        <v>17135.1428</v>
       </c>
       <c r="G22" t="n">
-        <v>-454671.0006000004</v>
+        <v>418219.0720722417</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>11.1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>10.9</v>
+        <v>11.32</v>
       </c>
       <c r="C23" t="n">
-        <v>10.9</v>
+        <v>11.35</v>
       </c>
       <c r="D23" t="n">
-        <v>10.9</v>
+        <v>11.35</v>
       </c>
       <c r="E23" t="n">
-        <v>10.9</v>
+        <v>11.32</v>
       </c>
       <c r="F23" t="n">
-        <v>5087.3364</v>
+        <v>263827.9862</v>
       </c>
       <c r="G23" t="n">
-        <v>-454671.0006000004</v>
+        <v>682047.0582722416</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>11.14</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>10.9</v>
+        <v>11.22</v>
       </c>
       <c r="C24" t="n">
-        <v>10.9</v>
+        <v>11.22</v>
       </c>
       <c r="D24" t="n">
-        <v>10.9</v>
+        <v>11.22</v>
       </c>
       <c r="E24" t="n">
-        <v>10.9</v>
+        <v>11.22</v>
       </c>
       <c r="F24" t="n">
-        <v>101016.9517</v>
+        <v>100000</v>
       </c>
       <c r="G24" t="n">
-        <v>-454671.0006000004</v>
+        <v>582047.0582722416</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>11.35</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>10.93</v>
+        <v>11.37</v>
       </c>
       <c r="C25" t="n">
-        <v>10.93</v>
+        <v>11.3</v>
       </c>
       <c r="D25" t="n">
-        <v>10.93</v>
+        <v>11.37</v>
       </c>
       <c r="E25" t="n">
-        <v>10.93</v>
+        <v>11.3</v>
       </c>
       <c r="F25" t="n">
-        <v>46907.5479</v>
+        <v>13592.9298</v>
       </c>
       <c r="G25" t="n">
-        <v>-407763.4527000004</v>
+        <v>595639.9880722417</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>11.22</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.07</v>
+        <v>11.3</v>
       </c>
       <c r="C26" t="n">
-        <v>11.07</v>
+        <v>11.3</v>
       </c>
       <c r="D26" t="n">
-        <v>11.07</v>
+        <v>11.3</v>
       </c>
       <c r="E26" t="n">
-        <v>11.07</v>
+        <v>11.3</v>
       </c>
       <c r="F26" t="n">
-        <v>76384.90919999999</v>
+        <v>31372.705</v>
       </c>
       <c r="G26" t="n">
-        <v>-331378.5435000004</v>
+        <v>595639.9880722417</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1333,121 +1436,122 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K26" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="L26" t="inlineStr"/>
+        <v>11.3</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.05</v>
+        <v>11.4</v>
       </c>
       <c r="C27" t="n">
-        <v>11.05</v>
+        <v>11.4</v>
       </c>
       <c r="D27" t="n">
-        <v>11.05</v>
+        <v>11.4</v>
       </c>
       <c r="E27" t="n">
-        <v>11.05</v>
+        <v>11.4</v>
       </c>
       <c r="F27" t="n">
-        <v>3000</v>
+        <v>18066.0141</v>
       </c>
       <c r="G27" t="n">
-        <v>-334378.5435000004</v>
+        <v>613706.0021722417</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>10.93</v>
-      </c>
+      <c r="J27" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.04</v>
+        <v>11.4</v>
       </c>
       <c r="C28" t="n">
-        <v>11.08</v>
+        <v>11.4</v>
       </c>
       <c r="D28" t="n">
-        <v>11.08</v>
+        <v>11.4</v>
       </c>
       <c r="E28" t="n">
-        <v>11.04</v>
+        <v>11.4</v>
       </c>
       <c r="F28" t="n">
-        <v>14932.6987</v>
+        <v>40721.9477</v>
       </c>
       <c r="G28" t="n">
-        <v>-319445.8448000004</v>
+        <v>613706.0021722417</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="K28" t="n">
-        <v>10.93</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.04</v>
+        <v>11.4</v>
       </c>
       <c r="C29" t="n">
-        <v>11.08</v>
+        <v>11.3</v>
       </c>
       <c r="D29" t="n">
-        <v>11.08</v>
+        <v>11.41</v>
       </c>
       <c r="E29" t="n">
-        <v>11.04</v>
+        <v>11.3</v>
       </c>
       <c r="F29" t="n">
-        <v>6646.375475812274</v>
+        <v>32349.4465</v>
       </c>
       <c r="G29" t="n">
-        <v>-319445.8448000004</v>
+        <v>581356.5556722417</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1457,32 +1561,37 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.04</v>
+        <v>11.31</v>
       </c>
       <c r="C30" t="n">
-        <v>11.04</v>
+        <v>11.31</v>
       </c>
       <c r="D30" t="n">
-        <v>11.04</v>
+        <v>11.31</v>
       </c>
       <c r="E30" t="n">
-        <v>11.04</v>
+        <v>11.31</v>
       </c>
       <c r="F30" t="n">
-        <v>4993.7578</v>
+        <v>18120.0576</v>
       </c>
       <c r="G30" t="n">
-        <v>-324439.6026000004</v>
+        <v>599476.6132722418</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1492,32 +1601,37 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11.04</v>
+        <v>11.31</v>
       </c>
       <c r="C31" t="n">
-        <v>11.04</v>
+        <v>11.31</v>
       </c>
       <c r="D31" t="n">
-        <v>11.04</v>
+        <v>11.31</v>
       </c>
       <c r="E31" t="n">
-        <v>11.04</v>
+        <v>11.31</v>
       </c>
       <c r="F31" t="n">
-        <v>24429.9997</v>
+        <v>701.551</v>
       </c>
       <c r="G31" t="n">
-        <v>-324439.6026000004</v>
+        <v>599476.6132722418</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1527,32 +1641,37 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.04</v>
+        <v>11.31</v>
       </c>
       <c r="C32" t="n">
-        <v>10.93</v>
+        <v>11.31</v>
       </c>
       <c r="D32" t="n">
-        <v>11.04</v>
+        <v>11.31</v>
       </c>
       <c r="E32" t="n">
-        <v>10.93</v>
+        <v>11.31</v>
       </c>
       <c r="F32" t="n">
-        <v>14047.5952</v>
+        <v>3185.0166</v>
       </c>
       <c r="G32" t="n">
-        <v>-338487.1978000004</v>
+        <v>599476.6132722418</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1562,32 +1681,37 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.06</v>
+        <v>11.49</v>
       </c>
       <c r="C33" t="n">
-        <v>11.06</v>
+        <v>11.49</v>
       </c>
       <c r="D33" t="n">
-        <v>11.06</v>
+        <v>11.49</v>
       </c>
       <c r="E33" t="n">
-        <v>11.06</v>
+        <v>11.49</v>
       </c>
       <c r="F33" t="n">
-        <v>199133.2067</v>
+        <v>25782.9393</v>
       </c>
       <c r="G33" t="n">
-        <v>-139353.9911000004</v>
+        <v>625259.5525722418</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1597,32 +1721,37 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>10.94</v>
+        <v>11.49</v>
       </c>
       <c r="C34" t="n">
-        <v>10.94</v>
+        <v>11.33</v>
       </c>
       <c r="D34" t="n">
-        <v>10.94</v>
+        <v>11.49</v>
       </c>
       <c r="E34" t="n">
-        <v>10.94</v>
+        <v>11.33</v>
       </c>
       <c r="F34" t="n">
-        <v>13562.7354</v>
+        <v>12226.1517</v>
       </c>
       <c r="G34" t="n">
-        <v>-152916.7265000004</v>
+        <v>613033.4008722417</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1632,32 +1761,37 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>10.95</v>
+        <v>11.33</v>
       </c>
       <c r="C35" t="n">
-        <v>10.95</v>
+        <v>11.33</v>
       </c>
       <c r="D35" t="n">
-        <v>10.95</v>
+        <v>11.33</v>
       </c>
       <c r="E35" t="n">
-        <v>10.95</v>
+        <v>11.33</v>
       </c>
       <c r="F35" t="n">
-        <v>23852.3355</v>
+        <v>258174.3471</v>
       </c>
       <c r="G35" t="n">
-        <v>-129064.3910000004</v>
+        <v>613033.4008722417</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1667,196 +1801,197 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11.06</v>
+        <v>11.49</v>
       </c>
       <c r="C36" t="n">
-        <v>11.06</v>
+        <v>11.49</v>
       </c>
       <c r="D36" t="n">
-        <v>11.06</v>
+        <v>11.49</v>
       </c>
       <c r="E36" t="n">
-        <v>11.06</v>
+        <v>11.49</v>
       </c>
       <c r="F36" t="n">
-        <v>7509.363</v>
+        <v>5714.1387</v>
       </c>
       <c r="G36" t="n">
-        <v>-121555.0280000004</v>
+        <v>618747.5395722417</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="K36" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.07</v>
+        <v>11.49</v>
       </c>
       <c r="C37" t="n">
-        <v>11.14</v>
+        <v>11.49</v>
       </c>
       <c r="D37" t="n">
-        <v>11.14</v>
+        <v>11.49</v>
       </c>
       <c r="E37" t="n">
-        <v>11.07</v>
+        <v>11.49</v>
       </c>
       <c r="F37" t="n">
-        <v>99662.7899</v>
+        <v>2221.0617</v>
       </c>
       <c r="G37" t="n">
-        <v>-21892.23810000037</v>
+        <v>618747.5395722417</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="K37" t="n">
-        <v>10.95</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.14</v>
+        <v>11.49</v>
       </c>
       <c r="C38" t="n">
-        <v>11.3</v>
+        <v>11.49</v>
       </c>
       <c r="D38" t="n">
-        <v>11.3</v>
+        <v>11.49</v>
       </c>
       <c r="E38" t="n">
-        <v>11.14</v>
+        <v>11.49</v>
       </c>
       <c r="F38" t="n">
-        <v>27918.5208</v>
+        <v>7067.6876</v>
       </c>
       <c r="G38" t="n">
-        <v>6026.282699999632</v>
+        <v>618747.5395722417</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="K38" t="n">
-        <v>10.95</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11.33</v>
+        <v>11.45</v>
       </c>
       <c r="C39" t="n">
-        <v>11.33</v>
+        <v>11.44</v>
       </c>
       <c r="D39" t="n">
-        <v>11.33</v>
+        <v>11.45</v>
       </c>
       <c r="E39" t="n">
-        <v>11.33</v>
+        <v>11.44</v>
       </c>
       <c r="F39" t="n">
-        <v>10338.0621</v>
+        <v>10000</v>
       </c>
       <c r="G39" t="n">
-        <v>16364.34479999963</v>
+        <v>608747.5395722417</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K39" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11.34</v>
+        <v>11.49</v>
       </c>
       <c r="C40" t="n">
-        <v>11.38</v>
+        <v>11.54</v>
       </c>
       <c r="D40" t="n">
-        <v>11.38</v>
+        <v>11.54</v>
       </c>
       <c r="E40" t="n">
-        <v>11.34</v>
+        <v>11.49</v>
       </c>
       <c r="F40" t="n">
-        <v>5716</v>
+        <v>6717.1952</v>
       </c>
       <c r="G40" t="n">
-        <v>22080.34479999963</v>
+        <v>615464.7347722417</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1865,39 +2000,38 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>11.3</v>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11.38</v>
+        <v>11.59</v>
       </c>
       <c r="C41" t="n">
-        <v>11.34</v>
+        <v>11.59</v>
       </c>
       <c r="D41" t="n">
-        <v>11.4</v>
+        <v>11.59</v>
       </c>
       <c r="E41" t="n">
-        <v>11.34</v>
+        <v>11.59</v>
       </c>
       <c r="F41" t="n">
-        <v>30961.7997</v>
+        <v>17655.5255</v>
       </c>
       <c r="G41" t="n">
-        <v>-8881.454900000368</v>
+        <v>633120.2602722417</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1906,39 +2040,38 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>11.3</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.4</v>
+        <v>11.55</v>
       </c>
       <c r="C42" t="n">
-        <v>11.5</v>
+        <v>11.59</v>
       </c>
       <c r="D42" t="n">
-        <v>11.5</v>
+        <v>11.59</v>
       </c>
       <c r="E42" t="n">
-        <v>11.4</v>
+        <v>11.55</v>
       </c>
       <c r="F42" t="n">
-        <v>339014.831172242</v>
+        <v>104835.3387</v>
       </c>
       <c r="G42" t="n">
-        <v>330133.3762722416</v>
+        <v>633120.2602722417</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1948,32 +2081,37 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11.42</v>
+        <v>11.59</v>
       </c>
       <c r="C43" t="n">
-        <v>11.41</v>
+        <v>11.62</v>
       </c>
       <c r="D43" t="n">
-        <v>11.42</v>
+        <v>11.62</v>
       </c>
       <c r="E43" t="n">
-        <v>11.41</v>
+        <v>11.59</v>
       </c>
       <c r="F43" t="n">
-        <v>18704.5757</v>
+        <v>29400</v>
       </c>
       <c r="G43" t="n">
-        <v>311428.8005722417</v>
+        <v>662520.2602722417</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1983,32 +2121,37 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.5</v>
+        <v>11.54</v>
       </c>
       <c r="C44" t="n">
-        <v>11.5</v>
+        <v>11.42</v>
       </c>
       <c r="D44" t="n">
-        <v>11.5</v>
+        <v>11.54</v>
       </c>
       <c r="E44" t="n">
-        <v>11.5</v>
+        <v>11.42</v>
       </c>
       <c r="F44" t="n">
-        <v>50000</v>
+        <v>111972.3703</v>
       </c>
       <c r="G44" t="n">
-        <v>361428.8005722417</v>
+        <v>550547.8899722417</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2018,32 +2161,37 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.42</v>
+        <v>11.62</v>
       </c>
       <c r="C45" t="n">
-        <v>11.22</v>
+        <v>11.63</v>
       </c>
       <c r="D45" t="n">
-        <v>11.42</v>
+        <v>11.63</v>
       </c>
       <c r="E45" t="n">
-        <v>11.22</v>
+        <v>11.62</v>
       </c>
       <c r="F45" t="n">
-        <v>322132.5665</v>
+        <v>127033.7312</v>
       </c>
       <c r="G45" t="n">
-        <v>39296.23407224164</v>
+        <v>677581.6211722418</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2053,32 +2201,37 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.4</v>
+        <v>11.62</v>
       </c>
       <c r="C46" t="n">
-        <v>11.4</v>
+        <v>11.62</v>
       </c>
       <c r="D46" t="n">
-        <v>11.4</v>
+        <v>11.68</v>
       </c>
       <c r="E46" t="n">
-        <v>11.4</v>
+        <v>11.62</v>
       </c>
       <c r="F46" t="n">
-        <v>1260.426</v>
+        <v>113279.0939</v>
       </c>
       <c r="G46" t="n">
-        <v>40556.66007224164</v>
+        <v>564302.5272722418</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2088,32 +2241,37 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.46</v>
+        <v>11.68</v>
       </c>
       <c r="C47" t="n">
-        <v>11.46</v>
+        <v>11.7</v>
       </c>
       <c r="D47" t="n">
-        <v>11.46</v>
+        <v>11.7</v>
       </c>
       <c r="E47" t="n">
-        <v>11.46</v>
+        <v>11.62</v>
       </c>
       <c r="F47" t="n">
-        <v>50</v>
+        <v>8405.1513</v>
       </c>
       <c r="G47" t="n">
-        <v>40606.66007224164</v>
+        <v>572707.6785722418</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2123,32 +2281,37 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11.46</v>
+        <v>11.7</v>
       </c>
       <c r="C48" t="n">
-        <v>11.49</v>
+        <v>11.71</v>
       </c>
       <c r="D48" t="n">
-        <v>11.49</v>
+        <v>11.71</v>
       </c>
       <c r="E48" t="n">
-        <v>11.45</v>
+        <v>11.7</v>
       </c>
       <c r="F48" t="n">
-        <v>94202</v>
+        <v>190</v>
       </c>
       <c r="G48" t="n">
-        <v>134808.6600722416</v>
+        <v>572897.6785722418</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2158,32 +2321,37 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11.4</v>
+        <v>11.66</v>
       </c>
       <c r="C49" t="n">
-        <v>11.4</v>
+        <v>11.62</v>
       </c>
       <c r="D49" t="n">
-        <v>11.4</v>
+        <v>11.66</v>
       </c>
       <c r="E49" t="n">
-        <v>11.4</v>
+        <v>11.62</v>
       </c>
       <c r="F49" t="n">
-        <v>5604.3394</v>
+        <v>151035.6059</v>
       </c>
       <c r="G49" t="n">
-        <v>129204.3206722417</v>
+        <v>421862.0726722418</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2193,32 +2361,37 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>11.48</v>
+        <v>11.51</v>
       </c>
       <c r="C50" t="n">
-        <v>11.48</v>
+        <v>11.51</v>
       </c>
       <c r="D50" t="n">
-        <v>11.48</v>
+        <v>11.51</v>
       </c>
       <c r="E50" t="n">
-        <v>11.48</v>
+        <v>11.51</v>
       </c>
       <c r="F50" t="n">
-        <v>60</v>
+        <v>2656.266</v>
       </c>
       <c r="G50" t="n">
-        <v>129264.3206722417</v>
+        <v>419205.8066722418</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2228,32 +2401,37 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>11.49</v>
+        <v>11.51</v>
       </c>
       <c r="C51" t="n">
-        <v>11.49</v>
+        <v>11.51</v>
       </c>
       <c r="D51" t="n">
-        <v>11.49</v>
+        <v>11.51</v>
       </c>
       <c r="E51" t="n">
-        <v>11.49</v>
+        <v>11.51</v>
       </c>
       <c r="F51" t="n">
-        <v>198204.9999</v>
+        <v>43440.486</v>
       </c>
       <c r="G51" t="n">
-        <v>327469.3205722417</v>
+        <v>419205.8066722418</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2263,32 +2441,37 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.49</v>
+        <v>11.69</v>
       </c>
       <c r="C52" t="n">
-        <v>11.49</v>
+        <v>11.69</v>
       </c>
       <c r="D52" t="n">
-        <v>11.49</v>
+        <v>11.69</v>
       </c>
       <c r="E52" t="n">
-        <v>11.49</v>
+        <v>11.69</v>
       </c>
       <c r="F52" t="n">
-        <v>4558.2843</v>
+        <v>17108.63986313088</v>
       </c>
       <c r="G52" t="n">
-        <v>327469.3205722417</v>
+        <v>436314.4465353727</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2298,10 +2481,15 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2320,10 +2508,10 @@
         <v>11.5</v>
       </c>
       <c r="F53" t="n">
-        <v>510.6468</v>
+        <v>2500</v>
       </c>
       <c r="G53" t="n">
-        <v>327979.9673722417</v>
+        <v>433814.4465353727</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2333,32 +2521,37 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.52</v>
+        <v>11.58</v>
       </c>
       <c r="C54" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="D54" t="n">
-        <v>11.6</v>
+        <v>11.58</v>
       </c>
       <c r="E54" t="n">
-        <v>11.52</v>
+        <v>11.5</v>
       </c>
       <c r="F54" t="n">
-        <v>107366.7438</v>
+        <v>200</v>
       </c>
       <c r="G54" t="n">
-        <v>435346.7111722417</v>
+        <v>433814.4465353727</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2368,32 +2561,37 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.6</v>
+        <v>11.52</v>
       </c>
       <c r="C55" t="n">
-        <v>11.62</v>
+        <v>11.52</v>
       </c>
       <c r="D55" t="n">
-        <v>11.62</v>
+        <v>11.52</v>
       </c>
       <c r="E55" t="n">
-        <v>11.6</v>
+        <v>11.52</v>
       </c>
       <c r="F55" t="n">
-        <v>21322.9766</v>
+        <v>30190.3071</v>
       </c>
       <c r="G55" t="n">
-        <v>456669.6877722417</v>
+        <v>464004.7536353727</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2403,32 +2601,37 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.49</v>
+        <v>11.52</v>
       </c>
       <c r="C56" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="D56" t="n">
-        <v>11.49</v>
+        <v>11.52</v>
       </c>
       <c r="E56" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="F56" t="n">
-        <v>27039.2534</v>
+        <v>41340.7388</v>
       </c>
       <c r="G56" t="n">
-        <v>429630.4343722417</v>
+        <v>422664.0148353727</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2438,32 +2641,37 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.3</v>
+        <v>11.42</v>
       </c>
       <c r="C57" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="D57" t="n">
-        <v>11.3</v>
+        <v>11.42</v>
       </c>
       <c r="E57" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="F57" t="n">
-        <v>1668</v>
+        <v>7071.1874</v>
       </c>
       <c r="G57" t="n">
-        <v>427962.4343722417</v>
+        <v>415592.8274353727</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2473,32 +2681,37 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.3</v>
+        <v>11.48</v>
       </c>
       <c r="C58" t="n">
-        <v>11.3</v>
+        <v>11.48</v>
       </c>
       <c r="D58" t="n">
-        <v>11.3</v>
+        <v>11.48</v>
       </c>
       <c r="E58" t="n">
-        <v>11.3</v>
+        <v>11.48</v>
       </c>
       <c r="F58" t="n">
-        <v>1938</v>
+        <v>8710.801393728223</v>
       </c>
       <c r="G58" t="n">
-        <v>427962.4343722417</v>
+        <v>424303.6288291009</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2508,32 +2721,37 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.13</v>
+        <v>11.41</v>
       </c>
       <c r="C59" t="n">
-        <v>11.13</v>
+        <v>11.38</v>
       </c>
       <c r="D59" t="n">
-        <v>11.13</v>
+        <v>11.41</v>
       </c>
       <c r="E59" t="n">
-        <v>11.13</v>
+        <v>11.38</v>
       </c>
       <c r="F59" t="n">
-        <v>14515.4839</v>
+        <v>14895.0895</v>
       </c>
       <c r="G59" t="n">
-        <v>413446.9504722417</v>
+        <v>409408.5393291009</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2543,32 +2761,37 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.03</v>
+        <v>11.48</v>
       </c>
       <c r="C60" t="n">
-        <v>11.13</v>
+        <v>11.35</v>
       </c>
       <c r="D60" t="n">
-        <v>11.13</v>
+        <v>11.48</v>
       </c>
       <c r="E60" t="n">
-        <v>11.03</v>
+        <v>11.35</v>
       </c>
       <c r="F60" t="n">
-        <v>52480.8813</v>
+        <v>18699.3805</v>
       </c>
       <c r="G60" t="n">
-        <v>413446.9504722417</v>
+        <v>390709.1588291009</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2578,32 +2801,37 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.13</v>
+        <v>11.35</v>
       </c>
       <c r="C61" t="n">
-        <v>11.13</v>
+        <v>11.31</v>
       </c>
       <c r="D61" t="n">
-        <v>11.13</v>
+        <v>11.35</v>
       </c>
       <c r="E61" t="n">
-        <v>11.13</v>
+        <v>11.31</v>
       </c>
       <c r="F61" t="n">
-        <v>30485.786</v>
+        <v>147833.7312</v>
       </c>
       <c r="G61" t="n">
-        <v>413446.9504722417</v>
+        <v>242875.4276291009</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2613,32 +2841,37 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.25</v>
+        <v>11.31</v>
       </c>
       <c r="C62" t="n">
-        <v>11.1</v>
+        <v>11.31</v>
       </c>
       <c r="D62" t="n">
-        <v>11.25</v>
+        <v>11.31</v>
       </c>
       <c r="E62" t="n">
-        <v>11.1</v>
+        <v>11.31</v>
       </c>
       <c r="F62" t="n">
-        <v>12363.0212</v>
+        <v>34157.0499</v>
       </c>
       <c r="G62" t="n">
-        <v>401083.9292722417</v>
+        <v>242875.4276291009</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2648,32 +2881,37 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.2</v>
+        <v>11.36</v>
       </c>
       <c r="C63" t="n">
-        <v>11.1</v>
+        <v>11.36</v>
       </c>
       <c r="D63" t="n">
-        <v>11.3</v>
+        <v>11.36</v>
       </c>
       <c r="E63" t="n">
-        <v>11.1</v>
+        <v>11.36</v>
       </c>
       <c r="F63" t="n">
-        <v>43442.0765</v>
+        <v>157.5</v>
       </c>
       <c r="G63" t="n">
-        <v>401083.9292722417</v>
+        <v>243032.9276291009</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2683,32 +2921,37 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.15</v>
+        <v>11.36</v>
       </c>
       <c r="C64" t="n">
-        <v>11.14</v>
+        <v>11.36</v>
       </c>
       <c r="D64" t="n">
-        <v>11.15</v>
+        <v>11.36</v>
       </c>
       <c r="E64" t="n">
-        <v>11.14</v>
+        <v>11.36</v>
       </c>
       <c r="F64" t="n">
-        <v>17135.1428</v>
+        <v>3092.5</v>
       </c>
       <c r="G64" t="n">
-        <v>418219.0720722417</v>
+        <v>243032.9276291009</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2718,32 +2961,37 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.32</v>
+        <v>11.31</v>
       </c>
       <c r="C65" t="n">
-        <v>11.35</v>
+        <v>11.3</v>
       </c>
       <c r="D65" t="n">
-        <v>11.35</v>
+        <v>11.31</v>
       </c>
       <c r="E65" t="n">
-        <v>11.32</v>
+        <v>11.3</v>
       </c>
       <c r="F65" t="n">
-        <v>263827.9862</v>
+        <v>5704.152</v>
       </c>
       <c r="G65" t="n">
-        <v>682047.0582722416</v>
+        <v>237328.7756291009</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2753,32 +3001,37 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.22</v>
+        <v>11.3</v>
       </c>
       <c r="C66" t="n">
-        <v>11.22</v>
+        <v>11.3</v>
       </c>
       <c r="D66" t="n">
-        <v>11.22</v>
+        <v>11.3</v>
       </c>
       <c r="E66" t="n">
-        <v>11.22</v>
+        <v>11.3</v>
       </c>
       <c r="F66" t="n">
-        <v>100000</v>
+        <v>10074.5883</v>
       </c>
       <c r="G66" t="n">
-        <v>582047.0582722416</v>
+        <v>237328.7756291009</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2788,32 +3041,37 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.37</v>
+        <v>11.29</v>
       </c>
       <c r="C67" t="n">
-        <v>11.3</v>
+        <v>11.24</v>
       </c>
       <c r="D67" t="n">
-        <v>11.37</v>
+        <v>11.29</v>
       </c>
       <c r="E67" t="n">
-        <v>11.3</v>
+        <v>11.24</v>
       </c>
       <c r="F67" t="n">
-        <v>13592.9298</v>
+        <v>1762.8096</v>
       </c>
       <c r="G67" t="n">
-        <v>595639.9880722417</v>
+        <v>235565.9660291009</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2823,32 +3081,37 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.3</v>
+        <v>11.24</v>
       </c>
       <c r="C68" t="n">
-        <v>11.3</v>
+        <v>11.24</v>
       </c>
       <c r="D68" t="n">
-        <v>11.3</v>
+        <v>11.24</v>
       </c>
       <c r="E68" t="n">
-        <v>11.3</v>
+        <v>11.24</v>
       </c>
       <c r="F68" t="n">
-        <v>31372.705</v>
+        <v>5632.0934</v>
       </c>
       <c r="G68" t="n">
-        <v>595639.9880722417</v>
+        <v>235565.9660291009</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2858,32 +3121,37 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.4</v>
+        <v>11.24</v>
       </c>
       <c r="C69" t="n">
-        <v>11.4</v>
+        <v>11.22</v>
       </c>
       <c r="D69" t="n">
-        <v>11.4</v>
+        <v>11.24</v>
       </c>
       <c r="E69" t="n">
-        <v>11.4</v>
+        <v>11.22</v>
       </c>
       <c r="F69" t="n">
-        <v>18066.0141</v>
+        <v>15034.9081</v>
       </c>
       <c r="G69" t="n">
-        <v>613706.0021722417</v>
+        <v>220531.0579291009</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2893,32 +3161,37 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.4</v>
+        <v>11.23</v>
       </c>
       <c r="C70" t="n">
-        <v>11.4</v>
+        <v>11.23</v>
       </c>
       <c r="D70" t="n">
-        <v>11.4</v>
+        <v>11.23</v>
       </c>
       <c r="E70" t="n">
-        <v>11.4</v>
+        <v>11.23</v>
       </c>
       <c r="F70" t="n">
-        <v>40721.9477</v>
+        <v>3956.7766</v>
       </c>
       <c r="G70" t="n">
-        <v>613706.0021722417</v>
+        <v>224487.8345291009</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2928,32 +3201,37 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.4</v>
+        <v>11.23</v>
       </c>
       <c r="C71" t="n">
-        <v>11.3</v>
+        <v>11.23</v>
       </c>
       <c r="D71" t="n">
-        <v>11.41</v>
+        <v>11.23</v>
       </c>
       <c r="E71" t="n">
-        <v>11.3</v>
+        <v>11.23</v>
       </c>
       <c r="F71" t="n">
-        <v>32349.4465</v>
+        <v>33.9734</v>
       </c>
       <c r="G71" t="n">
-        <v>581356.5556722417</v>
+        <v>224487.8345291009</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2963,32 +3241,37 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.31</v>
+        <v>11.23</v>
       </c>
       <c r="C72" t="n">
-        <v>11.31</v>
+        <v>11.22</v>
       </c>
       <c r="D72" t="n">
-        <v>11.31</v>
+        <v>11.23</v>
       </c>
       <c r="E72" t="n">
-        <v>11.31</v>
+        <v>11.22</v>
       </c>
       <c r="F72" t="n">
-        <v>18120.0576</v>
+        <v>9515.562</v>
       </c>
       <c r="G72" t="n">
-        <v>599476.6132722418</v>
+        <v>214972.2725291009</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2998,32 +3281,37 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.31</v>
+        <v>11.23</v>
       </c>
       <c r="C73" t="n">
-        <v>11.31</v>
+        <v>11.26</v>
       </c>
       <c r="D73" t="n">
-        <v>11.31</v>
+        <v>11.26</v>
       </c>
       <c r="E73" t="n">
-        <v>11.31</v>
+        <v>11.16</v>
       </c>
       <c r="F73" t="n">
-        <v>701.551</v>
+        <v>130773</v>
       </c>
       <c r="G73" t="n">
-        <v>599476.6132722418</v>
+        <v>345745.2725291009</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3033,32 +3321,37 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11.31</v>
+        <v>11.26</v>
       </c>
       <c r="C74" t="n">
-        <v>11.31</v>
+        <v>11.26</v>
       </c>
       <c r="D74" t="n">
-        <v>11.31</v>
+        <v>11.26</v>
       </c>
       <c r="E74" t="n">
-        <v>11.31</v>
+        <v>11.26</v>
       </c>
       <c r="F74" t="n">
-        <v>3185.0166</v>
+        <v>4518</v>
       </c>
       <c r="G74" t="n">
-        <v>599476.6132722418</v>
+        <v>345745.2725291009</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3068,32 +3361,37 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>11.49</v>
+        <v>11.16</v>
       </c>
       <c r="C75" t="n">
-        <v>11.49</v>
+        <v>11.16</v>
       </c>
       <c r="D75" t="n">
-        <v>11.49</v>
+        <v>11.16</v>
       </c>
       <c r="E75" t="n">
-        <v>11.49</v>
+        <v>11.16</v>
       </c>
       <c r="F75" t="n">
-        <v>25782.9393</v>
+        <v>4409.4533</v>
       </c>
       <c r="G75" t="n">
-        <v>625259.5525722418</v>
+        <v>341335.8192291009</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3103,347 +3401,415 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11.49</v>
+        <v>11.2</v>
       </c>
       <c r="C76" t="n">
-        <v>11.33</v>
+        <v>11.18</v>
       </c>
       <c r="D76" t="n">
-        <v>11.49</v>
+        <v>11.2</v>
       </c>
       <c r="E76" t="n">
-        <v>11.33</v>
+        <v>11.18</v>
       </c>
       <c r="F76" t="n">
-        <v>12226.1517</v>
+        <v>3000</v>
       </c>
       <c r="G76" t="n">
-        <v>613033.4008722417</v>
+        <v>344335.8192291009</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>11.16</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11.33</v>
+        <v>11.2</v>
       </c>
       <c r="C77" t="n">
-        <v>11.33</v>
+        <v>11.2</v>
       </c>
       <c r="D77" t="n">
-        <v>11.33</v>
+        <v>11.2</v>
       </c>
       <c r="E77" t="n">
-        <v>11.33</v>
+        <v>11.2</v>
       </c>
       <c r="F77" t="n">
-        <v>258174.3471</v>
+        <v>55570.9105</v>
       </c>
       <c r="G77" t="n">
-        <v>613033.4008722417</v>
+        <v>399906.7297291009</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>11.18</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.49</v>
+        <v>11.17</v>
       </c>
       <c r="C78" t="n">
-        <v>11.49</v>
+        <v>11.17</v>
       </c>
       <c r="D78" t="n">
-        <v>11.49</v>
+        <v>11.17</v>
       </c>
       <c r="E78" t="n">
-        <v>11.49</v>
+        <v>11.17</v>
       </c>
       <c r="F78" t="n">
-        <v>5714.1387</v>
+        <v>4117.318</v>
       </c>
       <c r="G78" t="n">
-        <v>618747.5395722417</v>
+        <v>395789.4117291009</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>11.2</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.49</v>
+        <v>11.17</v>
       </c>
       <c r="C79" t="n">
-        <v>11.49</v>
+        <v>11.17</v>
       </c>
       <c r="D79" t="n">
-        <v>11.49</v>
+        <v>11.17</v>
       </c>
       <c r="E79" t="n">
-        <v>11.49</v>
+        <v>11.17</v>
       </c>
       <c r="F79" t="n">
-        <v>2221.0617</v>
+        <v>3039</v>
       </c>
       <c r="G79" t="n">
-        <v>618747.5395722417</v>
+        <v>395789.4117291009</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>11.17</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.49</v>
+        <v>11.32</v>
       </c>
       <c r="C80" t="n">
-        <v>11.49</v>
+        <v>11.32</v>
       </c>
       <c r="D80" t="n">
-        <v>11.49</v>
+        <v>11.32</v>
       </c>
       <c r="E80" t="n">
-        <v>11.49</v>
+        <v>11.32</v>
       </c>
       <c r="F80" t="n">
-        <v>7067.6876</v>
+        <v>8860.8943</v>
       </c>
       <c r="G80" t="n">
-        <v>618747.5395722417</v>
+        <v>404650.3060291008</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>11.17</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.45</v>
+        <v>11.22</v>
       </c>
       <c r="C81" t="n">
-        <v>11.44</v>
+        <v>11.22</v>
       </c>
       <c r="D81" t="n">
-        <v>11.45</v>
+        <v>11.22</v>
       </c>
       <c r="E81" t="n">
-        <v>11.44</v>
+        <v>11.22</v>
       </c>
       <c r="F81" t="n">
-        <v>10000</v>
+        <v>37225.7561</v>
       </c>
       <c r="G81" t="n">
-        <v>608747.5395722417</v>
+        <v>367424.5499291008</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>11.32</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.49</v>
+        <v>11.3</v>
       </c>
       <c r="C82" t="n">
-        <v>11.54</v>
+        <v>11.3</v>
       </c>
       <c r="D82" t="n">
-        <v>11.54</v>
+        <v>11.3</v>
       </c>
       <c r="E82" t="n">
-        <v>11.49</v>
+        <v>11.3</v>
       </c>
       <c r="F82" t="n">
-        <v>6717.1952</v>
+        <v>10000</v>
       </c>
       <c r="G82" t="n">
-        <v>615464.7347722417</v>
+        <v>377424.5499291008</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>11.22</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.59</v>
+        <v>11.3</v>
       </c>
       <c r="C83" t="n">
-        <v>11.59</v>
+        <v>11.3</v>
       </c>
       <c r="D83" t="n">
-        <v>11.59</v>
+        <v>11.3</v>
       </c>
       <c r="E83" t="n">
-        <v>11.59</v>
+        <v>11.3</v>
       </c>
       <c r="F83" t="n">
-        <v>17655.5255</v>
+        <v>24659.7303</v>
       </c>
       <c r="G83" t="n">
-        <v>633120.2602722417</v>
+        <v>377424.5499291008</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.55</v>
+        <v>11.38</v>
       </c>
       <c r="C84" t="n">
-        <v>11.59</v>
+        <v>11.38</v>
       </c>
       <c r="D84" t="n">
-        <v>11.59</v>
+        <v>11.38</v>
       </c>
       <c r="E84" t="n">
-        <v>11.55</v>
+        <v>11.38</v>
       </c>
       <c r="F84" t="n">
-        <v>104835.3387</v>
+        <v>1500</v>
       </c>
       <c r="G84" t="n">
-        <v>633120.2602722417</v>
+        <v>378924.5499291008</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.59</v>
+        <v>11.38</v>
       </c>
       <c r="C85" t="n">
-        <v>11.62</v>
+        <v>11.38</v>
       </c>
       <c r="D85" t="n">
-        <v>11.62</v>
+        <v>11.38</v>
       </c>
       <c r="E85" t="n">
-        <v>11.59</v>
+        <v>11.38</v>
       </c>
       <c r="F85" t="n">
-        <v>29400</v>
+        <v>21226.6916</v>
       </c>
       <c r="G85" t="n">
-        <v>662520.2602722417</v>
+        <v>378924.5499291008</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3453,32 +3819,37 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>11.54</v>
+        <v>11.33</v>
       </c>
       <c r="C86" t="n">
-        <v>11.42</v>
+        <v>11.33</v>
       </c>
       <c r="D86" t="n">
-        <v>11.54</v>
+        <v>11.33</v>
       </c>
       <c r="E86" t="n">
-        <v>11.42</v>
+        <v>11.33</v>
       </c>
       <c r="F86" t="n">
-        <v>111972.3703</v>
+        <v>3763.0658</v>
       </c>
       <c r="G86" t="n">
-        <v>550547.8899722417</v>
+        <v>375161.4841291009</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3488,32 +3859,37 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11.62</v>
+        <v>11.33</v>
       </c>
       <c r="C87" t="n">
-        <v>11.63</v>
+        <v>11.33</v>
       </c>
       <c r="D87" t="n">
-        <v>11.63</v>
+        <v>11.33</v>
       </c>
       <c r="E87" t="n">
-        <v>11.62</v>
+        <v>11.33</v>
       </c>
       <c r="F87" t="n">
-        <v>127033.7312</v>
+        <v>17444.799</v>
       </c>
       <c r="G87" t="n">
-        <v>677581.6211722418</v>
+        <v>375161.4841291009</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3523,32 +3899,37 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>11.62</v>
+        <v>11.26</v>
       </c>
       <c r="C88" t="n">
-        <v>11.62</v>
+        <v>11.26</v>
       </c>
       <c r="D88" t="n">
-        <v>11.68</v>
+        <v>11.26</v>
       </c>
       <c r="E88" t="n">
-        <v>11.62</v>
+        <v>11.26</v>
       </c>
       <c r="F88" t="n">
-        <v>113279.0939</v>
+        <v>73.71420000000001</v>
       </c>
       <c r="G88" t="n">
-        <v>564302.5272722418</v>
+        <v>375087.7699291009</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3558,32 +3939,37 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>11.68</v>
+        <v>11.26</v>
       </c>
       <c r="C89" t="n">
-        <v>11.7</v>
+        <v>11.26</v>
       </c>
       <c r="D89" t="n">
-        <v>11.7</v>
+        <v>11.26</v>
       </c>
       <c r="E89" t="n">
-        <v>11.62</v>
+        <v>11.26</v>
       </c>
       <c r="F89" t="n">
-        <v>8405.1513</v>
+        <v>25646</v>
       </c>
       <c r="G89" t="n">
-        <v>572707.6785722418</v>
+        <v>375087.7699291009</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3593,32 +3979,37 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>11.7</v>
+        <v>11.27</v>
       </c>
       <c r="C90" t="n">
-        <v>11.71</v>
+        <v>11.26</v>
       </c>
       <c r="D90" t="n">
-        <v>11.71</v>
+        <v>11.27</v>
       </c>
       <c r="E90" t="n">
-        <v>11.7</v>
+        <v>11.26</v>
       </c>
       <c r="F90" t="n">
-        <v>190</v>
+        <v>12891.3788</v>
       </c>
       <c r="G90" t="n">
-        <v>572897.6785722418</v>
+        <v>375087.7699291009</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3628,32 +4019,37 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>11.66</v>
+        <v>11.27</v>
       </c>
       <c r="C91" t="n">
-        <v>11.62</v>
+        <v>11.27</v>
       </c>
       <c r="D91" t="n">
-        <v>11.66</v>
+        <v>11.27</v>
       </c>
       <c r="E91" t="n">
-        <v>11.62</v>
+        <v>11.27</v>
       </c>
       <c r="F91" t="n">
-        <v>151035.6059</v>
+        <v>9442.650900000001</v>
       </c>
       <c r="G91" t="n">
-        <v>421862.0726722418</v>
+        <v>384530.4208291009</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3663,32 +4059,37 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>11.51</v>
+        <v>11.38</v>
       </c>
       <c r="C92" t="n">
-        <v>11.51</v>
+        <v>11.4</v>
       </c>
       <c r="D92" t="n">
-        <v>11.51</v>
+        <v>11.4</v>
       </c>
       <c r="E92" t="n">
-        <v>11.51</v>
+        <v>11.38</v>
       </c>
       <c r="F92" t="n">
-        <v>2656.266</v>
+        <v>24211.2828</v>
       </c>
       <c r="G92" t="n">
-        <v>419205.8066722418</v>
+        <v>408741.7036291009</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3698,32 +4099,37 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>11.51</v>
+        <v>11.38</v>
       </c>
       <c r="C93" t="n">
-        <v>11.51</v>
+        <v>11.38</v>
       </c>
       <c r="D93" t="n">
-        <v>11.51</v>
+        <v>11.38</v>
       </c>
       <c r="E93" t="n">
-        <v>11.51</v>
+        <v>11.38</v>
       </c>
       <c r="F93" t="n">
-        <v>43440.486</v>
+        <v>25485.35</v>
       </c>
       <c r="G93" t="n">
-        <v>419205.8066722418</v>
+        <v>383256.3536291009</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3733,32 +4139,37 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>11.69</v>
+        <v>11.42</v>
       </c>
       <c r="C94" t="n">
-        <v>11.69</v>
+        <v>11.42</v>
       </c>
       <c r="D94" t="n">
-        <v>11.69</v>
+        <v>11.42</v>
       </c>
       <c r="E94" t="n">
-        <v>11.69</v>
+        <v>11.42</v>
       </c>
       <c r="F94" t="n">
-        <v>17108.63986313088</v>
+        <v>8373.938399999999</v>
       </c>
       <c r="G94" t="n">
-        <v>436314.4465353727</v>
+        <v>391630.2920291009</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3768,32 +4179,37 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>11.5</v>
+        <v>11.42</v>
       </c>
       <c r="C95" t="n">
-        <v>11.5</v>
+        <v>11.47</v>
       </c>
       <c r="D95" t="n">
-        <v>11.5</v>
+        <v>11.47</v>
       </c>
       <c r="E95" t="n">
-        <v>11.5</v>
+        <v>11.42</v>
       </c>
       <c r="F95" t="n">
-        <v>2500</v>
+        <v>178421.7664</v>
       </c>
       <c r="G95" t="n">
-        <v>433814.4465353727</v>
+        <v>570052.0584291009</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3803,32 +4219,37 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.58</v>
+        <v>11.48</v>
       </c>
       <c r="C96" t="n">
-        <v>11.5</v>
+        <v>11.49</v>
       </c>
       <c r="D96" t="n">
-        <v>11.58</v>
+        <v>11.49</v>
       </c>
       <c r="E96" t="n">
-        <v>11.5</v>
+        <v>11.48</v>
       </c>
       <c r="F96" t="n">
-        <v>200</v>
+        <v>134910.3993</v>
       </c>
       <c r="G96" t="n">
-        <v>433814.4465353727</v>
+        <v>704962.4577291009</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3838,32 +4259,37 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11.52</v>
+        <v>11.49</v>
       </c>
       <c r="C97" t="n">
-        <v>11.52</v>
+        <v>11.49</v>
       </c>
       <c r="D97" t="n">
-        <v>11.52</v>
+        <v>11.49</v>
       </c>
       <c r="E97" t="n">
-        <v>11.52</v>
+        <v>11.49</v>
       </c>
       <c r="F97" t="n">
-        <v>30190.3071</v>
+        <v>24211.2828</v>
       </c>
       <c r="G97" t="n">
-        <v>464004.7536353727</v>
+        <v>704962.4577291009</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3873,32 +4299,37 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>11.52</v>
+        <v>11.5</v>
       </c>
       <c r="C98" t="n">
         <v>11.5</v>
       </c>
       <c r="D98" t="n">
-        <v>11.52</v>
+        <v>11.5</v>
       </c>
       <c r="E98" t="n">
         <v>11.5</v>
       </c>
       <c r="F98" t="n">
-        <v>41340.7388</v>
+        <v>2000</v>
       </c>
       <c r="G98" t="n">
-        <v>422664.0148353727</v>
+        <v>706962.4577291009</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3908,32 +4339,37 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>11.42</v>
+        <v>11.5</v>
       </c>
       <c r="C99" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="D99" t="n">
-        <v>11.42</v>
+        <v>11.5</v>
       </c>
       <c r="E99" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="F99" t="n">
-        <v>7071.1874</v>
+        <v>7932.5618</v>
       </c>
       <c r="G99" t="n">
-        <v>415592.8274353727</v>
+        <v>706962.4577291009</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3943,32 +4379,37 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>11.48</v>
+        <v>11.54</v>
       </c>
       <c r="C100" t="n">
-        <v>11.48</v>
+        <v>11.49</v>
       </c>
       <c r="D100" t="n">
-        <v>11.48</v>
+        <v>11.54</v>
       </c>
       <c r="E100" t="n">
-        <v>11.48</v>
+        <v>11.49</v>
       </c>
       <c r="F100" t="n">
-        <v>8710.801393728223</v>
+        <v>35821.452</v>
       </c>
       <c r="G100" t="n">
-        <v>424303.6288291009</v>
+        <v>671141.0057291009</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3978,32 +4419,37 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>11.41</v>
+        <v>11.5</v>
       </c>
       <c r="C101" t="n">
-        <v>11.38</v>
+        <v>11.5</v>
       </c>
       <c r="D101" t="n">
-        <v>11.41</v>
+        <v>11.5</v>
       </c>
       <c r="E101" t="n">
-        <v>11.38</v>
+        <v>11.5</v>
       </c>
       <c r="F101" t="n">
-        <v>14895.0895</v>
+        <v>54800</v>
       </c>
       <c r="G101" t="n">
-        <v>409408.5393291009</v>
+        <v>725941.0057291009</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4013,32 +4459,37 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>11.48</v>
+        <v>11.5</v>
       </c>
       <c r="C102" t="n">
-        <v>11.35</v>
+        <v>11.5</v>
       </c>
       <c r="D102" t="n">
-        <v>11.48</v>
+        <v>11.5</v>
       </c>
       <c r="E102" t="n">
-        <v>11.35</v>
+        <v>11.5</v>
       </c>
       <c r="F102" t="n">
-        <v>18699.3805</v>
+        <v>55831.1318</v>
       </c>
       <c r="G102" t="n">
-        <v>390709.1588291009</v>
+        <v>725941.0057291009</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4048,32 +4499,37 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>11.35</v>
+        <v>11.5</v>
       </c>
       <c r="C103" t="n">
-        <v>11.31</v>
+        <v>11.5</v>
       </c>
       <c r="D103" t="n">
-        <v>11.35</v>
+        <v>11.5</v>
       </c>
       <c r="E103" t="n">
-        <v>11.31</v>
+        <v>11.5</v>
       </c>
       <c r="F103" t="n">
-        <v>147833.7312</v>
+        <v>314050.1168</v>
       </c>
       <c r="G103" t="n">
-        <v>242875.4276291009</v>
+        <v>725941.0057291009</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4083,32 +4539,37 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>11.31</v>
+        <v>11.49</v>
       </c>
       <c r="C104" t="n">
-        <v>11.31</v>
+        <v>11.49</v>
       </c>
       <c r="D104" t="n">
-        <v>11.31</v>
+        <v>11.49</v>
       </c>
       <c r="E104" t="n">
-        <v>11.31</v>
+        <v>11.49</v>
       </c>
       <c r="F104" t="n">
-        <v>34157.0499</v>
+        <v>2300</v>
       </c>
       <c r="G104" t="n">
-        <v>242875.4276291009</v>
+        <v>723641.0057291009</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4118,32 +4579,37 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>11.36</v>
+        <v>11.66</v>
       </c>
       <c r="C105" t="n">
-        <v>11.36</v>
+        <v>11.69</v>
       </c>
       <c r="D105" t="n">
-        <v>11.36</v>
+        <v>11.69</v>
       </c>
       <c r="E105" t="n">
-        <v>11.36</v>
+        <v>11.66</v>
       </c>
       <c r="F105" t="n">
-        <v>157.5</v>
+        <v>104159.3663</v>
       </c>
       <c r="G105" t="n">
-        <v>243032.9276291009</v>
+        <v>827800.3720291009</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4153,32 +4619,37 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>11.36</v>
+        <v>11.69</v>
       </c>
       <c r="C106" t="n">
-        <v>11.36</v>
+        <v>11.69</v>
       </c>
       <c r="D106" t="n">
-        <v>11.36</v>
+        <v>11.69</v>
       </c>
       <c r="E106" t="n">
-        <v>11.36</v>
+        <v>11.69</v>
       </c>
       <c r="F106" t="n">
-        <v>3092.5</v>
+        <v>42771</v>
       </c>
       <c r="G106" t="n">
-        <v>243032.9276291009</v>
+        <v>827800.3720291009</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4188,32 +4659,37 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>11.31</v>
+        <v>11.7</v>
       </c>
       <c r="C107" t="n">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="D107" t="n">
-        <v>11.31</v>
+        <v>11.7</v>
       </c>
       <c r="E107" t="n">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="F107" t="n">
-        <v>5704.152</v>
+        <v>56780.7692</v>
       </c>
       <c r="G107" t="n">
-        <v>237328.7756291009</v>
+        <v>884581.1412291009</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4223,32 +4699,37 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>11.3</v>
+        <v>11.71</v>
       </c>
       <c r="C108" t="n">
-        <v>11.3</v>
+        <v>11.79</v>
       </c>
       <c r="D108" t="n">
-        <v>11.3</v>
+        <v>11.8</v>
       </c>
       <c r="E108" t="n">
-        <v>11.3</v>
+        <v>11.57</v>
       </c>
       <c r="F108" t="n">
-        <v>10074.5883</v>
+        <v>246874.8274</v>
       </c>
       <c r="G108" t="n">
-        <v>237328.7756291009</v>
+        <v>1131455.968629101</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4258,32 +4739,37 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>11.29</v>
+        <v>11.7</v>
       </c>
       <c r="C109" t="n">
-        <v>11.24</v>
+        <v>11.7</v>
       </c>
       <c r="D109" t="n">
-        <v>11.29</v>
+        <v>11.7</v>
       </c>
       <c r="E109" t="n">
-        <v>11.24</v>
+        <v>11.7</v>
       </c>
       <c r="F109" t="n">
-        <v>1762.8096</v>
+        <v>80937.6574</v>
       </c>
       <c r="G109" t="n">
-        <v>235565.9660291009</v>
+        <v>1050518.311229101</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4293,32 +4779,37 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>11.24</v>
+        <v>11.8</v>
       </c>
       <c r="C110" t="n">
-        <v>11.24</v>
+        <v>11.8</v>
       </c>
       <c r="D110" t="n">
-        <v>11.24</v>
+        <v>11.8</v>
       </c>
       <c r="E110" t="n">
-        <v>11.24</v>
+        <v>11.8</v>
       </c>
       <c r="F110" t="n">
-        <v>5632.0934</v>
+        <v>106303.9457</v>
       </c>
       <c r="G110" t="n">
-        <v>235565.9660291009</v>
+        <v>1156822.256929101</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4328,32 +4819,37 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>11.24</v>
+        <v>11.8</v>
       </c>
       <c r="C111" t="n">
-        <v>11.22</v>
+        <v>11.8</v>
       </c>
       <c r="D111" t="n">
-        <v>11.24</v>
+        <v>11.83</v>
       </c>
       <c r="E111" t="n">
-        <v>11.22</v>
+        <v>11.8</v>
       </c>
       <c r="F111" t="n">
-        <v>15034.9081</v>
+        <v>90992.232</v>
       </c>
       <c r="G111" t="n">
-        <v>220531.0579291009</v>
+        <v>1156822.256929101</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4363,32 +4859,37 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>11.23</v>
+        <v>11.8</v>
       </c>
       <c r="C112" t="n">
-        <v>11.23</v>
+        <v>11.8</v>
       </c>
       <c r="D112" t="n">
-        <v>11.23</v>
+        <v>11.8</v>
       </c>
       <c r="E112" t="n">
-        <v>11.23</v>
+        <v>11.7</v>
       </c>
       <c r="F112" t="n">
-        <v>3956.7766</v>
+        <v>78164.6269</v>
       </c>
       <c r="G112" t="n">
-        <v>224487.8345291009</v>
+        <v>1156822.256929101</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4398,32 +4899,37 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>11.23</v>
+        <v>11.8</v>
       </c>
       <c r="C113" t="n">
-        <v>11.23</v>
+        <v>11.8</v>
       </c>
       <c r="D113" t="n">
-        <v>11.23</v>
+        <v>11.8</v>
       </c>
       <c r="E113" t="n">
-        <v>11.23</v>
+        <v>11.7</v>
       </c>
       <c r="F113" t="n">
-        <v>33.9734</v>
+        <v>127737.6338</v>
       </c>
       <c r="G113" t="n">
-        <v>224487.8345291009</v>
+        <v>1156822.256929101</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4433,67 +4939,75 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>11.23</v>
+        <v>11.8</v>
       </c>
       <c r="C114" t="n">
-        <v>11.22</v>
+        <v>11.8</v>
       </c>
       <c r="D114" t="n">
-        <v>11.23</v>
+        <v>11.8</v>
       </c>
       <c r="E114" t="n">
-        <v>11.22</v>
+        <v>11.8</v>
       </c>
       <c r="F114" t="n">
-        <v>9515.562</v>
+        <v>34264.635</v>
       </c>
       <c r="G114" t="n">
-        <v>214972.2725291009</v>
+        <v>1156822.256929101</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>11.23</v>
+        <v>11.62</v>
       </c>
       <c r="C115" t="n">
-        <v>11.26</v>
+        <v>11.62</v>
       </c>
       <c r="D115" t="n">
-        <v>11.26</v>
+        <v>11.62</v>
       </c>
       <c r="E115" t="n">
-        <v>11.16</v>
+        <v>11.62</v>
       </c>
       <c r="F115" t="n">
-        <v>130773</v>
+        <v>1494.5756</v>
       </c>
       <c r="G115" t="n">
-        <v>345745.2725291009</v>
+        <v>1155327.681329101</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4507,28 +5021,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>11.26</v>
+        <v>11.63</v>
       </c>
       <c r="C116" t="n">
-        <v>11.26</v>
+        <v>11.55</v>
       </c>
       <c r="D116" t="n">
-        <v>11.26</v>
+        <v>11.63</v>
       </c>
       <c r="E116" t="n">
-        <v>11.26</v>
+        <v>11.55</v>
       </c>
       <c r="F116" t="n">
-        <v>4518</v>
+        <v>54563.2194</v>
       </c>
       <c r="G116" t="n">
-        <v>345745.2725291009</v>
+        <v>1100764.461929101</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4542,28 +5057,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>11.16</v>
+        <v>11.58</v>
       </c>
       <c r="C117" t="n">
-        <v>11.16</v>
+        <v>11.58</v>
       </c>
       <c r="D117" t="n">
-        <v>11.16</v>
+        <v>11.58</v>
       </c>
       <c r="E117" t="n">
-        <v>11.16</v>
+        <v>11.58</v>
       </c>
       <c r="F117" t="n">
-        <v>4409.4533</v>
+        <v>49737</v>
       </c>
       <c r="G117" t="n">
-        <v>341335.8192291009</v>
+        <v>1150501.461929101</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4577,28 +5093,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>11.2</v>
+        <v>11.69</v>
       </c>
       <c r="C118" t="n">
-        <v>11.18</v>
+        <v>11.69</v>
       </c>
       <c r="D118" t="n">
-        <v>11.2</v>
+        <v>11.69</v>
       </c>
       <c r="E118" t="n">
-        <v>11.18</v>
+        <v>11.69</v>
       </c>
       <c r="F118" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="G118" t="n">
-        <v>344335.8192291009</v>
+        <v>1165501.461929101</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4612,28 +5129,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>11.2</v>
+        <v>11.58</v>
       </c>
       <c r="C119" t="n">
-        <v>11.2</v>
+        <v>11.58</v>
       </c>
       <c r="D119" t="n">
-        <v>11.2</v>
+        <v>11.58</v>
       </c>
       <c r="E119" t="n">
-        <v>11.2</v>
+        <v>11.58</v>
       </c>
       <c r="F119" t="n">
-        <v>55570.9105</v>
+        <v>61200</v>
       </c>
       <c r="G119" t="n">
-        <v>399906.7297291009</v>
+        <v>1104301.461929101</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4647,34 +5165,35 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>11.17</v>
+        <v>11.74</v>
       </c>
       <c r="C120" t="n">
-        <v>11.17</v>
+        <v>11.68</v>
       </c>
       <c r="D120" t="n">
-        <v>11.17</v>
+        <v>11.74</v>
       </c>
       <c r="E120" t="n">
-        <v>11.17</v>
+        <v>11.68</v>
       </c>
       <c r="F120" t="n">
-        <v>4117.318</v>
+        <v>88</v>
       </c>
       <c r="G120" t="n">
-        <v>395789.4117291009</v>
+        <v>1104389.461929101</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4682,34 +5201,35 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>11.17</v>
+        <v>11.67</v>
       </c>
       <c r="C121" t="n">
-        <v>11.17</v>
+        <v>11.67</v>
       </c>
       <c r="D121" t="n">
-        <v>11.17</v>
+        <v>11.67</v>
       </c>
       <c r="E121" t="n">
-        <v>11.17</v>
+        <v>11.67</v>
       </c>
       <c r="F121" t="n">
-        <v>3039</v>
+        <v>44</v>
       </c>
       <c r="G121" t="n">
-        <v>395789.4117291009</v>
+        <v>1104345.461929101</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4717,34 +5237,35 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>11.32</v>
+        <v>11.66</v>
       </c>
       <c r="C122" t="n">
-        <v>11.32</v>
+        <v>11.59</v>
       </c>
       <c r="D122" t="n">
-        <v>11.32</v>
+        <v>11.66</v>
       </c>
       <c r="E122" t="n">
-        <v>11.32</v>
+        <v>11.59</v>
       </c>
       <c r="F122" t="n">
-        <v>8860.8943</v>
+        <v>7155.8609</v>
       </c>
       <c r="G122" t="n">
-        <v>404650.3060291008</v>
+        <v>1097189.601029101</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -4752,34 +5273,35 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>11.22</v>
+        <v>11.66</v>
       </c>
       <c r="C123" t="n">
-        <v>11.22</v>
+        <v>11.66</v>
       </c>
       <c r="D123" t="n">
-        <v>11.22</v>
+        <v>11.66</v>
       </c>
       <c r="E123" t="n">
-        <v>11.22</v>
+        <v>11.66</v>
       </c>
       <c r="F123" t="n">
-        <v>37225.7561</v>
+        <v>44</v>
       </c>
       <c r="G123" t="n">
-        <v>367424.5499291008</v>
+        <v>1097233.601029101</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -4787,28 +5309,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>11.3</v>
+        <v>11.69</v>
       </c>
       <c r="C124" t="n">
-        <v>11.3</v>
+        <v>11.69</v>
       </c>
       <c r="D124" t="n">
-        <v>11.3</v>
+        <v>11.69</v>
       </c>
       <c r="E124" t="n">
-        <v>11.3</v>
+        <v>11.69</v>
       </c>
       <c r="F124" t="n">
-        <v>10000</v>
+        <v>27371.658</v>
       </c>
       <c r="G124" t="n">
-        <v>377424.5499291008</v>
+        <v>1124605.259029101</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4822,34 +5345,35 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>11.3</v>
+        <v>11.78</v>
       </c>
       <c r="C125" t="n">
-        <v>11.3</v>
+        <v>11.78</v>
       </c>
       <c r="D125" t="n">
-        <v>11.3</v>
+        <v>11.78</v>
       </c>
       <c r="E125" t="n">
-        <v>11.3</v>
+        <v>11.78</v>
       </c>
       <c r="F125" t="n">
-        <v>24659.7303</v>
+        <v>44</v>
       </c>
       <c r="G125" t="n">
-        <v>377424.5499291008</v>
+        <v>1124649.259029101</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -4857,34 +5381,35 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>11.38</v>
+        <v>11.61</v>
       </c>
       <c r="C126" t="n">
-        <v>11.38</v>
+        <v>11.61</v>
       </c>
       <c r="D126" t="n">
-        <v>11.38</v>
+        <v>11.62</v>
       </c>
       <c r="E126" t="n">
-        <v>11.38</v>
+        <v>11.61</v>
       </c>
       <c r="F126" t="n">
-        <v>1500</v>
+        <v>140000</v>
       </c>
       <c r="G126" t="n">
-        <v>378924.5499291008</v>
+        <v>984649.2590291009</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -4892,34 +5417,35 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>11.38</v>
+        <v>11.62</v>
       </c>
       <c r="C127" t="n">
-        <v>11.38</v>
+        <v>11.62</v>
       </c>
       <c r="D127" t="n">
-        <v>11.38</v>
+        <v>11.62</v>
       </c>
       <c r="E127" t="n">
-        <v>11.38</v>
+        <v>11.62</v>
       </c>
       <c r="F127" t="n">
-        <v>21226.6916</v>
+        <v>86.0586</v>
       </c>
       <c r="G127" t="n">
-        <v>378924.5499291008</v>
+        <v>984735.3176291009</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -4927,34 +5453,35 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>11.33</v>
+        <v>11.62</v>
       </c>
       <c r="C128" t="n">
-        <v>11.33</v>
+        <v>11.62</v>
       </c>
       <c r="D128" t="n">
-        <v>11.33</v>
+        <v>11.62</v>
       </c>
       <c r="E128" t="n">
-        <v>11.33</v>
+        <v>11.62</v>
       </c>
       <c r="F128" t="n">
-        <v>3763.0658</v>
+        <v>88132.62149999999</v>
       </c>
       <c r="G128" t="n">
-        <v>375161.4841291009</v>
+        <v>984735.3176291009</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -4962,34 +5489,35 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>11.33</v>
+        <v>11.62</v>
       </c>
       <c r="C129" t="n">
-        <v>11.33</v>
+        <v>11.61</v>
       </c>
       <c r="D129" t="n">
-        <v>11.33</v>
+        <v>11.62</v>
       </c>
       <c r="E129" t="n">
-        <v>11.33</v>
+        <v>11.61</v>
       </c>
       <c r="F129" t="n">
-        <v>17444.799</v>
+        <v>59887.5125</v>
       </c>
       <c r="G129" t="n">
-        <v>375161.4841291009</v>
+        <v>924847.8051291009</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -4997,34 +5525,35 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>11.26</v>
+        <v>11.76</v>
       </c>
       <c r="C130" t="n">
-        <v>11.26</v>
+        <v>11.76</v>
       </c>
       <c r="D130" t="n">
-        <v>11.26</v>
+        <v>11.76</v>
       </c>
       <c r="E130" t="n">
-        <v>11.26</v>
+        <v>11.76</v>
       </c>
       <c r="F130" t="n">
-        <v>73.71420000000001</v>
+        <v>500</v>
       </c>
       <c r="G130" t="n">
-        <v>375087.7699291009</v>
+        <v>925347.8051291009</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5032,34 +5561,35 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>11.26</v>
+        <v>11.64</v>
       </c>
       <c r="C131" t="n">
-        <v>11.26</v>
+        <v>11.6</v>
       </c>
       <c r="D131" t="n">
-        <v>11.26</v>
+        <v>11.64</v>
       </c>
       <c r="E131" t="n">
-        <v>11.26</v>
+        <v>11.6</v>
       </c>
       <c r="F131" t="n">
-        <v>25646</v>
+        <v>188121.1343</v>
       </c>
       <c r="G131" t="n">
-        <v>375087.7699291009</v>
+        <v>737226.6708291009</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5067,34 +5597,35 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>11.27</v>
+        <v>11.6</v>
       </c>
       <c r="C132" t="n">
-        <v>11.26</v>
+        <v>11.6</v>
       </c>
       <c r="D132" t="n">
-        <v>11.27</v>
+        <v>11.6</v>
       </c>
       <c r="E132" t="n">
-        <v>11.26</v>
+        <v>11.59</v>
       </c>
       <c r="F132" t="n">
-        <v>12891.3788</v>
+        <v>19921.2938</v>
       </c>
       <c r="G132" t="n">
-        <v>375087.7699291009</v>
+        <v>737226.6708291009</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5102,34 +5633,35 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>11.27</v>
+        <v>11.6</v>
       </c>
       <c r="C133" t="n">
-        <v>11.27</v>
+        <v>11.6</v>
       </c>
       <c r="D133" t="n">
-        <v>11.27</v>
+        <v>11.6</v>
       </c>
       <c r="E133" t="n">
-        <v>11.27</v>
+        <v>11.6</v>
       </c>
       <c r="F133" t="n">
-        <v>9442.650900000001</v>
+        <v>34700.9274</v>
       </c>
       <c r="G133" t="n">
-        <v>384530.4208291009</v>
+        <v>737226.6708291009</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5137,34 +5669,35 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>11.38</v>
+        <v>11.6</v>
       </c>
       <c r="C134" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="D134" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="E134" t="n">
-        <v>11.38</v>
+        <v>11.6</v>
       </c>
       <c r="F134" t="n">
-        <v>24211.2828</v>
+        <v>30428.8233</v>
       </c>
       <c r="G134" t="n">
-        <v>408741.7036291009</v>
+        <v>737226.6708291009</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5172,34 +5705,35 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>11.38</v>
+        <v>11.6</v>
       </c>
       <c r="C135" t="n">
-        <v>11.38</v>
+        <v>11.6</v>
       </c>
       <c r="D135" t="n">
-        <v>11.38</v>
+        <v>11.6</v>
       </c>
       <c r="E135" t="n">
-        <v>11.38</v>
+        <v>11.6</v>
       </c>
       <c r="F135" t="n">
-        <v>25485.35</v>
+        <v>86576.933</v>
       </c>
       <c r="G135" t="n">
-        <v>383256.3536291009</v>
+        <v>737226.6708291009</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5207,34 +5741,35 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>11.42</v>
+        <v>11.6</v>
       </c>
       <c r="C136" t="n">
-        <v>11.42</v>
+        <v>11.6</v>
       </c>
       <c r="D136" t="n">
-        <v>11.42</v>
+        <v>11.6</v>
       </c>
       <c r="E136" t="n">
-        <v>11.42</v>
+        <v>11.6</v>
       </c>
       <c r="F136" t="n">
-        <v>8373.938399999999</v>
+        <v>31551.9702</v>
       </c>
       <c r="G136" t="n">
-        <v>391630.2920291009</v>
+        <v>737226.6708291009</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5242,34 +5777,35 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>11.42</v>
+        <v>11.59</v>
       </c>
       <c r="C137" t="n">
-        <v>11.47</v>
+        <v>11.55</v>
       </c>
       <c r="D137" t="n">
-        <v>11.47</v>
+        <v>11.59</v>
       </c>
       <c r="E137" t="n">
-        <v>11.42</v>
+        <v>11.55</v>
       </c>
       <c r="F137" t="n">
-        <v>178421.7664</v>
+        <v>523627.0548</v>
       </c>
       <c r="G137" t="n">
-        <v>570052.0584291009</v>
+        <v>213599.6160291009</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5277,34 +5813,35 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>11.48</v>
+        <v>11.55</v>
       </c>
       <c r="C138" t="n">
-        <v>11.49</v>
+        <v>11.55</v>
       </c>
       <c r="D138" t="n">
-        <v>11.49</v>
+        <v>11.55</v>
       </c>
       <c r="E138" t="n">
-        <v>11.48</v>
+        <v>11.55</v>
       </c>
       <c r="F138" t="n">
-        <v>134910.3993</v>
+        <v>25909.2562</v>
       </c>
       <c r="G138" t="n">
-        <v>704962.4577291009</v>
+        <v>213599.6160291009</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5312,34 +5849,35 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>11.49</v>
+        <v>11.54</v>
       </c>
       <c r="C139" t="n">
-        <v>11.49</v>
+        <v>11.54</v>
       </c>
       <c r="D139" t="n">
-        <v>11.49</v>
+        <v>11.54</v>
       </c>
       <c r="E139" t="n">
-        <v>11.49</v>
+        <v>11.54</v>
       </c>
       <c r="F139" t="n">
-        <v>24211.2828</v>
+        <v>86741.0401</v>
       </c>
       <c r="G139" t="n">
-        <v>704962.4577291009</v>
+        <v>126858.5759291009</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5347,28 +5885,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>11.5</v>
+        <v>11.55</v>
       </c>
       <c r="C140" t="n">
-        <v>11.5</v>
+        <v>11.55</v>
       </c>
       <c r="D140" t="n">
-        <v>11.5</v>
+        <v>11.55</v>
       </c>
       <c r="E140" t="n">
-        <v>11.5</v>
+        <v>11.55</v>
       </c>
       <c r="F140" t="n">
-        <v>2000</v>
+        <v>51184.638</v>
       </c>
       <c r="G140" t="n">
-        <v>706962.4577291009</v>
+        <v>178043.2139291009</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5382,34 +5921,35 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>11.5</v>
+        <v>11.54</v>
       </c>
       <c r="C141" t="n">
-        <v>11.5</v>
+        <v>11.54</v>
       </c>
       <c r="D141" t="n">
-        <v>11.5</v>
+        <v>11.54</v>
       </c>
       <c r="E141" t="n">
-        <v>11.5</v>
+        <v>11.54</v>
       </c>
       <c r="F141" t="n">
-        <v>7932.5618</v>
+        <v>88470.9047</v>
       </c>
       <c r="G141" t="n">
-        <v>706962.4577291009</v>
+        <v>89572.30922910089</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -5417,6 +5957,7 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5426,19 +5967,19 @@
         <v>11.54</v>
       </c>
       <c r="C142" t="n">
-        <v>11.49</v>
+        <v>11.54</v>
       </c>
       <c r="D142" t="n">
         <v>11.54</v>
       </c>
       <c r="E142" t="n">
-        <v>11.49</v>
+        <v>11.54</v>
       </c>
       <c r="F142" t="n">
-        <v>35821.452</v>
+        <v>21529.0953</v>
       </c>
       <c r="G142" t="n">
-        <v>671141.0057291009</v>
+        <v>89572.30922910089</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5452,34 +5993,35 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>11.5</v>
+        <v>11.69</v>
       </c>
       <c r="C143" t="n">
-        <v>11.5</v>
+        <v>11.69</v>
       </c>
       <c r="D143" t="n">
-        <v>11.5</v>
+        <v>11.69</v>
       </c>
       <c r="E143" t="n">
-        <v>11.5</v>
+        <v>11.69</v>
       </c>
       <c r="F143" t="n">
-        <v>54800</v>
+        <v>1000</v>
       </c>
       <c r="G143" t="n">
-        <v>725941.0057291009</v>
+        <v>90572.30922910089</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -5487,34 +6029,35 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>11.5</v>
+        <v>11.69</v>
       </c>
       <c r="C144" t="n">
-        <v>11.5</v>
+        <v>11.69</v>
       </c>
       <c r="D144" t="n">
-        <v>11.5</v>
+        <v>11.69</v>
       </c>
       <c r="E144" t="n">
-        <v>11.5</v>
+        <v>11.69</v>
       </c>
       <c r="F144" t="n">
-        <v>55831.1318</v>
+        <v>2087.0825</v>
       </c>
       <c r="G144" t="n">
-        <v>725941.0057291009</v>
+        <v>90572.30922910089</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -5522,34 +6065,35 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>11.5</v>
+        <v>11.69</v>
       </c>
       <c r="C145" t="n">
-        <v>11.5</v>
+        <v>11.69</v>
       </c>
       <c r="D145" t="n">
-        <v>11.5</v>
+        <v>11.69</v>
       </c>
       <c r="E145" t="n">
-        <v>11.5</v>
+        <v>11.69</v>
       </c>
       <c r="F145" t="n">
-        <v>314050.1168</v>
+        <v>299699.0614</v>
       </c>
       <c r="G145" t="n">
-        <v>725941.0057291009</v>
+        <v>90572.30922910089</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -5557,34 +6101,35 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>11.49</v>
+        <v>11.69</v>
       </c>
       <c r="C146" t="n">
-        <v>11.49</v>
+        <v>11.7</v>
       </c>
       <c r="D146" t="n">
-        <v>11.49</v>
+        <v>11.7</v>
       </c>
       <c r="E146" t="n">
-        <v>11.49</v>
+        <v>11.69</v>
       </c>
       <c r="F146" t="n">
-        <v>2300</v>
+        <v>18458</v>
       </c>
       <c r="G146" t="n">
-        <v>723641.0057291009</v>
+        <v>109030.3092291009</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -5592,34 +6137,35 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="C147" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="D147" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="E147" t="n">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="F147" t="n">
-        <v>104159.3663</v>
+        <v>1000</v>
       </c>
       <c r="G147" t="n">
-        <v>827800.3720291009</v>
+        <v>109030.3092291009</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
@@ -5627,1476 +6173,7 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C148" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="D148" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E148" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F148" t="n">
-        <v>42771</v>
-      </c>
-      <c r="G148" t="n">
-        <v>827800.3720291009</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C149" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D149" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E149" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F149" t="n">
-        <v>56780.7692</v>
-      </c>
-      <c r="G149" t="n">
-        <v>884581.1412291009</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="C150" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="D150" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E150" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="F150" t="n">
-        <v>246874.8274</v>
-      </c>
-      <c r="G150" t="n">
-        <v>1131455.968629101</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C151" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D151" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E151" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F151" t="n">
-        <v>80937.6574</v>
-      </c>
-      <c r="G151" t="n">
-        <v>1050518.311229101</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C152" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D152" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E152" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F152" t="n">
-        <v>106303.9457</v>
-      </c>
-      <c r="G152" t="n">
-        <v>1156822.256929101</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C153" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D153" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="E153" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F153" t="n">
-        <v>90992.232</v>
-      </c>
-      <c r="G153" t="n">
-        <v>1156822.256929101</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C154" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D154" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E154" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F154" t="n">
-        <v>78164.6269</v>
-      </c>
-      <c r="G154" t="n">
-        <v>1156822.256929101</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C155" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D155" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E155" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F155" t="n">
-        <v>127737.6338</v>
-      </c>
-      <c r="G155" t="n">
-        <v>1156822.256929101</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C156" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D156" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E156" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F156" t="n">
-        <v>34264.635</v>
-      </c>
-      <c r="G156" t="n">
-        <v>1156822.256929101</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="C157" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="D157" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="E157" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="F157" t="n">
-        <v>1494.5756</v>
-      </c>
-      <c r="G157" t="n">
-        <v>1155327.681329101</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="C158" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="D158" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="E158" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="F158" t="n">
-        <v>54563.2194</v>
-      </c>
-      <c r="G158" t="n">
-        <v>1100764.461929101</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="C159" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="D159" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="E159" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="F159" t="n">
-        <v>49737</v>
-      </c>
-      <c r="G159" t="n">
-        <v>1150501.461929101</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C160" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="D160" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E160" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F160" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G160" t="n">
-        <v>1165501.461929101</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="C161" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="D161" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="E161" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="F161" t="n">
-        <v>61200</v>
-      </c>
-      <c r="G161" t="n">
-        <v>1104301.461929101</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="C162" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="D162" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="E162" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="F162" t="n">
-        <v>88</v>
-      </c>
-      <c r="G162" t="n">
-        <v>1104389.461929101</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="C163" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="D163" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="E163" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="F163" t="n">
-        <v>44</v>
-      </c>
-      <c r="G163" t="n">
-        <v>1104345.461929101</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="C164" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="D164" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="E164" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="F164" t="n">
-        <v>7155.8609</v>
-      </c>
-      <c r="G164" t="n">
-        <v>1097189.601029101</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="C165" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="D165" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="E165" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="F165" t="n">
-        <v>44</v>
-      </c>
-      <c r="G165" t="n">
-        <v>1097233.601029101</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C166" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="D166" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E166" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F166" t="n">
-        <v>27371.658</v>
-      </c>
-      <c r="G166" t="n">
-        <v>1124605.259029101</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="C167" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="D167" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="E167" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="F167" t="n">
-        <v>44</v>
-      </c>
-      <c r="G167" t="n">
-        <v>1124649.259029101</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="C168" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="D168" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="E168" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="F168" t="n">
-        <v>140000</v>
-      </c>
-      <c r="G168" t="n">
-        <v>984649.2590291009</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="C169" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="D169" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="E169" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="F169" t="n">
-        <v>86.0586</v>
-      </c>
-      <c r="G169" t="n">
-        <v>984735.3176291009</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="C170" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="D170" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="E170" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="F170" t="n">
-        <v>88132.62149999999</v>
-      </c>
-      <c r="G170" t="n">
-        <v>984735.3176291009</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="C171" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="D171" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="E171" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="F171" t="n">
-        <v>59887.5125</v>
-      </c>
-      <c r="G171" t="n">
-        <v>924847.8051291009</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="C172" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="D172" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="E172" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="F172" t="n">
-        <v>500</v>
-      </c>
-      <c r="G172" t="n">
-        <v>925347.8051291009</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="C173" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D173" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="E173" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F173" t="n">
-        <v>188121.1343</v>
-      </c>
-      <c r="G173" t="n">
-        <v>737226.6708291009</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C174" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D174" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E174" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="F174" t="n">
-        <v>19921.2938</v>
-      </c>
-      <c r="G174" t="n">
-        <v>737226.6708291009</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C175" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D175" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E175" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F175" t="n">
-        <v>34700.9274</v>
-      </c>
-      <c r="G175" t="n">
-        <v>737226.6708291009</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C176" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D176" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E176" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F176" t="n">
-        <v>30428.8233</v>
-      </c>
-      <c r="G176" t="n">
-        <v>737226.6708291009</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C177" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D177" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E177" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F177" t="n">
-        <v>86576.933</v>
-      </c>
-      <c r="G177" t="n">
-        <v>737226.6708291009</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C178" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D178" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E178" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F178" t="n">
-        <v>31551.9702</v>
-      </c>
-      <c r="G178" t="n">
-        <v>737226.6708291009</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="C179" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="D179" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="E179" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="F179" t="n">
-        <v>523627.0548</v>
-      </c>
-      <c r="G179" t="n">
-        <v>213599.6160291009</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="C180" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="D180" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="E180" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="F180" t="n">
-        <v>25909.2562</v>
-      </c>
-      <c r="G180" t="n">
-        <v>213599.6160291009</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="C181" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="D181" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="E181" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="F181" t="n">
-        <v>86741.0401</v>
-      </c>
-      <c r="G181" t="n">
-        <v>126858.5759291009</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="C182" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="D182" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="E182" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="F182" t="n">
-        <v>51184.638</v>
-      </c>
-      <c r="G182" t="n">
-        <v>178043.2139291009</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="C183" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="D183" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="E183" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="F183" t="n">
-        <v>88470.9047</v>
-      </c>
-      <c r="G183" t="n">
-        <v>89572.30922910089</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="C184" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="D184" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="E184" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="F184" t="n">
-        <v>21529.0953</v>
-      </c>
-      <c r="G184" t="n">
-        <v>89572.30922910089</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C185" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="D185" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E185" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F185" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G185" t="n">
-        <v>90572.30922910089</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C186" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="D186" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E186" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F186" t="n">
-        <v>2087.0825</v>
-      </c>
-      <c r="G186" t="n">
-        <v>90572.30922910089</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C187" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="D187" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E187" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F187" t="n">
-        <v>299699.0614</v>
-      </c>
-      <c r="G187" t="n">
-        <v>90572.30922910089</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C188" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D188" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E188" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F188" t="n">
-        <v>18458</v>
-      </c>
-      <c r="G188" t="n">
-        <v>109030.3092291009</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C189" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D189" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E189" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F189" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G189" t="n">
-        <v>109030.3092291009</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
+      <c r="N147" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest SNT.xlsx
+++ b/BackTest/2020-01-16 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N147"/>
+  <dimension ref="A1:N218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.5</v>
+        <v>10.86</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5</v>
+        <v>10.83</v>
       </c>
       <c r="D2" t="n">
-        <v>11.5</v>
+        <v>10.86</v>
       </c>
       <c r="E2" t="n">
-        <v>11.5</v>
+        <v>10.83</v>
       </c>
       <c r="F2" t="n">
-        <v>50000</v>
+        <v>120505.9093</v>
       </c>
       <c r="G2" t="n">
-        <v>361428.8005722417</v>
+        <v>-1096484.7472</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.42</v>
+        <v>10.83</v>
       </c>
       <c r="C3" t="n">
-        <v>11.22</v>
+        <v>10.83</v>
       </c>
       <c r="D3" t="n">
-        <v>11.42</v>
+        <v>10.83</v>
       </c>
       <c r="E3" t="n">
-        <v>11.22</v>
+        <v>10.83</v>
       </c>
       <c r="F3" t="n">
-        <v>322132.5665</v>
+        <v>13457.8797</v>
       </c>
       <c r="G3" t="n">
-        <v>39296.23407224164</v>
+        <v>-1096484.7472</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -498,14 +498,12 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>10.83</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -516,22 +514,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.4</v>
+        <v>10.92</v>
       </c>
       <c r="C4" t="n">
-        <v>11.4</v>
+        <v>10.93</v>
       </c>
       <c r="D4" t="n">
-        <v>11.4</v>
+        <v>10.93</v>
       </c>
       <c r="E4" t="n">
-        <v>11.4</v>
+        <v>10.92</v>
       </c>
       <c r="F4" t="n">
-        <v>1260.426</v>
+        <v>167440.924</v>
       </c>
       <c r="G4" t="n">
-        <v>40556.66007224164</v>
+        <v>-929043.8232000003</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -540,12 +538,14 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.22</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>10.83</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10.83</v>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -558,36 +558,36 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.46</v>
+        <v>10.93</v>
       </c>
       <c r="C5" t="n">
-        <v>11.46</v>
+        <v>10.93</v>
       </c>
       <c r="D5" t="n">
-        <v>11.46</v>
+        <v>10.93</v>
       </c>
       <c r="E5" t="n">
-        <v>11.46</v>
+        <v>10.93</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>35759.716</v>
       </c>
       <c r="G5" t="n">
-        <v>40606.66007224164</v>
+        <v>-929043.8232000003</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>10.83</v>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -600,22 +600,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.46</v>
+        <v>10.93</v>
       </c>
       <c r="C6" t="n">
-        <v>11.49</v>
+        <v>10.93</v>
       </c>
       <c r="D6" t="n">
-        <v>11.49</v>
+        <v>10.93</v>
       </c>
       <c r="E6" t="n">
-        <v>11.45</v>
+        <v>10.93</v>
       </c>
       <c r="F6" t="n">
-        <v>94202</v>
+        <v>62884.8853</v>
       </c>
       <c r="G6" t="n">
-        <v>134808.6600722416</v>
+        <v>-929043.8232000003</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -625,11 +625,7 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -640,22 +636,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.4</v>
+        <v>10.95</v>
       </c>
       <c r="C7" t="n">
-        <v>11.4</v>
+        <v>10.95</v>
       </c>
       <c r="D7" t="n">
-        <v>11.4</v>
+        <v>10.96</v>
       </c>
       <c r="E7" t="n">
-        <v>11.4</v>
+        <v>10.95</v>
       </c>
       <c r="F7" t="n">
-        <v>5604.3394</v>
+        <v>240081.9709</v>
       </c>
       <c r="G7" t="n">
-        <v>129204.3206722417</v>
+        <v>-688961.8523000004</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -665,11 +661,7 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -680,22 +672,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.48</v>
+        <v>10.95</v>
       </c>
       <c r="C8" t="n">
-        <v>11.48</v>
+        <v>10.97</v>
       </c>
       <c r="D8" t="n">
-        <v>11.48</v>
+        <v>10.97</v>
       </c>
       <c r="E8" t="n">
-        <v>11.48</v>
+        <v>10.95</v>
       </c>
       <c r="F8" t="n">
-        <v>60</v>
+        <v>163311.9145</v>
       </c>
       <c r="G8" t="n">
-        <v>129264.3206722417</v>
+        <v>-525649.9378000004</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -705,11 +697,7 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -720,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.49</v>
+        <v>10.98</v>
       </c>
       <c r="C9" t="n">
-        <v>11.49</v>
+        <v>10.97</v>
       </c>
       <c r="D9" t="n">
-        <v>11.49</v>
+        <v>10.98</v>
       </c>
       <c r="E9" t="n">
-        <v>11.49</v>
+        <v>10.97</v>
       </c>
       <c r="F9" t="n">
-        <v>198204.9999</v>
+        <v>132526.3156</v>
       </c>
       <c r="G9" t="n">
-        <v>327469.3205722417</v>
+        <v>-525649.9378000004</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -745,11 +733,7 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -760,22 +744,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.49</v>
+        <v>10.97</v>
       </c>
       <c r="C10" t="n">
-        <v>11.49</v>
+        <v>10.97</v>
       </c>
       <c r="D10" t="n">
-        <v>11.49</v>
+        <v>10.97</v>
       </c>
       <c r="E10" t="n">
-        <v>11.49</v>
+        <v>10.97</v>
       </c>
       <c r="F10" t="n">
-        <v>4558.2843</v>
+        <v>69612.9999</v>
       </c>
       <c r="G10" t="n">
-        <v>327469.3205722417</v>
+        <v>-525649.9378000004</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -785,11 +769,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -800,22 +780,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.5</v>
+        <v>10.97</v>
       </c>
       <c r="C11" t="n">
-        <v>11.5</v>
+        <v>10.97</v>
       </c>
       <c r="D11" t="n">
-        <v>11.5</v>
+        <v>10.97</v>
       </c>
       <c r="E11" t="n">
-        <v>11.5</v>
+        <v>10.97</v>
       </c>
       <c r="F11" t="n">
-        <v>510.6468</v>
+        <v>9561.394899999999</v>
       </c>
       <c r="G11" t="n">
-        <v>327979.9673722417</v>
+        <v>-525649.9378000004</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -825,11 +805,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -840,22 +816,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.52</v>
+        <v>10.99</v>
       </c>
       <c r="C12" t="n">
-        <v>11.6</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>11.6</v>
+        <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>11.52</v>
+        <v>10.99</v>
       </c>
       <c r="F12" t="n">
-        <v>107366.7438</v>
+        <v>168727.201</v>
       </c>
       <c r="G12" t="n">
-        <v>435346.7111722417</v>
+        <v>-356922.7368000004</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -865,11 +841,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -880,22 +852,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.6</v>
+        <v>10.99</v>
       </c>
       <c r="C13" t="n">
-        <v>11.62</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>11.62</v>
+        <v>11</v>
       </c>
       <c r="E13" t="n">
-        <v>11.6</v>
+        <v>10.99</v>
       </c>
       <c r="F13" t="n">
-        <v>21322.9766</v>
+        <v>188329.1477</v>
       </c>
       <c r="G13" t="n">
-        <v>456669.6877722417</v>
+        <v>-356922.7368000004</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -905,11 +877,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -920,22 +888,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.49</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>11.49</v>
+        <v>11</v>
       </c>
       <c r="E14" t="n">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="F14" t="n">
-        <v>27039.2534</v>
+        <v>145518.7369</v>
       </c>
       <c r="G14" t="n">
-        <v>429630.4343722417</v>
+        <v>-356922.7368000004</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -945,11 +913,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -960,22 +924,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="E15" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
-        <v>1668</v>
+        <v>10044.5137</v>
       </c>
       <c r="G15" t="n">
-        <v>427962.4343722417</v>
+        <v>-356922.7368000004</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -985,11 +949,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1000,22 +960,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="E16" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="F16" t="n">
-        <v>1938</v>
+        <v>13133.6866</v>
       </c>
       <c r="G16" t="n">
-        <v>427962.4343722417</v>
+        <v>-356922.7368000004</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1025,11 +985,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1040,22 +996,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.13</v>
+        <v>10.91</v>
       </c>
       <c r="C17" t="n">
-        <v>11.13</v>
+        <v>10.91</v>
       </c>
       <c r="D17" t="n">
-        <v>11.13</v>
+        <v>10.91</v>
       </c>
       <c r="E17" t="n">
-        <v>11.13</v>
+        <v>10.91</v>
       </c>
       <c r="F17" t="n">
-        <v>14515.4839</v>
+        <v>6793.8477</v>
       </c>
       <c r="G17" t="n">
-        <v>413446.9504722417</v>
+        <v>-363716.5845000004</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1065,11 +1021,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1080,22 +1032,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11.03</v>
+        <v>10.94</v>
       </c>
       <c r="C18" t="n">
-        <v>11.13</v>
+        <v>10.94</v>
       </c>
       <c r="D18" t="n">
-        <v>11.13</v>
+        <v>10.94</v>
       </c>
       <c r="E18" t="n">
-        <v>11.03</v>
+        <v>10.94</v>
       </c>
       <c r="F18" t="n">
-        <v>52480.8813</v>
+        <v>6481.5878</v>
       </c>
       <c r="G18" t="n">
-        <v>413446.9504722417</v>
+        <v>-357234.9967000004</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1105,11 +1057,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1120,34 +1068,36 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11.13</v>
+        <v>10.94</v>
       </c>
       <c r="C19" t="n">
-        <v>11.13</v>
+        <v>10.9</v>
       </c>
       <c r="D19" t="n">
-        <v>11.13</v>
+        <v>10.94</v>
       </c>
       <c r="E19" t="n">
-        <v>11.13</v>
+        <v>10.9</v>
       </c>
       <c r="F19" t="n">
-        <v>30485.786</v>
+        <v>7828.6926</v>
       </c>
       <c r="G19" t="n">
-        <v>413446.9504722417</v>
+        <v>-365063.6893000004</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>10.94</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M19" t="n">
@@ -1160,22 +1110,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.25</v>
+        <v>10.9</v>
       </c>
       <c r="C20" t="n">
-        <v>11.1</v>
+        <v>10.89</v>
       </c>
       <c r="D20" t="n">
-        <v>11.25</v>
+        <v>10.9</v>
       </c>
       <c r="E20" t="n">
-        <v>11.1</v>
+        <v>10.89</v>
       </c>
       <c r="F20" t="n">
-        <v>12363.0212</v>
+        <v>6656.7483</v>
       </c>
       <c r="G20" t="n">
-        <v>401083.9292722417</v>
+        <v>-371720.4376000004</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1184,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.13</v>
+        <v>10.9</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
@@ -1202,22 +1152,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11.2</v>
+        <v>10.89</v>
       </c>
       <c r="C21" t="n">
-        <v>11.1</v>
+        <v>10.88</v>
       </c>
       <c r="D21" t="n">
-        <v>11.3</v>
+        <v>10.89</v>
       </c>
       <c r="E21" t="n">
-        <v>11.1</v>
+        <v>10.88</v>
       </c>
       <c r="F21" t="n">
-        <v>43442.0765</v>
+        <v>7403.1955</v>
       </c>
       <c r="G21" t="n">
-        <v>401083.9292722417</v>
+        <v>-379123.6331000004</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1226,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>11.1</v>
+        <v>10.89</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
@@ -1244,22 +1194,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.15</v>
+        <v>10.88</v>
       </c>
       <c r="C22" t="n">
-        <v>11.14</v>
+        <v>10.88</v>
       </c>
       <c r="D22" t="n">
-        <v>11.15</v>
+        <v>10.88</v>
       </c>
       <c r="E22" t="n">
-        <v>11.14</v>
+        <v>10.88</v>
       </c>
       <c r="F22" t="n">
-        <v>17135.1428</v>
+        <v>1486.6294</v>
       </c>
       <c r="G22" t="n">
-        <v>418219.0720722417</v>
+        <v>-379123.6331000004</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1268,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.1</v>
+        <v>10.88</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
@@ -1286,22 +1236,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11.32</v>
+        <v>10.88</v>
       </c>
       <c r="C23" t="n">
-        <v>11.35</v>
+        <v>10.88</v>
       </c>
       <c r="D23" t="n">
-        <v>11.35</v>
+        <v>10.88</v>
       </c>
       <c r="E23" t="n">
-        <v>11.32</v>
+        <v>10.88</v>
       </c>
       <c r="F23" t="n">
-        <v>263827.9862</v>
+        <v>4674.1456</v>
       </c>
       <c r="G23" t="n">
-        <v>682047.0582722416</v>
+        <v>-379123.6331000004</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1310,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.14</v>
+        <v>10.88</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
@@ -1328,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.22</v>
+        <v>10.99</v>
       </c>
       <c r="C24" t="n">
-        <v>11.22</v>
+        <v>10.99</v>
       </c>
       <c r="D24" t="n">
-        <v>11.22</v>
+        <v>10.99</v>
       </c>
       <c r="E24" t="n">
-        <v>11.22</v>
+        <v>10.99</v>
       </c>
       <c r="F24" t="n">
-        <v>100000</v>
+        <v>253214.8507</v>
       </c>
       <c r="G24" t="n">
-        <v>582047.0582722416</v>
+        <v>-125908.7824000004</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1352,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>11.35</v>
+        <v>10.88</v>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
@@ -1370,32 +1320,30 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.37</v>
+        <v>10.99</v>
       </c>
       <c r="C25" t="n">
-        <v>11.3</v>
+        <v>10.99</v>
       </c>
       <c r="D25" t="n">
-        <v>11.37</v>
+        <v>10.99</v>
       </c>
       <c r="E25" t="n">
-        <v>11.3</v>
+        <v>10.99</v>
       </c>
       <c r="F25" t="n">
-        <v>13592.9298</v>
+        <v>114277</v>
       </c>
       <c r="G25" t="n">
-        <v>595639.9880722417</v>
+        <v>-125908.7824000004</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>11.22</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
@@ -1412,32 +1360,30 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.3</v>
+        <v>10.99</v>
       </c>
       <c r="C26" t="n">
-        <v>11.3</v>
+        <v>10.99</v>
       </c>
       <c r="D26" t="n">
-        <v>11.3</v>
+        <v>10.99</v>
       </c>
       <c r="E26" t="n">
-        <v>11.3</v>
+        <v>10.99</v>
       </c>
       <c r="F26" t="n">
-        <v>31372.705</v>
+        <v>1090.5284</v>
       </c>
       <c r="G26" t="n">
-        <v>595639.9880722417</v>
+        <v>-125908.7824000004</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>11.3</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
@@ -1454,32 +1400,30 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.4</v>
+        <v>10.92</v>
       </c>
       <c r="C27" t="n">
-        <v>11.4</v>
+        <v>10.92</v>
       </c>
       <c r="D27" t="n">
-        <v>11.4</v>
+        <v>10.92</v>
       </c>
       <c r="E27" t="n">
-        <v>11.4</v>
+        <v>10.92</v>
       </c>
       <c r="F27" t="n">
-        <v>18066.0141</v>
+        <v>5459</v>
       </c>
       <c r="G27" t="n">
-        <v>613706.0021722417</v>
+        <v>-131367.7824000004</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>11.3</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
@@ -1496,22 +1440,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.4</v>
+        <v>11.01</v>
       </c>
       <c r="C28" t="n">
-        <v>11.4</v>
+        <v>11.01</v>
       </c>
       <c r="D28" t="n">
-        <v>11.4</v>
+        <v>11.01</v>
       </c>
       <c r="E28" t="n">
-        <v>11.4</v>
+        <v>11.01</v>
       </c>
       <c r="F28" t="n">
-        <v>40721.9477</v>
+        <v>5923.8666</v>
       </c>
       <c r="G28" t="n">
-        <v>613706.0021722417</v>
+        <v>-125443.9158000004</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1536,22 +1480,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="C29" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>11.41</v>
+        <v>11</v>
       </c>
       <c r="E29" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="F29" t="n">
-        <v>32349.4465</v>
+        <v>55200</v>
       </c>
       <c r="G29" t="n">
-        <v>581356.5556722417</v>
+        <v>-180643.9158000004</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1576,22 +1520,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.31</v>
+        <v>11.01</v>
       </c>
       <c r="C30" t="n">
-        <v>11.31</v>
+        <v>11.01</v>
       </c>
       <c r="D30" t="n">
-        <v>11.31</v>
+        <v>11.01</v>
       </c>
       <c r="E30" t="n">
-        <v>11.31</v>
+        <v>11.01</v>
       </c>
       <c r="F30" t="n">
-        <v>18120.0576</v>
+        <v>0.0001</v>
       </c>
       <c r="G30" t="n">
-        <v>599476.6132722418</v>
+        <v>-180643.9157000004</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1616,22 +1560,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11.31</v>
+        <v>11.05</v>
       </c>
       <c r="C31" t="n">
-        <v>11.31</v>
+        <v>11.02</v>
       </c>
       <c r="D31" t="n">
-        <v>11.31</v>
+        <v>11.05</v>
       </c>
       <c r="E31" t="n">
-        <v>11.31</v>
+        <v>11.02</v>
       </c>
       <c r="F31" t="n">
-        <v>701.551</v>
+        <v>13729.7895</v>
       </c>
       <c r="G31" t="n">
-        <v>599476.6132722418</v>
+        <v>-166914.1262000003</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1656,22 +1600,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.31</v>
+        <v>11.01</v>
       </c>
       <c r="C32" t="n">
-        <v>11.31</v>
+        <v>11.01</v>
       </c>
       <c r="D32" t="n">
-        <v>11.31</v>
+        <v>11.01</v>
       </c>
       <c r="E32" t="n">
-        <v>11.31</v>
+        <v>11.01</v>
       </c>
       <c r="F32" t="n">
-        <v>3185.0166</v>
+        <v>7785.8838</v>
       </c>
       <c r="G32" t="n">
-        <v>599476.6132722418</v>
+        <v>-174700.0100000004</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1696,22 +1640,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.49</v>
+        <v>11.06</v>
       </c>
       <c r="C33" t="n">
-        <v>11.49</v>
+        <v>11.06</v>
       </c>
       <c r="D33" t="n">
-        <v>11.49</v>
+        <v>11.06</v>
       </c>
       <c r="E33" t="n">
-        <v>11.49</v>
+        <v>11.06</v>
       </c>
       <c r="F33" t="n">
-        <v>25782.9393</v>
+        <v>8398.9717</v>
       </c>
       <c r="G33" t="n">
-        <v>625259.5525722418</v>
+        <v>-166301.0383000004</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1736,22 +1680,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.49</v>
+        <v>11.06</v>
       </c>
       <c r="C34" t="n">
-        <v>11.33</v>
+        <v>11.06</v>
       </c>
       <c r="D34" t="n">
-        <v>11.49</v>
+        <v>11.06</v>
       </c>
       <c r="E34" t="n">
-        <v>11.33</v>
+        <v>11.06</v>
       </c>
       <c r="F34" t="n">
-        <v>12226.1517</v>
+        <v>16191.5872</v>
       </c>
       <c r="G34" t="n">
-        <v>613033.4008722417</v>
+        <v>-166301.0383000004</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1776,22 +1720,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11.33</v>
+        <v>11.07</v>
       </c>
       <c r="C35" t="n">
-        <v>11.33</v>
+        <v>11.07</v>
       </c>
       <c r="D35" t="n">
-        <v>11.33</v>
+        <v>11.07</v>
       </c>
       <c r="E35" t="n">
-        <v>11.33</v>
+        <v>11.07</v>
       </c>
       <c r="F35" t="n">
-        <v>258174.3471</v>
+        <v>12340.4467</v>
       </c>
       <c r="G35" t="n">
-        <v>613033.4008722417</v>
+        <v>-153960.5916000004</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1816,22 +1760,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11.49</v>
+        <v>11.07</v>
       </c>
       <c r="C36" t="n">
-        <v>11.49</v>
+        <v>11.07</v>
       </c>
       <c r="D36" t="n">
-        <v>11.49</v>
+        <v>11.07</v>
       </c>
       <c r="E36" t="n">
-        <v>11.49</v>
+        <v>11.07</v>
       </c>
       <c r="F36" t="n">
-        <v>5714.1387</v>
+        <v>18110.6587</v>
       </c>
       <c r="G36" t="n">
-        <v>618747.5395722417</v>
+        <v>-153960.5916000004</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1856,22 +1800,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.49</v>
+        <v>11.07</v>
       </c>
       <c r="C37" t="n">
-        <v>11.49</v>
+        <v>11.07</v>
       </c>
       <c r="D37" t="n">
-        <v>11.49</v>
+        <v>11.07</v>
       </c>
       <c r="E37" t="n">
-        <v>11.49</v>
+        <v>11.07</v>
       </c>
       <c r="F37" t="n">
-        <v>2221.0617</v>
+        <v>49597.4344</v>
       </c>
       <c r="G37" t="n">
-        <v>618747.5395722417</v>
+        <v>-153960.5916000004</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1896,22 +1840,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.49</v>
+        <v>11.07</v>
       </c>
       <c r="C38" t="n">
-        <v>11.49</v>
+        <v>11.07</v>
       </c>
       <c r="D38" t="n">
-        <v>11.49</v>
+        <v>11.07</v>
       </c>
       <c r="E38" t="n">
-        <v>11.49</v>
+        <v>11.07</v>
       </c>
       <c r="F38" t="n">
-        <v>7067.6876</v>
+        <v>6795.4368</v>
       </c>
       <c r="G38" t="n">
-        <v>618747.5395722417</v>
+        <v>-153960.5916000004</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1936,22 +1880,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11.45</v>
+        <v>11.02</v>
       </c>
       <c r="C39" t="n">
-        <v>11.44</v>
+        <v>11.02</v>
       </c>
       <c r="D39" t="n">
-        <v>11.45</v>
+        <v>11.02</v>
       </c>
       <c r="E39" t="n">
-        <v>11.44</v>
+        <v>11.02</v>
       </c>
       <c r="F39" t="n">
-        <v>10000</v>
+        <v>7177.2206</v>
       </c>
       <c r="G39" t="n">
-        <v>608747.5395722417</v>
+        <v>-161137.8122000004</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1976,22 +1920,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11.49</v>
+        <v>11.02</v>
       </c>
       <c r="C40" t="n">
-        <v>11.54</v>
+        <v>11.02</v>
       </c>
       <c r="D40" t="n">
-        <v>11.54</v>
+        <v>11.02</v>
       </c>
       <c r="E40" t="n">
-        <v>11.49</v>
+        <v>11.02</v>
       </c>
       <c r="F40" t="n">
-        <v>6717.1952</v>
+        <v>5123.5193</v>
       </c>
       <c r="G40" t="n">
-        <v>615464.7347722417</v>
+        <v>-161137.8122000004</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2016,22 +1960,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11.59</v>
+        <v>11.07</v>
       </c>
       <c r="C41" t="n">
-        <v>11.59</v>
+        <v>11.07</v>
       </c>
       <c r="D41" t="n">
-        <v>11.59</v>
+        <v>11.07</v>
       </c>
       <c r="E41" t="n">
-        <v>11.59</v>
+        <v>11.07</v>
       </c>
       <c r="F41" t="n">
-        <v>17655.5255</v>
+        <v>500</v>
       </c>
       <c r="G41" t="n">
-        <v>633120.2602722417</v>
+        <v>-160637.8122000004</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2056,22 +2000,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.55</v>
+        <v>11.03</v>
       </c>
       <c r="C42" t="n">
-        <v>11.59</v>
+        <v>11.03</v>
       </c>
       <c r="D42" t="n">
-        <v>11.59</v>
+        <v>11.03</v>
       </c>
       <c r="E42" t="n">
-        <v>11.55</v>
+        <v>11.03</v>
       </c>
       <c r="F42" t="n">
-        <v>104835.3387</v>
+        <v>4692.0514</v>
       </c>
       <c r="G42" t="n">
-        <v>633120.2602722417</v>
+        <v>-165329.8636000004</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2096,22 +2040,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11.59</v>
+        <v>11.03</v>
       </c>
       <c r="C43" t="n">
-        <v>11.62</v>
+        <v>11.02</v>
       </c>
       <c r="D43" t="n">
-        <v>11.62</v>
+        <v>11.03</v>
       </c>
       <c r="E43" t="n">
-        <v>11.59</v>
+        <v>11.02</v>
       </c>
       <c r="F43" t="n">
-        <v>29400</v>
+        <v>11649.0993</v>
       </c>
       <c r="G43" t="n">
-        <v>662520.2602722417</v>
+        <v>-176978.9629000004</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2136,22 +2080,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.54</v>
+        <v>11.02</v>
       </c>
       <c r="C44" t="n">
-        <v>11.42</v>
+        <v>11.01</v>
       </c>
       <c r="D44" t="n">
-        <v>11.54</v>
+        <v>11.02</v>
       </c>
       <c r="E44" t="n">
-        <v>11.42</v>
+        <v>11.01</v>
       </c>
       <c r="F44" t="n">
-        <v>111972.3703</v>
+        <v>42578.9788</v>
       </c>
       <c r="G44" t="n">
-        <v>550547.8899722417</v>
+        <v>-219557.9417000004</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2176,22 +2120,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.62</v>
+        <v>11.02</v>
       </c>
       <c r="C45" t="n">
-        <v>11.63</v>
+        <v>11.01</v>
       </c>
       <c r="D45" t="n">
-        <v>11.63</v>
+        <v>11.02</v>
       </c>
       <c r="E45" t="n">
-        <v>11.62</v>
+        <v>11.01</v>
       </c>
       <c r="F45" t="n">
-        <v>127033.7312</v>
+        <v>9858.685799999999</v>
       </c>
       <c r="G45" t="n">
-        <v>677581.6211722418</v>
+        <v>-219557.9417000004</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2216,22 +2160,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.62</v>
+        <v>11</v>
       </c>
       <c r="C46" t="n">
-        <v>11.62</v>
+        <v>11</v>
       </c>
       <c r="D46" t="n">
-        <v>11.68</v>
+        <v>11</v>
       </c>
       <c r="E46" t="n">
-        <v>11.62</v>
+        <v>11</v>
       </c>
       <c r="F46" t="n">
-        <v>113279.0939</v>
+        <v>7789.434</v>
       </c>
       <c r="G46" t="n">
-        <v>564302.5272722418</v>
+        <v>-227347.3757000004</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2256,22 +2200,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.68</v>
+        <v>11</v>
       </c>
       <c r="C47" t="n">
-        <v>11.7</v>
+        <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>11.7</v>
+        <v>11</v>
       </c>
       <c r="E47" t="n">
-        <v>11.62</v>
+        <v>11</v>
       </c>
       <c r="F47" t="n">
-        <v>8405.1513</v>
+        <v>16273.9999</v>
       </c>
       <c r="G47" t="n">
-        <v>572707.6785722418</v>
+        <v>-227347.3757000004</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2296,22 +2240,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11.7</v>
+        <v>11</v>
       </c>
       <c r="C48" t="n">
-        <v>11.71</v>
+        <v>11</v>
       </c>
       <c r="D48" t="n">
-        <v>11.71</v>
+        <v>11</v>
       </c>
       <c r="E48" t="n">
-        <v>11.7</v>
+        <v>11</v>
       </c>
       <c r="F48" t="n">
-        <v>190</v>
+        <v>2024.6887</v>
       </c>
       <c r="G48" t="n">
-        <v>572897.6785722418</v>
+        <v>-227347.3757000004</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2336,22 +2280,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11.66</v>
+        <v>10.93</v>
       </c>
       <c r="C49" t="n">
-        <v>11.62</v>
+        <v>10.93</v>
       </c>
       <c r="D49" t="n">
-        <v>11.66</v>
+        <v>10.93</v>
       </c>
       <c r="E49" t="n">
-        <v>11.62</v>
+        <v>10.93</v>
       </c>
       <c r="F49" t="n">
-        <v>151035.6059</v>
+        <v>141.3142</v>
       </c>
       <c r="G49" t="n">
-        <v>421862.0726722418</v>
+        <v>-227488.6899000004</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2376,22 +2320,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>11.51</v>
+        <v>10.93</v>
       </c>
       <c r="C50" t="n">
-        <v>11.51</v>
+        <v>10.9</v>
       </c>
       <c r="D50" t="n">
-        <v>11.51</v>
+        <v>10.93</v>
       </c>
       <c r="E50" t="n">
-        <v>11.51</v>
+        <v>10.9</v>
       </c>
       <c r="F50" t="n">
-        <v>2656.266</v>
+        <v>227182.3107</v>
       </c>
       <c r="G50" t="n">
-        <v>419205.8066722418</v>
+        <v>-454671.0006000004</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2416,22 +2360,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>11.51</v>
+        <v>10.9</v>
       </c>
       <c r="C51" t="n">
-        <v>11.51</v>
+        <v>10.9</v>
       </c>
       <c r="D51" t="n">
-        <v>11.51</v>
+        <v>10.9</v>
       </c>
       <c r="E51" t="n">
-        <v>11.51</v>
+        <v>10.9</v>
       </c>
       <c r="F51" t="n">
-        <v>43440.486</v>
+        <v>102782.534</v>
       </c>
       <c r="G51" t="n">
-        <v>419205.8066722418</v>
+        <v>-454671.0006000004</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2456,22 +2400,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.69</v>
+        <v>10.9</v>
       </c>
       <c r="C52" t="n">
-        <v>11.69</v>
+        <v>10.9</v>
       </c>
       <c r="D52" t="n">
-        <v>11.69</v>
+        <v>10.9</v>
       </c>
       <c r="E52" t="n">
-        <v>11.69</v>
+        <v>10.9</v>
       </c>
       <c r="F52" t="n">
-        <v>17108.63986313088</v>
+        <v>5087.3364</v>
       </c>
       <c r="G52" t="n">
-        <v>436314.4465353727</v>
+        <v>-454671.0006000004</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2496,22 +2440,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.5</v>
+        <v>10.9</v>
       </c>
       <c r="C53" t="n">
-        <v>11.5</v>
+        <v>10.9</v>
       </c>
       <c r="D53" t="n">
-        <v>11.5</v>
+        <v>10.9</v>
       </c>
       <c r="E53" t="n">
-        <v>11.5</v>
+        <v>10.9</v>
       </c>
       <c r="F53" t="n">
-        <v>2500</v>
+        <v>101016.9517</v>
       </c>
       <c r="G53" t="n">
-        <v>433814.4465353727</v>
+        <v>-454671.0006000004</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2536,22 +2480,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.58</v>
+        <v>10.93</v>
       </c>
       <c r="C54" t="n">
-        <v>11.5</v>
+        <v>10.93</v>
       </c>
       <c r="D54" t="n">
-        <v>11.58</v>
+        <v>10.93</v>
       </c>
       <c r="E54" t="n">
-        <v>11.5</v>
+        <v>10.93</v>
       </c>
       <c r="F54" t="n">
-        <v>200</v>
+        <v>46907.5479</v>
       </c>
       <c r="G54" t="n">
-        <v>433814.4465353727</v>
+        <v>-407763.4527000004</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2576,22 +2520,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.52</v>
+        <v>11.07</v>
       </c>
       <c r="C55" t="n">
-        <v>11.52</v>
+        <v>11.07</v>
       </c>
       <c r="D55" t="n">
-        <v>11.52</v>
+        <v>11.07</v>
       </c>
       <c r="E55" t="n">
-        <v>11.52</v>
+        <v>11.07</v>
       </c>
       <c r="F55" t="n">
-        <v>30190.3071</v>
+        <v>76384.90919999999</v>
       </c>
       <c r="G55" t="n">
-        <v>464004.7536353727</v>
+        <v>-331378.5435000004</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2616,22 +2560,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.52</v>
+        <v>11.05</v>
       </c>
       <c r="C56" t="n">
-        <v>11.5</v>
+        <v>11.05</v>
       </c>
       <c r="D56" t="n">
-        <v>11.52</v>
+        <v>11.05</v>
       </c>
       <c r="E56" t="n">
-        <v>11.5</v>
+        <v>11.05</v>
       </c>
       <c r="F56" t="n">
-        <v>41340.7388</v>
+        <v>3000</v>
       </c>
       <c r="G56" t="n">
-        <v>422664.0148353727</v>
+        <v>-334378.5435000004</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2656,22 +2600,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.42</v>
+        <v>11.04</v>
       </c>
       <c r="C57" t="n">
-        <v>11.4</v>
+        <v>11.08</v>
       </c>
       <c r="D57" t="n">
-        <v>11.42</v>
+        <v>11.08</v>
       </c>
       <c r="E57" t="n">
-        <v>11.4</v>
+        <v>11.04</v>
       </c>
       <c r="F57" t="n">
-        <v>7071.1874</v>
+        <v>14932.6987</v>
       </c>
       <c r="G57" t="n">
-        <v>415592.8274353727</v>
+        <v>-319445.8448000004</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2696,22 +2640,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.48</v>
+        <v>11.04</v>
       </c>
       <c r="C58" t="n">
-        <v>11.48</v>
+        <v>11.08</v>
       </c>
       <c r="D58" t="n">
-        <v>11.48</v>
+        <v>11.08</v>
       </c>
       <c r="E58" t="n">
-        <v>11.48</v>
+        <v>11.04</v>
       </c>
       <c r="F58" t="n">
-        <v>8710.801393728223</v>
+        <v>6646.375475812274</v>
       </c>
       <c r="G58" t="n">
-        <v>424303.6288291009</v>
+        <v>-319445.8448000004</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2736,22 +2680,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.41</v>
+        <v>11.04</v>
       </c>
       <c r="C59" t="n">
-        <v>11.38</v>
+        <v>11.04</v>
       </c>
       <c r="D59" t="n">
-        <v>11.41</v>
+        <v>11.04</v>
       </c>
       <c r="E59" t="n">
-        <v>11.38</v>
+        <v>11.04</v>
       </c>
       <c r="F59" t="n">
-        <v>14895.0895</v>
+        <v>4993.7578</v>
       </c>
       <c r="G59" t="n">
-        <v>409408.5393291009</v>
+        <v>-324439.6026000004</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2776,22 +2720,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.48</v>
+        <v>11.04</v>
       </c>
       <c r="C60" t="n">
-        <v>11.35</v>
+        <v>11.04</v>
       </c>
       <c r="D60" t="n">
-        <v>11.48</v>
+        <v>11.04</v>
       </c>
       <c r="E60" t="n">
-        <v>11.35</v>
+        <v>11.04</v>
       </c>
       <c r="F60" t="n">
-        <v>18699.3805</v>
+        <v>24429.9997</v>
       </c>
       <c r="G60" t="n">
-        <v>390709.1588291009</v>
+        <v>-324439.6026000004</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2816,22 +2760,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.35</v>
+        <v>11.04</v>
       </c>
       <c r="C61" t="n">
-        <v>11.31</v>
+        <v>10.93</v>
       </c>
       <c r="D61" t="n">
-        <v>11.35</v>
+        <v>11.04</v>
       </c>
       <c r="E61" t="n">
-        <v>11.31</v>
+        <v>10.93</v>
       </c>
       <c r="F61" t="n">
-        <v>147833.7312</v>
+        <v>14047.5952</v>
       </c>
       <c r="G61" t="n">
-        <v>242875.4276291009</v>
+        <v>-338487.1978000004</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2856,22 +2800,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.31</v>
+        <v>11.06</v>
       </c>
       <c r="C62" t="n">
-        <v>11.31</v>
+        <v>11.06</v>
       </c>
       <c r="D62" t="n">
-        <v>11.31</v>
+        <v>11.06</v>
       </c>
       <c r="E62" t="n">
-        <v>11.31</v>
+        <v>11.06</v>
       </c>
       <c r="F62" t="n">
-        <v>34157.0499</v>
+        <v>199133.2067</v>
       </c>
       <c r="G62" t="n">
-        <v>242875.4276291009</v>
+        <v>-139353.9911000004</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2896,22 +2840,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.36</v>
+        <v>10.94</v>
       </c>
       <c r="C63" t="n">
-        <v>11.36</v>
+        <v>10.94</v>
       </c>
       <c r="D63" t="n">
-        <v>11.36</v>
+        <v>10.94</v>
       </c>
       <c r="E63" t="n">
-        <v>11.36</v>
+        <v>10.94</v>
       </c>
       <c r="F63" t="n">
-        <v>157.5</v>
+        <v>13562.7354</v>
       </c>
       <c r="G63" t="n">
-        <v>243032.9276291009</v>
+        <v>-152916.7265000004</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2936,22 +2880,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.36</v>
+        <v>10.95</v>
       </c>
       <c r="C64" t="n">
-        <v>11.36</v>
+        <v>10.95</v>
       </c>
       <c r="D64" t="n">
-        <v>11.36</v>
+        <v>10.95</v>
       </c>
       <c r="E64" t="n">
-        <v>11.36</v>
+        <v>10.95</v>
       </c>
       <c r="F64" t="n">
-        <v>3092.5</v>
+        <v>23852.3355</v>
       </c>
       <c r="G64" t="n">
-        <v>243032.9276291009</v>
+        <v>-129064.3910000004</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2976,22 +2920,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.31</v>
+        <v>11.06</v>
       </c>
       <c r="C65" t="n">
-        <v>11.3</v>
+        <v>11.06</v>
       </c>
       <c r="D65" t="n">
-        <v>11.31</v>
+        <v>11.06</v>
       </c>
       <c r="E65" t="n">
-        <v>11.3</v>
+        <v>11.06</v>
       </c>
       <c r="F65" t="n">
-        <v>5704.152</v>
+        <v>7509.363</v>
       </c>
       <c r="G65" t="n">
-        <v>237328.7756291009</v>
+        <v>-121555.0280000004</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3016,22 +2960,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.3</v>
+        <v>11.07</v>
       </c>
       <c r="C66" t="n">
-        <v>11.3</v>
+        <v>11.14</v>
       </c>
       <c r="D66" t="n">
-        <v>11.3</v>
+        <v>11.14</v>
       </c>
       <c r="E66" t="n">
-        <v>11.3</v>
+        <v>11.07</v>
       </c>
       <c r="F66" t="n">
-        <v>10074.5883</v>
+        <v>99662.7899</v>
       </c>
       <c r="G66" t="n">
-        <v>237328.7756291009</v>
+        <v>-21892.23810000037</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3056,22 +3000,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.29</v>
+        <v>11.14</v>
       </c>
       <c r="C67" t="n">
-        <v>11.24</v>
+        <v>11.3</v>
       </c>
       <c r="D67" t="n">
-        <v>11.29</v>
+        <v>11.3</v>
       </c>
       <c r="E67" t="n">
-        <v>11.24</v>
+        <v>11.14</v>
       </c>
       <c r="F67" t="n">
-        <v>1762.8096</v>
+        <v>27918.5208</v>
       </c>
       <c r="G67" t="n">
-        <v>235565.9660291009</v>
+        <v>6026.282699999632</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3096,22 +3040,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.24</v>
+        <v>11.33</v>
       </c>
       <c r="C68" t="n">
-        <v>11.24</v>
+        <v>11.33</v>
       </c>
       <c r="D68" t="n">
-        <v>11.24</v>
+        <v>11.33</v>
       </c>
       <c r="E68" t="n">
-        <v>11.24</v>
+        <v>11.33</v>
       </c>
       <c r="F68" t="n">
-        <v>5632.0934</v>
+        <v>10338.0621</v>
       </c>
       <c r="G68" t="n">
-        <v>235565.9660291009</v>
+        <v>16364.34479999963</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3136,22 +3080,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.24</v>
+        <v>11.34</v>
       </c>
       <c r="C69" t="n">
-        <v>11.22</v>
+        <v>11.38</v>
       </c>
       <c r="D69" t="n">
-        <v>11.24</v>
+        <v>11.38</v>
       </c>
       <c r="E69" t="n">
-        <v>11.22</v>
+        <v>11.34</v>
       </c>
       <c r="F69" t="n">
-        <v>15034.9081</v>
+        <v>5716</v>
       </c>
       <c r="G69" t="n">
-        <v>220531.0579291009</v>
+        <v>22080.34479999963</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3176,22 +3120,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.23</v>
+        <v>11.38</v>
       </c>
       <c r="C70" t="n">
-        <v>11.23</v>
+        <v>11.34</v>
       </c>
       <c r="D70" t="n">
-        <v>11.23</v>
+        <v>11.4</v>
       </c>
       <c r="E70" t="n">
-        <v>11.23</v>
+        <v>11.34</v>
       </c>
       <c r="F70" t="n">
-        <v>3956.7766</v>
+        <v>30961.7997</v>
       </c>
       <c r="G70" t="n">
-        <v>224487.8345291009</v>
+        <v>-8881.454900000368</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3216,22 +3160,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.23</v>
+        <v>11.4</v>
       </c>
       <c r="C71" t="n">
-        <v>11.23</v>
+        <v>11.5</v>
       </c>
       <c r="D71" t="n">
-        <v>11.23</v>
+        <v>11.5</v>
       </c>
       <c r="E71" t="n">
-        <v>11.23</v>
+        <v>11.4</v>
       </c>
       <c r="F71" t="n">
-        <v>33.9734</v>
+        <v>339014.831172242</v>
       </c>
       <c r="G71" t="n">
-        <v>224487.8345291009</v>
+        <v>330133.3762722416</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3256,22 +3200,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.23</v>
+        <v>11.42</v>
       </c>
       <c r="C72" t="n">
-        <v>11.22</v>
+        <v>11.41</v>
       </c>
       <c r="D72" t="n">
-        <v>11.23</v>
+        <v>11.42</v>
       </c>
       <c r="E72" t="n">
-        <v>11.22</v>
+        <v>11.41</v>
       </c>
       <c r="F72" t="n">
-        <v>9515.562</v>
+        <v>18704.5757</v>
       </c>
       <c r="G72" t="n">
-        <v>214972.2725291009</v>
+        <v>311428.8005722417</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3296,22 +3240,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.23</v>
+        <v>11.5</v>
       </c>
       <c r="C73" t="n">
-        <v>11.26</v>
+        <v>11.5</v>
       </c>
       <c r="D73" t="n">
-        <v>11.26</v>
+        <v>11.5</v>
       </c>
       <c r="E73" t="n">
-        <v>11.16</v>
+        <v>11.5</v>
       </c>
       <c r="F73" t="n">
-        <v>130773</v>
+        <v>50000</v>
       </c>
       <c r="G73" t="n">
-        <v>345745.2725291009</v>
+        <v>361428.8005722417</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3336,22 +3280,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11.26</v>
+        <v>11.42</v>
       </c>
       <c r="C74" t="n">
-        <v>11.26</v>
+        <v>11.22</v>
       </c>
       <c r="D74" t="n">
-        <v>11.26</v>
+        <v>11.42</v>
       </c>
       <c r="E74" t="n">
-        <v>11.26</v>
+        <v>11.22</v>
       </c>
       <c r="F74" t="n">
-        <v>4518</v>
+        <v>322132.5665</v>
       </c>
       <c r="G74" t="n">
-        <v>345745.2725291009</v>
+        <v>39296.23407224164</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3376,22 +3320,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>11.16</v>
+        <v>11.4</v>
       </c>
       <c r="C75" t="n">
-        <v>11.16</v>
+        <v>11.4</v>
       </c>
       <c r="D75" t="n">
-        <v>11.16</v>
+        <v>11.4</v>
       </c>
       <c r="E75" t="n">
-        <v>11.16</v>
+        <v>11.4</v>
       </c>
       <c r="F75" t="n">
-        <v>4409.4533</v>
+        <v>1260.426</v>
       </c>
       <c r="G75" t="n">
-        <v>341335.8192291009</v>
+        <v>40556.66007224164</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3416,32 +3360,30 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11.2</v>
+        <v>11.46</v>
       </c>
       <c r="C76" t="n">
-        <v>11.18</v>
+        <v>11.46</v>
       </c>
       <c r="D76" t="n">
-        <v>11.2</v>
+        <v>11.46</v>
       </c>
       <c r="E76" t="n">
-        <v>11.18</v>
+        <v>11.46</v>
       </c>
       <c r="F76" t="n">
-        <v>3000</v>
+        <v>50</v>
       </c>
       <c r="G76" t="n">
-        <v>344335.8192291009</v>
+        <v>40606.66007224164</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>11.16</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
@@ -3458,32 +3400,30 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11.2</v>
+        <v>11.46</v>
       </c>
       <c r="C77" t="n">
-        <v>11.2</v>
+        <v>11.49</v>
       </c>
       <c r="D77" t="n">
-        <v>11.2</v>
+        <v>11.49</v>
       </c>
       <c r="E77" t="n">
-        <v>11.2</v>
+        <v>11.45</v>
       </c>
       <c r="F77" t="n">
-        <v>55570.9105</v>
+        <v>94202</v>
       </c>
       <c r="G77" t="n">
-        <v>399906.7297291009</v>
+        <v>134808.6600722416</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>11.18</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
@@ -3500,32 +3440,30 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.17</v>
+        <v>11.4</v>
       </c>
       <c r="C78" t="n">
-        <v>11.17</v>
+        <v>11.4</v>
       </c>
       <c r="D78" t="n">
-        <v>11.17</v>
+        <v>11.4</v>
       </c>
       <c r="E78" t="n">
-        <v>11.17</v>
+        <v>11.4</v>
       </c>
       <c r="F78" t="n">
-        <v>4117.318</v>
+        <v>5604.3394</v>
       </c>
       <c r="G78" t="n">
-        <v>395789.4117291009</v>
+        <v>129204.3206722417</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
@@ -3542,32 +3480,30 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.17</v>
+        <v>11.48</v>
       </c>
       <c r="C79" t="n">
-        <v>11.17</v>
+        <v>11.48</v>
       </c>
       <c r="D79" t="n">
-        <v>11.17</v>
+        <v>11.48</v>
       </c>
       <c r="E79" t="n">
-        <v>11.17</v>
+        <v>11.48</v>
       </c>
       <c r="F79" t="n">
-        <v>3039</v>
+        <v>60</v>
       </c>
       <c r="G79" t="n">
-        <v>395789.4117291009</v>
+        <v>129264.3206722417</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>11.17</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
@@ -3584,32 +3520,30 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.32</v>
+        <v>11.49</v>
       </c>
       <c r="C80" t="n">
-        <v>11.32</v>
+        <v>11.49</v>
       </c>
       <c r="D80" t="n">
-        <v>11.32</v>
+        <v>11.49</v>
       </c>
       <c r="E80" t="n">
-        <v>11.32</v>
+        <v>11.49</v>
       </c>
       <c r="F80" t="n">
-        <v>8860.8943</v>
+        <v>198204.9999</v>
       </c>
       <c r="G80" t="n">
-        <v>404650.3060291008</v>
+        <v>327469.3205722417</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>11.17</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
@@ -3626,32 +3560,30 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.22</v>
+        <v>11.49</v>
       </c>
       <c r="C81" t="n">
-        <v>11.22</v>
+        <v>11.49</v>
       </c>
       <c r="D81" t="n">
-        <v>11.22</v>
+        <v>11.49</v>
       </c>
       <c r="E81" t="n">
-        <v>11.22</v>
+        <v>11.49</v>
       </c>
       <c r="F81" t="n">
-        <v>37225.7561</v>
+        <v>4558.2843</v>
       </c>
       <c r="G81" t="n">
-        <v>367424.5499291008</v>
+        <v>327469.3205722417</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>11.32</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
@@ -3668,32 +3600,30 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="C82" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="D82" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="E82" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="F82" t="n">
-        <v>10000</v>
+        <v>510.6468</v>
       </c>
       <c r="G82" t="n">
-        <v>377424.5499291008</v>
+        <v>327979.9673722417</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>11.22</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
@@ -3710,32 +3640,30 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.3</v>
+        <v>11.52</v>
       </c>
       <c r="C83" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="D83" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="E83" t="n">
-        <v>11.3</v>
+        <v>11.52</v>
       </c>
       <c r="F83" t="n">
-        <v>24659.7303</v>
+        <v>107366.7438</v>
       </c>
       <c r="G83" t="n">
-        <v>377424.5499291008</v>
+        <v>435346.7111722417</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>11.3</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
@@ -3752,32 +3680,30 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.38</v>
+        <v>11.6</v>
       </c>
       <c r="C84" t="n">
-        <v>11.38</v>
+        <v>11.62</v>
       </c>
       <c r="D84" t="n">
-        <v>11.38</v>
+        <v>11.62</v>
       </c>
       <c r="E84" t="n">
-        <v>11.38</v>
+        <v>11.6</v>
       </c>
       <c r="F84" t="n">
-        <v>1500</v>
+        <v>21322.9766</v>
       </c>
       <c r="G84" t="n">
-        <v>378924.5499291008</v>
+        <v>456669.6877722417</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>11.3</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
@@ -3794,22 +3720,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.38</v>
+        <v>11.49</v>
       </c>
       <c r="C85" t="n">
-        <v>11.38</v>
+        <v>11.4</v>
       </c>
       <c r="D85" t="n">
-        <v>11.38</v>
+        <v>11.49</v>
       </c>
       <c r="E85" t="n">
-        <v>11.38</v>
+        <v>11.4</v>
       </c>
       <c r="F85" t="n">
-        <v>21226.6916</v>
+        <v>27039.2534</v>
       </c>
       <c r="G85" t="n">
-        <v>378924.5499291008</v>
+        <v>429630.4343722417</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3834,22 +3760,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>11.33</v>
+        <v>11.3</v>
       </c>
       <c r="C86" t="n">
-        <v>11.33</v>
+        <v>11.3</v>
       </c>
       <c r="D86" t="n">
-        <v>11.33</v>
+        <v>11.3</v>
       </c>
       <c r="E86" t="n">
-        <v>11.33</v>
+        <v>11.3</v>
       </c>
       <c r="F86" t="n">
-        <v>3763.0658</v>
+        <v>1668</v>
       </c>
       <c r="G86" t="n">
-        <v>375161.4841291009</v>
+        <v>427962.4343722417</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3874,22 +3800,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11.33</v>
+        <v>11.3</v>
       </c>
       <c r="C87" t="n">
-        <v>11.33</v>
+        <v>11.3</v>
       </c>
       <c r="D87" t="n">
-        <v>11.33</v>
+        <v>11.3</v>
       </c>
       <c r="E87" t="n">
-        <v>11.33</v>
+        <v>11.3</v>
       </c>
       <c r="F87" t="n">
-        <v>17444.799</v>
+        <v>1938</v>
       </c>
       <c r="G87" t="n">
-        <v>375161.4841291009</v>
+        <v>427962.4343722417</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3914,22 +3840,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>11.26</v>
+        <v>11.13</v>
       </c>
       <c r="C88" t="n">
-        <v>11.26</v>
+        <v>11.13</v>
       </c>
       <c r="D88" t="n">
-        <v>11.26</v>
+        <v>11.13</v>
       </c>
       <c r="E88" t="n">
-        <v>11.26</v>
+        <v>11.13</v>
       </c>
       <c r="F88" t="n">
-        <v>73.71420000000001</v>
+        <v>14515.4839</v>
       </c>
       <c r="G88" t="n">
-        <v>375087.7699291009</v>
+        <v>413446.9504722417</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3954,22 +3880,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>11.26</v>
+        <v>11.03</v>
       </c>
       <c r="C89" t="n">
-        <v>11.26</v>
+        <v>11.13</v>
       </c>
       <c r="D89" t="n">
-        <v>11.26</v>
+        <v>11.13</v>
       </c>
       <c r="E89" t="n">
-        <v>11.26</v>
+        <v>11.03</v>
       </c>
       <c r="F89" t="n">
-        <v>25646</v>
+        <v>52480.8813</v>
       </c>
       <c r="G89" t="n">
-        <v>375087.7699291009</v>
+        <v>413446.9504722417</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3994,22 +3920,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>11.27</v>
+        <v>11.13</v>
       </c>
       <c r="C90" t="n">
-        <v>11.26</v>
+        <v>11.13</v>
       </c>
       <c r="D90" t="n">
-        <v>11.27</v>
+        <v>11.13</v>
       </c>
       <c r="E90" t="n">
-        <v>11.26</v>
+        <v>11.13</v>
       </c>
       <c r="F90" t="n">
-        <v>12891.3788</v>
+        <v>30485.786</v>
       </c>
       <c r="G90" t="n">
-        <v>375087.7699291009</v>
+        <v>413446.9504722417</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4034,22 +3960,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>11.27</v>
+        <v>11.25</v>
       </c>
       <c r="C91" t="n">
-        <v>11.27</v>
+        <v>11.1</v>
       </c>
       <c r="D91" t="n">
-        <v>11.27</v>
+        <v>11.25</v>
       </c>
       <c r="E91" t="n">
-        <v>11.27</v>
+        <v>11.1</v>
       </c>
       <c r="F91" t="n">
-        <v>9442.650900000001</v>
+        <v>12363.0212</v>
       </c>
       <c r="G91" t="n">
-        <v>384530.4208291009</v>
+        <v>401083.9292722417</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4074,22 +4000,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>11.38</v>
+        <v>11.2</v>
       </c>
       <c r="C92" t="n">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="D92" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="E92" t="n">
-        <v>11.38</v>
+        <v>11.1</v>
       </c>
       <c r="F92" t="n">
-        <v>24211.2828</v>
+        <v>43442.0765</v>
       </c>
       <c r="G92" t="n">
-        <v>408741.7036291009</v>
+        <v>401083.9292722417</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4114,22 +4040,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>11.38</v>
+        <v>11.15</v>
       </c>
       <c r="C93" t="n">
-        <v>11.38</v>
+        <v>11.14</v>
       </c>
       <c r="D93" t="n">
-        <v>11.38</v>
+        <v>11.15</v>
       </c>
       <c r="E93" t="n">
-        <v>11.38</v>
+        <v>11.14</v>
       </c>
       <c r="F93" t="n">
-        <v>25485.35</v>
+        <v>17135.1428</v>
       </c>
       <c r="G93" t="n">
-        <v>383256.3536291009</v>
+        <v>418219.0720722417</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4154,22 +4080,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>11.42</v>
+        <v>11.32</v>
       </c>
       <c r="C94" t="n">
-        <v>11.42</v>
+        <v>11.35</v>
       </c>
       <c r="D94" t="n">
-        <v>11.42</v>
+        <v>11.35</v>
       </c>
       <c r="E94" t="n">
-        <v>11.42</v>
+        <v>11.32</v>
       </c>
       <c r="F94" t="n">
-        <v>8373.938399999999</v>
+        <v>263827.9862</v>
       </c>
       <c r="G94" t="n">
-        <v>391630.2920291009</v>
+        <v>682047.0582722416</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4194,22 +4120,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>11.42</v>
+        <v>11.22</v>
       </c>
       <c r="C95" t="n">
-        <v>11.47</v>
+        <v>11.22</v>
       </c>
       <c r="D95" t="n">
-        <v>11.47</v>
+        <v>11.22</v>
       </c>
       <c r="E95" t="n">
-        <v>11.42</v>
+        <v>11.22</v>
       </c>
       <c r="F95" t="n">
-        <v>178421.7664</v>
+        <v>100000</v>
       </c>
       <c r="G95" t="n">
-        <v>570052.0584291009</v>
+        <v>582047.0582722416</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4234,22 +4160,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.48</v>
+        <v>11.37</v>
       </c>
       <c r="C96" t="n">
-        <v>11.49</v>
+        <v>11.3</v>
       </c>
       <c r="D96" t="n">
-        <v>11.49</v>
+        <v>11.37</v>
       </c>
       <c r="E96" t="n">
-        <v>11.48</v>
+        <v>11.3</v>
       </c>
       <c r="F96" t="n">
-        <v>134910.3993</v>
+        <v>13592.9298</v>
       </c>
       <c r="G96" t="n">
-        <v>704962.4577291009</v>
+        <v>595639.9880722417</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4274,22 +4200,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11.49</v>
+        <v>11.3</v>
       </c>
       <c r="C97" t="n">
-        <v>11.49</v>
+        <v>11.3</v>
       </c>
       <c r="D97" t="n">
-        <v>11.49</v>
+        <v>11.3</v>
       </c>
       <c r="E97" t="n">
-        <v>11.49</v>
+        <v>11.3</v>
       </c>
       <c r="F97" t="n">
-        <v>24211.2828</v>
+        <v>31372.705</v>
       </c>
       <c r="G97" t="n">
-        <v>704962.4577291009</v>
+        <v>595639.9880722417</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4314,22 +4240,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="C98" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="D98" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="E98" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="F98" t="n">
-        <v>2000</v>
+        <v>18066.0141</v>
       </c>
       <c r="G98" t="n">
-        <v>706962.4577291009</v>
+        <v>613706.0021722417</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4354,22 +4280,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="C99" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="D99" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="E99" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="F99" t="n">
-        <v>7932.5618</v>
+        <v>40721.9477</v>
       </c>
       <c r="G99" t="n">
-        <v>706962.4577291009</v>
+        <v>613706.0021722417</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4394,22 +4320,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>11.54</v>
+        <v>11.4</v>
       </c>
       <c r="C100" t="n">
-        <v>11.49</v>
+        <v>11.3</v>
       </c>
       <c r="D100" t="n">
-        <v>11.54</v>
+        <v>11.41</v>
       </c>
       <c r="E100" t="n">
-        <v>11.49</v>
+        <v>11.3</v>
       </c>
       <c r="F100" t="n">
-        <v>35821.452</v>
+        <v>32349.4465</v>
       </c>
       <c r="G100" t="n">
-        <v>671141.0057291009</v>
+        <v>581356.5556722417</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4434,22 +4360,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>11.5</v>
+        <v>11.31</v>
       </c>
       <c r="C101" t="n">
-        <v>11.5</v>
+        <v>11.31</v>
       </c>
       <c r="D101" t="n">
-        <v>11.5</v>
+        <v>11.31</v>
       </c>
       <c r="E101" t="n">
-        <v>11.5</v>
+        <v>11.31</v>
       </c>
       <c r="F101" t="n">
-        <v>54800</v>
+        <v>18120.0576</v>
       </c>
       <c r="G101" t="n">
-        <v>725941.0057291009</v>
+        <v>599476.6132722418</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4474,22 +4400,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>11.5</v>
+        <v>11.31</v>
       </c>
       <c r="C102" t="n">
-        <v>11.5</v>
+        <v>11.31</v>
       </c>
       <c r="D102" t="n">
-        <v>11.5</v>
+        <v>11.31</v>
       </c>
       <c r="E102" t="n">
-        <v>11.5</v>
+        <v>11.31</v>
       </c>
       <c r="F102" t="n">
-        <v>55831.1318</v>
+        <v>701.551</v>
       </c>
       <c r="G102" t="n">
-        <v>725941.0057291009</v>
+        <v>599476.6132722418</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4514,22 +4440,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>11.5</v>
+        <v>11.31</v>
       </c>
       <c r="C103" t="n">
-        <v>11.5</v>
+        <v>11.31</v>
       </c>
       <c r="D103" t="n">
-        <v>11.5</v>
+        <v>11.31</v>
       </c>
       <c r="E103" t="n">
-        <v>11.5</v>
+        <v>11.31</v>
       </c>
       <c r="F103" t="n">
-        <v>314050.1168</v>
+        <v>3185.0166</v>
       </c>
       <c r="G103" t="n">
-        <v>725941.0057291009</v>
+        <v>599476.6132722418</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4566,10 +4492,10 @@
         <v>11.49</v>
       </c>
       <c r="F104" t="n">
-        <v>2300</v>
+        <v>25782.9393</v>
       </c>
       <c r="G104" t="n">
-        <v>723641.0057291009</v>
+        <v>625259.5525722418</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4594,22 +4520,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>11.66</v>
+        <v>11.49</v>
       </c>
       <c r="C105" t="n">
-        <v>11.69</v>
+        <v>11.33</v>
       </c>
       <c r="D105" t="n">
-        <v>11.69</v>
+        <v>11.49</v>
       </c>
       <c r="E105" t="n">
-        <v>11.66</v>
+        <v>11.33</v>
       </c>
       <c r="F105" t="n">
-        <v>104159.3663</v>
+        <v>12226.1517</v>
       </c>
       <c r="G105" t="n">
-        <v>827800.3720291009</v>
+        <v>613033.4008722417</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4634,22 +4560,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>11.69</v>
+        <v>11.33</v>
       </c>
       <c r="C106" t="n">
-        <v>11.69</v>
+        <v>11.33</v>
       </c>
       <c r="D106" t="n">
-        <v>11.69</v>
+        <v>11.33</v>
       </c>
       <c r="E106" t="n">
-        <v>11.69</v>
+        <v>11.33</v>
       </c>
       <c r="F106" t="n">
-        <v>42771</v>
+        <v>258174.3471</v>
       </c>
       <c r="G106" t="n">
-        <v>827800.3720291009</v>
+        <v>613033.4008722417</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4674,22 +4600,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>11.7</v>
+        <v>11.49</v>
       </c>
       <c r="C107" t="n">
-        <v>11.7</v>
+        <v>11.49</v>
       </c>
       <c r="D107" t="n">
-        <v>11.7</v>
+        <v>11.49</v>
       </c>
       <c r="E107" t="n">
-        <v>11.7</v>
+        <v>11.49</v>
       </c>
       <c r="F107" t="n">
-        <v>56780.7692</v>
+        <v>5714.1387</v>
       </c>
       <c r="G107" t="n">
-        <v>884581.1412291009</v>
+        <v>618747.5395722417</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4714,22 +4640,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>11.71</v>
+        <v>11.49</v>
       </c>
       <c r="C108" t="n">
-        <v>11.79</v>
+        <v>11.49</v>
       </c>
       <c r="D108" t="n">
-        <v>11.8</v>
+        <v>11.49</v>
       </c>
       <c r="E108" t="n">
-        <v>11.57</v>
+        <v>11.49</v>
       </c>
       <c r="F108" t="n">
-        <v>246874.8274</v>
+        <v>2221.0617</v>
       </c>
       <c r="G108" t="n">
-        <v>1131455.968629101</v>
+        <v>618747.5395722417</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4754,22 +4680,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>11.7</v>
+        <v>11.49</v>
       </c>
       <c r="C109" t="n">
-        <v>11.7</v>
+        <v>11.49</v>
       </c>
       <c r="D109" t="n">
-        <v>11.7</v>
+        <v>11.49</v>
       </c>
       <c r="E109" t="n">
-        <v>11.7</v>
+        <v>11.49</v>
       </c>
       <c r="F109" t="n">
-        <v>80937.6574</v>
+        <v>7067.6876</v>
       </c>
       <c r="G109" t="n">
-        <v>1050518.311229101</v>
+        <v>618747.5395722417</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4794,22 +4720,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>11.8</v>
+        <v>11.45</v>
       </c>
       <c r="C110" t="n">
-        <v>11.8</v>
+        <v>11.44</v>
       </c>
       <c r="D110" t="n">
-        <v>11.8</v>
+        <v>11.45</v>
       </c>
       <c r="E110" t="n">
-        <v>11.8</v>
+        <v>11.44</v>
       </c>
       <c r="F110" t="n">
-        <v>106303.9457</v>
+        <v>10000</v>
       </c>
       <c r="G110" t="n">
-        <v>1156822.256929101</v>
+        <v>608747.5395722417</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4834,22 +4760,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>11.8</v>
+        <v>11.49</v>
       </c>
       <c r="C111" t="n">
-        <v>11.8</v>
+        <v>11.54</v>
       </c>
       <c r="D111" t="n">
-        <v>11.83</v>
+        <v>11.54</v>
       </c>
       <c r="E111" t="n">
-        <v>11.8</v>
+        <v>11.49</v>
       </c>
       <c r="F111" t="n">
-        <v>90992.232</v>
+        <v>6717.1952</v>
       </c>
       <c r="G111" t="n">
-        <v>1156822.256929101</v>
+        <v>615464.7347722417</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4874,22 +4800,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>11.8</v>
+        <v>11.59</v>
       </c>
       <c r="C112" t="n">
-        <v>11.8</v>
+        <v>11.59</v>
       </c>
       <c r="D112" t="n">
-        <v>11.8</v>
+        <v>11.59</v>
       </c>
       <c r="E112" t="n">
-        <v>11.7</v>
+        <v>11.59</v>
       </c>
       <c r="F112" t="n">
-        <v>78164.6269</v>
+        <v>17655.5255</v>
       </c>
       <c r="G112" t="n">
-        <v>1156822.256929101</v>
+        <v>633120.2602722417</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4914,22 +4840,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>11.8</v>
+        <v>11.55</v>
       </c>
       <c r="C113" t="n">
-        <v>11.8</v>
+        <v>11.59</v>
       </c>
       <c r="D113" t="n">
-        <v>11.8</v>
+        <v>11.59</v>
       </c>
       <c r="E113" t="n">
-        <v>11.7</v>
+        <v>11.55</v>
       </c>
       <c r="F113" t="n">
-        <v>127737.6338</v>
+        <v>104835.3387</v>
       </c>
       <c r="G113" t="n">
-        <v>1156822.256929101</v>
+        <v>633120.2602722417</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4954,37 +4880,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>11.8</v>
+        <v>11.59</v>
       </c>
       <c r="C114" t="n">
-        <v>11.8</v>
+        <v>11.62</v>
       </c>
       <c r="D114" t="n">
-        <v>11.8</v>
+        <v>11.62</v>
       </c>
       <c r="E114" t="n">
-        <v>11.8</v>
+        <v>11.59</v>
       </c>
       <c r="F114" t="n">
-        <v>34264.635</v>
+        <v>29400</v>
       </c>
       <c r="G114" t="n">
-        <v>1156822.256929101</v>
+        <v>662520.2602722417</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
       <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
@@ -4992,22 +4920,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>11.62</v>
+        <v>11.54</v>
       </c>
       <c r="C115" t="n">
-        <v>11.62</v>
+        <v>11.42</v>
       </c>
       <c r="D115" t="n">
-        <v>11.62</v>
+        <v>11.54</v>
       </c>
       <c r="E115" t="n">
-        <v>11.62</v>
+        <v>11.42</v>
       </c>
       <c r="F115" t="n">
-        <v>1494.5756</v>
+        <v>111972.3703</v>
       </c>
       <c r="G115" t="n">
-        <v>1155327.681329101</v>
+        <v>550547.8899722417</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5017,7 +4945,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5028,22 +4960,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="C116" t="n">
         <v>11.63</v>
-      </c>
-      <c r="C116" t="n">
-        <v>11.55</v>
       </c>
       <c r="D116" t="n">
         <v>11.63</v>
       </c>
       <c r="E116" t="n">
-        <v>11.55</v>
+        <v>11.62</v>
       </c>
       <c r="F116" t="n">
-        <v>54563.2194</v>
+        <v>127033.7312</v>
       </c>
       <c r="G116" t="n">
-        <v>1100764.461929101</v>
+        <v>677581.6211722418</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5053,7 +4985,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5064,22 +5000,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>11.58</v>
+        <v>11.62</v>
       </c>
       <c r="C117" t="n">
-        <v>11.58</v>
+        <v>11.62</v>
       </c>
       <c r="D117" t="n">
-        <v>11.58</v>
+        <v>11.68</v>
       </c>
       <c r="E117" t="n">
-        <v>11.58</v>
+        <v>11.62</v>
       </c>
       <c r="F117" t="n">
-        <v>49737</v>
+        <v>113279.0939</v>
       </c>
       <c r="G117" t="n">
-        <v>1150501.461929101</v>
+        <v>564302.5272722418</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5089,7 +5025,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5100,22 +5040,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>11.69</v>
+        <v>11.68</v>
       </c>
       <c r="C118" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="D118" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="E118" t="n">
-        <v>11.69</v>
+        <v>11.62</v>
       </c>
       <c r="F118" t="n">
-        <v>15000</v>
+        <v>8405.1513</v>
       </c>
       <c r="G118" t="n">
-        <v>1165501.461929101</v>
+        <v>572707.6785722418</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5125,7 +5065,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5136,22 +5080,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>11.58</v>
+        <v>11.7</v>
       </c>
       <c r="C119" t="n">
-        <v>11.58</v>
+        <v>11.71</v>
       </c>
       <c r="D119" t="n">
-        <v>11.58</v>
+        <v>11.71</v>
       </c>
       <c r="E119" t="n">
-        <v>11.58</v>
+        <v>11.7</v>
       </c>
       <c r="F119" t="n">
-        <v>61200</v>
+        <v>190</v>
       </c>
       <c r="G119" t="n">
-        <v>1104301.461929101</v>
+        <v>572897.6785722418</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5161,7 +5105,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5172,32 +5120,36 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>11.74</v>
+        <v>11.66</v>
       </c>
       <c r="C120" t="n">
-        <v>11.68</v>
+        <v>11.62</v>
       </c>
       <c r="D120" t="n">
-        <v>11.74</v>
+        <v>11.66</v>
       </c>
       <c r="E120" t="n">
-        <v>11.68</v>
+        <v>11.62</v>
       </c>
       <c r="F120" t="n">
-        <v>88</v>
+        <v>151035.6059</v>
       </c>
       <c r="G120" t="n">
-        <v>1104389.461929101</v>
+        <v>421862.0726722418</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5208,32 +5160,36 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>11.67</v>
+        <v>11.51</v>
       </c>
       <c r="C121" t="n">
-        <v>11.67</v>
+        <v>11.51</v>
       </c>
       <c r="D121" t="n">
-        <v>11.67</v>
+        <v>11.51</v>
       </c>
       <c r="E121" t="n">
-        <v>11.67</v>
+        <v>11.51</v>
       </c>
       <c r="F121" t="n">
-        <v>44</v>
+        <v>2656.266</v>
       </c>
       <c r="G121" t="n">
-        <v>1104345.461929101</v>
+        <v>419205.8066722418</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5244,32 +5200,36 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>11.66</v>
+        <v>11.51</v>
       </c>
       <c r="C122" t="n">
-        <v>11.59</v>
+        <v>11.51</v>
       </c>
       <c r="D122" t="n">
-        <v>11.66</v>
+        <v>11.51</v>
       </c>
       <c r="E122" t="n">
-        <v>11.59</v>
+        <v>11.51</v>
       </c>
       <c r="F122" t="n">
-        <v>7155.8609</v>
+        <v>43440.486</v>
       </c>
       <c r="G122" t="n">
-        <v>1097189.601029101</v>
+        <v>419205.8066722418</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5280,32 +5240,36 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>11.66</v>
+        <v>11.69</v>
       </c>
       <c r="C123" t="n">
-        <v>11.66</v>
+        <v>11.69</v>
       </c>
       <c r="D123" t="n">
-        <v>11.66</v>
+        <v>11.69</v>
       </c>
       <c r="E123" t="n">
-        <v>11.66</v>
+        <v>11.69</v>
       </c>
       <c r="F123" t="n">
-        <v>44</v>
+        <v>17108.63986313088</v>
       </c>
       <c r="G123" t="n">
-        <v>1097233.601029101</v>
+        <v>436314.4465353727</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5316,22 +5280,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>11.69</v>
+        <v>11.5</v>
       </c>
       <c r="C124" t="n">
-        <v>11.69</v>
+        <v>11.5</v>
       </c>
       <c r="D124" t="n">
-        <v>11.69</v>
+        <v>11.5</v>
       </c>
       <c r="E124" t="n">
-        <v>11.69</v>
+        <v>11.5</v>
       </c>
       <c r="F124" t="n">
-        <v>27371.658</v>
+        <v>2500</v>
       </c>
       <c r="G124" t="n">
-        <v>1124605.259029101</v>
+        <v>433814.4465353727</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5341,7 +5305,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5352,32 +5320,36 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>11.78</v>
+        <v>11.58</v>
       </c>
       <c r="C125" t="n">
-        <v>11.78</v>
+        <v>11.5</v>
       </c>
       <c r="D125" t="n">
-        <v>11.78</v>
+        <v>11.58</v>
       </c>
       <c r="E125" t="n">
-        <v>11.78</v>
+        <v>11.5</v>
       </c>
       <c r="F125" t="n">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="G125" t="n">
-        <v>1124649.259029101</v>
+        <v>433814.4465353727</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5388,32 +5360,36 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>11.61</v>
+        <v>11.52</v>
       </c>
       <c r="C126" t="n">
-        <v>11.61</v>
+        <v>11.52</v>
       </c>
       <c r="D126" t="n">
-        <v>11.62</v>
+        <v>11.52</v>
       </c>
       <c r="E126" t="n">
-        <v>11.61</v>
+        <v>11.52</v>
       </c>
       <c r="F126" t="n">
-        <v>140000</v>
+        <v>30190.3071</v>
       </c>
       <c r="G126" t="n">
-        <v>984649.2590291009</v>
+        <v>464004.7536353727</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5424,32 +5400,36 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>11.62</v>
+        <v>11.52</v>
       </c>
       <c r="C127" t="n">
-        <v>11.62</v>
+        <v>11.5</v>
       </c>
       <c r="D127" t="n">
-        <v>11.62</v>
+        <v>11.52</v>
       </c>
       <c r="E127" t="n">
-        <v>11.62</v>
+        <v>11.5</v>
       </c>
       <c r="F127" t="n">
-        <v>86.0586</v>
+        <v>41340.7388</v>
       </c>
       <c r="G127" t="n">
-        <v>984735.3176291009</v>
+        <v>422664.0148353727</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5460,32 +5440,36 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>11.62</v>
+        <v>11.42</v>
       </c>
       <c r="C128" t="n">
-        <v>11.62</v>
+        <v>11.4</v>
       </c>
       <c r="D128" t="n">
-        <v>11.62</v>
+        <v>11.42</v>
       </c>
       <c r="E128" t="n">
-        <v>11.62</v>
+        <v>11.4</v>
       </c>
       <c r="F128" t="n">
-        <v>88132.62149999999</v>
+        <v>7071.1874</v>
       </c>
       <c r="G128" t="n">
-        <v>984735.3176291009</v>
+        <v>415592.8274353727</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5496,32 +5480,36 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>11.62</v>
+        <v>11.48</v>
       </c>
       <c r="C129" t="n">
-        <v>11.61</v>
+        <v>11.48</v>
       </c>
       <c r="D129" t="n">
-        <v>11.62</v>
+        <v>11.48</v>
       </c>
       <c r="E129" t="n">
-        <v>11.61</v>
+        <v>11.48</v>
       </c>
       <c r="F129" t="n">
-        <v>59887.5125</v>
+        <v>8710.801393728223</v>
       </c>
       <c r="G129" t="n">
-        <v>924847.8051291009</v>
+        <v>424303.6288291009</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5532,32 +5520,36 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>11.76</v>
+        <v>11.41</v>
       </c>
       <c r="C130" t="n">
-        <v>11.76</v>
+        <v>11.38</v>
       </c>
       <c r="D130" t="n">
-        <v>11.76</v>
+        <v>11.41</v>
       </c>
       <c r="E130" t="n">
-        <v>11.76</v>
+        <v>11.38</v>
       </c>
       <c r="F130" t="n">
-        <v>500</v>
+        <v>14895.0895</v>
       </c>
       <c r="G130" t="n">
-        <v>925347.8051291009</v>
+        <v>409408.5393291009</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5568,32 +5560,36 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>11.64</v>
+        <v>11.48</v>
       </c>
       <c r="C131" t="n">
-        <v>11.6</v>
+        <v>11.35</v>
       </c>
       <c r="D131" t="n">
-        <v>11.64</v>
+        <v>11.48</v>
       </c>
       <c r="E131" t="n">
-        <v>11.6</v>
+        <v>11.35</v>
       </c>
       <c r="F131" t="n">
-        <v>188121.1343</v>
+        <v>18699.3805</v>
       </c>
       <c r="G131" t="n">
-        <v>737226.6708291009</v>
+        <v>390709.1588291009</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5604,32 +5600,36 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>11.6</v>
+        <v>11.35</v>
       </c>
       <c r="C132" t="n">
-        <v>11.6</v>
+        <v>11.31</v>
       </c>
       <c r="D132" t="n">
-        <v>11.6</v>
+        <v>11.35</v>
       </c>
       <c r="E132" t="n">
-        <v>11.59</v>
+        <v>11.31</v>
       </c>
       <c r="F132" t="n">
-        <v>19921.2938</v>
+        <v>147833.7312</v>
       </c>
       <c r="G132" t="n">
-        <v>737226.6708291009</v>
+        <v>242875.4276291009</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5640,32 +5640,36 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>11.6</v>
+        <v>11.31</v>
       </c>
       <c r="C133" t="n">
-        <v>11.6</v>
+        <v>11.31</v>
       </c>
       <c r="D133" t="n">
-        <v>11.6</v>
+        <v>11.31</v>
       </c>
       <c r="E133" t="n">
-        <v>11.6</v>
+        <v>11.31</v>
       </c>
       <c r="F133" t="n">
-        <v>34700.9274</v>
+        <v>34157.0499</v>
       </c>
       <c r="G133" t="n">
-        <v>737226.6708291009</v>
+        <v>242875.4276291009</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5676,32 +5680,36 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>11.6</v>
+        <v>11.36</v>
       </c>
       <c r="C134" t="n">
-        <v>11.6</v>
+        <v>11.36</v>
       </c>
       <c r="D134" t="n">
-        <v>11.6</v>
+        <v>11.36</v>
       </c>
       <c r="E134" t="n">
-        <v>11.6</v>
+        <v>11.36</v>
       </c>
       <c r="F134" t="n">
-        <v>30428.8233</v>
+        <v>157.5</v>
       </c>
       <c r="G134" t="n">
-        <v>737226.6708291009</v>
+        <v>243032.9276291009</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5712,32 +5720,36 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>11.6</v>
+        <v>11.36</v>
       </c>
       <c r="C135" t="n">
-        <v>11.6</v>
+        <v>11.36</v>
       </c>
       <c r="D135" t="n">
-        <v>11.6</v>
+        <v>11.36</v>
       </c>
       <c r="E135" t="n">
-        <v>11.6</v>
+        <v>11.36</v>
       </c>
       <c r="F135" t="n">
-        <v>86576.933</v>
+        <v>3092.5</v>
       </c>
       <c r="G135" t="n">
-        <v>737226.6708291009</v>
+        <v>243032.9276291009</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5748,32 +5760,36 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>11.6</v>
+        <v>11.31</v>
       </c>
       <c r="C136" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="D136" t="n">
-        <v>11.6</v>
+        <v>11.31</v>
       </c>
       <c r="E136" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="F136" t="n">
-        <v>31551.9702</v>
+        <v>5704.152</v>
       </c>
       <c r="G136" t="n">
-        <v>737226.6708291009</v>
+        <v>237328.7756291009</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5784,32 +5800,36 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>11.59</v>
+        <v>11.3</v>
       </c>
       <c r="C137" t="n">
-        <v>11.55</v>
+        <v>11.3</v>
       </c>
       <c r="D137" t="n">
-        <v>11.59</v>
+        <v>11.3</v>
       </c>
       <c r="E137" t="n">
-        <v>11.55</v>
+        <v>11.3</v>
       </c>
       <c r="F137" t="n">
-        <v>523627.0548</v>
+        <v>10074.5883</v>
       </c>
       <c r="G137" t="n">
-        <v>213599.6160291009</v>
+        <v>237328.7756291009</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5820,32 +5840,36 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>11.55</v>
+        <v>11.29</v>
       </c>
       <c r="C138" t="n">
-        <v>11.55</v>
+        <v>11.24</v>
       </c>
       <c r="D138" t="n">
-        <v>11.55</v>
+        <v>11.29</v>
       </c>
       <c r="E138" t="n">
-        <v>11.55</v>
+        <v>11.24</v>
       </c>
       <c r="F138" t="n">
-        <v>25909.2562</v>
+        <v>1762.8096</v>
       </c>
       <c r="G138" t="n">
-        <v>213599.6160291009</v>
+        <v>235565.9660291009</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5856,32 +5880,36 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>11.54</v>
+        <v>11.24</v>
       </c>
       <c r="C139" t="n">
-        <v>11.54</v>
+        <v>11.24</v>
       </c>
       <c r="D139" t="n">
-        <v>11.54</v>
+        <v>11.24</v>
       </c>
       <c r="E139" t="n">
-        <v>11.54</v>
+        <v>11.24</v>
       </c>
       <c r="F139" t="n">
-        <v>86741.0401</v>
+        <v>5632.0934</v>
       </c>
       <c r="G139" t="n">
-        <v>126858.5759291009</v>
+        <v>235565.9660291009</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5892,22 +5920,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>11.55</v>
+        <v>11.24</v>
       </c>
       <c r="C140" t="n">
-        <v>11.55</v>
+        <v>11.22</v>
       </c>
       <c r="D140" t="n">
-        <v>11.55</v>
+        <v>11.24</v>
       </c>
       <c r="E140" t="n">
-        <v>11.55</v>
+        <v>11.22</v>
       </c>
       <c r="F140" t="n">
-        <v>51184.638</v>
+        <v>15034.9081</v>
       </c>
       <c r="G140" t="n">
-        <v>178043.2139291009</v>
+        <v>220531.0579291009</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5917,7 +5945,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5928,32 +5960,36 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>11.54</v>
+        <v>11.23</v>
       </c>
       <c r="C141" t="n">
-        <v>11.54</v>
+        <v>11.23</v>
       </c>
       <c r="D141" t="n">
-        <v>11.54</v>
+        <v>11.23</v>
       </c>
       <c r="E141" t="n">
-        <v>11.54</v>
+        <v>11.23</v>
       </c>
       <c r="F141" t="n">
-        <v>88470.9047</v>
+        <v>3956.7766</v>
       </c>
       <c r="G141" t="n">
-        <v>89572.30922910089</v>
+        <v>224487.8345291009</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5964,22 +6000,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>11.54</v>
+        <v>11.23</v>
       </c>
       <c r="C142" t="n">
-        <v>11.54</v>
+        <v>11.23</v>
       </c>
       <c r="D142" t="n">
-        <v>11.54</v>
+        <v>11.23</v>
       </c>
       <c r="E142" t="n">
-        <v>11.54</v>
+        <v>11.23</v>
       </c>
       <c r="F142" t="n">
-        <v>21529.0953</v>
+        <v>33.9734</v>
       </c>
       <c r="G142" t="n">
-        <v>89572.30922910089</v>
+        <v>224487.8345291009</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5989,7 +6025,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6000,32 +6040,36 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>11.69</v>
+        <v>11.23</v>
       </c>
       <c r="C143" t="n">
-        <v>11.69</v>
+        <v>11.22</v>
       </c>
       <c r="D143" t="n">
-        <v>11.69</v>
+        <v>11.23</v>
       </c>
       <c r="E143" t="n">
-        <v>11.69</v>
+        <v>11.22</v>
       </c>
       <c r="F143" t="n">
-        <v>1000</v>
+        <v>9515.562</v>
       </c>
       <c r="G143" t="n">
-        <v>90572.30922910089</v>
+        <v>214972.2725291009</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6036,32 +6080,36 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>11.69</v>
+        <v>11.23</v>
       </c>
       <c r="C144" t="n">
-        <v>11.69</v>
+        <v>11.26</v>
       </c>
       <c r="D144" t="n">
-        <v>11.69</v>
+        <v>11.26</v>
       </c>
       <c r="E144" t="n">
-        <v>11.69</v>
+        <v>11.16</v>
       </c>
       <c r="F144" t="n">
-        <v>2087.0825</v>
+        <v>130773</v>
       </c>
       <c r="G144" t="n">
-        <v>90572.30922910089</v>
+        <v>345745.2725291009</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6072,32 +6120,36 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>11.69</v>
+        <v>11.26</v>
       </c>
       <c r="C145" t="n">
-        <v>11.69</v>
+        <v>11.26</v>
       </c>
       <c r="D145" t="n">
-        <v>11.69</v>
+        <v>11.26</v>
       </c>
       <c r="E145" t="n">
-        <v>11.69</v>
+        <v>11.26</v>
       </c>
       <c r="F145" t="n">
-        <v>299699.0614</v>
+        <v>4518</v>
       </c>
       <c r="G145" t="n">
-        <v>90572.30922910089</v>
+        <v>345745.2725291009</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6108,32 +6160,36 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>11.69</v>
+        <v>11.16</v>
       </c>
       <c r="C146" t="n">
-        <v>11.7</v>
+        <v>11.16</v>
       </c>
       <c r="D146" t="n">
-        <v>11.7</v>
+        <v>11.16</v>
       </c>
       <c r="E146" t="n">
-        <v>11.69</v>
+        <v>11.16</v>
       </c>
       <c r="F146" t="n">
-        <v>18458</v>
+        <v>4409.4533</v>
       </c>
       <c r="G146" t="n">
-        <v>109030.3092291009</v>
+        <v>341335.8192291009</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6144,36 +6200,2726 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>11.7</v>
+        <v>11.2</v>
       </c>
       <c r="C147" t="n">
-        <v>11.7</v>
+        <v>11.18</v>
       </c>
       <c r="D147" t="n">
-        <v>11.7</v>
+        <v>11.2</v>
       </c>
       <c r="E147" t="n">
-        <v>11.7</v>
+        <v>11.18</v>
       </c>
       <c r="F147" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G147" t="n">
-        <v>109030.3092291009</v>
+        <v>344335.8192291009</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
       <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C148" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E148" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>55570.9105</v>
+      </c>
+      <c r="G148" t="n">
+        <v>399906.7297291009</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="C149" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="D149" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="E149" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="F149" t="n">
+        <v>4117.318</v>
+      </c>
+      <c r="G149" t="n">
+        <v>395789.4117291009</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="C150" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="D150" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="E150" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3039</v>
+      </c>
+      <c r="G150" t="n">
+        <v>395789.4117291009</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="C151" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="D151" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="E151" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="F151" t="n">
+        <v>8860.8943</v>
+      </c>
+      <c r="G151" t="n">
+        <v>404650.3060291008</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="C152" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="D152" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="E152" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="F152" t="n">
+        <v>37225.7561</v>
+      </c>
+      <c r="G152" t="n">
+        <v>367424.5499291008</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C153" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D153" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E153" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F153" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G153" t="n">
+        <v>377424.5499291008</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C154" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D154" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E154" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F154" t="n">
+        <v>24659.7303</v>
+      </c>
+      <c r="G154" t="n">
+        <v>377424.5499291008</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="C155" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="D155" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="E155" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G155" t="n">
+        <v>378924.5499291008</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="C156" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="D156" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="E156" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="F156" t="n">
+        <v>21226.6916</v>
+      </c>
+      <c r="G156" t="n">
+        <v>378924.5499291008</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="C157" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="D157" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="E157" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="F157" t="n">
+        <v>3763.0658</v>
+      </c>
+      <c r="G157" t="n">
+        <v>375161.4841291009</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="C158" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="D158" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="E158" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="F158" t="n">
+        <v>17444.799</v>
+      </c>
+      <c r="G158" t="n">
+        <v>375161.4841291009</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="C159" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="D159" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="E159" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="F159" t="n">
+        <v>73.71420000000001</v>
+      </c>
+      <c r="G159" t="n">
+        <v>375087.7699291009</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="C160" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="D160" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="E160" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="F160" t="n">
+        <v>25646</v>
+      </c>
+      <c r="G160" t="n">
+        <v>375087.7699291009</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="C161" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="D161" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="E161" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="F161" t="n">
+        <v>12891.3788</v>
+      </c>
+      <c r="G161" t="n">
+        <v>375087.7699291009</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="C162" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="D162" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="E162" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="F162" t="n">
+        <v>9442.650900000001</v>
+      </c>
+      <c r="G162" t="n">
+        <v>384530.4208291009</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="C163" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D163" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E163" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="F163" t="n">
+        <v>24211.2828</v>
+      </c>
+      <c r="G163" t="n">
+        <v>408741.7036291009</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="C164" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="D164" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="E164" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="F164" t="n">
+        <v>25485.35</v>
+      </c>
+      <c r="G164" t="n">
+        <v>383256.3536291009</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="C165" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="D165" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="E165" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="F165" t="n">
+        <v>8373.938399999999</v>
+      </c>
+      <c r="G165" t="n">
+        <v>391630.2920291009</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="C166" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="D166" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="E166" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="F166" t="n">
+        <v>178421.7664</v>
+      </c>
+      <c r="G166" t="n">
+        <v>570052.0584291009</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="C167" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="D167" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="E167" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="F167" t="n">
+        <v>134910.3993</v>
+      </c>
+      <c r="G167" t="n">
+        <v>704962.4577291009</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="C168" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="D168" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="E168" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="F168" t="n">
+        <v>24211.2828</v>
+      </c>
+      <c r="G168" t="n">
+        <v>704962.4577291009</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C169" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D169" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E169" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G169" t="n">
+        <v>706962.4577291009</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C170" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D170" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E170" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F170" t="n">
+        <v>7932.5618</v>
+      </c>
+      <c r="G170" t="n">
+        <v>706962.4577291009</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="C171" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="D171" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="E171" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="F171" t="n">
+        <v>35821.452</v>
+      </c>
+      <c r="G171" t="n">
+        <v>671141.0057291009</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C172" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D172" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E172" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F172" t="n">
+        <v>54800</v>
+      </c>
+      <c r="G172" t="n">
+        <v>725941.0057291009</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C173" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D173" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E173" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F173" t="n">
+        <v>55831.1318</v>
+      </c>
+      <c r="G173" t="n">
+        <v>725941.0057291009</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C174" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D174" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E174" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F174" t="n">
+        <v>314050.1168</v>
+      </c>
+      <c r="G174" t="n">
+        <v>725941.0057291009</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="C175" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="D175" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="E175" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2300</v>
+      </c>
+      <c r="G175" t="n">
+        <v>723641.0057291009</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="C176" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D176" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E176" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="F176" t="n">
+        <v>104159.3663</v>
+      </c>
+      <c r="G176" t="n">
+        <v>827800.3720291009</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C177" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D177" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E177" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F177" t="n">
+        <v>42771</v>
+      </c>
+      <c r="G177" t="n">
+        <v>827800.3720291009</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C178" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D178" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E178" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F178" t="n">
+        <v>56780.7692</v>
+      </c>
+      <c r="G178" t="n">
+        <v>884581.1412291009</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="C179" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="D179" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E179" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="F179" t="n">
+        <v>246874.8274</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1131455.968629101</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C180" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D180" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E180" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F180" t="n">
+        <v>80937.6574</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1050518.311229101</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C181" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D181" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E181" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F181" t="n">
+        <v>106303.9457</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1156822.256929101</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C182" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D182" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="E182" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F182" t="n">
+        <v>90992.232</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1156822.256929101</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C183" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D183" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E183" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F183" t="n">
+        <v>78164.6269</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1156822.256929101</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C184" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D184" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E184" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F184" t="n">
+        <v>127737.6338</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1156822.256929101</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C185" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D185" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E185" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F185" t="n">
+        <v>34264.635</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1156822.256929101</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="C186" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="D186" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="E186" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1494.5756</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1155327.681329101</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="C187" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D187" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="E187" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F187" t="n">
+        <v>54563.2194</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1100764.461929101</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="C188" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="D188" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="E188" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="F188" t="n">
+        <v>49737</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1150501.461929101</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C189" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D189" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E189" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F189" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1165501.461929101</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="C190" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="D190" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="E190" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="F190" t="n">
+        <v>61200</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1104301.461929101</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="C191" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="D191" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="E191" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F191" t="n">
+        <v>88</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1104389.461929101</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C192" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D192" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E192" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F192" t="n">
+        <v>44</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1104345.461929101</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="C193" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="D193" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="E193" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="F193" t="n">
+        <v>7155.8609</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1097189.601029101</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="C194" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="D194" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="E194" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="F194" t="n">
+        <v>44</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1097233.601029101</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C195" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D195" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E195" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F195" t="n">
+        <v>27371.658</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1124605.259029101</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="C196" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="D196" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="E196" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="F196" t="n">
+        <v>44</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1124649.259029101</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="C197" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="D197" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="E197" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="F197" t="n">
+        <v>140000</v>
+      </c>
+      <c r="G197" t="n">
+        <v>984649.2590291009</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="C198" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="D198" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="E198" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="F198" t="n">
+        <v>86.0586</v>
+      </c>
+      <c r="G198" t="n">
+        <v>984735.3176291009</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="C199" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="D199" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="E199" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="F199" t="n">
+        <v>88132.62149999999</v>
+      </c>
+      <c r="G199" t="n">
+        <v>984735.3176291009</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="C200" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="D200" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="E200" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="F200" t="n">
+        <v>59887.5125</v>
+      </c>
+      <c r="G200" t="n">
+        <v>924847.8051291009</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="C201" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="D201" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="E201" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="F201" t="n">
+        <v>500</v>
+      </c>
+      <c r="G201" t="n">
+        <v>925347.8051291009</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="C202" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D202" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="E202" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F202" t="n">
+        <v>188121.1343</v>
+      </c>
+      <c r="G202" t="n">
+        <v>737226.6708291009</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C203" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D203" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E203" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="F203" t="n">
+        <v>19921.2938</v>
+      </c>
+      <c r="G203" t="n">
+        <v>737226.6708291009</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C204" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D204" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E204" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F204" t="n">
+        <v>34700.9274</v>
+      </c>
+      <c r="G204" t="n">
+        <v>737226.6708291009</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C205" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D205" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E205" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F205" t="n">
+        <v>30428.8233</v>
+      </c>
+      <c r="G205" t="n">
+        <v>737226.6708291009</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C206" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D206" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E206" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F206" t="n">
+        <v>86576.933</v>
+      </c>
+      <c r="G206" t="n">
+        <v>737226.6708291009</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C207" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D207" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E207" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F207" t="n">
+        <v>31551.9702</v>
+      </c>
+      <c r="G207" t="n">
+        <v>737226.6708291009</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="C208" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D208" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="E208" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F208" t="n">
+        <v>523627.0548</v>
+      </c>
+      <c r="G208" t="n">
+        <v>213599.6160291009</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C209" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D209" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E209" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F209" t="n">
+        <v>25909.2562</v>
+      </c>
+      <c r="G209" t="n">
+        <v>213599.6160291009</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="C210" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="D210" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="E210" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="F210" t="n">
+        <v>86741.0401</v>
+      </c>
+      <c r="G210" t="n">
+        <v>126858.5759291009</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C211" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D211" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E211" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F211" t="n">
+        <v>51184.638</v>
+      </c>
+      <c r="G211" t="n">
+        <v>178043.2139291009</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="C212" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="D212" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="E212" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="F212" t="n">
+        <v>88470.9047</v>
+      </c>
+      <c r="G212" t="n">
+        <v>89572.30922910089</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="C213" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="D213" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="E213" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="F213" t="n">
+        <v>21529.0953</v>
+      </c>
+      <c r="G213" t="n">
+        <v>89572.30922910089</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C214" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D214" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E214" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G214" t="n">
+        <v>90572.30922910089</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C215" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D215" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E215" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F215" t="n">
+        <v>2087.0825</v>
+      </c>
+      <c r="G215" t="n">
+        <v>90572.30922910089</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C216" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D216" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E216" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F216" t="n">
+        <v>299699.0614</v>
+      </c>
+      <c r="G216" t="n">
+        <v>90572.30922910089</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C217" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D217" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E217" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F217" t="n">
+        <v>18458</v>
+      </c>
+      <c r="G217" t="n">
+        <v>109030.3092291009</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C218" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D218" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E218" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G218" t="n">
+        <v>109030.3092291009</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest SNT.xlsx
+++ b/BackTest/2020-01-16 BackTest SNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N218"/>
+  <dimension ref="A1:M218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-1096484.7472</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-1096484.7472</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.83</v>
       </c>
       <c r="J3" t="n">
         <v>10.83</v>
       </c>
-      <c r="K3" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>-929043.8232000003</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>10.83</v>
       </c>
       <c r="J4" t="n">
         <v>10.83</v>
       </c>
-      <c r="K4" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +562,23 @@
         <v>-929043.8232000003</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="J5" t="n">
         <v>10.83</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,16 +605,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -656,16 +638,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -692,16 +671,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -728,16 +704,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -764,16 +737,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -800,16 +770,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -836,16 +803,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -872,16 +836,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -908,16 +869,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -944,16 +902,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -980,16 +935,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1016,16 +968,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1052,16 +1001,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1086,24 +1032,21 @@
         <v>-365063.6893000004</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
         <v>10.94</v>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1128,24 +1071,21 @@
         <v>-371720.4376000004</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
         <v>10.9</v>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1170,24 +1110,21 @@
         <v>-379123.6331000004</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
         <v>10.89</v>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1212,24 +1149,21 @@
         <v>-379123.6331000004</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
         <v>10.88</v>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1254,24 +1188,21 @@
         <v>-379123.6331000004</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
         <v>10.88</v>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1296,24 +1227,19 @@
         <v>-125908.7824000004</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>10.88</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1340,20 +1266,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1380,20 +1303,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1420,20 +1340,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1458,22 +1375,21 @@
         <v>-125443.9158000004</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>10.92</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1498,22 +1414,21 @@
         <v>-180643.9158000004</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>11.01</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1538,22 +1453,21 @@
         <v>-180643.9157000004</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1578,22 +1492,21 @@
         <v>-166914.1262000003</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>11.01</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1618,22 +1531,21 @@
         <v>-174700.0100000004</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>11.02</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1660,20 +1572,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1700,20 +1609,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1740,20 +1646,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1780,20 +1683,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1820,20 +1720,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1860,20 +1757,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1900,20 +1794,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1940,20 +1831,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1980,20 +1868,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2020,20 +1905,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2060,20 +1942,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2100,20 +1979,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2140,20 +2016,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2180,20 +2053,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2218,22 +2088,21 @@
         <v>-227347.3757000004</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2258,22 +2127,21 @@
         <v>-227347.3757000004</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2298,22 +2166,21 @@
         <v>-227488.6899000004</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2338,22 +2205,21 @@
         <v>-454671.0006000004</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>10.93</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2378,22 +2244,21 @@
         <v>-454671.0006000004</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2420,20 +2285,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2460,20 +2322,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2500,20 +2359,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2540,20 +2396,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2580,20 +2433,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2620,20 +2470,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2660,20 +2507,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2700,20 +2544,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2740,20 +2581,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2780,20 +2618,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2820,20 +2655,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2860,20 +2692,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2900,20 +2729,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2940,20 +2766,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2980,20 +2803,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3020,20 +2840,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3060,20 +2877,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3100,20 +2914,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3140,20 +2951,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3180,20 +2988,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3220,20 +3025,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3258,22 +3060,19 @@
         <v>361428.8005722417</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3298,22 +3097,19 @@
         <v>39296.23407224164</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3340,20 +3136,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3380,20 +3173,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3420,20 +3210,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3458,22 +3245,17 @@
         <v>129204.3206722417</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3498,22 +3280,15 @@
         <v>129264.3206722417</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3538,22 +3313,15 @@
         <v>327469.3205722417</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3578,22 +3346,15 @@
         <v>327469.3205722417</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3618,22 +3379,15 @@
         <v>327979.9673722417</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3658,22 +3412,15 @@
         <v>435346.7111722417</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3700,20 +3447,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3740,20 +3480,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3778,22 +3511,15 @@
         <v>427962.4343722417</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3820,20 +3546,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3860,20 +3579,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3900,20 +3612,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3938,22 +3643,15 @@
         <v>413446.9504722417</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3978,22 +3676,15 @@
         <v>401083.9292722417</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4018,22 +3709,15 @@
         <v>401083.9292722417</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4058,22 +3742,15 @@
         <v>418219.0720722417</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4098,22 +3775,15 @@
         <v>682047.0582722416</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4138,22 +3808,15 @@
         <v>582047.0582722416</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4178,22 +3841,15 @@
         <v>595639.9880722417</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4218,22 +3874,15 @@
         <v>595639.9880722417</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4258,22 +3907,15 @@
         <v>613706.0021722417</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4298,22 +3940,15 @@
         <v>613706.0021722417</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4340,20 +3975,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4380,20 +4008,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4420,20 +4041,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4460,20 +4074,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4498,22 +4105,15 @@
         <v>625259.5525722418</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4538,22 +4138,15 @@
         <v>613033.4008722417</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4580,20 +4173,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4620,20 +4206,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4660,20 +4239,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4700,20 +4272,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4740,20 +4305,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4780,20 +4338,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4820,20 +4371,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4860,20 +4404,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4900,20 +4437,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4940,20 +4470,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4980,20 +4503,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5020,20 +4536,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5060,20 +4569,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5098,22 +4600,15 @@
         <v>572897.6785722418</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5138,22 +4633,15 @@
         <v>421862.0726722418</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5180,20 +4668,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5218,22 +4699,15 @@
         <v>419205.8066722418</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5258,22 +4732,15 @@
         <v>436314.4465353727</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5300,20 +4767,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5338,22 +4798,15 @@
         <v>433814.4465353727</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5380,20 +4833,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5420,20 +4866,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5460,20 +4899,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5500,20 +4932,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5540,20 +4965,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5580,20 +4998,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5620,20 +5031,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5660,20 +5064,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5700,20 +5097,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5740,20 +5130,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5780,20 +5163,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5820,20 +5196,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5860,20 +5229,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5900,20 +5262,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5940,20 +5295,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5980,20 +5328,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6020,20 +5361,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6060,20 +5394,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6100,20 +5427,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6140,20 +5460,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6180,20 +5493,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6220,20 +5526,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6260,20 +5559,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6300,20 +5592,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6340,20 +5625,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6380,20 +5658,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6420,20 +5691,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6460,20 +5724,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6500,20 +5757,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6540,20 +5790,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6580,20 +5823,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6620,20 +5856,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6660,20 +5889,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6700,20 +5922,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6740,20 +5955,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6780,20 +5988,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6820,20 +6021,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6860,20 +6054,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6900,20 +6087,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6940,20 +6120,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6980,20 +6153,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7020,20 +6186,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7060,20 +6219,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7100,20 +6252,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7140,20 +6285,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7180,20 +6318,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7220,20 +6351,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7260,20 +6384,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7300,20 +6417,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7340,20 +6450,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7380,20 +6483,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7420,20 +6516,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7458,22 +6547,15 @@
         <v>884581.1412291009</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7498,22 +6580,15 @@
         <v>1131455.968629101</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7540,18 +6615,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L180" t="n">
+        <v>1</v>
       </c>
       <c r="M180" t="inlineStr"/>
-      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7576,18 +6646,15 @@
         <v>1156822.256929101</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7612,18 +6679,15 @@
         <v>1156822.256929101</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7648,18 +6712,15 @@
         <v>1156822.256929101</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7684,18 +6745,15 @@
         <v>1156822.256929101</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7720,18 +6778,15 @@
         <v>1156822.256929101</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7758,16 +6813,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7794,16 +6846,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7830,16 +6879,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7866,16 +6912,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7902,16 +6945,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7938,16 +6978,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7974,16 +7011,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>1</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8008,18 +7042,15 @@
         <v>1097189.601029101</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8046,16 +7077,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>1</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8082,16 +7110,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>1</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8118,16 +7143,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>1</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8154,16 +7176,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>1</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8190,16 +7209,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>1</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8224,18 +7240,15 @@
         <v>984735.3176291009</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8262,16 +7275,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>1</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8298,16 +7308,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>1</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8334,16 +7341,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>1</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8370,16 +7374,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>1</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8406,16 +7407,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>1</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8442,16 +7440,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>1</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8478,16 +7473,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8514,16 +7506,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8550,16 +7539,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8586,16 +7572,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8622,16 +7605,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8658,16 +7638,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8694,16 +7671,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8730,16 +7704,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8766,16 +7737,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8802,16 +7770,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8838,16 +7803,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8874,16 +7836,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8910,18 +7869,15 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest SNT.xlsx
+++ b/BackTest/2020-01-16 BackTest SNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1096484.7472</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1096484.7472</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>10.83</v>
@@ -521,7 +521,7 @@
         <v>-929043.8232000003</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>10.83</v>
@@ -562,7 +562,7 @@
         <v>-929043.8232000003</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>10.93</v>
@@ -603,10 +603,14 @@
         <v>-929043.8232000003</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -636,11 +640,19 @@
         <v>-688961.8523000004</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -672,8 +684,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -834,11 +852,17 @@
         <v>-356922.7368000004</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>11</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -871,7 +895,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -904,7 +932,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -937,7 +969,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -970,7 +1006,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -999,11 +1039,17 @@
         <v>-357234.9967000004</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10.91</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1032,7 +1078,7 @@
         <v>-365063.6893000004</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>10.94</v>
@@ -1040,7 +1086,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1071,7 +1117,7 @@
         <v>-371720.4376000004</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>10.9</v>
@@ -1110,7 +1156,7 @@
         <v>-379123.6331000004</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>10.89</v>
@@ -1149,7 +1195,7 @@
         <v>-379123.6331000004</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>10.88</v>
@@ -1188,7 +1234,7 @@
         <v>-379123.6331000004</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>10.88</v>
@@ -1227,9 +1273,11 @@
         <v>-125908.7824000004</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>10.88</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1264,9 +1312,11 @@
         <v>-125908.7824000004</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>10.99</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1301,9 +1351,11 @@
         <v>-125908.7824000004</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>10.99</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1338,9 +1390,11 @@
         <v>-131367.7824000004</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>10.99</v>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1375,7 +1429,7 @@
         <v>-125443.9158000004</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>10.92</v>
@@ -1414,7 +1468,7 @@
         <v>-180643.9158000004</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>11.01</v>
@@ -1453,7 +1507,7 @@
         <v>-180643.9157000004</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>11</v>
@@ -1492,7 +1546,7 @@
         <v>-166914.1262000003</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>11.01</v>
@@ -1531,7 +1585,7 @@
         <v>-174700.0100000004</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>11.02</v>
@@ -1570,9 +1624,11 @@
         <v>-166301.0383000004</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>11.01</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1607,9 +1663,11 @@
         <v>-166301.0383000004</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>11.06</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1644,9 +1702,11 @@
         <v>-153960.5916000004</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>11.06</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1681,9 +1741,11 @@
         <v>-153960.5916000004</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>11.07</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1718,9 +1780,11 @@
         <v>-153960.5916000004</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>11.07</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1755,9 +1819,11 @@
         <v>-153960.5916000004</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>11.07</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1792,9 +1858,11 @@
         <v>-161137.8122000004</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>11.07</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1829,9 +1897,11 @@
         <v>-161137.8122000004</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>11.02</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1866,9 +1936,11 @@
         <v>-160637.8122000004</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>11.02</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1940,9 +2012,11 @@
         <v>-176978.9629000004</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>11.03</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2051,9 +2125,11 @@
         <v>-227347.3757000004</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>11.01</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2088,11 +2164,9 @@
         <v>-227347.3757000004</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2127,7 +2201,7 @@
         <v>-227347.3757000004</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>11</v>
@@ -2166,7 +2240,7 @@
         <v>-227488.6899000004</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>11</v>
@@ -2205,7 +2279,7 @@
         <v>-454671.0006000004</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>10.93</v>
@@ -2244,7 +2318,7 @@
         <v>-454671.0006000004</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>10.9</v>
@@ -2283,9 +2357,11 @@
         <v>-454671.0006000004</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>10.9</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2320,9 +2396,11 @@
         <v>-454671.0006000004</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>10.9</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2357,9 +2435,11 @@
         <v>-407763.4527000004</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>10.9</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2394,9 +2474,11 @@
         <v>-331378.5435000004</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>10.93</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2542,9 +2624,11 @@
         <v>-324439.6026000004</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>11.08</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2579,9 +2663,11 @@
         <v>-324439.6026000004</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>11.04</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2616,9 +2702,11 @@
         <v>-338487.1978000004</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>11.04</v>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2653,9 +2741,11 @@
         <v>-139353.9911000004</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>10.93</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2690,9 +2780,11 @@
         <v>-152916.7265000004</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>11.06</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2727,9 +2819,11 @@
         <v>-129064.3910000004</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>10.94</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2764,9 +2858,11 @@
         <v>-121555.0280000004</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>10.95</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -3060,7 +3156,7 @@
         <v>361428.8005722417</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3097,7 +3193,7 @@
         <v>39296.23407224164</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3245,16 +3341,18 @@
         <v>129204.3206722417</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
       <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
@@ -3280,11 +3378,15 @@
         <v>129264.3206722417</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3313,11 +3415,15 @@
         <v>327469.3205722417</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3346,11 +3452,15 @@
         <v>327469.3205722417</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3379,11 +3489,15 @@
         <v>327979.9673722417</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3412,11 +3526,15 @@
         <v>435346.7111722417</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3449,7 +3567,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3482,7 +3604,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3511,11 +3637,15 @@
         <v>427962.4343722417</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3548,7 +3678,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3581,7 +3715,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3614,7 +3752,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3643,11 +3785,15 @@
         <v>413446.9504722417</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3676,11 +3822,15 @@
         <v>401083.9292722417</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3709,11 +3859,15 @@
         <v>401083.9292722417</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3742,11 +3896,15 @@
         <v>418219.0720722417</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3775,11 +3933,15 @@
         <v>682047.0582722416</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3808,11 +3970,15 @@
         <v>582047.0582722416</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3841,11 +4007,15 @@
         <v>595639.9880722417</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3874,11 +4044,15 @@
         <v>595639.9880722417</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3907,11 +4081,15 @@
         <v>613706.0021722417</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3940,11 +4118,15 @@
         <v>613706.0021722417</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3977,7 +4159,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4010,7 +4196,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4043,7 +4233,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4076,7 +4270,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4105,11 +4303,15 @@
         <v>625259.5525722418</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4138,11 +4340,15 @@
         <v>613033.4008722417</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4175,7 +4381,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4208,7 +4418,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4241,7 +4455,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4274,7 +4492,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4307,7 +4529,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4340,7 +4566,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4373,7 +4603,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4406,7 +4640,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4439,7 +4677,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4472,7 +4714,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4505,7 +4751,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4538,7 +4788,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4571,7 +4825,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4600,11 +4858,15 @@
         <v>572897.6785722418</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4633,11 +4895,15 @@
         <v>421862.0726722418</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4670,7 +4936,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4699,11 +4969,15 @@
         <v>419205.8066722418</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4732,11 +5006,15 @@
         <v>436314.4465353727</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4769,7 +5047,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4798,11 +5080,15 @@
         <v>433814.4465353727</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4835,7 +5121,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4868,7 +5158,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4901,7 +5195,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4934,7 +5232,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4967,7 +5269,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5000,7 +5306,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5033,7 +5343,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5062,14 +5376,16 @@
         <v>242875.4276291009</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
@@ -5095,7 +5411,7 @@
         <v>243032.9276291009</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5359,7 +5675,7 @@
         <v>224487.8345291009</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -6547,7 +6863,7 @@
         <v>884581.1412291009</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6580,7 +6896,7 @@
         <v>1131455.968629101</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6646,7 +6962,7 @@
         <v>1156822.256929101</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6679,7 +6995,7 @@
         <v>1156822.256929101</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6712,7 +7028,7 @@
         <v>1156822.256929101</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6745,7 +7061,7 @@
         <v>1156822.256929101</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6778,7 +7094,7 @@
         <v>1156822.256929101</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6811,7 +7127,7 @@
         <v>1155327.681329101</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6844,7 +7160,7 @@
         <v>1100764.461929101</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6910,7 +7226,7 @@
         <v>1165501.461929101</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6943,7 +7259,7 @@
         <v>1104301.461929101</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6976,7 +7292,7 @@
         <v>1104389.461929101</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7009,7 +7325,7 @@
         <v>1104345.461929101</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7042,7 +7358,7 @@
         <v>1097189.601029101</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7075,7 +7391,7 @@
         <v>1097233.601029101</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7108,7 +7424,7 @@
         <v>1124605.259029101</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7141,7 +7457,7 @@
         <v>1124649.259029101</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7174,7 +7490,7 @@
         <v>984649.2590291009</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7207,7 +7523,7 @@
         <v>984735.3176291009</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7240,7 +7556,7 @@
         <v>984735.3176291009</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7273,7 +7589,7 @@
         <v>924847.8051291009</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7306,7 +7622,7 @@
         <v>925347.8051291009</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7339,7 +7655,7 @@
         <v>737226.6708291009</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7405,7 +7721,7 @@
         <v>737226.6708291009</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7438,7 +7754,7 @@
         <v>737226.6708291009</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7504,7 +7820,7 @@
         <v>737226.6708291009</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7537,7 +7853,7 @@
         <v>213599.6160291009</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7768,7 +8084,7 @@
         <v>90572.30922910089</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7834,7 +8150,7 @@
         <v>109030.3092291009</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7867,7 +8183,7 @@
         <v>109030.3092291009</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7878,6 +8194,6 @@
       <c r="M218" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest SNT.xlsx
+++ b/BackTest/2020-01-16 BackTest SNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1096484.7472</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-1096484.7472</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -529,11 +525,7 @@
       <c r="J4" t="n">
         <v>10.83</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,11 +554,9 @@
         <v>-929043.8232000003</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>10.83</v>
       </c>
@@ -603,15 +593,17 @@
         <v>-929043.8232000003</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>10.83</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,19 +632,11 @@
         <v>-688961.8523000004</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="J7" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -684,14 +668,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -852,17 +830,11 @@
         <v>-356922.7368000004</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -895,11 +867,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -932,11 +900,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -969,11 +933,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1006,11 +966,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1039,17 +995,11 @@
         <v>-357234.9967000004</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>10.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1086,7 +1036,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1312,11 +1262,9 @@
         <v>-125908.7824000004</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>10.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1351,11 +1299,9 @@
         <v>-125908.7824000004</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>10.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1390,11 +1336,9 @@
         <v>-131367.7824000004</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>10.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1429,11 +1373,9 @@
         <v>-125443.9158000004</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>10.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1468,11 +1410,9 @@
         <v>-180643.9158000004</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>11.01</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1507,11 +1447,9 @@
         <v>-180643.9157000004</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1546,11 +1484,9 @@
         <v>-166914.1262000003</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>11.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1585,11 +1521,9 @@
         <v>-174700.0100000004</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>11.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1624,11 +1558,9 @@
         <v>-166301.0383000004</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>11.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1663,11 +1595,9 @@
         <v>-166301.0383000004</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>11.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1702,11 +1632,9 @@
         <v>-153960.5916000004</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>11.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1741,11 +1669,9 @@
         <v>-153960.5916000004</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>11.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1780,11 +1706,9 @@
         <v>-153960.5916000004</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>11.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1819,11 +1743,9 @@
         <v>-153960.5916000004</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>11.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1858,11 +1780,9 @@
         <v>-161137.8122000004</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>11.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1897,11 +1817,9 @@
         <v>-161137.8122000004</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>11.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1936,11 +1854,9 @@
         <v>-160637.8122000004</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -2012,11 +1928,9 @@
         <v>-176978.9629000004</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>11.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2125,11 +2039,9 @@
         <v>-227347.3757000004</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>11.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2201,11 +2113,9 @@
         <v>-227347.3757000004</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2240,11 +2150,9 @@
         <v>-227488.6899000004</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2279,11 +2187,9 @@
         <v>-454671.0006000004</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>10.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2318,11 +2224,9 @@
         <v>-454671.0006000004</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>10.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2357,11 +2261,9 @@
         <v>-454671.0006000004</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>10.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2624,11 +2526,9 @@
         <v>-324439.6026000004</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>11.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2663,11 +2563,9 @@
         <v>-324439.6026000004</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>11.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2702,11 +2600,9 @@
         <v>-338487.1978000004</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>11.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2741,11 +2637,9 @@
         <v>-139353.9911000004</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>10.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2780,11 +2674,9 @@
         <v>-152916.7265000004</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>11.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2819,11 +2711,9 @@
         <v>-129064.3910000004</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>10.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2858,11 +2748,9 @@
         <v>-121555.0280000004</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>10.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -3045,18 +2933,16 @@
         <v>-8881.454900000368</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -3082,15 +2968,11 @@
         <v>330133.3762722416</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3119,15 +3001,11 @@
         <v>311428.8005722417</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3160,11 +3038,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3197,11 +3071,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3234,11 +3104,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3271,11 +3137,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3308,11 +3170,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3345,11 +3203,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3382,11 +3236,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3419,11 +3269,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3456,11 +3302,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3493,11 +3335,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3530,11 +3368,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3567,11 +3401,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3604,11 +3434,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3641,11 +3467,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3678,11 +3500,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3715,11 +3533,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3752,11 +3566,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3789,11 +3599,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3822,15 +3628,11 @@
         <v>401083.9292722417</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3859,15 +3661,11 @@
         <v>401083.9292722417</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3896,15 +3694,11 @@
         <v>418219.0720722417</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3933,15 +3727,11 @@
         <v>682047.0582722416</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3970,15 +3760,11 @@
         <v>582047.0582722416</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4007,15 +3793,11 @@
         <v>595639.9880722417</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4044,15 +3826,11 @@
         <v>595639.9880722417</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4081,15 +3859,11 @@
         <v>613706.0021722417</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4118,15 +3892,11 @@
         <v>613706.0021722417</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4155,15 +3925,11 @@
         <v>581356.5556722417</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4192,15 +3958,11 @@
         <v>599476.6132722418</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4229,15 +3991,11 @@
         <v>599476.6132722418</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4266,15 +4024,11 @@
         <v>599476.6132722418</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4303,15 +4057,11 @@
         <v>625259.5525722418</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4340,15 +4090,11 @@
         <v>613033.4008722417</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4381,11 +4127,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4418,11 +4160,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4455,11 +4193,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4492,11 +4226,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4529,11 +4259,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4566,11 +4292,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4603,11 +4325,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4640,11 +4358,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4677,11 +4391,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4714,11 +4424,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4751,11 +4457,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4788,11 +4490,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4825,11 +4523,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4862,11 +4556,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4899,11 +4589,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4936,11 +4622,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4973,11 +4655,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5010,11 +4688,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5047,11 +4721,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5084,11 +4754,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5121,11 +4787,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5158,11 +4820,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5195,11 +4853,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5232,11 +4886,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +4919,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5306,11 +4952,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5343,11 +4985,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5376,16 +5014,14 @@
         <v>242875.4276291009</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
       <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
@@ -5411,7 +5047,7 @@
         <v>243032.9276291009</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5675,7 +5311,7 @@
         <v>224487.8345291009</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -7127,7 +6763,7 @@
         <v>1155327.681329101</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7160,7 +6796,7 @@
         <v>1100764.461929101</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7226,7 +6862,7 @@
         <v>1165501.461929101</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7259,7 +6895,7 @@
         <v>1104301.461929101</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7292,7 +6928,7 @@
         <v>1104389.461929101</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7325,7 +6961,7 @@
         <v>1104345.461929101</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7358,7 +6994,7 @@
         <v>1097189.601029101</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7391,7 +7027,7 @@
         <v>1097233.601029101</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7424,7 +7060,7 @@
         <v>1124605.259029101</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7457,7 +7093,7 @@
         <v>1124649.259029101</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7490,7 +7126,7 @@
         <v>984649.2590291009</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7523,7 +7159,7 @@
         <v>984735.3176291009</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7556,7 +7192,7 @@
         <v>984735.3176291009</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7589,7 +7225,7 @@
         <v>924847.8051291009</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7622,7 +7258,7 @@
         <v>925347.8051291009</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7655,7 +7291,7 @@
         <v>737226.6708291009</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7721,7 +7357,7 @@
         <v>737226.6708291009</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7754,7 +7390,7 @@
         <v>737226.6708291009</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7820,7 +7456,7 @@
         <v>737226.6708291009</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7853,7 +7489,7 @@
         <v>213599.6160291009</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8084,7 +7720,7 @@
         <v>90572.30922910089</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8150,7 +7786,7 @@
         <v>109030.3092291009</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8183,7 +7819,7 @@
         <v>109030.3092291009</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8194,6 +7830,6 @@
       <c r="M218" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest SNT.xlsx
+++ b/BackTest/2020-01-16 BackTest SNT.xlsx
@@ -451,7 +451,7 @@
         <v>-1096484.7472</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-1096484.7472</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10.83</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -525,7 +529,11 @@
       <c r="J4" t="n">
         <v>10.83</v>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -554,9 +562,11 @@
         <v>-929043.8232000003</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10.93</v>
+      </c>
       <c r="J5" t="n">
         <v>10.83</v>
       </c>
@@ -593,17 +603,15 @@
         <v>-929043.8232000003</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10.93</v>
+      </c>
       <c r="J6" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>10.93</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -632,11 +640,19 @@
         <v>-688961.8523000004</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -665,11 +681,19 @@
         <v>-525649.9378000004</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -698,11 +722,19 @@
         <v>-525649.9378000004</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J9" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -731,11 +763,19 @@
         <v>-525649.9378000004</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J10" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -764,11 +804,19 @@
         <v>-525649.9378000004</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -797,11 +845,19 @@
         <v>-356922.7368000004</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -833,8 +889,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -866,8 +928,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -899,8 +967,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -932,8 +1006,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -965,8 +1045,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -998,8 +1084,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1033,10 +1125,12 @@
       <c r="I19" t="n">
         <v>10.94</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1072,7 +1166,9 @@
       <c r="I20" t="n">
         <v>10.9</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1111,7 +1207,9 @@
       <c r="I21" t="n">
         <v>10.89</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1150,7 +1248,9 @@
       <c r="I22" t="n">
         <v>10.88</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1189,7 +1289,9 @@
       <c r="I23" t="n">
         <v>10.88</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1228,7 +1330,9 @@
       <c r="I24" t="n">
         <v>10.88</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1262,10 +1366,14 @@
         <v>-125908.7824000004</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1299,10 +1407,14 @@
         <v>-125908.7824000004</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="J26" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1336,10 +1448,14 @@
         <v>-131367.7824000004</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="J27" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1376,7 +1492,9 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1410,10 +1528,12 @@
         <v>-180643.9158000004</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1450,7 +1570,9 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1487,7 +1609,9 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1524,7 +1648,9 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1561,7 +1687,9 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1598,7 +1726,9 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1635,7 +1765,9 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1672,7 +1804,9 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1709,7 +1843,9 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1746,7 +1882,9 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1783,7 +1921,9 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1820,7 +1960,9 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1857,7 +1999,9 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1894,7 +2038,9 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1931,7 +2077,9 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1968,7 +2116,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2005,7 +2155,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2042,7 +2194,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2079,7 +2233,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2116,7 +2272,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2153,7 +2311,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2190,7 +2350,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2227,7 +2389,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2264,7 +2428,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2298,12 +2464,12 @@
         <v>-454671.0006000004</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2337,12 +2503,12 @@
         <v>-407763.4527000004</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2376,12 +2542,12 @@
         <v>-331378.5435000004</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2418,7 +2584,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2455,7 +2623,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2492,7 +2662,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2529,7 +2701,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2566,7 +2740,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2603,7 +2779,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2640,7 +2818,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2677,7 +2857,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2714,7 +2896,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2751,7 +2935,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2788,7 +2974,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2825,7 +3013,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2862,7 +3052,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2899,7 +3091,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2933,16 +3127,20 @@
         <v>-8881.454900000368</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>10.93</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
       <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -2968,11 +3166,17 @@
         <v>330133.3762722416</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3001,11 +3205,17 @@
         <v>311428.8005722417</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3037,8 +3247,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3070,8 +3286,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3103,8 +3325,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3136,8 +3364,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3169,8 +3403,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3202,8 +3442,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3235,8 +3481,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3268,8 +3520,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3301,8 +3559,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3334,8 +3598,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3367,8 +3637,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3400,8 +3676,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3433,8 +3715,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3466,8 +3754,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3499,8 +3793,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3532,8 +3832,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3565,8 +3871,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3598,8 +3910,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3628,11 +3946,17 @@
         <v>401083.9292722417</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3661,11 +3985,17 @@
         <v>401083.9292722417</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3694,11 +4024,17 @@
         <v>418219.0720722417</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3727,11 +4063,17 @@
         <v>682047.0582722416</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3760,11 +4102,17 @@
         <v>582047.0582722416</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3793,11 +4141,17 @@
         <v>595639.9880722417</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3826,11 +4180,17 @@
         <v>595639.9880722417</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3859,11 +4219,17 @@
         <v>613706.0021722417</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3892,11 +4258,17 @@
         <v>613706.0021722417</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3925,11 +4297,17 @@
         <v>581356.5556722417</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3958,11 +4336,17 @@
         <v>599476.6132722418</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3991,11 +4375,17 @@
         <v>599476.6132722418</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4024,11 +4414,17 @@
         <v>599476.6132722418</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4057,11 +4453,17 @@
         <v>625259.5525722418</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4090,11 +4492,17 @@
         <v>613033.4008722417</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4126,8 +4534,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4159,8 +4573,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4192,8 +4612,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4225,8 +4651,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4258,8 +4690,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4291,8 +4729,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4324,8 +4768,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4357,8 +4807,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4390,8 +4846,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4423,8 +4885,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4456,8 +4924,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4489,8 +4963,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4522,8 +5002,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4555,8 +5041,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4588,8 +5080,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4621,8 +5119,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4654,8 +5158,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4687,8 +5197,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4720,8 +5236,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4753,8 +5275,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4786,8 +5314,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4819,8 +5353,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4852,8 +5392,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4885,8 +5431,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4918,8 +5470,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4951,8 +5509,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4984,8 +5548,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5017,8 +5587,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5050,8 +5626,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5083,8 +5665,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5116,8 +5704,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5149,8 +5743,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5182,8 +5782,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5215,8 +5821,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5248,8 +5860,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5281,8 +5899,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5314,8 +5938,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5347,8 +5977,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5380,8 +6016,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5413,8 +6055,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5446,8 +6094,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5479,8 +6133,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5512,8 +6172,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5545,8 +6211,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5578,8 +6250,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5611,8 +6289,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5644,8 +6328,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5677,8 +6367,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5710,8 +6406,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5743,8 +6445,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5776,8 +6484,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5809,8 +6523,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5842,8 +6562,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5875,8 +6601,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5908,8 +6640,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5941,8 +6679,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5974,8 +6718,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6007,8 +6757,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6040,8 +6796,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6073,8 +6835,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6106,8 +6874,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6139,8 +6913,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6172,8 +6952,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6205,8 +6991,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6238,8 +7030,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6271,8 +7069,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6304,8 +7108,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6337,8 +7147,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6370,8 +7186,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6403,8 +7225,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6436,8 +7264,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6469,8 +7303,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6502,8 +7342,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6535,8 +7381,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6565,15 +7417,23 @@
         <v>1050518.311229101</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>1.065448307410796</v>
+      </c>
+      <c r="M180" t="n">
+        <v>1.012927054478301</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6598,7 +7458,7 @@
         <v>1156822.256929101</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6631,7 +7491,7 @@
         <v>1156822.256929101</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6664,7 +7524,7 @@
         <v>1156822.256929101</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6697,7 +7557,7 @@
         <v>1156822.256929101</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6730,7 +7590,7 @@
         <v>1156822.256929101</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6763,7 +7623,7 @@
         <v>1155327.681329101</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6796,7 +7656,7 @@
         <v>1100764.461929101</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6829,7 +7689,7 @@
         <v>1150501.461929101</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6862,7 +7722,7 @@
         <v>1165501.461929101</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6895,7 +7755,7 @@
         <v>1104301.461929101</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6928,7 +7788,7 @@
         <v>1104389.461929101</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6961,7 +7821,7 @@
         <v>1104345.461929101</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6994,7 +7854,7 @@
         <v>1097189.601029101</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7027,7 +7887,7 @@
         <v>1097233.601029101</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7060,7 +7920,7 @@
         <v>1124605.259029101</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7093,7 +7953,7 @@
         <v>1124649.259029101</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7126,7 +7986,7 @@
         <v>984649.2590291009</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7159,7 +8019,7 @@
         <v>984735.3176291009</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7192,7 +8052,7 @@
         <v>984735.3176291009</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7225,7 +8085,7 @@
         <v>924847.8051291009</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7258,7 +8118,7 @@
         <v>925347.8051291009</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7291,7 +8151,7 @@
         <v>737226.6708291009</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7324,7 +8184,7 @@
         <v>737226.6708291009</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7357,7 +8217,7 @@
         <v>737226.6708291009</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7390,7 +8250,7 @@
         <v>737226.6708291009</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>

--- a/BackTest/2020-01-16 BackTest SNT.xlsx
+++ b/BackTest/2020-01-16 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M218"/>
+  <dimension ref="A1:L218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>120505.9093</v>
       </c>
       <c r="G2" t="n">
-        <v>-1096484.7472</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>13457.8797</v>
       </c>
       <c r="G3" t="n">
-        <v>-1096484.7472</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>10.83</v>
       </c>
       <c r="I3" t="n">
         <v>10.83</v>
       </c>
-      <c r="J3" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>167440.924</v>
       </c>
       <c r="G4" t="n">
-        <v>-929043.8232000003</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>10.83</v>
       </c>
       <c r="I4" t="n">
         <v>10.83</v>
       </c>
-      <c r="J4" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>35759.716</v>
       </c>
       <c r="G5" t="n">
-        <v>-929043.8232000003</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>10.93</v>
       </c>
       <c r="I5" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="J5" t="n">
         <v>10.83</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +583,19 @@
         <v>62884.8853</v>
       </c>
       <c r="G6" t="n">
-        <v>-929043.8232000003</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>10.93</v>
       </c>
       <c r="I6" t="n">
         <v>10.93</v>
       </c>
-      <c r="J6" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,26 +617,23 @@
         <v>240081.9709</v>
       </c>
       <c r="G7" t="n">
-        <v>-688961.8523000004</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>10.93</v>
       </c>
       <c r="I7" t="n">
         <v>10.93</v>
       </c>
-      <c r="J7" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,26 +655,23 @@
         <v>163311.9145</v>
       </c>
       <c r="G8" t="n">
-        <v>-525649.9378000004</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>10.95</v>
       </c>
       <c r="I8" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="J8" t="n">
         <v>10.93</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,26 +693,15 @@
         <v>132526.3156</v>
       </c>
       <c r="G9" t="n">
-        <v>-525649.9378000004</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="J9" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -760,26 +723,19 @@
         <v>69612.9999</v>
       </c>
       <c r="G10" t="n">
-        <v>-525649.9378000004</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>10.97</v>
       </c>
       <c r="I10" t="n">
         <v>10.97</v>
       </c>
-      <c r="J10" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -801,26 +757,21 @@
         <v>9561.394899999999</v>
       </c>
       <c r="G11" t="n">
-        <v>-525649.9378000004</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
         <v>10.97</v>
       </c>
-      <c r="J11" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -842,26 +793,23 @@
         <v>168727.201</v>
       </c>
       <c r="G12" t="n">
-        <v>-356922.7368000004</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>10.97</v>
       </c>
       <c r="I12" t="n">
         <v>10.97</v>
       </c>
-      <c r="J12" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -883,24 +831,23 @@
         <v>188329.1477</v>
       </c>
       <c r="G13" t="n">
-        <v>-356922.7368000004</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -922,24 +869,23 @@
         <v>145518.7369</v>
       </c>
       <c r="G14" t="n">
-        <v>-356922.7368000004</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -961,24 +907,23 @@
         <v>10044.5137</v>
       </c>
       <c r="G15" t="n">
-        <v>-356922.7368000004</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="I15" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1000,24 +945,23 @@
         <v>13133.6866</v>
       </c>
       <c r="G16" t="n">
-        <v>-356922.7368000004</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="I16" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1039,24 +983,23 @@
         <v>6793.8477</v>
       </c>
       <c r="G17" t="n">
-        <v>-363716.5845000004</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="I17" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1078,24 +1021,23 @@
         <v>6481.5878</v>
       </c>
       <c r="G18" t="n">
-        <v>-357234.9967000004</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>10.91</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1117,26 +1059,23 @@
         <v>7828.6926</v>
       </c>
       <c r="G19" t="n">
-        <v>-365063.6893000004</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>10.94</v>
       </c>
       <c r="I19" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="J19" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>10.97</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1158,26 +1097,23 @@
         <v>6656.7483</v>
       </c>
       <c r="G20" t="n">
-        <v>-371720.4376000004</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>10.9</v>
       </c>
       <c r="I20" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="J20" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>10.97</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1199,26 +1135,23 @@
         <v>7403.1955</v>
       </c>
       <c r="G21" t="n">
-        <v>-379123.6331000004</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>10.89</v>
       </c>
       <c r="I21" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="J21" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>10.97</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1240,26 +1173,23 @@
         <v>1486.6294</v>
       </c>
       <c r="G22" t="n">
-        <v>-379123.6331000004</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>10.88</v>
       </c>
       <c r="I22" t="n">
-        <v>10.88</v>
-      </c>
-      <c r="J22" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>10.97</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1281,26 +1211,23 @@
         <v>4674.1456</v>
       </c>
       <c r="G23" t="n">
-        <v>-379123.6331000004</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>10.88</v>
       </c>
       <c r="I23" t="n">
-        <v>10.88</v>
-      </c>
-      <c r="J23" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>10.97</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1322,26 +1249,23 @@
         <v>253214.8507</v>
       </c>
       <c r="G24" t="n">
-        <v>-125908.7824000004</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>10.88</v>
       </c>
       <c r="I24" t="n">
-        <v>10.88</v>
-      </c>
-      <c r="J24" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>10.97</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1363,26 +1287,23 @@
         <v>114277</v>
       </c>
       <c r="G25" t="n">
-        <v>-125908.7824000004</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>10.99</v>
       </c>
       <c r="I25" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="J25" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>10.97</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1404,26 +1325,23 @@
         <v>1090.5284</v>
       </c>
       <c r="G26" t="n">
-        <v>-125908.7824000004</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>10.99</v>
       </c>
       <c r="I26" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="J26" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>10.97</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1445,26 +1363,23 @@
         <v>5459</v>
       </c>
       <c r="G27" t="n">
-        <v>-131367.7824000004</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>10.99</v>
       </c>
       <c r="I27" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="J27" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>10.97</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1486,24 +1401,23 @@
         <v>5923.8666</v>
       </c>
       <c r="G28" t="n">
-        <v>-125443.9158000004</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>10.92</v>
+      </c>
+      <c r="I28" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1525,24 +1439,23 @@
         <v>55200</v>
       </c>
       <c r="G29" t="n">
-        <v>-180643.9158000004</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>11.01</v>
+      </c>
+      <c r="I29" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1564,24 +1477,23 @@
         <v>0.0001</v>
       </c>
       <c r="G30" t="n">
-        <v>-180643.9157000004</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="I30" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1603,24 +1515,23 @@
         <v>13729.7895</v>
       </c>
       <c r="G31" t="n">
-        <v>-166914.1262000003</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>11.01</v>
+      </c>
+      <c r="I31" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1642,24 +1553,23 @@
         <v>7785.8838</v>
       </c>
       <c r="G32" t="n">
-        <v>-174700.0100000004</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>11.02</v>
+      </c>
+      <c r="I32" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1681,24 +1591,23 @@
         <v>8398.9717</v>
       </c>
       <c r="G33" t="n">
-        <v>-166301.0383000004</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>11.01</v>
+      </c>
+      <c r="I33" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1720,24 +1629,23 @@
         <v>16191.5872</v>
       </c>
       <c r="G34" t="n">
-        <v>-166301.0383000004</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>11.06</v>
+      </c>
+      <c r="I34" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1759,24 +1667,23 @@
         <v>12340.4467</v>
       </c>
       <c r="G35" t="n">
-        <v>-153960.5916000004</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>11.06</v>
+      </c>
+      <c r="I35" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1798,24 +1705,21 @@
         <v>18110.6587</v>
       </c>
       <c r="G36" t="n">
-        <v>-153960.5916000004</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1837,24 +1741,23 @@
         <v>49597.4344</v>
       </c>
       <c r="G37" t="n">
-        <v>-153960.5916000004</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>11.07</v>
+      </c>
+      <c r="I37" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1876,24 +1779,21 @@
         <v>6795.4368</v>
       </c>
       <c r="G38" t="n">
-        <v>-153960.5916000004</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1915,24 +1815,21 @@
         <v>7177.2206</v>
       </c>
       <c r="G39" t="n">
-        <v>-161137.8122000004</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1954,24 +1851,21 @@
         <v>5123.5193</v>
       </c>
       <c r="G40" t="n">
-        <v>-161137.8122000004</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1993,24 +1887,21 @@
         <v>500</v>
       </c>
       <c r="G41" t="n">
-        <v>-160637.8122000004</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2032,24 +1923,21 @@
         <v>4692.0514</v>
       </c>
       <c r="G42" t="n">
-        <v>-165329.8636000004</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2071,24 +1959,21 @@
         <v>11649.0993</v>
       </c>
       <c r="G43" t="n">
-        <v>-176978.9629000004</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2110,24 +1995,21 @@
         <v>42578.9788</v>
       </c>
       <c r="G44" t="n">
-        <v>-219557.9417000004</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2149,24 +2031,21 @@
         <v>9858.685799999999</v>
       </c>
       <c r="G45" t="n">
-        <v>-219557.9417000004</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2188,24 +2067,21 @@
         <v>7789.434</v>
       </c>
       <c r="G46" t="n">
-        <v>-227347.3757000004</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2227,24 +2103,23 @@
         <v>16273.9999</v>
       </c>
       <c r="G47" t="n">
-        <v>-227347.3757000004</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="I47" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2266,24 +2141,23 @@
         <v>2024.6887</v>
       </c>
       <c r="G48" t="n">
-        <v>-227347.3757000004</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="I48" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2305,24 +2179,23 @@
         <v>141.3142</v>
       </c>
       <c r="G49" t="n">
-        <v>-227488.6899000004</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="I49" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2344,24 +2217,23 @@
         <v>227182.3107</v>
       </c>
       <c r="G50" t="n">
-        <v>-454671.0006000004</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
         <v>10.93</v>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2383,24 +2255,23 @@
         <v>102782.534</v>
       </c>
       <c r="G51" t="n">
-        <v>-454671.0006000004</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>10.9</v>
+      </c>
+      <c r="I51" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2422,24 +2293,23 @@
         <v>5087.3364</v>
       </c>
       <c r="G52" t="n">
-        <v>-454671.0006000004</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>10.9</v>
+      </c>
+      <c r="I52" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2461,24 +2331,23 @@
         <v>101016.9517</v>
       </c>
       <c r="G53" t="n">
-        <v>-454671.0006000004</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>10.9</v>
+      </c>
+      <c r="I53" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2500,24 +2369,23 @@
         <v>46907.5479</v>
       </c>
       <c r="G54" t="n">
-        <v>-407763.4527000004</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>10.9</v>
+      </c>
+      <c r="I54" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2539,24 +2407,23 @@
         <v>76384.90919999999</v>
       </c>
       <c r="G55" t="n">
-        <v>-331378.5435000004</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
         <v>10.93</v>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2578,24 +2445,23 @@
         <v>3000</v>
       </c>
       <c r="G56" t="n">
-        <v>-334378.5435000004</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>11.07</v>
+      </c>
+      <c r="I56" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2617,24 +2483,23 @@
         <v>14932.6987</v>
       </c>
       <c r="G57" t="n">
-        <v>-319445.8448000004</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>11.05</v>
+      </c>
+      <c r="I57" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2656,24 +2521,21 @@
         <v>6646.375475812274</v>
       </c>
       <c r="G58" t="n">
-        <v>-319445.8448000004</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2695,24 +2557,21 @@
         <v>4993.7578</v>
       </c>
       <c r="G59" t="n">
-        <v>-324439.6026000004</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2734,24 +2593,23 @@
         <v>24429.9997</v>
       </c>
       <c r="G60" t="n">
-        <v>-324439.6026000004</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>11.04</v>
+      </c>
+      <c r="I60" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2773,24 +2631,21 @@
         <v>14047.5952</v>
       </c>
       <c r="G61" t="n">
-        <v>-338487.1978000004</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2812,24 +2667,23 @@
         <v>199133.2067</v>
       </c>
       <c r="G62" t="n">
-        <v>-139353.9911000004</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
         <v>10.93</v>
       </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2851,24 +2705,21 @@
         <v>13562.7354</v>
       </c>
       <c r="G63" t="n">
-        <v>-152916.7265000004</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2890,24 +2741,23 @@
         <v>23852.3355</v>
       </c>
       <c r="G64" t="n">
-        <v>-129064.3910000004</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>10.94</v>
+      </c>
+      <c r="I64" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2929,24 +2779,21 @@
         <v>7509.363</v>
       </c>
       <c r="G65" t="n">
-        <v>-121555.0280000004</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2968,24 +2815,21 @@
         <v>99662.7899</v>
       </c>
       <c r="G66" t="n">
-        <v>-21892.23810000037</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3007,24 +2851,21 @@
         <v>27918.5208</v>
       </c>
       <c r="G67" t="n">
-        <v>6026.282699999632</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3046,24 +2887,21 @@
         <v>10338.0621</v>
       </c>
       <c r="G68" t="n">
-        <v>16364.34479999963</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3085,24 +2923,21 @@
         <v>5716</v>
       </c>
       <c r="G69" t="n">
-        <v>22080.34479999963</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3124,24 +2959,21 @@
         <v>30961.7997</v>
       </c>
       <c r="G70" t="n">
-        <v>-8881.454900000368</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3163,24 +2995,21 @@
         <v>339014.831172242</v>
       </c>
       <c r="G71" t="n">
-        <v>330133.3762722416</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3202,24 +3031,21 @@
         <v>18704.5757</v>
       </c>
       <c r="G72" t="n">
-        <v>311428.8005722417</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3241,24 +3067,21 @@
         <v>50000</v>
       </c>
       <c r="G73" t="n">
-        <v>361428.8005722417</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3280,24 +3103,21 @@
         <v>322132.5665</v>
       </c>
       <c r="G74" t="n">
-        <v>39296.23407224164</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3319,24 +3139,21 @@
         <v>1260.426</v>
       </c>
       <c r="G75" t="n">
-        <v>40556.66007224164</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3358,24 +3175,21 @@
         <v>50</v>
       </c>
       <c r="G76" t="n">
-        <v>40606.66007224164</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3397,24 +3211,21 @@
         <v>94202</v>
       </c>
       <c r="G77" t="n">
-        <v>134808.6600722416</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3436,24 +3247,21 @@
         <v>5604.3394</v>
       </c>
       <c r="G78" t="n">
-        <v>129204.3206722417</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3475,24 +3283,21 @@
         <v>60</v>
       </c>
       <c r="G79" t="n">
-        <v>129264.3206722417</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3514,24 +3319,21 @@
         <v>198204.9999</v>
       </c>
       <c r="G80" t="n">
-        <v>327469.3205722417</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3553,24 +3355,21 @@
         <v>4558.2843</v>
       </c>
       <c r="G81" t="n">
-        <v>327469.3205722417</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3592,24 +3391,21 @@
         <v>510.6468</v>
       </c>
       <c r="G82" t="n">
-        <v>327979.9673722417</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3631,24 +3427,21 @@
         <v>107366.7438</v>
       </c>
       <c r="G83" t="n">
-        <v>435346.7111722417</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3670,24 +3463,21 @@
         <v>21322.9766</v>
       </c>
       <c r="G84" t="n">
-        <v>456669.6877722417</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3709,24 +3499,21 @@
         <v>27039.2534</v>
       </c>
       <c r="G85" t="n">
-        <v>429630.4343722417</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3748,24 +3535,21 @@
         <v>1668</v>
       </c>
       <c r="G86" t="n">
-        <v>427962.4343722417</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3787,24 +3571,21 @@
         <v>1938</v>
       </c>
       <c r="G87" t="n">
-        <v>427962.4343722417</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3826,24 +3607,21 @@
         <v>14515.4839</v>
       </c>
       <c r="G88" t="n">
-        <v>413446.9504722417</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3865,24 +3643,21 @@
         <v>52480.8813</v>
       </c>
       <c r="G89" t="n">
-        <v>413446.9504722417</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3904,24 +3679,21 @@
         <v>30485.786</v>
       </c>
       <c r="G90" t="n">
-        <v>413446.9504722417</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3943,24 +3715,21 @@
         <v>12363.0212</v>
       </c>
       <c r="G91" t="n">
-        <v>401083.9292722417</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3982,24 +3751,21 @@
         <v>43442.0765</v>
       </c>
       <c r="G92" t="n">
-        <v>401083.9292722417</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4021,24 +3787,21 @@
         <v>17135.1428</v>
       </c>
       <c r="G93" t="n">
-        <v>418219.0720722417</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4060,24 +3823,21 @@
         <v>263827.9862</v>
       </c>
       <c r="G94" t="n">
-        <v>682047.0582722416</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4099,24 +3859,21 @@
         <v>100000</v>
       </c>
       <c r="G95" t="n">
-        <v>582047.0582722416</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4138,24 +3895,21 @@
         <v>13592.9298</v>
       </c>
       <c r="G96" t="n">
-        <v>595639.9880722417</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4177,24 +3931,21 @@
         <v>31372.705</v>
       </c>
       <c r="G97" t="n">
-        <v>595639.9880722417</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4216,24 +3967,21 @@
         <v>18066.0141</v>
       </c>
       <c r="G98" t="n">
-        <v>613706.0021722417</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4255,24 +4003,21 @@
         <v>40721.9477</v>
       </c>
       <c r="G99" t="n">
-        <v>613706.0021722417</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4294,24 +4039,21 @@
         <v>32349.4465</v>
       </c>
       <c r="G100" t="n">
-        <v>581356.5556722417</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4333,24 +4075,21 @@
         <v>18120.0576</v>
       </c>
       <c r="G101" t="n">
-        <v>599476.6132722418</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4372,24 +4111,21 @@
         <v>701.551</v>
       </c>
       <c r="G102" t="n">
-        <v>599476.6132722418</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4411,24 +4147,21 @@
         <v>3185.0166</v>
       </c>
       <c r="G103" t="n">
-        <v>599476.6132722418</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4450,24 +4183,21 @@
         <v>25782.9393</v>
       </c>
       <c r="G104" t="n">
-        <v>625259.5525722418</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4489,24 +4219,21 @@
         <v>12226.1517</v>
       </c>
       <c r="G105" t="n">
-        <v>613033.4008722417</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4528,24 +4255,21 @@
         <v>258174.3471</v>
       </c>
       <c r="G106" t="n">
-        <v>613033.4008722417</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4567,24 +4291,21 @@
         <v>5714.1387</v>
       </c>
       <c r="G107" t="n">
-        <v>618747.5395722417</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4606,24 +4327,21 @@
         <v>2221.0617</v>
       </c>
       <c r="G108" t="n">
-        <v>618747.5395722417</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4645,24 +4363,21 @@
         <v>7067.6876</v>
       </c>
       <c r="G109" t="n">
-        <v>618747.5395722417</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4684,24 +4399,21 @@
         <v>10000</v>
       </c>
       <c r="G110" t="n">
-        <v>608747.5395722417</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4723,24 +4435,21 @@
         <v>6717.1952</v>
       </c>
       <c r="G111" t="n">
-        <v>615464.7347722417</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4762,24 +4471,21 @@
         <v>17655.5255</v>
       </c>
       <c r="G112" t="n">
-        <v>633120.2602722417</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4801,24 +4507,21 @@
         <v>104835.3387</v>
       </c>
       <c r="G113" t="n">
-        <v>633120.2602722417</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4840,24 +4543,21 @@
         <v>29400</v>
       </c>
       <c r="G114" t="n">
-        <v>662520.2602722417</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4879,24 +4579,21 @@
         <v>111972.3703</v>
       </c>
       <c r="G115" t="n">
-        <v>550547.8899722417</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4918,24 +4615,21 @@
         <v>127033.7312</v>
       </c>
       <c r="G116" t="n">
-        <v>677581.6211722418</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4957,24 +4651,21 @@
         <v>113279.0939</v>
       </c>
       <c r="G117" t="n">
-        <v>564302.5272722418</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4996,24 +4687,21 @@
         <v>8405.1513</v>
       </c>
       <c r="G118" t="n">
-        <v>572707.6785722418</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5035,24 +4723,21 @@
         <v>190</v>
       </c>
       <c r="G119" t="n">
-        <v>572897.6785722418</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5074,24 +4759,21 @@
         <v>151035.6059</v>
       </c>
       <c r="G120" t="n">
-        <v>421862.0726722418</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5113,24 +4795,21 @@
         <v>2656.266</v>
       </c>
       <c r="G121" t="n">
-        <v>419205.8066722418</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5152,24 +4831,21 @@
         <v>43440.486</v>
       </c>
       <c r="G122" t="n">
-        <v>419205.8066722418</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5191,24 +4867,21 @@
         <v>17108.63986313088</v>
       </c>
       <c r="G123" t="n">
-        <v>436314.4465353727</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5230,24 +4903,21 @@
         <v>2500</v>
       </c>
       <c r="G124" t="n">
-        <v>433814.4465353727</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5269,24 +4939,21 @@
         <v>200</v>
       </c>
       <c r="G125" t="n">
-        <v>433814.4465353727</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5308,24 +4975,21 @@
         <v>30190.3071</v>
       </c>
       <c r="G126" t="n">
-        <v>464004.7536353727</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5347,24 +5011,21 @@
         <v>41340.7388</v>
       </c>
       <c r="G127" t="n">
-        <v>422664.0148353727</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5386,24 +5047,21 @@
         <v>7071.1874</v>
       </c>
       <c r="G128" t="n">
-        <v>415592.8274353727</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5425,24 +5083,21 @@
         <v>8710.801393728223</v>
       </c>
       <c r="G129" t="n">
-        <v>424303.6288291009</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5464,24 +5119,21 @@
         <v>14895.0895</v>
       </c>
       <c r="G130" t="n">
-        <v>409408.5393291009</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5503,24 +5155,21 @@
         <v>18699.3805</v>
       </c>
       <c r="G131" t="n">
-        <v>390709.1588291009</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5542,24 +5191,21 @@
         <v>147833.7312</v>
       </c>
       <c r="G132" t="n">
-        <v>242875.4276291009</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5581,24 +5227,21 @@
         <v>34157.0499</v>
       </c>
       <c r="G133" t="n">
-        <v>242875.4276291009</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5620,24 +5263,21 @@
         <v>157.5</v>
       </c>
       <c r="G134" t="n">
-        <v>243032.9276291009</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5659,24 +5299,21 @@
         <v>3092.5</v>
       </c>
       <c r="G135" t="n">
-        <v>243032.9276291009</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5698,24 +5335,21 @@
         <v>5704.152</v>
       </c>
       <c r="G136" t="n">
-        <v>237328.7756291009</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5737,24 +5371,21 @@
         <v>10074.5883</v>
       </c>
       <c r="G137" t="n">
-        <v>237328.7756291009</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5776,24 +5407,21 @@
         <v>1762.8096</v>
       </c>
       <c r="G138" t="n">
-        <v>235565.9660291009</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5815,24 +5443,21 @@
         <v>5632.0934</v>
       </c>
       <c r="G139" t="n">
-        <v>235565.9660291009</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5854,24 +5479,21 @@
         <v>15034.9081</v>
       </c>
       <c r="G140" t="n">
-        <v>220531.0579291009</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5893,24 +5515,21 @@
         <v>3956.7766</v>
       </c>
       <c r="G141" t="n">
-        <v>224487.8345291009</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5932,24 +5551,21 @@
         <v>33.9734</v>
       </c>
       <c r="G142" t="n">
-        <v>224487.8345291009</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5971,24 +5587,21 @@
         <v>9515.562</v>
       </c>
       <c r="G143" t="n">
-        <v>214972.2725291009</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6010,24 +5623,21 @@
         <v>130773</v>
       </c>
       <c r="G144" t="n">
-        <v>345745.2725291009</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6049,24 +5659,21 @@
         <v>4518</v>
       </c>
       <c r="G145" t="n">
-        <v>345745.2725291009</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6088,24 +5695,21 @@
         <v>4409.4533</v>
       </c>
       <c r="G146" t="n">
-        <v>341335.8192291009</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6127,24 +5731,21 @@
         <v>3000</v>
       </c>
       <c r="G147" t="n">
-        <v>344335.8192291009</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6166,24 +5767,21 @@
         <v>55570.9105</v>
       </c>
       <c r="G148" t="n">
-        <v>399906.7297291009</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6205,24 +5803,21 @@
         <v>4117.318</v>
       </c>
       <c r="G149" t="n">
-        <v>395789.4117291009</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6244,24 +5839,21 @@
         <v>3039</v>
       </c>
       <c r="G150" t="n">
-        <v>395789.4117291009</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6283,24 +5875,21 @@
         <v>8860.8943</v>
       </c>
       <c r="G151" t="n">
-        <v>404650.3060291008</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6322,24 +5911,21 @@
         <v>37225.7561</v>
       </c>
       <c r="G152" t="n">
-        <v>367424.5499291008</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6361,24 +5947,21 @@
         <v>10000</v>
       </c>
       <c r="G153" t="n">
-        <v>377424.5499291008</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6400,24 +5983,21 @@
         <v>24659.7303</v>
       </c>
       <c r="G154" t="n">
-        <v>377424.5499291008</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6439,24 +6019,21 @@
         <v>1500</v>
       </c>
       <c r="G155" t="n">
-        <v>378924.5499291008</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6478,24 +6055,21 @@
         <v>21226.6916</v>
       </c>
       <c r="G156" t="n">
-        <v>378924.5499291008</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6517,24 +6091,21 @@
         <v>3763.0658</v>
       </c>
       <c r="G157" t="n">
-        <v>375161.4841291009</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6556,24 +6127,21 @@
         <v>17444.799</v>
       </c>
       <c r="G158" t="n">
-        <v>375161.4841291009</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6595,24 +6163,21 @@
         <v>73.71420000000001</v>
       </c>
       <c r="G159" t="n">
-        <v>375087.7699291009</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6634,24 +6199,21 @@
         <v>25646</v>
       </c>
       <c r="G160" t="n">
-        <v>375087.7699291009</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6673,24 +6235,21 @@
         <v>12891.3788</v>
       </c>
       <c r="G161" t="n">
-        <v>375087.7699291009</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6712,24 +6271,21 @@
         <v>9442.650900000001</v>
       </c>
       <c r="G162" t="n">
-        <v>384530.4208291009</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6751,24 +6307,21 @@
         <v>24211.2828</v>
       </c>
       <c r="G163" t="n">
-        <v>408741.7036291009</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6790,24 +6343,21 @@
         <v>25485.35</v>
       </c>
       <c r="G164" t="n">
-        <v>383256.3536291009</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6829,24 +6379,21 @@
         <v>8373.938399999999</v>
       </c>
       <c r="G165" t="n">
-        <v>391630.2920291009</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6868,24 +6415,21 @@
         <v>178421.7664</v>
       </c>
       <c r="G166" t="n">
-        <v>570052.0584291009</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6907,24 +6451,21 @@
         <v>134910.3993</v>
       </c>
       <c r="G167" t="n">
-        <v>704962.4577291009</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6946,24 +6487,21 @@
         <v>24211.2828</v>
       </c>
       <c r="G168" t="n">
-        <v>704962.4577291009</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6985,24 +6523,21 @@
         <v>2000</v>
       </c>
       <c r="G169" t="n">
-        <v>706962.4577291009</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7024,24 +6559,21 @@
         <v>7932.5618</v>
       </c>
       <c r="G170" t="n">
-        <v>706962.4577291009</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7063,24 +6595,21 @@
         <v>35821.452</v>
       </c>
       <c r="G171" t="n">
-        <v>671141.0057291009</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7102,24 +6631,21 @@
         <v>54800</v>
       </c>
       <c r="G172" t="n">
-        <v>725941.0057291009</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7141,24 +6667,21 @@
         <v>55831.1318</v>
       </c>
       <c r="G173" t="n">
-        <v>725941.0057291009</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7180,24 +6703,21 @@
         <v>314050.1168</v>
       </c>
       <c r="G174" t="n">
-        <v>725941.0057291009</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7219,24 +6739,21 @@
         <v>2300</v>
       </c>
       <c r="G175" t="n">
-        <v>723641.0057291009</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7258,24 +6775,21 @@
         <v>104159.3663</v>
       </c>
       <c r="G176" t="n">
-        <v>827800.3720291009</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7297,24 +6811,21 @@
         <v>42771</v>
       </c>
       <c r="G177" t="n">
-        <v>827800.3720291009</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7336,24 +6847,21 @@
         <v>56780.7692</v>
       </c>
       <c r="G178" t="n">
-        <v>884581.1412291009</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7375,24 +6883,21 @@
         <v>246874.8274</v>
       </c>
       <c r="G179" t="n">
-        <v>1131455.968629101</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7414,26 +6919,21 @@
         <v>80937.6574</v>
       </c>
       <c r="G180" t="n">
-        <v>1050518.311229101</v>
-      </c>
-      <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1.065448307410796</v>
-      </c>
-      <c r="M180" t="n">
-        <v>1.012927054478301</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7455,18 +6955,21 @@
         <v>106303.9457</v>
       </c>
       <c r="G181" t="n">
-        <v>1156822.256929101</v>
-      </c>
-      <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7488,18 +6991,21 @@
         <v>90992.232</v>
       </c>
       <c r="G182" t="n">
-        <v>1156822.256929101</v>
-      </c>
-      <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7521,18 +7027,21 @@
         <v>78164.6269</v>
       </c>
       <c r="G183" t="n">
-        <v>1156822.256929101</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7554,18 +7063,23 @@
         <v>127737.6338</v>
       </c>
       <c r="G184" t="n">
-        <v>1156822.256929101</v>
-      </c>
-      <c r="H184" t="n">
         <v>2</v>
       </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1.070660893345488</v>
+      </c>
       <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>1.015697137580794</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7587,18 +7101,15 @@
         <v>34264.635</v>
       </c>
       <c r="G185" t="n">
-        <v>1156822.256929101</v>
-      </c>
-      <c r="H185" t="n">
         <v>2</v>
       </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7620,18 +7131,15 @@
         <v>1494.5756</v>
       </c>
       <c r="G186" t="n">
-        <v>1155327.681329101</v>
-      </c>
-      <c r="H186" t="n">
         <v>2</v>
       </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7653,18 +7161,15 @@
         <v>54563.2194</v>
       </c>
       <c r="G187" t="n">
-        <v>1100764.461929101</v>
-      </c>
-      <c r="H187" t="n">
         <v>2</v>
       </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7686,18 +7191,15 @@
         <v>49737</v>
       </c>
       <c r="G188" t="n">
-        <v>1150501.461929101</v>
-      </c>
-      <c r="H188" t="n">
         <v>2</v>
       </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7719,18 +7221,15 @@
         <v>15000</v>
       </c>
       <c r="G189" t="n">
-        <v>1165501.461929101</v>
-      </c>
-      <c r="H189" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7752,18 +7251,15 @@
         <v>61200</v>
       </c>
       <c r="G190" t="n">
-        <v>1104301.461929101</v>
-      </c>
-      <c r="H190" t="n">
         <v>2</v>
       </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7785,18 +7281,15 @@
         <v>88</v>
       </c>
       <c r="G191" t="n">
-        <v>1104389.461929101</v>
-      </c>
-      <c r="H191" t="n">
         <v>2</v>
       </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7818,18 +7311,15 @@
         <v>44</v>
       </c>
       <c r="G192" t="n">
-        <v>1104345.461929101</v>
-      </c>
-      <c r="H192" t="n">
         <v>2</v>
       </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7851,18 +7341,15 @@
         <v>7155.8609</v>
       </c>
       <c r="G193" t="n">
-        <v>1097189.601029101</v>
-      </c>
-      <c r="H193" t="n">
         <v>2</v>
       </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7884,18 +7371,15 @@
         <v>44</v>
       </c>
       <c r="G194" t="n">
-        <v>1097233.601029101</v>
-      </c>
-      <c r="H194" t="n">
         <v>2</v>
       </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7917,18 +7401,15 @@
         <v>27371.658</v>
       </c>
       <c r="G195" t="n">
-        <v>1124605.259029101</v>
-      </c>
-      <c r="H195" t="n">
         <v>2</v>
       </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7950,18 +7431,15 @@
         <v>44</v>
       </c>
       <c r="G196" t="n">
-        <v>1124649.259029101</v>
-      </c>
-      <c r="H196" t="n">
         <v>2</v>
       </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7983,18 +7461,15 @@
         <v>140000</v>
       </c>
       <c r="G197" t="n">
-        <v>984649.2590291009</v>
-      </c>
-      <c r="H197" t="n">
         <v>2</v>
       </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8016,18 +7491,15 @@
         <v>86.0586</v>
       </c>
       <c r="G198" t="n">
-        <v>984735.3176291009</v>
-      </c>
-      <c r="H198" t="n">
         <v>2</v>
       </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8049,18 +7521,15 @@
         <v>88132.62149999999</v>
       </c>
       <c r="G199" t="n">
-        <v>984735.3176291009</v>
-      </c>
-      <c r="H199" t="n">
         <v>2</v>
       </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8082,18 +7551,15 @@
         <v>59887.5125</v>
       </c>
       <c r="G200" t="n">
-        <v>924847.8051291009</v>
-      </c>
-      <c r="H200" t="n">
         <v>2</v>
       </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8115,18 +7581,15 @@
         <v>500</v>
       </c>
       <c r="G201" t="n">
-        <v>925347.8051291009</v>
-      </c>
-      <c r="H201" t="n">
         <v>2</v>
       </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8148,18 +7611,15 @@
         <v>188121.1343</v>
       </c>
       <c r="G202" t="n">
-        <v>737226.6708291009</v>
-      </c>
-      <c r="H202" t="n">
         <v>2</v>
       </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8181,18 +7641,15 @@
         <v>19921.2938</v>
       </c>
       <c r="G203" t="n">
-        <v>737226.6708291009</v>
-      </c>
-      <c r="H203" t="n">
         <v>2</v>
       </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8214,18 +7671,15 @@
         <v>34700.9274</v>
       </c>
       <c r="G204" t="n">
-        <v>737226.6708291009</v>
-      </c>
-      <c r="H204" t="n">
         <v>2</v>
       </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8247,18 +7701,15 @@
         <v>30428.8233</v>
       </c>
       <c r="G205" t="n">
-        <v>737226.6708291009</v>
-      </c>
-      <c r="H205" t="n">
         <v>2</v>
       </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8280,18 +7731,15 @@
         <v>86576.933</v>
       </c>
       <c r="G206" t="n">
-        <v>737226.6708291009</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8313,18 +7761,15 @@
         <v>31551.9702</v>
       </c>
       <c r="G207" t="n">
-        <v>737226.6708291009</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8346,18 +7791,15 @@
         <v>523627.0548</v>
       </c>
       <c r="G208" t="n">
-        <v>213599.6160291009</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8379,18 +7821,15 @@
         <v>25909.2562</v>
       </c>
       <c r="G209" t="n">
-        <v>213599.6160291009</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8412,18 +7851,15 @@
         <v>86741.0401</v>
       </c>
       <c r="G210" t="n">
-        <v>126858.5759291009</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8445,18 +7881,15 @@
         <v>51184.638</v>
       </c>
       <c r="G211" t="n">
-        <v>178043.2139291009</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8478,18 +7911,15 @@
         <v>88470.9047</v>
       </c>
       <c r="G212" t="n">
-        <v>89572.30922910089</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8511,18 +7941,15 @@
         <v>21529.0953</v>
       </c>
       <c r="G213" t="n">
-        <v>89572.30922910089</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8544,18 +7971,15 @@
         <v>1000</v>
       </c>
       <c r="G214" t="n">
-        <v>90572.30922910089</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8577,18 +8001,15 @@
         <v>2087.0825</v>
       </c>
       <c r="G215" t="n">
-        <v>90572.30922910089</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8610,18 +8031,15 @@
         <v>299699.0614</v>
       </c>
       <c r="G216" t="n">
-        <v>90572.30922910089</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8643,18 +8061,15 @@
         <v>18458</v>
       </c>
       <c r="G217" t="n">
-        <v>109030.3092291009</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8676,18 +8091,15 @@
         <v>1000</v>
       </c>
       <c r="G218" t="n">
-        <v>109030.3092291009</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
